--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -1,26 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameelbrannon/Library/CloudStorage/Dropbox/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5F8D52-EDC5-9C41-BDAD-EBEF1F96E345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36492570-279B-C84B-BEF6-629006571D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6520" yWindow="520" windowWidth="49540" windowHeight="28280" xr2:uid="{3991C303-FDF7-2343-B20E-E26B6CBB280D}"/>
+    <workbookView xWindow="22820" yWindow="520" windowWidth="28380" windowHeight="28280" xr2:uid="{3991C303-FDF7-2343-B20E-E26B6CBB280D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
     <sheet name="Processors" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">Model!$S$15:$V$15</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -159,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="103">
   <si>
     <t>MC</t>
   </si>
@@ -456,6 +453,18 @@
   </si>
   <si>
     <t>AI is here to stay and the infrastructure needs will remain</t>
+  </si>
+  <si>
+    <t>Largest Shareholders</t>
+  </si>
+  <si>
+    <t>founder</t>
+  </si>
+  <si>
+    <t>Estimate</t>
+  </si>
+  <si>
+    <t>Press Releases</t>
   </si>
 </sst>
 </file>
@@ -464,7 +473,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="165" formatCode="m/d;@"/>
+    <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -621,7 +630,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -631,7 +640,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -639,19 +648,18 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1109,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B61C9843-BDE5-5E44-98C3-1A0D7B368C6B}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="270" zoomScaleNormal="270" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1152,7 +1160,7 @@
         <v>4</v>
       </c>
       <c r="K3" s="1">
-        <v>878.36</v>
+        <v>953.86</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1185,7 +1193,7 @@
       </c>
       <c r="K5" s="1">
         <f>+K3*K4</f>
-        <v>2195900</v>
+        <v>2384650</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1220,7 +1228,7 @@
       </c>
       <c r="K8" s="1">
         <f>+K5-K6+K7</f>
-        <v>2179625</v>
+        <v>2368375</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1235,27 +1243,27 @@
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="B13" s="18"/>
-      <c r="C13" s="19">
+      <c r="B13" s="17"/>
+      <c r="C13" s="2">
         <v>2019</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="2">
         <f t="shared" ref="D13:H13" si="0">+C13+1</f>
         <v>2020</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="2">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="2">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="2">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
@@ -1264,12 +1272,7 @@
       <c r="B14" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="13" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1277,12 +1280,7 @@
       <c r="B15" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14" t="s">
+      <c r="H15" s="13" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1290,108 +1288,74 @@
       <c r="B16" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="13" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:11">
       <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-    </row>
-    <row r="18" spans="2:8">
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="2:11">
       <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="14"/>
-    </row>
-    <row r="19" spans="2:8">
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="2:11">
       <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="14"/>
-    </row>
-    <row r="20" spans="2:8">
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="2:11">
       <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="14"/>
-    </row>
-    <row r="21" spans="2:8">
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="2:11">
       <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="14"/>
-    </row>
-    <row r="22" spans="2:8">
+      <c r="H21" s="13"/>
+      <c r="K21" s="21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
       <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="14"/>
-    </row>
-    <row r="23" spans="2:8">
+      <c r="H22" s="13"/>
+      <c r="K22" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
       <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="14"/>
-    </row>
-    <row r="24" spans="2:8">
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="2:11">
       <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="14"/>
-    </row>
-    <row r="25" spans="2:8">
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" spans="2:11">
       <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="15"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="17"/>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="21" t="s">
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="16"/>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="19" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1406,11 +1370,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38A046E-F266-6848-AB04-142D610E732A}">
   <dimension ref="B2:FF74"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="R5" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="164" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="W5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AQ39" sqref="AQ39"/>
+      <selection pane="bottomRight" activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1702,6 +1666,12 @@
       <c r="N5" s="1">
         <v>3616</v>
       </c>
+      <c r="O5" s="1">
+        <v>4284</v>
+      </c>
+      <c r="P5" s="1">
+        <v>10323</v>
+      </c>
       <c r="Q5" s="1">
         <v>14514</v>
       </c>
@@ -1720,6 +1690,12 @@
       <c r="N6" s="1">
         <v>1831</v>
       </c>
+      <c r="O6" s="1">
+        <v>2240</v>
+      </c>
+      <c r="P6" s="1">
+        <v>2486</v>
+      </c>
       <c r="Q6" s="1">
         <v>2856</v>
       </c>
@@ -1738,6 +1714,12 @@
       <c r="N7" s="1">
         <v>226</v>
       </c>
+      <c r="O7" s="1">
+        <v>295</v>
+      </c>
+      <c r="P7" s="1">
+        <v>379</v>
+      </c>
       <c r="Q7" s="1">
         <v>416</v>
       </c>
@@ -1756,6 +1738,12 @@
       <c r="N8" s="1">
         <v>294</v>
       </c>
+      <c r="O8" s="1">
+        <v>296</v>
+      </c>
+      <c r="P8" s="1">
+        <v>253</v>
+      </c>
       <c r="Q8" s="1">
         <v>261</v>
       </c>
@@ -1774,6 +1762,12 @@
       <c r="N9" s="1">
         <v>84</v>
       </c>
+      <c r="O9" s="1">
+        <v>77</v>
+      </c>
+      <c r="P9" s="1">
+        <v>66</v>
+      </c>
       <c r="Q9" s="1">
         <v>73</v>
       </c>
@@ -1938,51 +1932,51 @@
         <v>20</v>
       </c>
       <c r="G15" s="4">
-        <f>+SUM(G13:G14)</f>
+        <f t="shared" ref="G15:R15" si="5">+SUM(G13:G14)</f>
         <v>5661</v>
       </c>
       <c r="H15" s="4">
-        <f>+SUM(H13:H14)</f>
+        <f t="shared" si="5"/>
         <v>6507</v>
       </c>
       <c r="I15" s="4">
-        <f>+SUM(I13:I14)</f>
+        <f t="shared" si="5"/>
         <v>7103</v>
       </c>
       <c r="J15" s="4">
-        <f>+SUM(J13:J14)</f>
+        <f t="shared" si="5"/>
         <v>7643</v>
       </c>
       <c r="K15" s="4">
-        <f>+SUM(K13:K14)</f>
+        <f t="shared" si="5"/>
         <v>8288</v>
       </c>
       <c r="L15" s="4">
-        <f>+SUM(L13:L14)</f>
+        <f t="shared" si="5"/>
         <v>6704</v>
       </c>
       <c r="M15" s="4">
-        <f>+SUM(M13:M14)</f>
+        <f t="shared" si="5"/>
         <v>5931</v>
       </c>
       <c r="N15" s="4">
-        <f>+SUM(N13:N14)</f>
+        <f t="shared" si="5"/>
         <v>6051</v>
       </c>
       <c r="O15" s="4">
-        <f>+SUM(O13:O14)</f>
+        <f t="shared" si="5"/>
         <v>7192</v>
       </c>
       <c r="P15" s="4">
-        <f>+SUM(P13:P14)</f>
+        <f t="shared" si="5"/>
         <v>13507</v>
       </c>
       <c r="Q15" s="4">
-        <f>+SUM(Q13:Q14)</f>
+        <f t="shared" si="5"/>
         <v>18120</v>
       </c>
       <c r="R15" s="4">
-        <f>+SUM(R13:R14)</f>
+        <f t="shared" si="5"/>
         <v>22103</v>
       </c>
       <c r="S15" s="4">
@@ -1994,11 +1988,11 @@
         <v>26400.000000000004</v>
       </c>
       <c r="U15" s="4">
-        <f t="shared" ref="U15:V15" si="5">+T15*1.1</f>
+        <f t="shared" ref="U15:V15" si="6">+T15*1.1</f>
         <v>29040.000000000007</v>
       </c>
       <c r="V15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>31944.000000000011</v>
       </c>
       <c r="X15" s="4">
@@ -2049,15 +2043,15 @@
         <v>369272.71180799999</v>
       </c>
       <c r="AJ15" s="4">
-        <f t="shared" ref="AJ15:AL15" si="6">+AI15*1.1</f>
+        <f t="shared" ref="AJ15:AL15" si="7">+AI15*1.1</f>
         <v>406199.98298880004</v>
       </c>
       <c r="AK15" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>446819.9812876801</v>
       </c>
       <c r="AL15" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>491501.97941644816</v>
       </c>
     </row>
@@ -2109,15 +2103,15 @@
         <v>8489.4327030033382</v>
       </c>
       <c r="T16" s="1">
-        <f t="shared" ref="T16:V16" si="7">+T$15*(P16/P$15)</f>
+        <f t="shared" ref="T16:V16" si="8">+T$15*(P16/P$15)</f>
         <v>7906.1227511660627</v>
       </c>
       <c r="U16" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7564.5033112582796</v>
       </c>
       <c r="V16" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7677.0813011808377</v>
       </c>
       <c r="X16" s="1">
@@ -2144,35 +2138,35 @@
         <v>44291.996093251917</v>
       </c>
       <c r="AE16" s="1">
-        <f t="shared" ref="AE16:AL16" si="8">+AE$15*(AD16/AD$15)</f>
+        <f t="shared" ref="AE16:AL16" si="9">+AE$15*(AD16/AD$15)</f>
         <v>57579.594921227494</v>
       </c>
       <c r="AF16" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>69095.513905472981</v>
       </c>
       <c r="AG16" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>82914.616686567577</v>
       </c>
       <c r="AH16" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>95351.809189552718</v>
       </c>
       <c r="AI16" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>104886.99010850799</v>
       </c>
       <c r="AJ16" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>115375.68911935881</v>
       </c>
       <c r="AK16" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>126913.25803129471</v>
       </c>
       <c r="AL16" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>139604.58383442418</v>
       </c>
     </row>
@@ -2220,19 +2214,19 @@
         <v>2466</v>
       </c>
       <c r="S17" s="1">
-        <f t="shared" ref="S17:S18" si="9">+S$15*(O17/O$15)</f>
+        <f t="shared" ref="S17:S18" si="10">+S$15*(O17/O$15)</f>
         <v>6256.9521690767524</v>
       </c>
       <c r="T17" s="1">
-        <f t="shared" ref="T17:T18" si="10">+T$15*(P17/P$15)</f>
+        <f t="shared" ref="T17:T18" si="11">+T$15*(P17/P$15)</f>
         <v>3987.2658621455548</v>
       </c>
       <c r="U17" s="1">
-        <f t="shared" ref="U17:U18" si="11">+U$15*(Q17/Q$15)</f>
+        <f t="shared" ref="U17:U18" si="12">+U$15*(Q17/Q$15)</f>
         <v>3676.4768211920536</v>
       </c>
       <c r="V17" s="1">
-        <f t="shared" ref="V17:V18" si="12">+V$15*(R17/R$15)</f>
+        <f t="shared" ref="V17:V18" si="13">+V$15*(R17/R$15)</f>
         <v>3563.9462516400499</v>
       </c>
       <c r="X17" s="1">
@@ -2259,35 +2253,35 @@
         <v>31187.520000000004</v>
       </c>
       <c r="AE17" s="1">
-        <f t="shared" ref="AE17:AL17" si="13">+AE15*0.2</f>
+        <f t="shared" ref="AE17:AL17" si="14">+AE15*0.2</f>
         <v>40543.776000000005</v>
       </c>
       <c r="AF17" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>48652.531199999998</v>
       </c>
       <c r="AG17" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>58383.03744</v>
       </c>
       <c r="AH17" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>67140.493055999992</v>
       </c>
       <c r="AI17" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>73854.542361600004</v>
       </c>
       <c r="AJ17" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>81239.996597760008</v>
       </c>
       <c r="AK17" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>89363.996257536026</v>
       </c>
       <c r="AL17" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>98300.395883289631</v>
       </c>
     </row>
@@ -2335,19 +2329,19 @@
         <v>710</v>
       </c>
       <c r="S18" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2112.3470522803113</v>
       </c>
       <c r="T18" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1215.7251795365369</v>
       </c>
       <c r="U18" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1104.2251655629143</v>
       </c>
       <c r="V18" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1026.1159118671676</v>
       </c>
       <c r="X18" s="1">
@@ -2370,39 +2364,39 @@
         <v>5458.4133092469301</v>
       </c>
       <c r="AD18" s="1">
-        <f t="shared" ref="AD17:AL18" si="14">+AD$15*(AC18/AC$15)</f>
+        <f t="shared" ref="AD18" si="15">+AD$15*(AC18/AC$15)</f>
         <v>7641.7786329457022</v>
       </c>
       <c r="AE18" s="1">
-        <f t="shared" ref="AE18:AL18" si="15">+AE$15*(AD18/AD$15)</f>
+        <f t="shared" ref="AE18:AL18" si="16">+AE$15*(AD18/AD$15)</f>
         <v>9934.3122228294123</v>
       </c>
       <c r="AF18" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11921.174667395293</v>
       </c>
       <c r="AG18" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>14305.409600874353</v>
       </c>
       <c r="AH18" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>16451.221041005505</v>
       </c>
       <c r="AI18" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>18096.343145106061</v>
       </c>
       <c r="AJ18" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>19905.977459616672</v>
       </c>
       <c r="AK18" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>21896.575205578341</v>
       </c>
       <c r="AL18" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>24086.232726136179</v>
       </c>
     </row>
@@ -2474,67 +2468,67 @@
         <v>25</v>
       </c>
       <c r="G20" s="1">
-        <f>+G15-SUM(G16:G19)</f>
+        <f t="shared" ref="G20:R20" si="17">+G15-SUM(G16:G19)</f>
         <v>1956</v>
       </c>
       <c r="H20" s="1">
-        <f>+H15-SUM(H16:H19)</f>
+        <f t="shared" si="17"/>
         <v>2444</v>
       </c>
       <c r="I20" s="1">
-        <f>+I15-SUM(I16:I19)</f>
+        <f t="shared" si="17"/>
         <v>2671</v>
       </c>
       <c r="J20" s="1">
-        <f>+J15-SUM(J16:J19)</f>
+        <f t="shared" si="17"/>
         <v>2970</v>
       </c>
       <c r="K20" s="1">
-        <f>+K15-SUM(K16:K19)</f>
+        <f t="shared" si="17"/>
         <v>1868</v>
       </c>
       <c r="L20" s="1">
-        <f>+L15-SUM(L16:L19)</f>
+        <f t="shared" si="17"/>
         <v>499</v>
       </c>
       <c r="M20" s="1">
-        <f>+M15-SUM(M16:M19)</f>
+        <f t="shared" si="17"/>
         <v>601</v>
       </c>
       <c r="N20" s="1">
-        <f>+N15-SUM(N16:N19)</f>
+        <f t="shared" si="17"/>
         <v>1256</v>
       </c>
       <c r="O20" s="1">
-        <f>+O15-SUM(O16:O19)</f>
+        <f t="shared" si="17"/>
         <v>2140</v>
       </c>
       <c r="P20" s="1">
-        <f>+P15-SUM(P16:P19)</f>
+        <f t="shared" si="17"/>
         <v>6800</v>
       </c>
       <c r="Q20" s="1">
-        <f>+Q15-SUM(Q16:Q19)</f>
+        <f t="shared" si="17"/>
         <v>10417</v>
       </c>
       <c r="R20" s="1">
-        <f>+R15-SUM(R16:R19)</f>
+        <f t="shared" si="17"/>
         <v>13615</v>
       </c>
       <c r="S20" s="1">
-        <f t="shared" ref="S20:V20" si="16">+S15-SUM(S16:S19)</f>
+        <f t="shared" ref="S20:V20" si="18">+S15-SUM(S16:S19)</f>
         <v>7141.2680756395966</v>
       </c>
       <c r="T20" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>13290.886207151849</v>
       </c>
       <c r="U20" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>16694.794701986761</v>
       </c>
       <c r="V20" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>19676.856535311956</v>
       </c>
       <c r="X20" s="1">
@@ -2566,35 +2560,35 @@
         <v>72816.305273802383</v>
       </c>
       <c r="AE20" s="1">
-        <f t="shared" ref="AE20:AL20" si="17">+AE15-SUM(AE16:AE19)</f>
+        <f t="shared" ref="AE20:AL20" si="19">+AE15-SUM(AE16:AE19)</f>
         <v>94661.196855943097</v>
       </c>
       <c r="AF20" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>113593.43622713172</v>
       </c>
       <c r="AG20" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>136312.12347255804</v>
       </c>
       <c r="AH20" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>156758.94199344172</v>
       </c>
       <c r="AI20" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>172434.83619278594</v>
       </c>
       <c r="AJ20" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>189678.31981206455</v>
       </c>
       <c r="AK20" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>208646.15179327101</v>
       </c>
       <c r="AL20" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>229510.76697259815</v>
       </c>
     </row>
@@ -2673,27 +2667,27 @@
         <v>507.97530000000006</v>
       </c>
       <c r="AG21" s="1">
-        <f t="shared" ref="AG21:AL21" si="18">+AF21</f>
+        <f t="shared" ref="AG21:AL21" si="20">+AF21</f>
         <v>507.97530000000006</v>
       </c>
       <c r="AH21" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>507.97530000000006</v>
       </c>
       <c r="AI21" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>507.97530000000006</v>
       </c>
       <c r="AJ21" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>507.97530000000006</v>
       </c>
       <c r="AK21" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>507.97530000000006</v>
       </c>
       <c r="AL21" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>507.97530000000006</v>
       </c>
     </row>
@@ -2760,39 +2754,39 @@
         <v>-257</v>
       </c>
       <c r="AD22" s="1">
-        <f t="shared" ref="AD22:AL22" si="19">+AC22</f>
+        <f t="shared" ref="AD22:AL22" si="21">+AC22</f>
         <v>-257</v>
       </c>
       <c r="AE22" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-257</v>
       </c>
       <c r="AF22" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-257</v>
       </c>
       <c r="AG22" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-257</v>
       </c>
       <c r="AH22" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-257</v>
       </c>
       <c r="AI22" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-257</v>
       </c>
       <c r="AJ22" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-257</v>
       </c>
       <c r="AK22" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-257</v>
       </c>
       <c r="AL22" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-257</v>
       </c>
     </row>
@@ -2863,67 +2857,67 @@
         <v>29</v>
       </c>
       <c r="G24" s="1">
-        <f>+SUM(G20:G23)</f>
+        <f t="shared" ref="G24:S24" si="22">+SUM(G20:G23)</f>
         <v>2044</v>
       </c>
       <c r="H24" s="1">
-        <f>+SUM(H20:H23)</f>
+        <f t="shared" si="22"/>
         <v>2394</v>
       </c>
       <c r="I24" s="1">
-        <f>+SUM(I20:I23)</f>
+        <f t="shared" si="22"/>
         <v>2638</v>
       </c>
       <c r="J24" s="1">
-        <f>+SUM(J20:J23)</f>
+        <f t="shared" si="22"/>
         <v>2865</v>
       </c>
       <c r="K24" s="1">
-        <f>+SUM(K20:K23)</f>
+        <f t="shared" si="22"/>
         <v>1805</v>
       </c>
       <c r="L24" s="1">
-        <f>+SUM(L20:L23)</f>
+        <f t="shared" si="22"/>
         <v>475</v>
       </c>
       <c r="M24" s="1">
-        <f>+SUM(M20:M23)</f>
+        <f t="shared" si="22"/>
         <v>613</v>
       </c>
       <c r="N24" s="1">
-        <f>+SUM(N20:N23)</f>
+        <f t="shared" si="22"/>
         <v>1288</v>
       </c>
       <c r="O24" s="1">
-        <f>+SUM(O20:O23)</f>
+        <f t="shared" si="22"/>
         <v>2209</v>
       </c>
       <c r="P24" s="1">
-        <f>+SUM(P20:P23)</f>
+        <f t="shared" si="22"/>
         <v>6981</v>
       </c>
       <c r="Q24" s="1">
-        <f>+SUM(Q20:Q23)</f>
+        <f t="shared" si="22"/>
         <v>10522</v>
       </c>
       <c r="R24" s="1">
-        <f>+SUM(R20:R23)</f>
+        <f t="shared" si="22"/>
         <v>14106</v>
       </c>
       <c r="S24" s="1">
-        <f>+SUM(S20:S23)</f>
+        <f t="shared" si="22"/>
         <v>7141.2680756395966</v>
       </c>
       <c r="T24" s="1">
-        <f t="shared" ref="T24:V24" si="20">+SUM(T20:T23)</f>
+        <f t="shared" ref="T24:V24" si="23">+SUM(T20:T23)</f>
         <v>13290.886207151849</v>
       </c>
       <c r="U24" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>16694.794701986761</v>
       </c>
       <c r="V24" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>19676.856535311956</v>
       </c>
       <c r="X24" s="1">
@@ -2955,35 +2949,35 @@
         <v>73057.320273802383</v>
       </c>
       <c r="AE24" s="1">
-        <f t="shared" ref="AE24:AL24" si="21">+SUM(AE20:AE23)</f>
+        <f t="shared" ref="AE24:AL24" si="24">+SUM(AE20:AE23)</f>
         <v>94912.172155943103</v>
       </c>
       <c r="AF24" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>113844.41152713173</v>
       </c>
       <c r="AG24" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>136563.09877255803</v>
       </c>
       <c r="AH24" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>157009.91729344171</v>
       </c>
       <c r="AI24" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>172685.81149278593</v>
       </c>
       <c r="AJ24" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>189929.29511206454</v>
       </c>
       <c r="AK24" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>208897.127093271</v>
       </c>
       <c r="AL24" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>229761.74227259815</v>
       </c>
     </row>
@@ -3066,35 +3060,35 @@
         <v>-339.53944415682548</v>
       </c>
       <c r="AE25" s="1">
-        <f t="shared" ref="AE25:AL25" si="22">+AE24*(AD25/AD24)</f>
+        <f t="shared" ref="AE25:AL25" si="25">+AE24*(AD25/AD24)</f>
         <v>-441.11152799977418</v>
       </c>
       <c r="AF25" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>-529.10054824642089</v>
       </c>
       <c r="AG25" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>-634.68737254239682</v>
       </c>
       <c r="AH25" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>-729.71551440877511</v>
       </c>
       <c r="AI25" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>-802.57042317299874</v>
       </c>
       <c r="AJ25" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>-882.71082281364465</v>
       </c>
       <c r="AK25" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>-970.86526241835509</v>
       </c>
       <c r="AL25" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>-1067.8351459835367</v>
       </c>
     </row>
@@ -3103,67 +3097,67 @@
         <v>31</v>
       </c>
       <c r="G26" s="4">
-        <f>+G24-G25</f>
+        <f t="shared" ref="G26:R26" si="26">+G24-G25</f>
         <v>1912</v>
       </c>
       <c r="H26" s="4">
-        <f>+H24-H25</f>
+        <f t="shared" si="26"/>
         <v>2374</v>
       </c>
       <c r="I26" s="4">
-        <f>+I24-I25</f>
+        <f t="shared" si="26"/>
         <v>2464</v>
       </c>
       <c r="J26" s="4">
-        <f>+J24-J25</f>
+        <f t="shared" si="26"/>
         <v>3002</v>
       </c>
       <c r="K26" s="4">
-        <f>+K24-K25</f>
+        <f t="shared" si="26"/>
         <v>1618</v>
       </c>
       <c r="L26" s="4">
-        <f>+L24-L25</f>
+        <f t="shared" si="26"/>
         <v>656</v>
       </c>
       <c r="M26" s="4">
-        <f>+M24-M25</f>
+        <f t="shared" si="26"/>
         <v>680</v>
       </c>
       <c r="N26" s="4">
-        <f>+N24-N25</f>
+        <f t="shared" si="26"/>
         <v>1414</v>
       </c>
       <c r="O26" s="4">
-        <f>+O24-O25</f>
+        <f t="shared" si="26"/>
         <v>2043</v>
       </c>
       <c r="P26" s="4">
-        <f>+P24-P25</f>
+        <f t="shared" si="26"/>
         <v>6188</v>
       </c>
       <c r="Q26" s="4">
-        <f>+Q24-Q25</f>
+        <f t="shared" si="26"/>
         <v>9243</v>
       </c>
       <c r="R26" s="4">
-        <f>+R24-R25</f>
+        <f t="shared" si="26"/>
         <v>12286</v>
       </c>
       <c r="S26" s="4">
-        <f t="shared" ref="S26:V26" si="23">+S24-S25</f>
+        <f t="shared" ref="S26:V26" si="27">+S24-S25</f>
         <v>7207.2680756395966</v>
       </c>
       <c r="T26" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>13356.886207151849</v>
       </c>
       <c r="U26" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>16760.794701986761</v>
       </c>
       <c r="V26" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>19742.856535311956</v>
       </c>
       <c r="X26" s="4">
@@ -3195,35 +3189,35 @@
         <v>73396.859717959203</v>
       </c>
       <c r="AE26" s="4">
-        <f t="shared" ref="AE26:AL26" si="24">+AE24-AE25</f>
+        <f t="shared" ref="AE26:AL26" si="28">+AE24-AE25</f>
         <v>95353.283683942878</v>
       </c>
       <c r="AF26" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>114373.51207537815</v>
       </c>
       <c r="AG26" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>137197.78614510043</v>
       </c>
       <c r="AH26" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>157739.63280785049</v>
       </c>
       <c r="AI26" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>173488.38191595892</v>
       </c>
       <c r="AJ26" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>190812.00593487819</v>
       </c>
       <c r="AK26" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>209867.99235568935</v>
       </c>
       <c r="AL26" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>230829.57741858167</v>
       </c>
       <c r="AM26" s="4">
@@ -3231,495 +3225,495 @@
         <v>233137.8731927675</v>
       </c>
       <c r="AN26" s="4">
-        <f t="shared" ref="AN26:CY26" si="25">+AM26*(1+$AR$31)</f>
+        <f t="shared" ref="AN26:CY26" si="29">+AM26*(1+$AR$31)</f>
         <v>235469.25192469519</v>
       </c>
       <c r="AO26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>237823.94444394213</v>
       </c>
       <c r="AP26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>240202.18388838155</v>
       </c>
       <c r="AQ26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>242604.20572726536</v>
       </c>
       <c r="AR26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>245030.24778453802</v>
       </c>
       <c r="AS26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>247480.55026238339</v>
       </c>
       <c r="AT26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>249955.35576500723</v>
       </c>
       <c r="AU26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>252454.9093226573</v>
       </c>
       <c r="AV26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>254979.45841588388</v>
       </c>
       <c r="AW26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>257529.25300004272</v>
       </c>
       <c r="AX26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>260104.54553004316</v>
       </c>
       <c r="AY26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>262705.59098534362</v>
       </c>
       <c r="AZ26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>265332.64689519705</v>
       </c>
       <c r="BA26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>267985.97336414905</v>
       </c>
       <c r="BB26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>270665.83309779054</v>
       </c>
       <c r="BC26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>273372.49142876844</v>
       </c>
       <c r="BD26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>276106.21634305612</v>
       </c>
       <c r="BE26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>278867.27850648668</v>
       </c>
       <c r="BF26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>281655.95129155152</v>
       </c>
       <c r="BG26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>284472.51080446702</v>
       </c>
       <c r="BH26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>287317.23591251171</v>
       </c>
       <c r="BI26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>290190.40827163681</v>
       </c>
       <c r="BJ26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>293092.3123543532</v>
       </c>
       <c r="BK26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>296023.23547789676</v>
       </c>
       <c r="BL26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>298983.46783267573</v>
       </c>
       <c r="BM26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>301973.30251100246</v>
       </c>
       <c r="BN26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>304993.0355361125</v>
       </c>
       <c r="BO26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>308042.96589147364</v>
       </c>
       <c r="BP26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>311123.39555038838</v>
       </c>
       <c r="BQ26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>314234.62950589228</v>
       </c>
       <c r="BR26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>317376.97580095119</v>
       </c>
       <c r="BS26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>320550.74555896071</v>
       </c>
       <c r="BT26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>323756.25301455031</v>
       </c>
       <c r="BU26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>326993.81554469583</v>
       </c>
       <c r="BV26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>330263.75370014278</v>
       </c>
       <c r="BW26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>333566.39123714424</v>
       </c>
       <c r="BX26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>336902.05514951568</v>
       </c>
       <c r="BY26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>340271.07570101082</v>
       </c>
       <c r="BZ26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>343673.78645802091</v>
       </c>
       <c r="CA26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>347110.52432260115</v>
       </c>
       <c r="CB26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>350581.62956582714</v>
       </c>
       <c r="CC26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>354087.44586148544</v>
       </c>
       <c r="CD26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>357628.32032010029</v>
       </c>
       <c r="CE26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>361204.60352330131</v>
       </c>
       <c r="CF26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>364816.64955853432</v>
       </c>
       <c r="CG26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>368464.81605411967</v>
       </c>
       <c r="CH26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>372149.46421466087</v>
       </c>
       <c r="CI26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>375870.9588568075</v>
       </c>
       <c r="CJ26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>379629.66844537557</v>
       </c>
       <c r="CK26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>383425.96512982936</v>
       </c>
       <c r="CL26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>387260.22478112765</v>
       </c>
       <c r="CM26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>391132.82702893892</v>
       </c>
       <c r="CN26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>395044.15529922833</v>
       </c>
       <c r="CO26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>398994.59685222059</v>
       </c>
       <c r="CP26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>402984.54282074282</v>
       </c>
       <c r="CQ26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>407014.38824895024</v>
       </c>
       <c r="CR26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>411084.53213143977</v>
       </c>
       <c r="CS26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>415195.37745275418</v>
       </c>
       <c r="CT26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>419347.33122728171</v>
       </c>
       <c r="CU26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>423540.80453955452</v>
       </c>
       <c r="CV26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>427776.21258495009</v>
       </c>
       <c r="CW26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>432053.97471079958</v>
       </c>
       <c r="CX26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>436374.51445790759</v>
       </c>
       <c r="CY26" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>440738.25960248668</v>
       </c>
       <c r="CZ26" s="4">
-        <f t="shared" ref="CZ26:FF26" si="26">+CY26*(1+$AR$31)</f>
+        <f t="shared" ref="CZ26:FF26" si="30">+CY26*(1+$AR$31)</f>
         <v>445145.64219851157</v>
       </c>
       <c r="DA26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>449597.09862049669</v>
       </c>
       <c r="DB26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>454093.06960670167</v>
       </c>
       <c r="DC26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>458634.00030276866</v>
       </c>
       <c r="DD26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>463220.34030579636</v>
       </c>
       <c r="DE26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>467852.54370885435</v>
       </c>
       <c r="DF26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>472531.06914594292</v>
       </c>
       <c r="DG26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>477256.37983740238</v>
       </c>
       <c r="DH26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>482028.94363577641</v>
       </c>
       <c r="DI26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>486849.2330721342</v>
       </c>
       <c r="DJ26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>491717.72540285555</v>
       </c>
       <c r="DK26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>496634.90265688411</v>
       </c>
       <c r="DL26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>501601.25168345298</v>
       </c>
       <c r="DM26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>506617.26420028752</v>
       </c>
       <c r="DN26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>511683.43684229039</v>
       </c>
       <c r="DO26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>516800.27121071331</v>
       </c>
       <c r="DP26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>521968.27392282046</v>
       </c>
       <c r="DQ26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>527187.9566620487</v>
       </c>
       <c r="DR26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>532459.83622866916</v>
       </c>
       <c r="DS26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>537784.43459095585</v>
       </c>
       <c r="DT26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>543162.27893686539</v>
       </c>
       <c r="DU26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>548593.90172623401</v>
       </c>
       <c r="DV26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>554079.84074349632</v>
       </c>
       <c r="DW26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>559620.63915093127</v>
       </c>
       <c r="DX26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>565216.84554244054</v>
       </c>
       <c r="DY26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>570869.01399786491</v>
       </c>
       <c r="DZ26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>576577.70413784357</v>
       </c>
       <c r="EA26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>582343.481179222</v>
       </c>
       <c r="EB26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>588166.91599101422</v>
       </c>
       <c r="EC26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>594048.58515092439</v>
       </c>
       <c r="ED26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>599989.07100243366</v>
       </c>
       <c r="EE26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>605988.96171245805</v>
       </c>
       <c r="EF26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>612048.85132958263</v>
       </c>
       <c r="EG26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>618169.33984287851</v>
       </c>
       <c r="EH26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>624351.03324130736</v>
       </c>
       <c r="EI26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>630594.5435737205</v>
       </c>
       <c r="EJ26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>636900.48900945776</v>
       </c>
       <c r="EK26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>643269.49389955238</v>
       </c>
       <c r="EL26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>649702.18883854791</v>
       </c>
       <c r="EM26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>656199.21072693344</v>
       </c>
       <c r="EN26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>662761.20283420279</v>
       </c>
       <c r="EO26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>669388.81486254488</v>
       </c>
       <c r="EP26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>676082.70301117038</v>
       </c>
       <c r="EQ26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>682843.53004128207</v>
       </c>
       <c r="ER26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>689671.96534169489</v>
       </c>
       <c r="ES26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>696568.68499511189</v>
       </c>
       <c r="ET26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>703534.37184506305</v>
       </c>
       <c r="EU26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>710569.71556351369</v>
       </c>
       <c r="EV26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>717675.41271914879</v>
       </c>
       <c r="EW26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>724852.16684634029</v>
       </c>
       <c r="EX26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>732100.68851480365</v>
       </c>
       <c r="EY26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>739421.69539995166</v>
       </c>
       <c r="EZ26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>746815.91235395113</v>
       </c>
       <c r="FA26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>754284.07147749071</v>
       </c>
       <c r="FB26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>761826.91219226562</v>
       </c>
       <c r="FC26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>769445.18131418829</v>
       </c>
       <c r="FD26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>777139.63312733022</v>
       </c>
       <c r="FE26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>784911.02945860347</v>
       </c>
       <c r="FF26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>792760.13975318952</v>
       </c>
     </row>
@@ -3771,15 +3765,15 @@
         <v>2492.1543078683858</v>
       </c>
       <c r="T27" s="1">
-        <f t="shared" ref="T27:V27" si="27">+S27</f>
+        <f t="shared" ref="T27:V27" si="31">+S27</f>
         <v>2492.1543078683858</v>
       </c>
       <c r="U27" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>2492.1543078683858</v>
       </c>
       <c r="V27" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>2492.1543078683858</v>
       </c>
       <c r="X27" s="1">
@@ -3806,35 +3800,35 @@
         <v>2492.1543078683858</v>
       </c>
       <c r="AE27" s="1">
-        <f t="shared" ref="AE27:AL27" si="28">+AD27</f>
+        <f t="shared" ref="AE27:AL27" si="32">+AD27</f>
         <v>2492.1543078683858</v>
       </c>
       <c r="AF27" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2492.1543078683858</v>
       </c>
       <c r="AG27" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2492.1543078683858</v>
       </c>
       <c r="AH27" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2492.1543078683858</v>
       </c>
       <c r="AI27" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2492.1543078683858</v>
       </c>
       <c r="AJ27" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2492.1543078683858</v>
       </c>
       <c r="AK27" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2492.1543078683858</v>
       </c>
       <c r="AL27" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2492.1543078683858</v>
       </c>
     </row>
@@ -3895,15 +3889,15 @@
         <v>2.8919830737945711</v>
       </c>
       <c r="T28" s="5">
-        <f t="shared" ref="T28:V28" si="29">+T26/T27</f>
+        <f t="shared" ref="T28:V28" si="33">+T26/T27</f>
         <v>5.3595743108605474</v>
       </c>
       <c r="U28" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>6.7254241236461683</v>
       </c>
       <c r="V28" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>7.9220040560805449</v>
       </c>
       <c r="X28" s="5">
@@ -3935,35 +3929,35 @@
         <v>29.451169811687038</v>
       </c>
       <c r="AE28" s="5">
-        <f t="shared" ref="AE28:AL28" si="30">+AE26/AE27</f>
+        <f t="shared" ref="AE28:AL28" si="34">+AE26/AE27</f>
         <v>38.261388302838036</v>
       </c>
       <c r="AF28" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>45.893431122732217</v>
       </c>
       <c r="AG28" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>55.051882506605217</v>
       </c>
       <c r="AH28" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>63.294488752090928</v>
       </c>
       <c r="AI28" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>69.613820206963325</v>
       </c>
       <c r="AJ28" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>76.565084807322947</v>
       </c>
       <c r="AK28" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>84.211475867718534</v>
       </c>
       <c r="AL28" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>92.622506034153687</v>
       </c>
     </row>
@@ -3976,7 +3970,7 @@
       </c>
     </row>
     <row r="31" spans="2:162">
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="21" t="s">
         <v>34</v>
       </c>
       <c r="AQ31" s="1" t="s">
@@ -3991,67 +3985,67 @@
         <v>35</v>
       </c>
       <c r="G32" s="3">
-        <f t="shared" ref="G32:P32" si="31">+IFERROR(G13/C13-1,0)</f>
+        <f t="shared" ref="G32:P32" si="35">+IFERROR(G13/C13-1,0)</f>
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>6.4039408866995107E-2</v>
       </c>
       <c r="L32" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0.26735303885752248</v>
       </c>
       <c r="N32" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>4.4254062038404722</v>
       </c>
       <c r="O32" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0.21459694989106759</v>
       </c>
       <c r="P32" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1.6624008190427437</v>
       </c>
       <c r="Q32" s="3">
-        <f>+IFERROR(Q13/M13-1,0)</f>
+        <f t="shared" ref="Q32:R34" si="36">+IFERROR(Q13/M13-1,0)</f>
         <v>2.8377882599580713</v>
       </c>
       <c r="R32" s="3">
-        <f>+IFERROR(R13/N13-1,0)</f>
+        <f t="shared" si="36"/>
         <v>3.8728559760413832</v>
       </c>
       <c r="Z32" s="3">
-        <f>+Z13/Y13-1</f>
+        <f t="shared" ref="Z32:AC34" si="37">+Z13/Y13-1</f>
         <v>0.12324588163514338</v>
       </c>
       <c r="AA32" s="3">
-        <f>+AA13/Z13-1</f>
+        <f t="shared" si="37"/>
         <v>0.36411370631902962</v>
       </c>
       <c r="AB32" s="3">
-        <f>+AB13/AA13-1</f>
+        <f t="shared" si="37"/>
         <v>2.1460711441465357</v>
       </c>
       <c r="AC32" s="3">
-        <f>+AC13/AB13-1</f>
+        <f t="shared" si="37"/>
         <v>0.90261948137327952</v>
       </c>
       <c r="AQ32" s="3" t="s">
@@ -4066,73 +4060,73 @@
         <v>36</v>
       </c>
       <c r="G33" s="3">
-        <f t="shared" ref="G33:P33" si="32">+IFERROR(G14/C14-1,0)</f>
+        <f t="shared" ref="G33:P33" si="38">+IFERROR(G14/C14-1,0)</f>
         <v>0</v>
       </c>
       <c r="H33" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="I33" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="J33" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="K33" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>1.08868778280543</v>
       </c>
       <c r="L33" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>7.5769230769230811E-2</v>
       </c>
       <c r="M33" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>-0.48313782991202348</v>
       </c>
       <c r="N33" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>-0.65862761986792995</v>
       </c>
       <c r="O33" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>-0.40814558058925476</v>
       </c>
       <c r="P33" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0.11011798355380775</v>
       </c>
       <c r="Q33" s="3">
-        <f>+IFERROR(Q14/M14-1,0)</f>
+        <f t="shared" si="36"/>
         <v>0.64302600472813243</v>
       </c>
       <c r="R33" s="3">
-        <f>+IFERROR(R14/N14-1,0)</f>
+        <f t="shared" si="36"/>
         <v>0.76829268292682928</v>
       </c>
       <c r="Z33" s="3">
-        <f>+Z14/Y14-1</f>
+        <f t="shared" si="37"/>
         <v>1.3195439263265603</v>
       </c>
       <c r="AA33" s="3">
-        <f>+AA14/Z14-1</f>
+        <f t="shared" si="37"/>
         <v>-0.24968490042853542</v>
       </c>
       <c r="AB33" s="3">
-        <f>+AB14/AA14-1</f>
+        <f t="shared" si="37"/>
         <v>0.13530992776751227</v>
       </c>
       <c r="AC33" s="3">
-        <f>+AC14/AB14-1</f>
+        <f t="shared" si="37"/>
         <v>0.56767947662201035</v>
       </c>
       <c r="AQ33" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AR33" s="22">
+      <c r="AR33" s="20">
         <f>NPV(AR32,AC26:FF26)</f>
         <v>2426834.9261062825</v>
       </c>
@@ -4142,51 +4136,51 @@
         <v>20</v>
       </c>
       <c r="G34" s="3">
-        <f t="shared" ref="G34:P37" si="33">+IFERROR(G15/C15-1,0)</f>
+        <f t="shared" ref="G34:P37" si="39">+IFERROR(G15/C15-1,0)</f>
         <v>0</v>
       </c>
       <c r="H34" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="I34" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="J34" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="K34" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0.46405228758169925</v>
       </c>
       <c r="L34" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>3.0275088366374714E-2</v>
       </c>
       <c r="M34" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>-0.16500070392791777</v>
       </c>
       <c r="N34" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>-0.20829517205285886</v>
       </c>
       <c r="O34" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>-0.13223938223938225</v>
       </c>
       <c r="P34" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>1.0147673031026252</v>
       </c>
       <c r="Q34" s="3">
-        <f>+IFERROR(Q15/M15-1,0)</f>
+        <f t="shared" si="36"/>
         <v>2.0551340414769852</v>
       </c>
       <c r="R34" s="3">
-        <f>+IFERROR(R15/N15-1,0)</f>
+        <f t="shared" si="36"/>
         <v>2.6527846636919516</v>
       </c>
       <c r="S34" s="3">
@@ -4198,55 +4192,55 @@
         <v>0.52729437625938824</v>
       </c>
       <c r="Z34" s="3">
-        <f>+Z15/Y15-1</f>
+        <f t="shared" si="37"/>
         <v>0.61403298350824587</v>
       </c>
       <c r="AA34" s="8">
-        <f>+AA15/Z15-1</f>
+        <f t="shared" si="37"/>
         <v>2.2293230289069932E-3</v>
       </c>
       <c r="AB34" s="3">
-        <f>+AB15/AA15-1</f>
+        <f t="shared" si="37"/>
         <v>1.2585452658115224</v>
       </c>
       <c r="AC34" s="3">
-        <f>+AC15/AB15-1</f>
+        <f t="shared" si="37"/>
         <v>0.82830504579626441</v>
       </c>
       <c r="AD34" s="3">
-        <f t="shared" ref="AD34:AL34" si="34">+AD15/AC15-1</f>
+        <f t="shared" ref="AD34:AL34" si="40">+AD15/AC15-1</f>
         <v>0.39999999999999991</v>
       </c>
       <c r="AE34" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AF34" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AG34" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AH34" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="AI34" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AJ34" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AK34" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AL34" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AQ34" s="3" t="s">
@@ -4262,113 +4256,113 @@
         <v>21</v>
       </c>
       <c r="G35" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="H35" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="I35" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="J35" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="K35" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0.40600393700787407</v>
       </c>
       <c r="L35" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0.65314136125654443</v>
       </c>
       <c r="M35" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0.11407766990291268</v>
       </c>
       <c r="N35" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>-0.16080211880438899</v>
       </c>
       <c r="O35" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>-0.10955547777388874</v>
       </c>
       <c r="P35" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>6.7564001055687495E-2</v>
       </c>
       <c r="Q35" s="3">
-        <f t="shared" ref="Q35:R37" si="35">+IFERROR(Q16/M16-1,0)</f>
+        <f t="shared" ref="Q35:R37" si="41">+IFERROR(Q16/M16-1,0)</f>
         <v>0.71387073347857655</v>
       </c>
       <c r="R35" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>1.394950405770965</v>
       </c>
       <c r="Y35" s="3">
-        <f t="shared" ref="Y35:Z35" si="36">+Y16/X16-1</f>
+        <f t="shared" ref="Y35:Z35" si="42">+Y16/X16-1</f>
         <v>0.51301204819277113</v>
       </c>
       <c r="Z35" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>0.5032648510909381</v>
       </c>
       <c r="AA35" s="3">
-        <f t="shared" ref="AA35:AB37" si="37">+AA16/Z16-1</f>
+        <f t="shared" ref="AA35:AB37" si="43">+AA16/Z16-1</f>
         <v>0.23085072571246945</v>
       </c>
       <c r="AB35" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>0.43062489240833179</v>
       </c>
       <c r="AC35" s="3">
-        <f t="shared" ref="AC35:AD35" si="38">+AC16/AB16-1</f>
+        <f t="shared" ref="AC35:AD35" si="44">+AC16/AB16-1</f>
         <v>0.90344384011843548</v>
       </c>
       <c r="AD35" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>0.39999999999999969</v>
       </c>
       <c r="AE35" s="3">
-        <f t="shared" ref="AE35:AL35" si="39">+AE16/AD16-1</f>
+        <f t="shared" ref="AE35:AL35" si="45">+AE16/AD16-1</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="AF35" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>0.19999999999999973</v>
       </c>
       <c r="AG35" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AH35" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>0.15000000000000013</v>
       </c>
       <c r="AI35" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AJ35" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AK35" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AL35" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>9.9999999999999867E-2</v>
       </c>
-      <c r="AQ35" s="24" t="s">
+      <c r="AQ35" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="AR35" s="25">
+      <c r="AR35" s="23">
         <f>SUM(AR33:AR34)</f>
         <v>2443109.9261062825</v>
       </c>
@@ -4378,107 +4372,107 @@
         <v>22</v>
       </c>
       <c r="G36" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="H36" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="I36" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="J36" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="K36" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0.40329575021682573</v>
       </c>
       <c r="L36" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0.46506024096385534</v>
       </c>
       <c r="M36" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0.38631503920171073</v>
       </c>
       <c r="N36" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0.3306066802999319</v>
       </c>
       <c r="O36" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0.15883807169344877</v>
       </c>
       <c r="P36" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0.11842105263157898</v>
       </c>
       <c r="Q36" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>0.17943444730077118</v>
       </c>
       <c r="R36" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>0.26331967213114749</v>
       </c>
       <c r="Y36" s="3">
-        <f t="shared" ref="Y36:Z36" si="40">+Y17/X17-1</f>
+        <f t="shared" ref="Y36:Z36" si="46">+Y17/X17-1</f>
         <v>0.38706256627783664</v>
       </c>
       <c r="Z36" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>0.34250764525993893</v>
       </c>
       <c r="AA36" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>0.39312832194381175</v>
       </c>
       <c r="AB36" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>0.18204115002043886</v>
       </c>
       <c r="AC36" s="3">
-        <f t="shared" ref="AC36:AD36" si="41">+AC17/AB17-1</f>
+        <f t="shared" ref="AC36:AD36" si="47">+AC17/AB17-1</f>
         <v>1.0155205883636205</v>
       </c>
       <c r="AD36" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>0.78370947475542518</v>
       </c>
       <c r="AE36" s="3">
-        <f t="shared" ref="AE36:AL36" si="42">+AE17/AD17-1</f>
+        <f t="shared" ref="AE36:AL36" si="48">+AE17/AD17-1</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="AF36" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>0.19999999999999973</v>
       </c>
       <c r="AG36" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AH36" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="AI36" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AJ36" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AK36" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>0.10000000000000031</v>
       </c>
       <c r="AL36" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AQ36" s="3" t="s">
@@ -4494,111 +4488,111 @@
         <v>23</v>
       </c>
       <c r="G37" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="H37" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="I37" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="J37" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="K37" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0.13846153846153841</v>
       </c>
       <c r="L37" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0.12547528517110274</v>
       </c>
       <c r="M37" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0.1328545780969479</v>
       </c>
       <c r="N37" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0.11012433392539966</v>
       </c>
       <c r="O37" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>6.9256756756756799E-2</v>
       </c>
       <c r="P37" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>5.0675675675675658E-2</v>
       </c>
       <c r="Q37" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>9.191759112519815E-2</v>
       </c>
       <c r="R37" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>0.1359999999999999</v>
       </c>
       <c r="Y37" s="3">
-        <f t="shared" ref="Y37:Z37" si="43">+Y18/X18-1</f>
+        <f t="shared" ref="Y37:Z37" si="49">+Y18/X18-1</f>
         <v>0.77493138151875574</v>
       </c>
       <c r="Z37" s="3">
+        <f t="shared" si="49"/>
+        <v>0.11649484536082477</v>
+      </c>
+      <c r="AA37" s="3">
         <f t="shared" si="43"/>
-        <v>0.11649484536082477</v>
-      </c>
-      <c r="AA37" s="3">
-        <f t="shared" si="37"/>
         <v>0.12650046168051698</v>
       </c>
       <c r="AB37" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>8.7704918032786905E-2</v>
       </c>
       <c r="AC37" s="3">
-        <f t="shared" ref="AC37:AD37" si="44">+AC18/AB18-1</f>
+        <f t="shared" ref="AC37:AD37" si="50">+AC18/AB18-1</f>
         <v>1.0566741933861832</v>
       </c>
       <c r="AD37" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="AE37" s="3">
-        <f t="shared" ref="AE37:AL37" si="45">+AE18/AD18-1</f>
+        <f t="shared" ref="AE37:AL37" si="51">+AE18/AD18-1</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="AF37" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>0.19999999999999973</v>
       </c>
       <c r="AG37" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>0.20000000000000018</v>
       </c>
       <c r="AH37" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="AI37" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>0.10000000000000031</v>
       </c>
       <c r="AJ37" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>0.10000000000000031</v>
       </c>
       <c r="AK37" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AL37" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AQ37" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="AR37" s="2">
         <f>+AR35/AR36</f>
@@ -4611,7 +4605,7 @@
       </c>
       <c r="AR38" s="1">
         <f>+Main!K3</f>
-        <v>878.36</v>
+        <v>953.86</v>
       </c>
     </row>
     <row r="39" spans="2:44" s="3" customFormat="1">
@@ -4620,112 +4614,112 @@
         <v>0.35070966783086871</v>
       </c>
       <c r="AA39" s="3">
-        <f t="shared" ref="AA39:AL39" si="46">+AA16/AA$15</f>
+        <f t="shared" ref="AA39:AL39" si="52">+AA16/AA$15</f>
         <v>0.43071105509008673</v>
       </c>
       <c r="AB39" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>0.27282426709563046</v>
       </c>
       <c r="AC39" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>0.28403666654643855</v>
       </c>
       <c r="AD39" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>0.28403666654643855</v>
       </c>
       <c r="AE39" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>0.28403666654643855</v>
       </c>
       <c r="AF39" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>0.28403666654643855</v>
       </c>
       <c r="AG39" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>0.28403666654643855</v>
       </c>
       <c r="AH39" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>0.28403666654643855</v>
       </c>
       <c r="AI39" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>0.28403666654643855</v>
       </c>
       <c r="AJ39" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>0.28403666654643855</v>
       </c>
       <c r="AK39" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>0.28403666654643855</v>
       </c>
       <c r="AL39" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>0.28403666654643855</v>
       </c>
-      <c r="AQ39" s="24" t="s">
+      <c r="AQ39" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="AR39" s="24">
+      <c r="AR39" s="22">
         <f>+AR37/AR38-1</f>
-        <v>0.11257795259633063</v>
+        <v>2.4515097018968257E-2</v>
       </c>
     </row>
     <row r="40" spans="2:44" s="3" customFormat="1">
       <c r="Z40" s="3">
-        <f t="shared" ref="Z40:AL41" si="47">+Z17/Z$15</f>
+        <f t="shared" ref="Z40:AL41" si="53">+Z17/Z$15</f>
         <v>0.19573456193802483</v>
       </c>
       <c r="AA40" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>0.27207681471046191</v>
       </c>
       <c r="AB40" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>0.14239519385443683</v>
       </c>
       <c r="AC40" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>0.15697623630013652</v>
       </c>
       <c r="AD40" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>0.2</v>
       </c>
       <c r="AE40" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>0.2</v>
       </c>
       <c r="AF40" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>0.2</v>
       </c>
       <c r="AG40" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>0.2</v>
       </c>
       <c r="AH40" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>0.2</v>
       </c>
       <c r="AI40" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>0.2</v>
       </c>
       <c r="AJ40" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>0.2</v>
       </c>
       <c r="AK40" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>0.2</v>
       </c>
       <c r="AL40" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>0.2</v>
       </c>
     </row>
@@ -4735,51 +4729,51 @@
         <v>8.0478561343538674E-2</v>
       </c>
       <c r="AA41" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>9.0457477570994288E-2</v>
       </c>
       <c r="AB41" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>4.3563901382095135E-2</v>
       </c>
       <c r="AC41" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>4.9005362612645709E-2</v>
       </c>
       <c r="AD41" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>4.9005362612645709E-2</v>
       </c>
       <c r="AE41" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>4.9005362612645709E-2</v>
       </c>
       <c r="AF41" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>4.9005362612645709E-2</v>
       </c>
       <c r="AG41" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>4.9005362612645709E-2</v>
       </c>
       <c r="AH41" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>4.9005362612645716E-2</v>
       </c>
       <c r="AI41" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>4.9005362612645723E-2</v>
       </c>
       <c r="AJ41" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>4.900536261264573E-2</v>
       </c>
       <c r="AK41" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>4.900536261264573E-2</v>
       </c>
       <c r="AL41" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>4.900536261264573E-2</v>
       </c>
     </row>
@@ -4800,39 +4794,39 @@
         <v>16600.5</v>
       </c>
       <c r="AD50" s="4">
-        <f t="shared" ref="AD50:AL50" si="48">+AC50*1.02</f>
+        <f t="shared" ref="AD50:AL50" si="54">+AC50*1.02</f>
         <v>16932.510000000002</v>
       </c>
       <c r="AE50" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>17271.160200000002</v>
       </c>
       <c r="AF50" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>17616.583404000001</v>
       </c>
       <c r="AG50" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>17968.915072080003</v>
       </c>
       <c r="AH50" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>18328.293373521603</v>
       </c>
       <c r="AI50" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>18694.859240992035</v>
       </c>
       <c r="AJ50" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>19068.756425811876</v>
       </c>
       <c r="AK50" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>19450.131554328113</v>
       </c>
       <c r="AL50" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>19839.134185414674</v>
       </c>
     </row>
@@ -5045,7 +5039,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="18" t="s">
         <v>44</v>
       </c>
     </row>

--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameelbrannon/Library/CloudStorage/Dropbox/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36492570-279B-C84B-BEF6-629006571D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B909E86B-DE91-9C49-8874-DBC356998655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22820" yWindow="520" windowWidth="28380" windowHeight="28280" xr2:uid="{3991C303-FDF7-2343-B20E-E26B6CBB280D}"/>
+    <workbookView xWindow="19120" yWindow="500" windowWidth="48920" windowHeight="28280" activeTab="1" xr2:uid="{3991C303-FDF7-2343-B20E-E26B6CBB280D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,6 @@
   <authors>
     <author>jameel</author>
     <author>tc={3EFDD74E-F096-D643-913B-73F9A609CCB1}</author>
-    <author>tc={6DF40F84-FA55-0948-B8DF-87E66B6DEF25}</author>
   </authors>
   <commentList>
     <comment ref="AB5" authorId="0" shapeId="0" xr:uid="{53E2FC1C-BE63-4D41-B2B4-E34A189848BE}">
@@ -143,20 +142,12 @@
     Higher shipments of Hopper GPU computing platform for training and inference of LLMs, reach engines, and gen AI apps.  Networking up 133% on shipments of InfiniBand</t>
       </text>
     </comment>
-    <comment ref="S15" authorId="2" shapeId="0" xr:uid="{6DF40F84-FA55-0948-B8DF-87E66B6DEF25}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    GUIDE</t>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="119">
   <si>
     <t>MC</t>
   </si>
@@ -465,15 +456,64 @@
   </si>
   <si>
     <t>Press Releases</t>
+  </si>
+  <si>
+    <t>Equity</t>
+  </si>
+  <si>
+    <t>TL + E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Cash </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working Capital </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current Ratio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Debt </t>
+  </si>
+  <si>
+    <t>8-K</t>
+  </si>
+  <si>
+    <t>stock split - 10 for 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFFO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capex </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Free Cash Flow </t>
+  </si>
+  <si>
+    <t>4Q FCF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4Q NI </t>
+  </si>
+  <si>
+    <t>EV/25E</t>
+  </si>
+  <si>
+    <t>EV/26E</t>
+  </si>
+  <si>
+    <t>Wstreet Avg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="m/d;@"/>
+    <numFmt numFmtId="167" formatCode="0\x"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -523,18 +563,12 @@
       <name val="ArialMT"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -630,7 +664,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -643,7 +677,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -655,11 +688,22 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -682,16 +726,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>502479</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>5522</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>22087</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>5522</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>49695</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>15488</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>39864</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -705,9 +749,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="8641522" y="22087"/>
-          <a:ext cx="11043" cy="10132391"/>
+        <a:xfrm>
+          <a:off x="9406620" y="0"/>
+          <a:ext cx="9966" cy="16464681"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -733,15 +777,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>493059</xdr:colOff>
+      <xdr:colOff>499533</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>504102</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>27608</xdr:rowOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -756,8 +800,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="14037235" y="0"/>
-          <a:ext cx="11043" cy="10053137"/>
+          <a:off x="14579600" y="0"/>
+          <a:ext cx="4569" cy="17348200"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1109,18 +1153,15 @@
   <threadedComment ref="AB13" dT="2024-03-17T17:30:15.39" personId="{6BA2114F-119C-8D49-88D7-DC1E409F926D}" id="{3EFDD74E-F096-D643-913B-73F9A609CCB1}">
     <text>Higher shipments of Hopper GPU computing platform for training and inference of LLMs, reach engines, and gen AI apps.  Networking up 133% on shipments of InfiniBand</text>
   </threadedComment>
-  <threadedComment ref="S15" dT="2024-03-17T17:42:45.81" personId="{6BA2114F-119C-8D49-88D7-DC1E409F926D}" id="{6DF40F84-FA55-0948-B8DF-87E66B6DEF25}">
-    <text>GUIDE</text>
-  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B61C9843-BDE5-5E44-98C3-1A0D7B368C6B}">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1136,12 +1177,12 @@
     <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="B2" s="1" t="s">
         <v>90</v>
       </c>
@@ -1149,7 +1190,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="B3" s="1" t="s">
         <v>40</v>
       </c>
@@ -1160,10 +1201,10 @@
         <v>4</v>
       </c>
       <c r="K3" s="1">
-        <v>953.86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>135.58000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="B4" s="1" t="s">
         <v>41</v>
       </c>
@@ -1174,14 +1215,17 @@
         <v>7</v>
       </c>
       <c r="K4" s="1">
-        <f>2.5*1000</f>
-        <v>2500</v>
+        <v>24600</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>55</v>
+      </c>
+      <c r="M4" s="1">
+        <f>+K4*10</f>
+        <v>246000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="B5" s="1" t="s">
         <v>42</v>
       </c>
@@ -1193,10 +1237,10 @@
       </c>
       <c r="K5" s="1">
         <f>+K3*K4</f>
-        <v>2384650</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>3335268.0000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="J6" s="1" t="s">
         <v>1</v>
       </c>
@@ -1206,10 +1250,10 @@
       </c>
       <c r="L6" s="1" t="str">
         <f>+L4</f>
-        <v>Q424</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>Q125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="J7" s="1" t="s">
         <v>2</v>
       </c>
@@ -1219,31 +1263,31 @@
       </c>
       <c r="L7" s="1" t="str">
         <f>+L6</f>
-        <v>Q424</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>Q125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="J8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K8" s="1">
         <f>+K5-K6+K7</f>
-        <v>2368375</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="B12" s="9" t="s">
+        <v>3318993.0000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="B12" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="B13" s="17"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="B13" s="16"/>
       <c r="C13" s="2">
         <v>2019</v>
       </c>
@@ -1268,88 +1312,94 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
-      <c r="B14" s="12" t="s">
+    <row r="14" spans="1:13">
+      <c r="B14" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
-      <c r="B15" s="12" t="s">
+    <row r="15" spans="1:13">
+      <c r="B15" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
-      <c r="B16" s="12" t="s">
+    <row r="16" spans="1:13">
+      <c r="B16" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
-      <c r="B17" s="12"/>
-      <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="2:11">
-      <c r="B18" s="12"/>
-      <c r="H18" s="13"/>
-    </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="12"/>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="12"/>
-      <c r="H20" s="13"/>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="12"/>
-      <c r="H21" s="13"/>
-      <c r="K21" s="21" t="s">
+    <row r="17" spans="2:12">
+      <c r="B17" s="11"/>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="11"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" s="11"/>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="11"/>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="11"/>
+      <c r="H21" s="12"/>
+      <c r="K21" s="19" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="2:11">
-      <c r="B22" s="12"/>
-      <c r="H22" s="13"/>
-      <c r="K22" s="1" t="s">
+    <row r="22" spans="2:12">
+      <c r="B22" s="11"/>
+      <c r="H22" s="12"/>
+      <c r="K22" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" s="11"/>
+      <c r="H23" s="12"/>
+      <c r="K23" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="2:11">
-      <c r="B23" s="12"/>
-      <c r="H23" s="13"/>
-    </row>
-    <row r="24" spans="2:11">
-      <c r="B24" s="12"/>
-      <c r="H24" s="13"/>
-    </row>
-    <row r="25" spans="2:11">
-      <c r="B25" s="12"/>
-      <c r="H25" s="13"/>
-    </row>
-    <row r="26" spans="2:11">
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="16"/>
-    </row>
-    <row r="28" spans="2:11">
-      <c r="B28" s="19" t="s">
+    <row r="24" spans="2:12">
+      <c r="B24" s="11"/>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" s="11"/>
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28" s="18" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="21" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1361,6 +1411,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B28" r:id="rId1" xr:uid="{CA8870DA-CAEC-5A48-92F2-11FC797B3CD1}"/>
+    <hyperlink ref="K22" r:id="rId2" xr:uid="{ED2EB0DD-4AF8-DE4D-B8E0-C401F05DD704}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1368,13 +1419,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38A046E-F266-6848-AB04-142D610E732A}">
-  <dimension ref="B2:FF74"/>
+  <dimension ref="B2:ID87"/>
   <sheetViews>
-    <sheetView zoomScale="164" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="W5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T8" sqref="T8"/>
+      <selection pane="bottomRight" activeCell="AF8" sqref="AF8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1382,22 +1433,20 @@
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="15" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="18" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="22" width="6.6640625" style="1" customWidth="1"/>
     <col min="23" max="23" width="10.83203125" style="1"/>
     <col min="24" max="28" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="35" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="38" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="42" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="42" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="96" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="97" max="162" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="163" max="16384" width="10.83203125" style="1"/>
+    <col min="45" max="148" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="149" max="238" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="239" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:42" s="6" customFormat="1">
+    <row r="2" spans="2:238" s="6" customFormat="1">
       <c r="C2" s="6" t="str">
         <f>IF(C3="","",RIGHT(YEAR(C3),2))</f>
         <v/>
@@ -1462,6 +1511,10 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
+      <c r="S2" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
       <c r="X2" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1483,7 +1536,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:42" s="7" customFormat="1">
+    <row r="3" spans="2:238" s="7" customFormat="1">
       <c r="G3" s="7">
         <v>44318</v>
       </c>
@@ -1523,6 +1576,9 @@
         <f>+AB3</f>
         <v>45319</v>
       </c>
+      <c r="S3" s="7">
+        <v>45410</v>
+      </c>
       <c r="Y3" s="7">
         <v>44227</v>
       </c>
@@ -1536,7 +1592,7 @@
         <v>45319</v>
       </c>
     </row>
-    <row r="4" spans="2:42">
+    <row r="4" spans="2:238">
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1654,15 +1710,826 @@
         <f t="shared" si="1"/>
         <v>2034</v>
       </c>
-      <c r="AM4" s="2"/>
-      <c r="AN4" s="2"/>
-      <c r="AO4" s="2"/>
-      <c r="AP4" s="2"/>
-    </row>
-    <row r="5" spans="2:42">
+      <c r="AM4" s="2">
+        <f>+AL4+1</f>
+        <v>2035</v>
+      </c>
+      <c r="AN4" s="2">
+        <f t="shared" ref="AN4:AT4" si="2">+AM4+1</f>
+        <v>2036</v>
+      </c>
+      <c r="AO4" s="2">
+        <f t="shared" si="2"/>
+        <v>2037</v>
+      </c>
+      <c r="AP4" s="2">
+        <f t="shared" si="2"/>
+        <v>2038</v>
+      </c>
+      <c r="AQ4" s="2">
+        <f t="shared" si="2"/>
+        <v>2039</v>
+      </c>
+      <c r="AR4" s="2">
+        <f t="shared" si="2"/>
+        <v>2040</v>
+      </c>
+      <c r="AS4" s="2">
+        <f t="shared" si="2"/>
+        <v>2041</v>
+      </c>
+      <c r="AT4" s="2">
+        <f t="shared" si="2"/>
+        <v>2042</v>
+      </c>
+      <c r="AU4" s="2">
+        <f t="shared" ref="AU4:DF4" si="3">+AT4+1</f>
+        <v>2043</v>
+      </c>
+      <c r="AV4" s="2">
+        <f t="shared" si="3"/>
+        <v>2044</v>
+      </c>
+      <c r="AW4" s="2">
+        <f t="shared" si="3"/>
+        <v>2045</v>
+      </c>
+      <c r="AX4" s="2">
+        <f t="shared" si="3"/>
+        <v>2046</v>
+      </c>
+      <c r="AY4" s="2">
+        <f t="shared" si="3"/>
+        <v>2047</v>
+      </c>
+      <c r="AZ4" s="2">
+        <f t="shared" si="3"/>
+        <v>2048</v>
+      </c>
+      <c r="BA4" s="2">
+        <f t="shared" si="3"/>
+        <v>2049</v>
+      </c>
+      <c r="BB4" s="2">
+        <f t="shared" si="3"/>
+        <v>2050</v>
+      </c>
+      <c r="BC4" s="2">
+        <f t="shared" si="3"/>
+        <v>2051</v>
+      </c>
+      <c r="BD4" s="2">
+        <f t="shared" si="3"/>
+        <v>2052</v>
+      </c>
+      <c r="BE4" s="2">
+        <f t="shared" si="3"/>
+        <v>2053</v>
+      </c>
+      <c r="BF4" s="2">
+        <f t="shared" si="3"/>
+        <v>2054</v>
+      </c>
+      <c r="BG4" s="2">
+        <f t="shared" si="3"/>
+        <v>2055</v>
+      </c>
+      <c r="BH4" s="2">
+        <f t="shared" si="3"/>
+        <v>2056</v>
+      </c>
+      <c r="BI4" s="2">
+        <f t="shared" si="3"/>
+        <v>2057</v>
+      </c>
+      <c r="BJ4" s="2">
+        <f t="shared" si="3"/>
+        <v>2058</v>
+      </c>
+      <c r="BK4" s="2">
+        <f t="shared" si="3"/>
+        <v>2059</v>
+      </c>
+      <c r="BL4" s="2">
+        <f t="shared" si="3"/>
+        <v>2060</v>
+      </c>
+      <c r="BM4" s="2">
+        <f t="shared" si="3"/>
+        <v>2061</v>
+      </c>
+      <c r="BN4" s="2">
+        <f t="shared" si="3"/>
+        <v>2062</v>
+      </c>
+      <c r="BO4" s="2">
+        <f t="shared" si="3"/>
+        <v>2063</v>
+      </c>
+      <c r="BP4" s="2">
+        <f t="shared" si="3"/>
+        <v>2064</v>
+      </c>
+      <c r="BQ4" s="2">
+        <f t="shared" si="3"/>
+        <v>2065</v>
+      </c>
+      <c r="BR4" s="2">
+        <f t="shared" si="3"/>
+        <v>2066</v>
+      </c>
+      <c r="BS4" s="2">
+        <f t="shared" si="3"/>
+        <v>2067</v>
+      </c>
+      <c r="BT4" s="2">
+        <f t="shared" si="3"/>
+        <v>2068</v>
+      </c>
+      <c r="BU4" s="2">
+        <f t="shared" si="3"/>
+        <v>2069</v>
+      </c>
+      <c r="BV4" s="2">
+        <f t="shared" si="3"/>
+        <v>2070</v>
+      </c>
+      <c r="BW4" s="2">
+        <f t="shared" si="3"/>
+        <v>2071</v>
+      </c>
+      <c r="BX4" s="2">
+        <f t="shared" si="3"/>
+        <v>2072</v>
+      </c>
+      <c r="BY4" s="2">
+        <f t="shared" si="3"/>
+        <v>2073</v>
+      </c>
+      <c r="BZ4" s="2">
+        <f t="shared" si="3"/>
+        <v>2074</v>
+      </c>
+      <c r="CA4" s="2">
+        <f t="shared" si="3"/>
+        <v>2075</v>
+      </c>
+      <c r="CB4" s="2">
+        <f t="shared" si="3"/>
+        <v>2076</v>
+      </c>
+      <c r="CC4" s="2">
+        <f t="shared" si="3"/>
+        <v>2077</v>
+      </c>
+      <c r="CD4" s="2">
+        <f t="shared" si="3"/>
+        <v>2078</v>
+      </c>
+      <c r="CE4" s="2">
+        <f t="shared" si="3"/>
+        <v>2079</v>
+      </c>
+      <c r="CF4" s="2">
+        <f t="shared" si="3"/>
+        <v>2080</v>
+      </c>
+      <c r="CG4" s="2">
+        <f t="shared" si="3"/>
+        <v>2081</v>
+      </c>
+      <c r="CH4" s="2">
+        <f t="shared" si="3"/>
+        <v>2082</v>
+      </c>
+      <c r="CI4" s="2">
+        <f t="shared" si="3"/>
+        <v>2083</v>
+      </c>
+      <c r="CJ4" s="2">
+        <f t="shared" si="3"/>
+        <v>2084</v>
+      </c>
+      <c r="CK4" s="2">
+        <f t="shared" si="3"/>
+        <v>2085</v>
+      </c>
+      <c r="CL4" s="2">
+        <f t="shared" si="3"/>
+        <v>2086</v>
+      </c>
+      <c r="CM4" s="2">
+        <f t="shared" si="3"/>
+        <v>2087</v>
+      </c>
+      <c r="CN4" s="2">
+        <f t="shared" si="3"/>
+        <v>2088</v>
+      </c>
+      <c r="CO4" s="2">
+        <f t="shared" si="3"/>
+        <v>2089</v>
+      </c>
+      <c r="CP4" s="2">
+        <f t="shared" si="3"/>
+        <v>2090</v>
+      </c>
+      <c r="CQ4" s="2">
+        <f t="shared" si="3"/>
+        <v>2091</v>
+      </c>
+      <c r="CR4" s="2">
+        <f t="shared" si="3"/>
+        <v>2092</v>
+      </c>
+      <c r="CS4" s="2">
+        <f t="shared" si="3"/>
+        <v>2093</v>
+      </c>
+      <c r="CT4" s="2">
+        <f t="shared" si="3"/>
+        <v>2094</v>
+      </c>
+      <c r="CU4" s="2">
+        <f t="shared" si="3"/>
+        <v>2095</v>
+      </c>
+      <c r="CV4" s="2">
+        <f t="shared" si="3"/>
+        <v>2096</v>
+      </c>
+      <c r="CW4" s="2">
+        <f t="shared" si="3"/>
+        <v>2097</v>
+      </c>
+      <c r="CX4" s="2">
+        <f t="shared" si="3"/>
+        <v>2098</v>
+      </c>
+      <c r="CY4" s="2">
+        <f t="shared" si="3"/>
+        <v>2099</v>
+      </c>
+      <c r="CZ4" s="2">
+        <f t="shared" si="3"/>
+        <v>2100</v>
+      </c>
+      <c r="DA4" s="2">
+        <f t="shared" si="3"/>
+        <v>2101</v>
+      </c>
+      <c r="DB4" s="2">
+        <f t="shared" si="3"/>
+        <v>2102</v>
+      </c>
+      <c r="DC4" s="2">
+        <f t="shared" si="3"/>
+        <v>2103</v>
+      </c>
+      <c r="DD4" s="2">
+        <f t="shared" si="3"/>
+        <v>2104</v>
+      </c>
+      <c r="DE4" s="2">
+        <f t="shared" si="3"/>
+        <v>2105</v>
+      </c>
+      <c r="DF4" s="2">
+        <f t="shared" si="3"/>
+        <v>2106</v>
+      </c>
+      <c r="DG4" s="2">
+        <f t="shared" ref="DG4:FF4" si="4">+DF4+1</f>
+        <v>2107</v>
+      </c>
+      <c r="DH4" s="2">
+        <f t="shared" si="4"/>
+        <v>2108</v>
+      </c>
+      <c r="DI4" s="2">
+        <f t="shared" si="4"/>
+        <v>2109</v>
+      </c>
+      <c r="DJ4" s="2">
+        <f t="shared" si="4"/>
+        <v>2110</v>
+      </c>
+      <c r="DK4" s="2">
+        <f t="shared" si="4"/>
+        <v>2111</v>
+      </c>
+      <c r="DL4" s="2">
+        <f t="shared" si="4"/>
+        <v>2112</v>
+      </c>
+      <c r="DM4" s="2">
+        <f t="shared" si="4"/>
+        <v>2113</v>
+      </c>
+      <c r="DN4" s="2">
+        <f t="shared" si="4"/>
+        <v>2114</v>
+      </c>
+      <c r="DO4" s="2">
+        <f t="shared" si="4"/>
+        <v>2115</v>
+      </c>
+      <c r="DP4" s="2">
+        <f t="shared" si="4"/>
+        <v>2116</v>
+      </c>
+      <c r="DQ4" s="2">
+        <f t="shared" si="4"/>
+        <v>2117</v>
+      </c>
+      <c r="DR4" s="2">
+        <f t="shared" si="4"/>
+        <v>2118</v>
+      </c>
+      <c r="DS4" s="2">
+        <f t="shared" si="4"/>
+        <v>2119</v>
+      </c>
+      <c r="DT4" s="2">
+        <f t="shared" si="4"/>
+        <v>2120</v>
+      </c>
+      <c r="DU4" s="2">
+        <f t="shared" si="4"/>
+        <v>2121</v>
+      </c>
+      <c r="DV4" s="2">
+        <f t="shared" si="4"/>
+        <v>2122</v>
+      </c>
+      <c r="DW4" s="2">
+        <f t="shared" si="4"/>
+        <v>2123</v>
+      </c>
+      <c r="DX4" s="2">
+        <f t="shared" si="4"/>
+        <v>2124</v>
+      </c>
+      <c r="DY4" s="2">
+        <f t="shared" si="4"/>
+        <v>2125</v>
+      </c>
+      <c r="DZ4" s="2">
+        <f t="shared" si="4"/>
+        <v>2126</v>
+      </c>
+      <c r="EA4" s="2">
+        <f t="shared" si="4"/>
+        <v>2127</v>
+      </c>
+      <c r="EB4" s="2">
+        <f t="shared" si="4"/>
+        <v>2128</v>
+      </c>
+      <c r="EC4" s="2">
+        <f t="shared" si="4"/>
+        <v>2129</v>
+      </c>
+      <c r="ED4" s="2">
+        <f t="shared" si="4"/>
+        <v>2130</v>
+      </c>
+      <c r="EE4" s="2">
+        <f t="shared" si="4"/>
+        <v>2131</v>
+      </c>
+      <c r="EF4" s="2">
+        <f t="shared" si="4"/>
+        <v>2132</v>
+      </c>
+      <c r="EG4" s="2">
+        <f t="shared" si="4"/>
+        <v>2133</v>
+      </c>
+      <c r="EH4" s="2">
+        <f t="shared" si="4"/>
+        <v>2134</v>
+      </c>
+      <c r="EI4" s="2">
+        <f t="shared" si="4"/>
+        <v>2135</v>
+      </c>
+      <c r="EJ4" s="2">
+        <f t="shared" si="4"/>
+        <v>2136</v>
+      </c>
+      <c r="EK4" s="2">
+        <f t="shared" si="4"/>
+        <v>2137</v>
+      </c>
+      <c r="EL4" s="2">
+        <f t="shared" si="4"/>
+        <v>2138</v>
+      </c>
+      <c r="EM4" s="2">
+        <f t="shared" si="4"/>
+        <v>2139</v>
+      </c>
+      <c r="EN4" s="2">
+        <f t="shared" si="4"/>
+        <v>2140</v>
+      </c>
+      <c r="EO4" s="2">
+        <f t="shared" si="4"/>
+        <v>2141</v>
+      </c>
+      <c r="EP4" s="2">
+        <f t="shared" si="4"/>
+        <v>2142</v>
+      </c>
+      <c r="EQ4" s="2">
+        <f t="shared" si="4"/>
+        <v>2143</v>
+      </c>
+      <c r="ER4" s="2">
+        <f t="shared" si="4"/>
+        <v>2144</v>
+      </c>
+      <c r="ES4" s="2">
+        <f t="shared" si="4"/>
+        <v>2145</v>
+      </c>
+      <c r="ET4" s="2">
+        <f t="shared" si="4"/>
+        <v>2146</v>
+      </c>
+      <c r="EU4" s="2">
+        <f t="shared" si="4"/>
+        <v>2147</v>
+      </c>
+      <c r="EV4" s="2">
+        <f t="shared" si="4"/>
+        <v>2148</v>
+      </c>
+      <c r="EW4" s="2">
+        <f t="shared" si="4"/>
+        <v>2149</v>
+      </c>
+      <c r="EX4" s="2">
+        <f t="shared" si="4"/>
+        <v>2150</v>
+      </c>
+      <c r="EY4" s="2">
+        <f t="shared" si="4"/>
+        <v>2151</v>
+      </c>
+      <c r="EZ4" s="2">
+        <f t="shared" si="4"/>
+        <v>2152</v>
+      </c>
+      <c r="FA4" s="2">
+        <f t="shared" si="4"/>
+        <v>2153</v>
+      </c>
+      <c r="FB4" s="2">
+        <f t="shared" si="4"/>
+        <v>2154</v>
+      </c>
+      <c r="FC4" s="2">
+        <f t="shared" si="4"/>
+        <v>2155</v>
+      </c>
+      <c r="FD4" s="2">
+        <f t="shared" si="4"/>
+        <v>2156</v>
+      </c>
+      <c r="FE4" s="2">
+        <f t="shared" si="4"/>
+        <v>2157</v>
+      </c>
+      <c r="FF4" s="2">
+        <f t="shared" si="4"/>
+        <v>2158</v>
+      </c>
+      <c r="FG4" s="2">
+        <f t="shared" ref="FG4:FN4" si="5">+FF4+1</f>
+        <v>2159</v>
+      </c>
+      <c r="FH4" s="2">
+        <f t="shared" si="5"/>
+        <v>2160</v>
+      </c>
+      <c r="FI4" s="2">
+        <f t="shared" si="5"/>
+        <v>2161</v>
+      </c>
+      <c r="FJ4" s="2">
+        <f t="shared" si="5"/>
+        <v>2162</v>
+      </c>
+      <c r="FK4" s="2">
+        <f t="shared" si="5"/>
+        <v>2163</v>
+      </c>
+      <c r="FL4" s="2">
+        <f t="shared" si="5"/>
+        <v>2164</v>
+      </c>
+      <c r="FM4" s="2">
+        <f t="shared" si="5"/>
+        <v>2165</v>
+      </c>
+      <c r="FN4" s="2">
+        <f t="shared" si="5"/>
+        <v>2166</v>
+      </c>
+      <c r="FO4" s="2">
+        <f t="shared" ref="FO4:HC4" si="6">+FN4+1</f>
+        <v>2167</v>
+      </c>
+      <c r="FP4" s="2">
+        <f t="shared" si="6"/>
+        <v>2168</v>
+      </c>
+      <c r="FQ4" s="2">
+        <f t="shared" si="6"/>
+        <v>2169</v>
+      </c>
+      <c r="FR4" s="2">
+        <f t="shared" si="6"/>
+        <v>2170</v>
+      </c>
+      <c r="FS4" s="2">
+        <f t="shared" si="6"/>
+        <v>2171</v>
+      </c>
+      <c r="FT4" s="2">
+        <f t="shared" si="6"/>
+        <v>2172</v>
+      </c>
+      <c r="FU4" s="2">
+        <f t="shared" si="6"/>
+        <v>2173</v>
+      </c>
+      <c r="FV4" s="2">
+        <f t="shared" si="6"/>
+        <v>2174</v>
+      </c>
+      <c r="FW4" s="2">
+        <f t="shared" si="6"/>
+        <v>2175</v>
+      </c>
+      <c r="FX4" s="2">
+        <f t="shared" si="6"/>
+        <v>2176</v>
+      </c>
+      <c r="FY4" s="2">
+        <f t="shared" si="6"/>
+        <v>2177</v>
+      </c>
+      <c r="FZ4" s="2">
+        <f t="shared" si="6"/>
+        <v>2178</v>
+      </c>
+      <c r="GA4" s="2">
+        <f t="shared" si="6"/>
+        <v>2179</v>
+      </c>
+      <c r="GB4" s="2">
+        <f t="shared" si="6"/>
+        <v>2180</v>
+      </c>
+      <c r="GC4" s="2">
+        <f t="shared" si="6"/>
+        <v>2181</v>
+      </c>
+      <c r="GD4" s="2">
+        <f t="shared" si="6"/>
+        <v>2182</v>
+      </c>
+      <c r="GE4" s="2">
+        <f t="shared" si="6"/>
+        <v>2183</v>
+      </c>
+      <c r="GF4" s="2">
+        <f t="shared" si="6"/>
+        <v>2184</v>
+      </c>
+      <c r="GG4" s="2">
+        <f t="shared" si="6"/>
+        <v>2185</v>
+      </c>
+      <c r="GH4" s="2">
+        <f t="shared" si="6"/>
+        <v>2186</v>
+      </c>
+      <c r="GI4" s="2">
+        <f t="shared" si="6"/>
+        <v>2187</v>
+      </c>
+      <c r="GJ4" s="2">
+        <f t="shared" si="6"/>
+        <v>2188</v>
+      </c>
+      <c r="GK4" s="2">
+        <f t="shared" si="6"/>
+        <v>2189</v>
+      </c>
+      <c r="GL4" s="2">
+        <f t="shared" si="6"/>
+        <v>2190</v>
+      </c>
+      <c r="GM4" s="2">
+        <f t="shared" si="6"/>
+        <v>2191</v>
+      </c>
+      <c r="GN4" s="2">
+        <f t="shared" si="6"/>
+        <v>2192</v>
+      </c>
+      <c r="GO4" s="2">
+        <f t="shared" si="6"/>
+        <v>2193</v>
+      </c>
+      <c r="GP4" s="2">
+        <f t="shared" si="6"/>
+        <v>2194</v>
+      </c>
+      <c r="GQ4" s="2">
+        <f t="shared" si="6"/>
+        <v>2195</v>
+      </c>
+      <c r="GR4" s="2">
+        <f t="shared" si="6"/>
+        <v>2196</v>
+      </c>
+      <c r="GS4" s="2">
+        <f t="shared" si="6"/>
+        <v>2197</v>
+      </c>
+      <c r="GT4" s="2">
+        <f t="shared" si="6"/>
+        <v>2198</v>
+      </c>
+      <c r="GU4" s="2">
+        <f t="shared" si="6"/>
+        <v>2199</v>
+      </c>
+      <c r="GV4" s="2">
+        <f t="shared" si="6"/>
+        <v>2200</v>
+      </c>
+      <c r="GW4" s="2">
+        <f t="shared" si="6"/>
+        <v>2201</v>
+      </c>
+      <c r="GX4" s="2">
+        <f t="shared" si="6"/>
+        <v>2202</v>
+      </c>
+      <c r="GY4" s="2">
+        <f t="shared" si="6"/>
+        <v>2203</v>
+      </c>
+      <c r="GZ4" s="2">
+        <f t="shared" si="6"/>
+        <v>2204</v>
+      </c>
+      <c r="HA4" s="2">
+        <f t="shared" si="6"/>
+        <v>2205</v>
+      </c>
+      <c r="HB4" s="2">
+        <f t="shared" si="6"/>
+        <v>2206</v>
+      </c>
+      <c r="HC4" s="2">
+        <f t="shared" si="6"/>
+        <v>2207</v>
+      </c>
+      <c r="HD4" s="2">
+        <f t="shared" ref="HD4:HR4" si="7">+HC4+1</f>
+        <v>2208</v>
+      </c>
+      <c r="HE4" s="2">
+        <f t="shared" si="7"/>
+        <v>2209</v>
+      </c>
+      <c r="HF4" s="2">
+        <f t="shared" si="7"/>
+        <v>2210</v>
+      </c>
+      <c r="HG4" s="2">
+        <f t="shared" si="7"/>
+        <v>2211</v>
+      </c>
+      <c r="HH4" s="2">
+        <f t="shared" si="7"/>
+        <v>2212</v>
+      </c>
+      <c r="HI4" s="2">
+        <f t="shared" si="7"/>
+        <v>2213</v>
+      </c>
+      <c r="HJ4" s="2">
+        <f t="shared" si="7"/>
+        <v>2214</v>
+      </c>
+      <c r="HK4" s="2">
+        <f t="shared" si="7"/>
+        <v>2215</v>
+      </c>
+      <c r="HL4" s="2">
+        <f t="shared" si="7"/>
+        <v>2216</v>
+      </c>
+      <c r="HM4" s="2">
+        <f t="shared" si="7"/>
+        <v>2217</v>
+      </c>
+      <c r="HN4" s="2">
+        <f t="shared" si="7"/>
+        <v>2218</v>
+      </c>
+      <c r="HO4" s="2">
+        <f t="shared" si="7"/>
+        <v>2219</v>
+      </c>
+      <c r="HP4" s="2">
+        <f t="shared" si="7"/>
+        <v>2220</v>
+      </c>
+      <c r="HQ4" s="2">
+        <f t="shared" si="7"/>
+        <v>2221</v>
+      </c>
+      <c r="HR4" s="2">
+        <f t="shared" si="7"/>
+        <v>2222</v>
+      </c>
+      <c r="HS4" s="2">
+        <f t="shared" ref="HS4:IA4" si="8">+HR4+1</f>
+        <v>2223</v>
+      </c>
+      <c r="HT4" s="2">
+        <f t="shared" si="8"/>
+        <v>2224</v>
+      </c>
+      <c r="HU4" s="2">
+        <f t="shared" si="8"/>
+        <v>2225</v>
+      </c>
+      <c r="HV4" s="2">
+        <f t="shared" si="8"/>
+        <v>2226</v>
+      </c>
+      <c r="HW4" s="2">
+        <f t="shared" si="8"/>
+        <v>2227</v>
+      </c>
+      <c r="HX4" s="2">
+        <f t="shared" si="8"/>
+        <v>2228</v>
+      </c>
+      <c r="HY4" s="2">
+        <f t="shared" si="8"/>
+        <v>2229</v>
+      </c>
+      <c r="HZ4" s="2">
+        <f t="shared" si="8"/>
+        <v>2230</v>
+      </c>
+      <c r="IA4" s="2">
+        <f t="shared" si="8"/>
+        <v>2231</v>
+      </c>
+      <c r="IB4" s="2">
+        <f t="shared" ref="IB4:IC4" si="9">+IA4+1</f>
+        <v>2232</v>
+      </c>
+      <c r="IC4" s="2">
+        <f t="shared" si="9"/>
+        <v>2233</v>
+      </c>
+      <c r="ID4" s="2">
+        <f t="shared" ref="ID4" si="10">+IC4+1</f>
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="5" spans="2:238">
       <c r="B5" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="H5" s="1">
+        <v>2366</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2936</v>
+      </c>
+      <c r="K5" s="1">
+        <v>3750</v>
+      </c>
+      <c r="L5" s="1">
+        <v>3806</v>
+      </c>
+      <c r="M5" s="1">
+        <v>3833</v>
+      </c>
       <c r="N5" s="1">
         <v>3616</v>
       </c>
@@ -1678,15 +2545,38 @@
       <c r="R5" s="1">
         <v>18404</v>
       </c>
+      <c r="S5" s="1">
+        <v>22563</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>10613</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>15005</v>
+      </c>
       <c r="AB5" s="1">
-        <f>47.5*1000</f>
-        <v>47500</v>
-      </c>
-    </row>
-    <row r="6" spans="2:42">
+        <v>47525</v>
+      </c>
+    </row>
+    <row r="6" spans="2:238">
       <c r="B6" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="H6" s="1">
+        <v>3061</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3221</v>
+      </c>
+      <c r="K6" s="1">
+        <v>3620</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2042</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1574</v>
+      </c>
       <c r="N6" s="1">
         <v>1831</v>
       </c>
@@ -1702,15 +2592,38 @@
       <c r="R6" s="1">
         <v>2865</v>
       </c>
+      <c r="S6" s="1">
+        <v>2647</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>12462</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>9067</v>
+      </c>
       <c r="AB6" s="1">
-        <f>10.4*1000</f>
-        <v>10400</v>
-      </c>
-    </row>
-    <row r="7" spans="2:42">
+        <v>10447</v>
+      </c>
+    </row>
+    <row r="7" spans="2:238">
       <c r="B7" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="H7" s="1">
+        <v>519</v>
+      </c>
+      <c r="I7" s="1">
+        <v>577</v>
+      </c>
+      <c r="K7" s="1">
+        <v>622</v>
+      </c>
+      <c r="L7" s="1">
+        <v>496</v>
+      </c>
+      <c r="M7" s="1">
+        <v>200</v>
+      </c>
       <c r="N7" s="1">
         <v>226</v>
       </c>
@@ -1726,15 +2639,38 @@
       <c r="R7" s="1">
         <v>463</v>
       </c>
+      <c r="S7" s="1">
+        <v>427</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>2111</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>1544</v>
+      </c>
       <c r="AB7" s="1">
-        <f>1.6*1000</f>
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="8" spans="2:42">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="8" spans="2:238">
       <c r="B8" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="H8" s="1">
+        <v>152</v>
+      </c>
+      <c r="I8" s="1">
+        <v>135</v>
+      </c>
+      <c r="K8" s="1">
+        <v>138</v>
+      </c>
+      <c r="L8" s="1">
+        <v>220</v>
+      </c>
+      <c r="M8" s="1">
+        <v>251</v>
+      </c>
       <c r="N8" s="1">
         <v>294</v>
       </c>
@@ -1750,15 +2686,38 @@
       <c r="R8" s="1">
         <v>281</v>
       </c>
+      <c r="S8" s="1">
+        <v>329</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>566</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>903</v>
+      </c>
       <c r="AB8" s="1">
-        <f>1.1*1000</f>
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="9" spans="2:42">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="9" spans="2:238">
       <c r="B9" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="H9" s="1">
+        <v>409</v>
+      </c>
+      <c r="I9" s="1">
+        <v>234</v>
+      </c>
+      <c r="K9" s="1">
+        <v>158</v>
+      </c>
+      <c r="L9" s="1">
+        <v>140</v>
+      </c>
+      <c r="M9" s="1">
+        <v>73</v>
+      </c>
       <c r="N9" s="1">
         <v>84</v>
       </c>
@@ -1774,8 +2733,23 @@
       <c r="R9" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="13" spans="2:42">
+      <c r="S9" s="1">
+        <v>78</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>1162</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>455</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="11" spans="2:238">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="13" spans="2:238">
       <c r="B13" s="1" t="s">
         <v>35</v>
       </c>
@@ -1819,20 +2793,19 @@
         <v>17898</v>
       </c>
       <c r="S13" s="1">
-        <f>+S$15*(R13/R$15)</f>
-        <v>19434.103967787178</v>
+        <v>22675</v>
       </c>
       <c r="T13" s="1">
-        <f t="shared" ref="T13:V13" si="2">+T$15*(S13/S$15)</f>
-        <v>21377.514364565901</v>
+        <f>+T$15*(S13/S$15)</f>
+        <v>24377.975733374289</v>
       </c>
       <c r="U13" s="1">
-        <f t="shared" si="2"/>
-        <v>23515.265801022491</v>
+        <f t="shared" ref="U13:V13" si="11">+U$15*(T13/T$15)</f>
+        <v>26815.773306711722</v>
       </c>
       <c r="V13" s="1">
-        <f t="shared" si="2"/>
-        <v>25866.792381124742</v>
+        <f t="shared" si="11"/>
+        <v>29497.350637382897</v>
       </c>
       <c r="Y13" s="1">
         <v>9834</v>
@@ -1848,10 +2821,10 @@
       </c>
       <c r="AC13" s="1">
         <f>SUM(S13:V13)</f>
-        <v>90193.676514500316</v>
-      </c>
-    </row>
-    <row r="14" spans="2:42">
+        <v>103366.09967746891</v>
+      </c>
+    </row>
+    <row r="14" spans="2:238">
       <c r="B14" s="1" t="s">
         <v>36</v>
       </c>
@@ -1895,20 +2868,19 @@
         <v>4205</v>
       </c>
       <c r="S14" s="1">
-        <f>+S$15*(R14/R$15)</f>
-        <v>4565.8960322128223</v>
+        <v>3369</v>
       </c>
       <c r="T14" s="1">
-        <f t="shared" ref="T14:V14" si="3">+T$15*(S14/S$15)</f>
-        <v>5022.4856354341055</v>
+        <f>+T$15*(S14/S$15)</f>
+        <v>3622.0242666257104</v>
       </c>
       <c r="U14" s="1">
-        <f t="shared" si="3"/>
-        <v>5524.7341989775168</v>
+        <f t="shared" ref="U14:V14" si="12">+U$15*(T14/T$15)</f>
+        <v>3984.2266932882821</v>
       </c>
       <c r="V14" s="1">
-        <f t="shared" si="3"/>
-        <v>6077.207618875269</v>
+        <f t="shared" si="12"/>
+        <v>4382.6493626171105</v>
       </c>
       <c r="Y14" s="1">
         <v>6841</v>
@@ -1923,77 +2895,77 @@
         <v>13517</v>
       </c>
       <c r="AC14" s="1">
-        <f t="shared" ref="AC14:AC28" si="4">SUM(S14:V14)</f>
-        <v>21190.323485499714</v>
-      </c>
-    </row>
-    <row r="15" spans="2:42" s="4" customFormat="1">
+        <f t="shared" ref="AC14:AC28" si="13">SUM(S14:V14)</f>
+        <v>15357.900322531103</v>
+      </c>
+    </row>
+    <row r="15" spans="2:238" s="4" customFormat="1">
       <c r="B15" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G15" s="4">
-        <f t="shared" ref="G15:R15" si="5">+SUM(G13:G14)</f>
+        <f t="shared" ref="G15:S15" si="14">+SUM(G13:G14)</f>
         <v>5661</v>
       </c>
       <c r="H15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>6507</v>
       </c>
       <c r="I15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>7103</v>
       </c>
       <c r="J15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>7643</v>
       </c>
       <c r="K15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>8288</v>
       </c>
       <c r="L15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>6704</v>
       </c>
       <c r="M15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>5931</v>
       </c>
       <c r="N15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>6051</v>
       </c>
       <c r="O15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>7192</v>
       </c>
       <c r="P15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>13507</v>
       </c>
       <c r="Q15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>18120</v>
       </c>
       <c r="R15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>22103</v>
       </c>
       <c r="S15" s="4">
-        <f>AVERAGE(24000*0.98,24000*1.02)</f>
-        <v>24000</v>
+        <f t="shared" si="14"/>
+        <v>26044</v>
       </c>
       <c r="T15" s="4">
-        <f>+S15*1.1</f>
-        <v>26400.000000000004</v>
+        <f>AVERAGE(28000*1.02,28000*0.98)</f>
+        <v>28000</v>
       </c>
       <c r="U15" s="4">
-        <f t="shared" ref="U15:V15" si="6">+T15*1.1</f>
-        <v>29040.000000000007</v>
+        <f t="shared" ref="U15:V15" si="15">+T15*1.1</f>
+        <v>30800.000000000004</v>
       </c>
       <c r="V15" s="4">
-        <f t="shared" si="6"/>
-        <v>31944.000000000011</v>
+        <f t="shared" si="15"/>
+        <v>33880.000000000007</v>
       </c>
       <c r="X15" s="4">
         <v>10918</v>
@@ -2015,47 +2987,47 @@
         <v>60922</v>
       </c>
       <c r="AC15" s="4">
-        <f t="shared" si="4"/>
-        <v>111384.00000000001</v>
+        <f t="shared" si="13"/>
+        <v>118724</v>
       </c>
       <c r="AD15" s="4">
         <f>+AC15*1.4</f>
-        <v>155937.60000000001</v>
+        <v>166213.59999999998</v>
       </c>
       <c r="AE15" s="4">
         <f>+AD15*1.3</f>
-        <v>202718.88</v>
+        <v>216077.67999999996</v>
       </c>
       <c r="AF15" s="4">
         <f>+AE15*1.2</f>
-        <v>243262.65599999999</v>
+        <v>259293.21599999996</v>
       </c>
       <c r="AG15" s="4">
-        <f>+AF15*1.2</f>
-        <v>291915.18719999999</v>
+        <f t="shared" ref="AG15:AL15" si="16">+AF15*1.2</f>
+        <v>311151.85919999995</v>
       </c>
       <c r="AH15" s="4">
-        <f>+AG15*1.15</f>
-        <v>335702.46527999995</v>
+        <f t="shared" si="16"/>
+        <v>373382.23103999993</v>
       </c>
       <c r="AI15" s="4">
-        <f>+AH15*1.1</f>
-        <v>369272.71180799999</v>
+        <f t="shared" si="16"/>
+        <v>448058.67724799988</v>
       </c>
       <c r="AJ15" s="4">
-        <f t="shared" ref="AJ15:AL15" si="7">+AI15*1.1</f>
-        <v>406199.98298880004</v>
+        <f t="shared" si="16"/>
+        <v>537670.41269759985</v>
       </c>
       <c r="AK15" s="4">
-        <f t="shared" si="7"/>
-        <v>446819.9812876801</v>
+        <f t="shared" si="16"/>
+        <v>645204.49523711985</v>
       </c>
       <c r="AL15" s="4">
-        <f t="shared" si="7"/>
-        <v>491501.97941644816</v>
-      </c>
-    </row>
-    <row r="16" spans="2:42">
+        <f t="shared" si="16"/>
+        <v>774245.39428454381</v>
+      </c>
+    </row>
+    <row r="16" spans="2:238">
       <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
@@ -2099,20 +3071,19 @@
         <v>5312</v>
       </c>
       <c r="S16" s="1">
-        <f>+S$15*(O16/O$15)</f>
-        <v>8489.4327030033382</v>
+        <v>5638</v>
       </c>
       <c r="T16" s="1">
-        <f t="shared" ref="T16:V16" si="8">+T$15*(P16/P$15)</f>
-        <v>7906.1227511660627</v>
+        <f t="shared" ref="T16:V16" si="17">+T$15*(P16/P$15)</f>
+        <v>8385.2817057821867</v>
       </c>
       <c r="U16" s="1">
-        <f t="shared" si="8"/>
-        <v>7564.5033112582796</v>
+        <f t="shared" si="17"/>
+        <v>8022.9580573951444</v>
       </c>
       <c r="V16" s="1">
-        <f t="shared" si="8"/>
-        <v>7677.0813011808377</v>
+        <f t="shared" si="17"/>
+        <v>8142.3589557978576</v>
       </c>
       <c r="X16" s="1">
         <v>4150</v>
@@ -2130,47 +3101,47 @@
         <v>16621</v>
       </c>
       <c r="AC16" s="1">
-        <f t="shared" si="4"/>
-        <v>31637.140066608517</v>
+        <f t="shared" si="13"/>
+        <v>30188.59871897519</v>
       </c>
       <c r="AD16" s="1">
         <f>+AD$15*(AC16/AC$15)</f>
-        <v>44291.996093251917</v>
+        <v>42264.038206565259</v>
       </c>
       <c r="AE16" s="1">
-        <f t="shared" ref="AE16:AL16" si="9">+AE$15*(AD16/AD$15)</f>
-        <v>57579.594921227494</v>
+        <f t="shared" ref="AE16:AL16" si="18">+AE$15*(AD16/AD$15)</f>
+        <v>54943.249668534838</v>
       </c>
       <c r="AF16" s="1">
-        <f t="shared" si="9"/>
-        <v>69095.513905472981</v>
+        <f t="shared" si="18"/>
+        <v>65931.8996022418</v>
       </c>
       <c r="AG16" s="1">
-        <f t="shared" si="9"/>
-        <v>82914.616686567577</v>
+        <f t="shared" si="18"/>
+        <v>79118.279522690165</v>
       </c>
       <c r="AH16" s="1">
-        <f t="shared" si="9"/>
-        <v>95351.809189552718</v>
+        <f t="shared" si="18"/>
+        <v>94941.935427228193</v>
       </c>
       <c r="AI16" s="1">
-        <f t="shared" si="9"/>
-        <v>104886.99010850799</v>
+        <f t="shared" si="18"/>
+        <v>113930.32251267383</v>
       </c>
       <c r="AJ16" s="1">
-        <f t="shared" si="9"/>
-        <v>115375.68911935881</v>
+        <f t="shared" si="18"/>
+        <v>136716.3870152086</v>
       </c>
       <c r="AK16" s="1">
-        <f t="shared" si="9"/>
-        <v>126913.25803129471</v>
+        <f t="shared" si="18"/>
+        <v>164059.66441825032</v>
       </c>
       <c r="AL16" s="1">
-        <f t="shared" si="9"/>
-        <v>139604.58383442418</v>
-      </c>
-    </row>
-    <row r="17" spans="2:162">
+        <f t="shared" si="18"/>
+        <v>196871.59730190039</v>
+      </c>
+    </row>
+    <row r="17" spans="2:238">
       <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
@@ -2214,20 +3185,18 @@
         <v>2466</v>
       </c>
       <c r="S17" s="1">
-        <f t="shared" ref="S17:S18" si="10">+S$15*(O17/O$15)</f>
-        <v>6256.9521690767524</v>
+        <v>2720</v>
       </c>
       <c r="T17" s="1">
-        <f t="shared" ref="T17:T18" si="11">+T$15*(P17/P$15)</f>
-        <v>3987.2658621455548</v>
+        <v>3000</v>
       </c>
       <c r="U17" s="1">
-        <f t="shared" ref="U17:U18" si="12">+U$15*(Q17/Q$15)</f>
-        <v>3676.4768211920536</v>
+        <f t="shared" ref="U17:U18" si="19">+U$15*(Q17/Q$15)</f>
+        <v>3899.2935982339959</v>
       </c>
       <c r="V17" s="1">
-        <f t="shared" ref="V17:V18" si="13">+V$15*(R17/R$15)</f>
-        <v>3563.9462516400499</v>
+        <f t="shared" ref="V17:V18" si="20">+V$15*(R17/R$15)</f>
+        <v>3779.942994163689</v>
       </c>
       <c r="X17" s="1">
         <v>2829</v>
@@ -2245,47 +3214,47 @@
         <v>8675</v>
       </c>
       <c r="AC17" s="1">
-        <f t="shared" si="4"/>
-        <v>17484.641104054408</v>
+        <f>SUM(S17:V17)</f>
+        <v>13399.236592397683</v>
       </c>
       <c r="AD17" s="1">
-        <f>+AD15*0.2</f>
-        <v>31187.520000000004</v>
+        <f>++AD15*(AC17/AC15)</f>
+        <v>18758.931229356753</v>
       </c>
       <c r="AE17" s="1">
-        <f t="shared" ref="AE17:AL17" si="14">+AE15*0.2</f>
-        <v>40543.776000000005</v>
+        <f t="shared" ref="AE17:AL17" si="21">++AE15*(AD17/AD15)</f>
+        <v>24386.610598163777</v>
       </c>
       <c r="AF17" s="1">
-        <f t="shared" si="14"/>
-        <v>48652.531199999998</v>
+        <f t="shared" si="21"/>
+        <v>29263.932717796535</v>
       </c>
       <c r="AG17" s="1">
-        <f t="shared" si="14"/>
-        <v>58383.03744</v>
+        <f t="shared" si="21"/>
+        <v>35116.719261355844</v>
       </c>
       <c r="AH17" s="1">
-        <f t="shared" si="14"/>
-        <v>67140.493055999992</v>
+        <f t="shared" si="21"/>
+        <v>42140.063113627009</v>
       </c>
       <c r="AI17" s="1">
-        <f t="shared" si="14"/>
-        <v>73854.542361600004</v>
+        <f t="shared" si="21"/>
+        <v>50568.075736352403</v>
       </c>
       <c r="AJ17" s="1">
-        <f t="shared" si="14"/>
-        <v>81239.996597760008</v>
+        <f t="shared" si="21"/>
+        <v>60681.690883622883</v>
       </c>
       <c r="AK17" s="1">
-        <f t="shared" si="14"/>
-        <v>89363.996257536026</v>
+        <f t="shared" si="21"/>
+        <v>72818.029060347471</v>
       </c>
       <c r="AL17" s="1">
-        <f t="shared" si="14"/>
-        <v>98300.395883289631</v>
-      </c>
-    </row>
-    <row r="18" spans="2:162">
+        <f t="shared" si="21"/>
+        <v>87381.634872416966</v>
+      </c>
+    </row>
+    <row r="18" spans="2:238">
       <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
@@ -2329,20 +3298,18 @@
         <v>710</v>
       </c>
       <c r="S18" s="1">
-        <f t="shared" si="10"/>
-        <v>2112.3470522803113</v>
+        <v>777</v>
       </c>
       <c r="T18" s="1">
-        <f t="shared" si="11"/>
-        <v>1215.7251795365369</v>
+        <v>1000</v>
       </c>
       <c r="U18" s="1">
-        <f t="shared" si="12"/>
-        <v>1104.2251655629143</v>
+        <f t="shared" si="19"/>
+        <v>1171.1479028697574</v>
       </c>
       <c r="V18" s="1">
-        <f t="shared" si="13"/>
-        <v>1026.1159118671676</v>
+        <f t="shared" si="20"/>
+        <v>1088.3047550106323</v>
       </c>
       <c r="X18" s="1">
         <v>1093</v>
@@ -2360,47 +3327,47 @@
         <v>2654</v>
       </c>
       <c r="AC18" s="1">
-        <f t="shared" si="4"/>
-        <v>5458.4133092469301</v>
+        <f t="shared" si="13"/>
+        <v>4036.4526578803898</v>
       </c>
       <c r="AD18" s="1">
-        <f t="shared" ref="AD18" si="15">+AD$15*(AC18/AC$15)</f>
-        <v>7641.7786329457022</v>
+        <f t="shared" ref="AD18" si="22">+AD$15*(AC18/AC$15)</f>
+        <v>5651.0337210325442</v>
       </c>
       <c r="AE18" s="1">
-        <f t="shared" ref="AE18:AL18" si="16">+AE$15*(AD18/AD$15)</f>
-        <v>9934.3122228294123</v>
+        <f t="shared" ref="AE18:AL18" si="23">+AE$15*(AD18/AD$15)</f>
+        <v>7346.3438373423078</v>
       </c>
       <c r="AF18" s="1">
-        <f t="shared" si="16"/>
-        <v>11921.174667395293</v>
+        <f t="shared" si="23"/>
+        <v>8815.612604810769</v>
       </c>
       <c r="AG18" s="1">
-        <f t="shared" si="16"/>
-        <v>14305.409600874353</v>
+        <f t="shared" si="23"/>
+        <v>10578.735125772922</v>
       </c>
       <c r="AH18" s="1">
-        <f t="shared" si="16"/>
-        <v>16451.221041005505</v>
+        <f t="shared" si="23"/>
+        <v>12694.482150927506</v>
       </c>
       <c r="AI18" s="1">
-        <f t="shared" si="16"/>
-        <v>18096.343145106061</v>
+        <f t="shared" si="23"/>
+        <v>15233.378581113007</v>
       </c>
       <c r="AJ18" s="1">
-        <f t="shared" si="16"/>
-        <v>19905.977459616672</v>
+        <f t="shared" si="23"/>
+        <v>18280.05429733561</v>
       </c>
       <c r="AK18" s="1">
-        <f t="shared" si="16"/>
-        <v>21896.575205578341</v>
+        <f t="shared" si="23"/>
+        <v>21936.065156802732</v>
       </c>
       <c r="AL18" s="1">
-        <f t="shared" si="16"/>
-        <v>24086.232726136179</v>
-      </c>
-    </row>
-    <row r="19" spans="2:162">
+        <f t="shared" si="23"/>
+        <v>26323.278188163276</v>
+      </c>
+    </row>
+    <row r="19" spans="2:238">
       <c r="B19" s="1" t="s">
         <v>24</v>
       </c>
@@ -2443,6 +3410,9 @@
         <f>+AB19-SUM(O19:Q19)</f>
         <v>0</v>
       </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
       <c r="X19" s="1">
         <v>0</v>
       </c>
@@ -2459,77 +3429,77 @@
         <v>0</v>
       </c>
       <c r="AC19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:162">
+    <row r="20" spans="2:238">
       <c r="B20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" ref="G20:R20" si="17">+G15-SUM(G16:G19)</f>
+        <f t="shared" ref="G20:R20" si="24">+G15-SUM(G16:G19)</f>
         <v>1956</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2444</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2671</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2970</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1868</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>499</v>
       </c>
       <c r="M20" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>601</v>
       </c>
       <c r="N20" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1256</v>
       </c>
       <c r="O20" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2140</v>
       </c>
       <c r="P20" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>6800</v>
       </c>
       <c r="Q20" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>10417</v>
       </c>
       <c r="R20" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>13615</v>
       </c>
       <c r="S20" s="1">
-        <f t="shared" ref="S20:V20" si="18">+S15-SUM(S16:S19)</f>
-        <v>7141.2680756395966</v>
+        <f t="shared" ref="S20" si="25">+S15-SUM(S16:S19)</f>
+        <v>16909</v>
       </c>
       <c r="T20" s="1">
-        <f t="shared" si="18"/>
-        <v>13290.886207151849</v>
+        <f t="shared" ref="T20:V20" si="26">+T15-SUM(T16:T19)</f>
+        <v>15614.718294217813</v>
       </c>
       <c r="U20" s="1">
-        <f t="shared" si="18"/>
-        <v>16694.794701986761</v>
+        <f t="shared" si="26"/>
+        <v>17706.600441501105</v>
       </c>
       <c r="V20" s="1">
-        <f t="shared" si="18"/>
-        <v>19676.856535311956</v>
+        <f t="shared" si="26"/>
+        <v>20869.393295027825</v>
       </c>
       <c r="X20" s="1">
         <f>+X15-SUM(X16:X19)</f>
@@ -2552,47 +3522,47 @@
         <v>32972</v>
       </c>
       <c r="AC20" s="1">
-        <f t="shared" si="4"/>
-        <v>56803.805520090165</v>
+        <f t="shared" si="13"/>
+        <v>71099.712030746741</v>
       </c>
       <c r="AD20" s="1">
         <f>+AD15-SUM(AD16:AD19)</f>
-        <v>72816.305273802383</v>
+        <v>99539.596843045423</v>
       </c>
       <c r="AE20" s="1">
-        <f t="shared" ref="AE20:AL20" si="19">+AE15-SUM(AE16:AE19)</f>
-        <v>94661.196855943097</v>
+        <f t="shared" ref="AE20:AL20" si="27">+AE15-SUM(AE16:AE19)</f>
+        <v>129401.47589595904</v>
       </c>
       <c r="AF20" s="1">
-        <f t="shared" si="19"/>
-        <v>113593.43622713172</v>
+        <f t="shared" si="27"/>
+        <v>155281.77107515087</v>
       </c>
       <c r="AG20" s="1">
-        <f t="shared" si="19"/>
-        <v>136312.12347255804</v>
+        <f t="shared" si="27"/>
+        <v>186338.12529018102</v>
       </c>
       <c r="AH20" s="1">
-        <f t="shared" si="19"/>
-        <v>156758.94199344172</v>
+        <f t="shared" si="27"/>
+        <v>223605.75034821723</v>
       </c>
       <c r="AI20" s="1">
-        <f t="shared" si="19"/>
-        <v>172434.83619278594</v>
+        <f t="shared" si="27"/>
+        <v>268326.90041786066</v>
       </c>
       <c r="AJ20" s="1">
-        <f t="shared" si="19"/>
-        <v>189678.31981206455</v>
+        <f t="shared" si="27"/>
+        <v>321992.28050143272</v>
       </c>
       <c r="AK20" s="1">
-        <f t="shared" si="19"/>
-        <v>208646.15179327101</v>
+        <f t="shared" si="27"/>
+        <v>386390.73660171928</v>
       </c>
       <c r="AL20" s="1">
-        <f t="shared" si="19"/>
-        <v>229510.76697259815</v>
-      </c>
-    </row>
-    <row r="21" spans="2:162">
+        <f t="shared" si="27"/>
+        <v>463668.88392206316</v>
+      </c>
+    </row>
+    <row r="21" spans="2:238">
       <c r="B21" s="1" t="s">
         <v>26</v>
       </c>
@@ -2635,6 +3605,21 @@
         <f>+AB21-SUM(O21:Q21)</f>
         <v>295</v>
       </c>
+      <c r="S21" s="1">
+        <v>359</v>
+      </c>
+      <c r="T21" s="1">
+        <f t="shared" ref="T21:T23" si="28">+T$15*(P21/P$15)</f>
+        <v>387.65084770859556</v>
+      </c>
+      <c r="U21" s="1">
+        <f t="shared" ref="U21:U23" si="29">+U$15*(Q21/Q$15)</f>
+        <v>397.74834437086093</v>
+      </c>
+      <c r="V21" s="1">
+        <f t="shared" ref="V21:V23" si="30">+V$15*(R21/R$15)</f>
+        <v>452.18296158892468</v>
+      </c>
       <c r="X21" s="1">
         <v>178</v>
       </c>
@@ -2651,47 +3636,47 @@
         <v>866</v>
       </c>
       <c r="AC21" s="1">
-        <f>+AB50*$AR$30</f>
-        <v>488.25</v>
+        <f>+AB49*$AR$30</f>
+        <v>651.84</v>
       </c>
       <c r="AD21" s="1">
-        <f>+AC50*$AR$30</f>
-        <v>498.01499999999999</v>
+        <f>+AC49*$AR$30</f>
+        <v>664.8768</v>
       </c>
       <c r="AE21" s="1">
-        <f>+AD50*$AR$30</f>
-        <v>507.97530000000006</v>
+        <f>+AD49*$AR$30</f>
+        <v>678.17433599999993</v>
       </c>
       <c r="AF21" s="1">
         <f>+AE21</f>
-        <v>507.97530000000006</v>
+        <v>678.17433599999993</v>
       </c>
       <c r="AG21" s="1">
-        <f t="shared" ref="AG21:AL21" si="20">+AF21</f>
-        <v>507.97530000000006</v>
+        <f t="shared" ref="AG21:AL21" si="31">+AF21</f>
+        <v>678.17433599999993</v>
       </c>
       <c r="AH21" s="1">
-        <f t="shared" si="20"/>
-        <v>507.97530000000006</v>
+        <f t="shared" si="31"/>
+        <v>678.17433599999993</v>
       </c>
       <c r="AI21" s="1">
-        <f t="shared" si="20"/>
-        <v>507.97530000000006</v>
+        <f t="shared" si="31"/>
+        <v>678.17433599999993</v>
       </c>
       <c r="AJ21" s="1">
-        <f t="shared" si="20"/>
-        <v>507.97530000000006</v>
+        <f t="shared" si="31"/>
+        <v>678.17433599999993</v>
       </c>
       <c r="AK21" s="1">
-        <f t="shared" si="20"/>
-        <v>507.97530000000006</v>
+        <f t="shared" si="31"/>
+        <v>678.17433599999993</v>
       </c>
       <c r="AL21" s="1">
-        <f t="shared" si="20"/>
-        <v>507.97530000000006</v>
-      </c>
-    </row>
-    <row r="22" spans="2:162">
+        <f t="shared" si="31"/>
+        <v>678.17433599999993</v>
+      </c>
+    </row>
+    <row r="22" spans="2:238">
       <c r="B22" s="1" t="s">
         <v>27</v>
       </c>
@@ -2734,6 +3719,21 @@
         <f>+AB22-SUM(O22:Q22)</f>
         <v>-63</v>
       </c>
+      <c r="S22" s="1">
+        <v>-64</v>
+      </c>
+      <c r="T22" s="1">
+        <f t="shared" si="28"/>
+        <v>-134.74494706448507</v>
+      </c>
+      <c r="U22" s="1">
+        <f t="shared" si="29"/>
+        <v>-107.0860927152318</v>
+      </c>
+      <c r="V22" s="1">
+        <f t="shared" si="30"/>
+        <v>-96.567886712211035</v>
+      </c>
       <c r="X22" s="1">
         <v>-52</v>
       </c>
@@ -2754,43 +3754,43 @@
         <v>-257</v>
       </c>
       <c r="AD22" s="1">
-        <f t="shared" ref="AD22:AL22" si="21">+AC22</f>
+        <f t="shared" ref="AD22:AL22" si="32">+AC22</f>
         <v>-257</v>
       </c>
       <c r="AE22" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>-257</v>
       </c>
       <c r="AF22" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>-257</v>
       </c>
       <c r="AG22" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>-257</v>
       </c>
       <c r="AH22" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>-257</v>
       </c>
       <c r="AI22" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>-257</v>
       </c>
       <c r="AJ22" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>-257</v>
       </c>
       <c r="AK22" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>-257</v>
       </c>
       <c r="AL22" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>-257</v>
       </c>
     </row>
-    <row r="23" spans="2:162">
+    <row r="23" spans="2:238">
       <c r="B23" s="1" t="s">
         <v>28</v>
       </c>
@@ -2833,6 +3833,21 @@
         <f>+AB23-SUM(O23:Q23)</f>
         <v>259</v>
       </c>
+      <c r="S23" s="1">
+        <v>75</v>
+      </c>
+      <c r="T23" s="1">
+        <f t="shared" si="28"/>
+        <v>122.3069519508403</v>
+      </c>
+      <c r="U23" s="1">
+        <f t="shared" si="29"/>
+        <v>-112.18543046357618</v>
+      </c>
+      <c r="V23" s="1">
+        <f t="shared" si="30"/>
+        <v>397.00131203908978</v>
+      </c>
       <c r="X23" s="1">
         <v>-2</v>
       </c>
@@ -2852,73 +3867,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:162">
+    <row r="24" spans="2:238">
       <c r="B24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" ref="G24:S24" si="22">+SUM(G20:G23)</f>
+        <f t="shared" ref="G24:R24" si="33">+SUM(G20:G23)</f>
         <v>2044</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2394</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2638</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2865</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>1805</v>
       </c>
       <c r="L24" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>475</v>
       </c>
       <c r="M24" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>613</v>
       </c>
       <c r="N24" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>1288</v>
       </c>
       <c r="O24" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>2209</v>
       </c>
       <c r="P24" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>6981</v>
       </c>
       <c r="Q24" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>10522</v>
       </c>
       <c r="R24" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>14106</v>
       </c>
       <c r="S24" s="1">
-        <f t="shared" si="22"/>
-        <v>7141.2680756395966</v>
+        <f t="shared" ref="S24" si="34">+SUM(S20:S23)</f>
+        <v>17279</v>
       </c>
       <c r="T24" s="1">
-        <f t="shared" ref="T24:V24" si="23">+SUM(T20:T23)</f>
-        <v>13290.886207151849</v>
+        <f t="shared" ref="T24:V24" si="35">+SUM(T20:T23)</f>
+        <v>15989.931146812765</v>
       </c>
       <c r="U24" s="1">
-        <f t="shared" si="23"/>
-        <v>16694.794701986761</v>
+        <f t="shared" si="35"/>
+        <v>17885.077262693161</v>
       </c>
       <c r="V24" s="1">
-        <f t="shared" si="23"/>
-        <v>19676.856535311956</v>
+        <f t="shared" si="35"/>
+        <v>21622.009681943629</v>
       </c>
       <c r="X24" s="1">
         <f>+SUM(X20:X23)</f>
@@ -2941,47 +3956,47 @@
         <v>33818</v>
       </c>
       <c r="AC24" s="1">
-        <f t="shared" si="4"/>
-        <v>56803.805520090165</v>
+        <f t="shared" si="13"/>
+        <v>72776.018091449558</v>
       </c>
       <c r="AD24" s="1">
         <f>+SUM(AD20:AD23)</f>
-        <v>73057.320273802383</v>
+        <v>99947.473643045421</v>
       </c>
       <c r="AE24" s="1">
-        <f t="shared" ref="AE24:AL24" si="24">+SUM(AE20:AE23)</f>
-        <v>94912.172155943103</v>
+        <f t="shared" ref="AE24:AL24" si="36">+SUM(AE20:AE23)</f>
+        <v>129822.65023195904</v>
       </c>
       <c r="AF24" s="1">
-        <f t="shared" si="24"/>
-        <v>113844.41152713173</v>
+        <f t="shared" si="36"/>
+        <v>155702.94541115087</v>
       </c>
       <c r="AG24" s="1">
-        <f t="shared" si="24"/>
-        <v>136563.09877255803</v>
+        <f t="shared" si="36"/>
+        <v>186759.29962618102</v>
       </c>
       <c r="AH24" s="1">
-        <f t="shared" si="24"/>
-        <v>157009.91729344171</v>
+        <f t="shared" si="36"/>
+        <v>224026.92468421723</v>
       </c>
       <c r="AI24" s="1">
-        <f t="shared" si="24"/>
-        <v>172685.81149278593</v>
+        <f t="shared" si="36"/>
+        <v>268748.07475386065</v>
       </c>
       <c r="AJ24" s="1">
-        <f t="shared" si="24"/>
-        <v>189929.29511206454</v>
+        <f t="shared" si="36"/>
+        <v>322413.45483743271</v>
       </c>
       <c r="AK24" s="1">
-        <f t="shared" si="24"/>
-        <v>208897.127093271</v>
+        <f t="shared" si="36"/>
+        <v>386811.91093771928</v>
       </c>
       <c r="AL24" s="1">
-        <f t="shared" si="24"/>
-        <v>229761.74227259815</v>
-      </c>
-    </row>
-    <row r="25" spans="2:162">
+        <f t="shared" si="36"/>
+        <v>464090.05825806316</v>
+      </c>
+    </row>
+    <row r="25" spans="2:238">
       <c r="B25" s="1" t="s">
         <v>30</v>
       </c>
@@ -3025,16 +4040,19 @@
         <v>1820</v>
       </c>
       <c r="S25" s="1">
-        <v>-66</v>
+        <v>2398</v>
       </c>
       <c r="T25" s="1">
-        <v>-66</v>
+        <f>+T24*0.17</f>
+        <v>2718.2882949581704</v>
       </c>
       <c r="U25" s="1">
-        <v>-66</v>
+        <f>+U24*0.17</f>
+        <v>3040.4631346578376</v>
       </c>
       <c r="V25" s="1">
-        <v>-66</v>
+        <f>+V24*0.17</f>
+        <v>3675.7416459304172</v>
       </c>
       <c r="X25" s="1">
         <v>174</v>
@@ -3052,113 +4070,113 @@
         <v>4058</v>
       </c>
       <c r="AC25" s="1">
-        <f t="shared" si="4"/>
-        <v>-264</v>
+        <f t="shared" si="13"/>
+        <v>11832.493075546425</v>
       </c>
       <c r="AD25" s="1">
         <f>+AD24*(AC25/AC24)</f>
-        <v>-339.53944415682548</v>
+        <v>16250.2404063055</v>
       </c>
       <c r="AE25" s="1">
-        <f t="shared" ref="AE25:AL25" si="25">+AE24*(AD25/AD24)</f>
-        <v>-441.11152799977418</v>
+        <f t="shared" ref="AE25:AL25" si="37">+AE24*(AD25/AD24)</f>
+        <v>21107.579807244496</v>
       </c>
       <c r="AF25" s="1">
-        <f t="shared" si="25"/>
-        <v>-529.10054824642089</v>
+        <f t="shared" si="37"/>
+        <v>25315.400206487575</v>
       </c>
       <c r="AG25" s="1">
-        <f t="shared" si="25"/>
-        <v>-634.68737254239682</v>
+        <f t="shared" si="37"/>
+        <v>30364.784685579263</v>
       </c>
       <c r="AH25" s="1">
-        <f t="shared" si="25"/>
-        <v>-729.71551440877511</v>
+        <f t="shared" si="37"/>
+        <v>36424.046060489294</v>
       </c>
       <c r="AI25" s="1">
-        <f t="shared" si="25"/>
-        <v>-802.57042317299874</v>
+        <f t="shared" si="37"/>
+        <v>43695.159710381326</v>
       </c>
       <c r="AJ25" s="1">
-        <f t="shared" si="25"/>
-        <v>-882.71082281364465</v>
+        <f t="shared" si="37"/>
+        <v>52420.496090251756</v>
       </c>
       <c r="AK25" s="1">
-        <f t="shared" si="25"/>
-        <v>-970.86526241835509</v>
+        <f t="shared" si="37"/>
+        <v>62890.899746096286</v>
       </c>
       <c r="AL25" s="1">
-        <f t="shared" si="25"/>
-        <v>-1067.8351459835367</v>
-      </c>
-    </row>
-    <row r="26" spans="2:162" s="4" customFormat="1">
+        <f t="shared" si="37"/>
+        <v>75455.384133109721</v>
+      </c>
+    </row>
+    <row r="26" spans="2:238" s="4" customFormat="1">
       <c r="B26" s="4" t="s">
         <v>31</v>
       </c>
       <c r="G26" s="4">
-        <f t="shared" ref="G26:R26" si="26">+G24-G25</f>
+        <f t="shared" ref="G26:R26" si="38">+G24-G25</f>
         <v>1912</v>
       </c>
       <c r="H26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>2374</v>
       </c>
       <c r="I26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>2464</v>
       </c>
       <c r="J26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>3002</v>
       </c>
       <c r="K26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>1618</v>
       </c>
       <c r="L26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>656</v>
       </c>
       <c r="M26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>680</v>
       </c>
       <c r="N26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>1414</v>
       </c>
       <c r="O26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>2043</v>
       </c>
       <c r="P26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>6188</v>
       </c>
       <c r="Q26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>9243</v>
       </c>
       <c r="R26" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>12286</v>
       </c>
       <c r="S26" s="4">
-        <f t="shared" ref="S26:V26" si="27">+S24-S25</f>
-        <v>7207.2680756395966</v>
+        <f t="shared" ref="S26" si="39">+S24-S25</f>
+        <v>14881</v>
       </c>
       <c r="T26" s="4">
-        <f t="shared" si="27"/>
-        <v>13356.886207151849</v>
+        <f t="shared" ref="T26:V26" si="40">+T24-T25</f>
+        <v>13271.642851854594</v>
       </c>
       <c r="U26" s="4">
-        <f t="shared" si="27"/>
-        <v>16760.794701986761</v>
+        <f t="shared" si="40"/>
+        <v>14844.614128035324</v>
       </c>
       <c r="V26" s="4">
-        <f t="shared" si="27"/>
-        <v>19742.856535311956</v>
+        <f t="shared" si="40"/>
+        <v>17946.268036013211</v>
       </c>
       <c r="X26" s="4">
         <f>+X24-X25</f>
@@ -3181,543 +4199,847 @@
         <v>29760</v>
       </c>
       <c r="AC26" s="4">
-        <f t="shared" si="4"/>
-        <v>57067.805520090165</v>
+        <f t="shared" si="13"/>
+        <v>60943.525015903127</v>
       </c>
       <c r="AD26" s="4">
         <f>+AD24-AD25</f>
-        <v>73396.859717959203</v>
+        <v>83697.233236739921</v>
       </c>
       <c r="AE26" s="4">
-        <f t="shared" ref="AE26:AL26" si="28">+AE24-AE25</f>
-        <v>95353.283683942878</v>
+        <f t="shared" ref="AE26:AL26" si="41">+AE24-AE25</f>
+        <v>108715.07042471453</v>
       </c>
       <c r="AF26" s="4">
-        <f t="shared" si="28"/>
-        <v>114373.51207537815</v>
+        <f t="shared" si="41"/>
+        <v>130387.5452046633</v>
       </c>
       <c r="AG26" s="4">
-        <f t="shared" si="28"/>
-        <v>137197.78614510043</v>
+        <f t="shared" si="41"/>
+        <v>156394.51494060174</v>
       </c>
       <c r="AH26" s="4">
-        <f t="shared" si="28"/>
-        <v>157739.63280785049</v>
+        <f t="shared" si="41"/>
+        <v>187602.87862372794</v>
       </c>
       <c r="AI26" s="4">
-        <f t="shared" si="28"/>
-        <v>173488.38191595892</v>
+        <f t="shared" si="41"/>
+        <v>225052.91504347933</v>
       </c>
       <c r="AJ26" s="4">
-        <f t="shared" si="28"/>
-        <v>190812.00593487819</v>
+        <f t="shared" si="41"/>
+        <v>269992.95874718094</v>
       </c>
       <c r="AK26" s="4">
-        <f t="shared" si="28"/>
-        <v>209867.99235568935</v>
+        <f t="shared" si="41"/>
+        <v>323921.01119162299</v>
       </c>
       <c r="AL26" s="4">
-        <f t="shared" si="28"/>
-        <v>230829.57741858167</v>
+        <f t="shared" si="41"/>
+        <v>388634.67412495345</v>
       </c>
       <c r="AM26" s="4">
         <f>+AL26*(1+$AR$31)</f>
-        <v>233137.8731927675</v>
+        <v>388634.67412495345</v>
       </c>
       <c r="AN26" s="4">
-        <f t="shared" ref="AN26:CY26" si="29">+AM26*(1+$AR$31)</f>
-        <v>235469.25192469519</v>
+        <f t="shared" ref="AN26:AT26" si="42">+AM26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="AO26" s="4">
-        <f t="shared" si="29"/>
-        <v>237823.94444394213</v>
+        <f t="shared" si="42"/>
+        <v>388634.67412495345</v>
       </c>
       <c r="AP26" s="4">
-        <f t="shared" si="29"/>
-        <v>240202.18388838155</v>
+        <f t="shared" si="42"/>
+        <v>388634.67412495345</v>
       </c>
       <c r="AQ26" s="4">
-        <f t="shared" si="29"/>
-        <v>242604.20572726536</v>
+        <f t="shared" si="42"/>
+        <v>388634.67412495345</v>
       </c>
       <c r="AR26" s="4">
-        <f t="shared" si="29"/>
-        <v>245030.24778453802</v>
+        <f t="shared" si="42"/>
+        <v>388634.67412495345</v>
       </c>
       <c r="AS26" s="4">
-        <f t="shared" si="29"/>
-        <v>247480.55026238339</v>
+        <f t="shared" si="42"/>
+        <v>388634.67412495345</v>
       </c>
       <c r="AT26" s="4">
-        <f t="shared" si="29"/>
-        <v>249955.35576500723</v>
+        <f t="shared" si="42"/>
+        <v>388634.67412495345</v>
       </c>
       <c r="AU26" s="4">
-        <f t="shared" si="29"/>
-        <v>252454.9093226573</v>
+        <f t="shared" ref="AU26" si="43">+AT26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="AV26" s="4">
-        <f t="shared" si="29"/>
-        <v>254979.45841588388</v>
+        <f t="shared" ref="AV26" si="44">+AU26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="AW26" s="4">
-        <f t="shared" si="29"/>
-        <v>257529.25300004272</v>
+        <f t="shared" ref="AW26" si="45">+AV26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="AX26" s="4">
-        <f t="shared" si="29"/>
-        <v>260104.54553004316</v>
+        <f t="shared" ref="AX26" si="46">+AW26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="AY26" s="4">
-        <f t="shared" si="29"/>
-        <v>262705.59098534362</v>
+        <f t="shared" ref="AY26" si="47">+AX26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="AZ26" s="4">
-        <f t="shared" si="29"/>
-        <v>265332.64689519705</v>
+        <f t="shared" ref="AZ26" si="48">+AY26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="BA26" s="4">
-        <f t="shared" si="29"/>
-        <v>267985.97336414905</v>
+        <f t="shared" ref="BA26" si="49">+AZ26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="BB26" s="4">
-        <f t="shared" si="29"/>
-        <v>270665.83309779054</v>
+        <f t="shared" ref="BB26" si="50">+BA26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="BC26" s="4">
-        <f t="shared" si="29"/>
-        <v>273372.49142876844</v>
+        <f t="shared" ref="BC26" si="51">+BB26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="BD26" s="4">
-        <f t="shared" si="29"/>
-        <v>276106.21634305612</v>
+        <f t="shared" ref="BD26" si="52">+BC26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="BE26" s="4">
-        <f t="shared" si="29"/>
-        <v>278867.27850648668</v>
+        <f t="shared" ref="BE26" si="53">+BD26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="BF26" s="4">
-        <f t="shared" si="29"/>
-        <v>281655.95129155152</v>
+        <f t="shared" ref="BF26" si="54">+BE26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="BG26" s="4">
-        <f t="shared" si="29"/>
-        <v>284472.51080446702</v>
+        <f t="shared" ref="BG26" si="55">+BF26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="BH26" s="4">
-        <f t="shared" si="29"/>
-        <v>287317.23591251171</v>
+        <f t="shared" ref="BH26" si="56">+BG26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="BI26" s="4">
-        <f t="shared" si="29"/>
-        <v>290190.40827163681</v>
+        <f t="shared" ref="BI26" si="57">+BH26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="BJ26" s="4">
-        <f t="shared" si="29"/>
-        <v>293092.3123543532</v>
+        <f t="shared" ref="BJ26" si="58">+BI26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="BK26" s="4">
-        <f t="shared" si="29"/>
-        <v>296023.23547789676</v>
+        <f t="shared" ref="BK26" si="59">+BJ26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="BL26" s="4">
-        <f t="shared" si="29"/>
-        <v>298983.46783267573</v>
+        <f t="shared" ref="BL26" si="60">+BK26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="BM26" s="4">
-        <f t="shared" si="29"/>
-        <v>301973.30251100246</v>
+        <f t="shared" ref="BM26" si="61">+BL26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="BN26" s="4">
-        <f t="shared" si="29"/>
-        <v>304993.0355361125</v>
+        <f t="shared" ref="BN26" si="62">+BM26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="BO26" s="4">
-        <f t="shared" si="29"/>
-        <v>308042.96589147364</v>
+        <f t="shared" ref="BO26" si="63">+BN26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="BP26" s="4">
-        <f t="shared" si="29"/>
-        <v>311123.39555038838</v>
+        <f t="shared" ref="BP26" si="64">+BO26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="BQ26" s="4">
-        <f t="shared" si="29"/>
-        <v>314234.62950589228</v>
+        <f t="shared" ref="BQ26" si="65">+BP26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="BR26" s="4">
-        <f t="shared" si="29"/>
-        <v>317376.97580095119</v>
+        <f t="shared" ref="BR26" si="66">+BQ26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="BS26" s="4">
-        <f t="shared" si="29"/>
-        <v>320550.74555896071</v>
+        <f t="shared" ref="BS26" si="67">+BR26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="BT26" s="4">
-        <f t="shared" si="29"/>
-        <v>323756.25301455031</v>
+        <f t="shared" ref="BT26" si="68">+BS26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="BU26" s="4">
-        <f t="shared" si="29"/>
-        <v>326993.81554469583</v>
+        <f t="shared" ref="BU26" si="69">+BT26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="BV26" s="4">
-        <f t="shared" si="29"/>
-        <v>330263.75370014278</v>
+        <f t="shared" ref="BV26" si="70">+BU26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="BW26" s="4">
-        <f t="shared" si="29"/>
-        <v>333566.39123714424</v>
+        <f t="shared" ref="BW26" si="71">+BV26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="BX26" s="4">
-        <f t="shared" si="29"/>
-        <v>336902.05514951568</v>
+        <f t="shared" ref="BX26" si="72">+BW26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="BY26" s="4">
-        <f t="shared" si="29"/>
-        <v>340271.07570101082</v>
+        <f t="shared" ref="BY26" si="73">+BX26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="BZ26" s="4">
-        <f t="shared" si="29"/>
-        <v>343673.78645802091</v>
+        <f t="shared" ref="BZ26" si="74">+BY26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="CA26" s="4">
-        <f t="shared" si="29"/>
-        <v>347110.52432260115</v>
+        <f t="shared" ref="CA26" si="75">+BZ26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="CB26" s="4">
-        <f t="shared" si="29"/>
-        <v>350581.62956582714</v>
+        <f t="shared" ref="CB26" si="76">+CA26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="CC26" s="4">
-        <f t="shared" si="29"/>
-        <v>354087.44586148544</v>
+        <f t="shared" ref="CC26" si="77">+CB26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="CD26" s="4">
-        <f t="shared" si="29"/>
-        <v>357628.32032010029</v>
+        <f t="shared" ref="CD26" si="78">+CC26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="CE26" s="4">
-        <f t="shared" si="29"/>
-        <v>361204.60352330131</v>
+        <f t="shared" ref="CE26" si="79">+CD26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="CF26" s="4">
-        <f t="shared" si="29"/>
-        <v>364816.64955853432</v>
+        <f t="shared" ref="CF26" si="80">+CE26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="CG26" s="4">
-        <f t="shared" si="29"/>
-        <v>368464.81605411967</v>
+        <f t="shared" ref="CG26" si="81">+CF26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="CH26" s="4">
-        <f t="shared" si="29"/>
-        <v>372149.46421466087</v>
+        <f t="shared" ref="CH26" si="82">+CG26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="CI26" s="4">
-        <f t="shared" si="29"/>
-        <v>375870.9588568075</v>
+        <f t="shared" ref="CI26" si="83">+CH26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="CJ26" s="4">
-        <f t="shared" si="29"/>
-        <v>379629.66844537557</v>
+        <f t="shared" ref="CJ26" si="84">+CI26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="CK26" s="4">
-        <f t="shared" si="29"/>
-        <v>383425.96512982936</v>
+        <f t="shared" ref="CK26" si="85">+CJ26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="CL26" s="4">
-        <f t="shared" si="29"/>
-        <v>387260.22478112765</v>
+        <f t="shared" ref="CL26" si="86">+CK26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="CM26" s="4">
-        <f t="shared" si="29"/>
-        <v>391132.82702893892</v>
+        <f t="shared" ref="CM26" si="87">+CL26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="CN26" s="4">
-        <f t="shared" si="29"/>
-        <v>395044.15529922833</v>
+        <f t="shared" ref="CN26" si="88">+CM26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="CO26" s="4">
-        <f t="shared" si="29"/>
-        <v>398994.59685222059</v>
+        <f t="shared" ref="CO26" si="89">+CN26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="CP26" s="4">
-        <f t="shared" si="29"/>
-        <v>402984.54282074282</v>
+        <f t="shared" ref="CP26" si="90">+CO26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="CQ26" s="4">
-        <f t="shared" si="29"/>
-        <v>407014.38824895024</v>
+        <f t="shared" ref="CQ26" si="91">+CP26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="CR26" s="4">
-        <f t="shared" si="29"/>
-        <v>411084.53213143977</v>
+        <f t="shared" ref="CR26" si="92">+CQ26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="CS26" s="4">
-        <f t="shared" si="29"/>
-        <v>415195.37745275418</v>
+        <f t="shared" ref="CS26" si="93">+CR26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="CT26" s="4">
-        <f t="shared" si="29"/>
-        <v>419347.33122728171</v>
+        <f t="shared" ref="CT26" si="94">+CS26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="CU26" s="4">
-        <f t="shared" si="29"/>
-        <v>423540.80453955452</v>
+        <f t="shared" ref="CU26" si="95">+CT26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="CV26" s="4">
-        <f t="shared" si="29"/>
-        <v>427776.21258495009</v>
+        <f t="shared" ref="CV26" si="96">+CU26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="CW26" s="4">
-        <f t="shared" si="29"/>
-        <v>432053.97471079958</v>
+        <f t="shared" ref="CW26" si="97">+CV26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="CX26" s="4">
-        <f t="shared" si="29"/>
-        <v>436374.51445790759</v>
+        <f t="shared" ref="CX26" si="98">+CW26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="CY26" s="4">
-        <f t="shared" si="29"/>
-        <v>440738.25960248668</v>
+        <f t="shared" ref="CY26" si="99">+CX26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="CZ26" s="4">
-        <f t="shared" ref="CZ26:FF26" si="30">+CY26*(1+$AR$31)</f>
-        <v>445145.64219851157</v>
+        <f t="shared" ref="CZ26" si="100">+CY26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="DA26" s="4">
-        <f t="shared" si="30"/>
-        <v>449597.09862049669</v>
+        <f t="shared" ref="DA26" si="101">+CZ26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="DB26" s="4">
-        <f t="shared" si="30"/>
-        <v>454093.06960670167</v>
+        <f t="shared" ref="DB26" si="102">+DA26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="DC26" s="4">
-        <f t="shared" si="30"/>
-        <v>458634.00030276866</v>
+        <f t="shared" ref="DC26" si="103">+DB26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="DD26" s="4">
-        <f t="shared" si="30"/>
-        <v>463220.34030579636</v>
+        <f t="shared" ref="DD26" si="104">+DC26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="DE26" s="4">
-        <f t="shared" si="30"/>
-        <v>467852.54370885435</v>
+        <f t="shared" ref="DE26" si="105">+DD26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="DF26" s="4">
-        <f t="shared" si="30"/>
-        <v>472531.06914594292</v>
+        <f t="shared" ref="DF26" si="106">+DE26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="DG26" s="4">
-        <f t="shared" si="30"/>
-        <v>477256.37983740238</v>
+        <f t="shared" ref="DG26" si="107">+DF26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="DH26" s="4">
-        <f t="shared" si="30"/>
-        <v>482028.94363577641</v>
+        <f t="shared" ref="DH26" si="108">+DG26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="DI26" s="4">
-        <f t="shared" si="30"/>
-        <v>486849.2330721342</v>
+        <f t="shared" ref="DI26" si="109">+DH26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="DJ26" s="4">
-        <f t="shared" si="30"/>
-        <v>491717.72540285555</v>
+        <f t="shared" ref="DJ26" si="110">+DI26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="DK26" s="4">
-        <f t="shared" si="30"/>
-        <v>496634.90265688411</v>
+        <f t="shared" ref="DK26" si="111">+DJ26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="DL26" s="4">
-        <f t="shared" si="30"/>
-        <v>501601.25168345298</v>
+        <f t="shared" ref="DL26" si="112">+DK26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="DM26" s="4">
-        <f t="shared" si="30"/>
-        <v>506617.26420028752</v>
+        <f t="shared" ref="DM26" si="113">+DL26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="DN26" s="4">
-        <f t="shared" si="30"/>
-        <v>511683.43684229039</v>
+        <f t="shared" ref="DN26" si="114">+DM26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="DO26" s="4">
-        <f t="shared" si="30"/>
-        <v>516800.27121071331</v>
+        <f t="shared" ref="DO26" si="115">+DN26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="DP26" s="4">
-        <f t="shared" si="30"/>
-        <v>521968.27392282046</v>
+        <f t="shared" ref="DP26" si="116">+DO26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="DQ26" s="4">
-        <f t="shared" si="30"/>
-        <v>527187.9566620487</v>
+        <f t="shared" ref="DQ26" si="117">+DP26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="DR26" s="4">
-        <f t="shared" si="30"/>
-        <v>532459.83622866916</v>
+        <f t="shared" ref="DR26" si="118">+DQ26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="DS26" s="4">
-        <f t="shared" si="30"/>
-        <v>537784.43459095585</v>
+        <f t="shared" ref="DS26" si="119">+DR26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="DT26" s="4">
-        <f t="shared" si="30"/>
-        <v>543162.27893686539</v>
+        <f t="shared" ref="DT26" si="120">+DS26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="DU26" s="4">
-        <f t="shared" si="30"/>
-        <v>548593.90172623401</v>
+        <f t="shared" ref="DU26" si="121">+DT26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="DV26" s="4">
-        <f t="shared" si="30"/>
-        <v>554079.84074349632</v>
+        <f t="shared" ref="DV26" si="122">+DU26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="DW26" s="4">
-        <f t="shared" si="30"/>
-        <v>559620.63915093127</v>
+        <f t="shared" ref="DW26" si="123">+DV26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="DX26" s="4">
-        <f t="shared" si="30"/>
-        <v>565216.84554244054</v>
+        <f t="shared" ref="DX26" si="124">+DW26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="DY26" s="4">
-        <f t="shared" si="30"/>
-        <v>570869.01399786491</v>
+        <f t="shared" ref="DY26:FF26" si="125">+DX26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
       </c>
       <c r="DZ26" s="4">
-        <f t="shared" si="30"/>
-        <v>576577.70413784357</v>
+        <f t="shared" si="125"/>
+        <v>388634.67412495345</v>
       </c>
       <c r="EA26" s="4">
-        <f t="shared" si="30"/>
-        <v>582343.481179222</v>
+        <f t="shared" si="125"/>
+        <v>388634.67412495345</v>
       </c>
       <c r="EB26" s="4">
-        <f t="shared" si="30"/>
-        <v>588166.91599101422</v>
+        <f t="shared" si="125"/>
+        <v>388634.67412495345</v>
       </c>
       <c r="EC26" s="4">
-        <f t="shared" si="30"/>
-        <v>594048.58515092439</v>
+        <f t="shared" si="125"/>
+        <v>388634.67412495345</v>
       </c>
       <c r="ED26" s="4">
-        <f t="shared" si="30"/>
-        <v>599989.07100243366</v>
+        <f t="shared" si="125"/>
+        <v>388634.67412495345</v>
       </c>
       <c r="EE26" s="4">
-        <f t="shared" si="30"/>
-        <v>605988.96171245805</v>
+        <f t="shared" si="125"/>
+        <v>388634.67412495345</v>
       </c>
       <c r="EF26" s="4">
-        <f t="shared" si="30"/>
-        <v>612048.85132958263</v>
+        <f t="shared" si="125"/>
+        <v>388634.67412495345</v>
       </c>
       <c r="EG26" s="4">
-        <f t="shared" si="30"/>
-        <v>618169.33984287851</v>
+        <f t="shared" si="125"/>
+        <v>388634.67412495345</v>
       </c>
       <c r="EH26" s="4">
-        <f t="shared" si="30"/>
-        <v>624351.03324130736</v>
+        <f t="shared" si="125"/>
+        <v>388634.67412495345</v>
       </c>
       <c r="EI26" s="4">
-        <f t="shared" si="30"/>
-        <v>630594.5435737205</v>
+        <f t="shared" si="125"/>
+        <v>388634.67412495345</v>
       </c>
       <c r="EJ26" s="4">
-        <f t="shared" si="30"/>
-        <v>636900.48900945776</v>
+        <f t="shared" si="125"/>
+        <v>388634.67412495345</v>
       </c>
       <c r="EK26" s="4">
-        <f t="shared" si="30"/>
-        <v>643269.49389955238</v>
+        <f t="shared" si="125"/>
+        <v>388634.67412495345</v>
       </c>
       <c r="EL26" s="4">
-        <f t="shared" si="30"/>
-        <v>649702.18883854791</v>
+        <f t="shared" si="125"/>
+        <v>388634.67412495345</v>
       </c>
       <c r="EM26" s="4">
-        <f t="shared" si="30"/>
-        <v>656199.21072693344</v>
+        <f t="shared" si="125"/>
+        <v>388634.67412495345</v>
       </c>
       <c r="EN26" s="4">
-        <f t="shared" si="30"/>
-        <v>662761.20283420279</v>
+        <f t="shared" si="125"/>
+        <v>388634.67412495345</v>
       </c>
       <c r="EO26" s="4">
-        <f t="shared" si="30"/>
-        <v>669388.81486254488</v>
+        <f t="shared" si="125"/>
+        <v>388634.67412495345</v>
       </c>
       <c r="EP26" s="4">
-        <f t="shared" si="30"/>
-        <v>676082.70301117038</v>
+        <f t="shared" si="125"/>
+        <v>388634.67412495345</v>
       </c>
       <c r="EQ26" s="4">
-        <f t="shared" si="30"/>
-        <v>682843.53004128207</v>
+        <f t="shared" si="125"/>
+        <v>388634.67412495345</v>
       </c>
       <c r="ER26" s="4">
-        <f t="shared" si="30"/>
-        <v>689671.96534169489</v>
+        <f t="shared" si="125"/>
+        <v>388634.67412495345</v>
       </c>
       <c r="ES26" s="4">
-        <f t="shared" si="30"/>
-        <v>696568.68499511189</v>
+        <f t="shared" si="125"/>
+        <v>388634.67412495345</v>
       </c>
       <c r="ET26" s="4">
-        <f t="shared" si="30"/>
-        <v>703534.37184506305</v>
+        <f t="shared" si="125"/>
+        <v>388634.67412495345</v>
       </c>
       <c r="EU26" s="4">
-        <f t="shared" si="30"/>
-        <v>710569.71556351369</v>
+        <f t="shared" si="125"/>
+        <v>388634.67412495345</v>
       </c>
       <c r="EV26" s="4">
-        <f t="shared" si="30"/>
-        <v>717675.41271914879</v>
+        <f t="shared" si="125"/>
+        <v>388634.67412495345</v>
       </c>
       <c r="EW26" s="4">
-        <f t="shared" si="30"/>
-        <v>724852.16684634029</v>
+        <f t="shared" si="125"/>
+        <v>388634.67412495345</v>
       </c>
       <c r="EX26" s="4">
-        <f t="shared" si="30"/>
-        <v>732100.68851480365</v>
+        <f t="shared" si="125"/>
+        <v>388634.67412495345</v>
       </c>
       <c r="EY26" s="4">
-        <f t="shared" si="30"/>
-        <v>739421.69539995166</v>
+        <f t="shared" si="125"/>
+        <v>388634.67412495345</v>
       </c>
       <c r="EZ26" s="4">
-        <f t="shared" si="30"/>
-        <v>746815.91235395113</v>
+        <f t="shared" si="125"/>
+        <v>388634.67412495345</v>
       </c>
       <c r="FA26" s="4">
-        <f t="shared" si="30"/>
-        <v>754284.07147749071</v>
+        <f t="shared" si="125"/>
+        <v>388634.67412495345</v>
       </c>
       <c r="FB26" s="4">
-        <f t="shared" si="30"/>
-        <v>761826.91219226562</v>
+        <f t="shared" si="125"/>
+        <v>388634.67412495345</v>
       </c>
       <c r="FC26" s="4">
-        <f t="shared" si="30"/>
-        <v>769445.18131418829</v>
+        <f t="shared" si="125"/>
+        <v>388634.67412495345</v>
       </c>
       <c r="FD26" s="4">
-        <f t="shared" si="30"/>
-        <v>777139.63312733022</v>
+        <f t="shared" si="125"/>
+        <v>388634.67412495345</v>
       </c>
       <c r="FE26" s="4">
-        <f t="shared" si="30"/>
-        <v>784911.02945860347</v>
+        <f t="shared" si="125"/>
+        <v>388634.67412495345</v>
       </c>
       <c r="FF26" s="4">
-        <f t="shared" si="30"/>
-        <v>792760.13975318952</v>
-      </c>
-    </row>
-    <row r="27" spans="2:162">
+        <f t="shared" si="125"/>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="FG26" s="4">
+        <f t="shared" ref="FG26" si="126">+FF26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="FH26" s="4">
+        <f t="shared" ref="FH26" si="127">+FG26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="FI26" s="4">
+        <f t="shared" ref="FI26" si="128">+FH26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="FJ26" s="4">
+        <f t="shared" ref="FJ26" si="129">+FI26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="FK26" s="4">
+        <f t="shared" ref="FK26" si="130">+FJ26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="FL26" s="4">
+        <f t="shared" ref="FL26" si="131">+FK26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="FM26" s="4">
+        <f t="shared" ref="FM26" si="132">+FL26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="FN26" s="4">
+        <f t="shared" ref="FN26" si="133">+FM26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="FO26" s="4">
+        <f t="shared" ref="FO26" si="134">+FN26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="FP26" s="4">
+        <f t="shared" ref="FP26" si="135">+FO26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="FQ26" s="4">
+        <f t="shared" ref="FQ26" si="136">+FP26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="FR26" s="4">
+        <f t="shared" ref="FR26" si="137">+FQ26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="FS26" s="4">
+        <f t="shared" ref="FS26" si="138">+FR26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="FT26" s="4">
+        <f t="shared" ref="FT26" si="139">+FS26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="FU26" s="4">
+        <f t="shared" ref="FU26" si="140">+FT26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="FV26" s="4">
+        <f t="shared" ref="FV26" si="141">+FU26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="FW26" s="4">
+        <f t="shared" ref="FW26" si="142">+FV26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="FX26" s="4">
+        <f t="shared" ref="FX26" si="143">+FW26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="FY26" s="4">
+        <f t="shared" ref="FY26" si="144">+FX26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="FZ26" s="4">
+        <f t="shared" ref="FZ26" si="145">+FY26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="GA26" s="4">
+        <f t="shared" ref="GA26" si="146">+FZ26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="GB26" s="4">
+        <f t="shared" ref="GB26" si="147">+GA26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="GC26" s="4">
+        <f t="shared" ref="GC26" si="148">+GB26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="GD26" s="4">
+        <f t="shared" ref="GD26" si="149">+GC26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="GE26" s="4">
+        <f t="shared" ref="GE26" si="150">+GD26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="GF26" s="4">
+        <f t="shared" ref="GF26" si="151">+GE26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="GG26" s="4">
+        <f t="shared" ref="GG26" si="152">+GF26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="GH26" s="4">
+        <f t="shared" ref="GH26" si="153">+GG26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="GI26" s="4">
+        <f t="shared" ref="GI26" si="154">+GH26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="GJ26" s="4">
+        <f t="shared" ref="GJ26" si="155">+GI26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="GK26" s="4">
+        <f t="shared" ref="GK26" si="156">+GJ26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="GL26" s="4">
+        <f t="shared" ref="GL26" si="157">+GK26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="GM26" s="4">
+        <f t="shared" ref="GM26" si="158">+GL26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="GN26" s="4">
+        <f t="shared" ref="GN26" si="159">+GM26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="GO26" s="4">
+        <f t="shared" ref="GO26" si="160">+GN26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="GP26" s="4">
+        <f t="shared" ref="GP26" si="161">+GO26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="GQ26" s="4">
+        <f t="shared" ref="GQ26" si="162">+GP26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="GR26" s="4">
+        <f t="shared" ref="GR26" si="163">+GQ26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="GS26" s="4">
+        <f t="shared" ref="GS26" si="164">+GR26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="GT26" s="4">
+        <f t="shared" ref="GT26" si="165">+GS26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="GU26" s="4">
+        <f t="shared" ref="GU26" si="166">+GT26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="GV26" s="4">
+        <f t="shared" ref="GV26" si="167">+GU26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="GW26" s="4">
+        <f t="shared" ref="GW26" si="168">+GV26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="GX26" s="4">
+        <f t="shared" ref="GX26" si="169">+GW26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="GY26" s="4">
+        <f t="shared" ref="GY26" si="170">+GX26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="GZ26" s="4">
+        <f t="shared" ref="GZ26" si="171">+GY26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="HA26" s="4">
+        <f t="shared" ref="HA26" si="172">+GZ26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="HB26" s="4">
+        <f t="shared" ref="HB26" si="173">+HA26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="HC26" s="4">
+        <f t="shared" ref="HC26" si="174">+HB26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="HD26" s="4">
+        <f t="shared" ref="HD26" si="175">+HC26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="HE26" s="4">
+        <f t="shared" ref="HE26" si="176">+HD26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="HF26" s="4">
+        <f t="shared" ref="HF26" si="177">+HE26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="HG26" s="4">
+        <f t="shared" ref="HG26" si="178">+HF26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="HH26" s="4">
+        <f t="shared" ref="HH26" si="179">+HG26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="HI26" s="4">
+        <f t="shared" ref="HI26" si="180">+HH26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="HJ26" s="4">
+        <f t="shared" ref="HJ26" si="181">+HI26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="HK26" s="4">
+        <f t="shared" ref="HK26" si="182">+HJ26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="HL26" s="4">
+        <f t="shared" ref="HL26" si="183">+HK26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="HM26" s="4">
+        <f t="shared" ref="HM26" si="184">+HL26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="HN26" s="4">
+        <f t="shared" ref="HN26" si="185">+HM26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="HO26" s="4">
+        <f t="shared" ref="HO26" si="186">+HN26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="HP26" s="4">
+        <f t="shared" ref="HP26" si="187">+HO26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="HQ26" s="4">
+        <f t="shared" ref="HQ26" si="188">+HP26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="HR26" s="4">
+        <f t="shared" ref="HR26" si="189">+HQ26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="HS26" s="4">
+        <f t="shared" ref="HS26" si="190">+HR26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="HT26" s="4">
+        <f t="shared" ref="HT26" si="191">+HS26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="HU26" s="4">
+        <f t="shared" ref="HU26" si="192">+HT26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="HV26" s="4">
+        <f t="shared" ref="HV26" si="193">+HU26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="HW26" s="4">
+        <f t="shared" ref="HW26" si="194">+HV26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="HX26" s="4">
+        <f t="shared" ref="HX26" si="195">+HW26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="HY26" s="4">
+        <f t="shared" ref="HY26" si="196">+HX26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="HZ26" s="4">
+        <f t="shared" ref="HZ26" si="197">+HY26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="IA26" s="4">
+        <f t="shared" ref="IA26" si="198">+HZ26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="IB26" s="4">
+        <f t="shared" ref="IB26" si="199">+IA26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="IC26" s="4">
+        <f t="shared" ref="IC26:ID26" si="200">+IB26*(1+$AR$31)</f>
+        <v>388634.67412495345</v>
+      </c>
+      <c r="ID26" s="4">
+        <f t="shared" si="200"/>
+        <v>388634.67412495345</v>
+      </c>
+    </row>
+    <row r="27" spans="2:238">
       <c r="B27" s="1" t="s">
         <v>32</v>
       </c>
@@ -3761,20 +5083,19 @@
         <v>2492.1543078683858</v>
       </c>
       <c r="S27" s="1">
-        <f>+R27</f>
-        <v>2492.1543078683858</v>
+        <v>2489</v>
       </c>
       <c r="T27" s="1">
-        <f t="shared" ref="T27:V27" si="31">+S27</f>
-        <v>2492.1543078683858</v>
+        <f>+S27*10</f>
+        <v>24890</v>
       </c>
       <c r="U27" s="1">
-        <f t="shared" si="31"/>
-        <v>2492.1543078683858</v>
+        <f t="shared" ref="U27:V27" si="201">+T27</f>
+        <v>24890</v>
       </c>
       <c r="V27" s="1">
-        <f t="shared" si="31"/>
-        <v>2492.1543078683858</v>
+        <f t="shared" si="201"/>
+        <v>24890</v>
       </c>
       <c r="X27" s="1">
         <v>2472</v>
@@ -3793,46 +5114,46 @@
       </c>
       <c r="AC27" s="1">
         <f>+AC26/AC28</f>
-        <v>2492.1543078683858</v>
+        <v>7783.982567691568</v>
       </c>
       <c r="AD27" s="1">
         <f>+AC27</f>
-        <v>2492.1543078683858</v>
+        <v>7783.982567691568</v>
       </c>
       <c r="AE27" s="1">
-        <f t="shared" ref="AE27:AL27" si="32">+AD27</f>
-        <v>2492.1543078683858</v>
+        <f t="shared" ref="AE27:AL27" si="202">+AD27</f>
+        <v>7783.982567691568</v>
       </c>
       <c r="AF27" s="1">
-        <f t="shared" si="32"/>
-        <v>2492.1543078683858</v>
+        <f t="shared" si="202"/>
+        <v>7783.982567691568</v>
       </c>
       <c r="AG27" s="1">
-        <f t="shared" si="32"/>
-        <v>2492.1543078683858</v>
+        <f t="shared" si="202"/>
+        <v>7783.982567691568</v>
       </c>
       <c r="AH27" s="1">
-        <f t="shared" si="32"/>
-        <v>2492.1543078683858</v>
+        <f t="shared" si="202"/>
+        <v>7783.982567691568</v>
       </c>
       <c r="AI27" s="1">
-        <f t="shared" si="32"/>
-        <v>2492.1543078683858</v>
+        <f t="shared" si="202"/>
+        <v>7783.982567691568</v>
       </c>
       <c r="AJ27" s="1">
-        <f t="shared" si="32"/>
-        <v>2492.1543078683858</v>
+        <f t="shared" si="202"/>
+        <v>7783.982567691568</v>
       </c>
       <c r="AK27" s="1">
-        <f t="shared" si="32"/>
-        <v>2492.1543078683858</v>
+        <f t="shared" si="202"/>
+        <v>7783.982567691568</v>
       </c>
       <c r="AL27" s="1">
-        <f t="shared" si="32"/>
-        <v>2492.1543078683858</v>
-      </c>
-    </row>
-    <row r="28" spans="2:162" s="5" customFormat="1">
+        <f t="shared" si="202"/>
+        <v>7783.982567691568</v>
+      </c>
+    </row>
+    <row r="28" spans="2:238" s="5" customFormat="1">
       <c r="B28" s="5" t="s">
         <v>33</v>
       </c>
@@ -3886,19 +5207,19 @@
       </c>
       <c r="S28" s="5">
         <f>+S26/S27</f>
-        <v>2.8919830737945711</v>
+        <v>5.978706307754118</v>
       </c>
       <c r="T28" s="5">
-        <f t="shared" ref="T28:V28" si="33">+T26/T27</f>
-        <v>5.3595743108605474</v>
+        <f t="shared" ref="T28:V28" si="203">+T26/T27</f>
+        <v>0.53321184619745254</v>
       </c>
       <c r="U28" s="5">
-        <f t="shared" si="33"/>
-        <v>6.7254241236461683</v>
+        <f t="shared" si="203"/>
+        <v>0.59640876368161211</v>
       </c>
       <c r="V28" s="5">
-        <f t="shared" si="33"/>
-        <v>7.9220040560805449</v>
+        <f t="shared" si="203"/>
+        <v>0.72102322362447613</v>
       </c>
       <c r="X28" s="5">
         <f>+X26/X27</f>
@@ -3921,1103 +5242,2334 @@
         <v>11.932638331996792</v>
       </c>
       <c r="AC28" s="1">
-        <f t="shared" si="4"/>
-        <v>22.898985564381832</v>
+        <f t="shared" si="13"/>
+        <v>7.8293501412576587</v>
       </c>
       <c r="AD28" s="5">
         <f>+AD26/AD27</f>
-        <v>29.451169811687038</v>
+        <v>10.752494948297569</v>
       </c>
       <c r="AE28" s="5">
-        <f t="shared" ref="AE28:AL28" si="34">+AE26/AE27</f>
-        <v>38.261388302838036</v>
+        <f t="shared" ref="AE28:AL28" si="204">+AE26/AE27</f>
+        <v>13.966510006837705</v>
       </c>
       <c r="AF28" s="5">
-        <f t="shared" si="34"/>
-        <v>45.893431122732217</v>
+        <f t="shared" si="204"/>
+        <v>16.750749898368703</v>
       </c>
       <c r="AG28" s="5">
-        <f t="shared" si="34"/>
-        <v>55.051882506605217</v>
+        <f t="shared" si="204"/>
+        <v>20.091837768205895</v>
       </c>
       <c r="AH28" s="5">
-        <f t="shared" si="34"/>
-        <v>63.294488752090928</v>
+        <f t="shared" si="204"/>
+        <v>24.10114321201053</v>
       </c>
       <c r="AI28" s="5">
-        <f t="shared" si="34"/>
-        <v>69.613820206963325</v>
+        <f t="shared" si="204"/>
+        <v>28.912309744576088</v>
       </c>
       <c r="AJ28" s="5">
-        <f t="shared" si="34"/>
-        <v>76.565084807322947</v>
+        <f t="shared" si="204"/>
+        <v>34.685709583654749</v>
       </c>
       <c r="AK28" s="5">
-        <f t="shared" si="34"/>
-        <v>84.211475867718534</v>
+        <f t="shared" si="204"/>
+        <v>41.613789390549165</v>
       </c>
       <c r="AL28" s="5">
-        <f t="shared" si="34"/>
-        <v>92.622506034153687</v>
-      </c>
-    </row>
-    <row r="30" spans="2:162">
-      <c r="AQ30" s="1" t="s">
+        <f t="shared" si="204"/>
+        <v>49.927485158822456</v>
+      </c>
+    </row>
+    <row r="30" spans="2:238">
+      <c r="AC30" s="3"/>
+      <c r="AQ30" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="AR30" s="3">
+      <c r="AR30" s="24">
         <v>0.03</v>
       </c>
     </row>
-    <row r="31" spans="2:162">
-      <c r="B31" s="21" t="s">
+    <row r="31" spans="2:238">
+      <c r="B31" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="AQ31" s="1" t="s">
+      <c r="AC31" s="3"/>
+      <c r="AQ31" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AR31" s="3">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="32" spans="2:162" s="3" customFormat="1">
+      <c r="AR31" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:238" s="3" customFormat="1">
       <c r="B32" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G32" s="3">
-        <f t="shared" ref="G32:P32" si="35">+IFERROR(G13/C13-1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <f t="shared" si="35"/>
-        <v>6.4039408866995107E-2</v>
-      </c>
-      <c r="L32" s="3">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <f t="shared" si="35"/>
-        <v>0.26735303885752248</v>
-      </c>
-      <c r="N32" s="3">
-        <f t="shared" si="35"/>
-        <v>4.4254062038404722</v>
+        <v>43</v>
       </c>
       <c r="O32" s="3">
-        <f t="shared" si="35"/>
-        <v>0.21459694989106759</v>
+        <f t="shared" ref="O32:Q36" si="205">+O5/K5-1</f>
+        <v>0.14240000000000008</v>
       </c>
       <c r="P32" s="3">
-        <f t="shared" si="35"/>
-        <v>1.6624008190427437</v>
+        <f t="shared" si="205"/>
+        <v>1.712296374146085</v>
       </c>
       <c r="Q32" s="3">
-        <f t="shared" ref="Q32:R34" si="36">+IFERROR(Q13/M13-1,0)</f>
-        <v>2.8377882599580713</v>
+        <f t="shared" si="205"/>
+        <v>2.7865901382728935</v>
       </c>
       <c r="R32" s="3">
-        <f t="shared" si="36"/>
-        <v>3.8728559760413832</v>
-      </c>
-      <c r="Z32" s="3">
-        <f t="shared" ref="Z32:AC34" si="37">+Z13/Y13-1</f>
-        <v>0.12324588163514338</v>
+        <f>+R5/N5-1</f>
+        <v>4.0896017699115044</v>
+      </c>
+      <c r="S32" s="3">
+        <f>+S5/O5-1</f>
+        <v>4.2668067226890756</v>
       </c>
       <c r="AA32" s="3">
-        <f t="shared" si="37"/>
-        <v>0.36411370631902962</v>
+        <f>+AA5/Z5-1</f>
+        <v>0.4138320927164798</v>
       </c>
       <c r="AB32" s="3">
-        <f t="shared" si="37"/>
-        <v>2.1460711441465357</v>
-      </c>
-      <c r="AC32" s="3">
-        <f t="shared" si="37"/>
-        <v>0.90261948137327952</v>
-      </c>
-      <c r="AQ32" s="3" t="s">
+        <f>+AB5/AA5-1</f>
+        <v>2.1672775741419525</v>
+      </c>
+      <c r="AQ32" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="AR32" s="3">
+      <c r="AR32" s="34">
         <v>0.08</v>
       </c>
     </row>
     <row r="33" spans="2:44" s="3" customFormat="1">
       <c r="B33" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G33" s="3">
-        <f t="shared" ref="G33:P33" si="38">+IFERROR(G14/C14-1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
-        <f t="shared" si="38"/>
-        <v>1.08868778280543</v>
-      </c>
-      <c r="L33" s="3">
-        <f t="shared" si="38"/>
-        <v>7.5769230769230811E-2</v>
-      </c>
-      <c r="M33" s="3">
-        <f t="shared" si="38"/>
-        <v>-0.48313782991202348</v>
-      </c>
-      <c r="N33" s="3">
-        <f t="shared" si="38"/>
-        <v>-0.65862761986792995</v>
+        <v>48</v>
       </c>
       <c r="O33" s="3">
-        <f t="shared" si="38"/>
-        <v>-0.40814558058925476</v>
+        <f t="shared" si="205"/>
+        <v>-0.38121546961325969</v>
       </c>
       <c r="P33" s="3">
-        <f t="shared" si="38"/>
-        <v>0.11011798355380775</v>
+        <f t="shared" si="205"/>
+        <v>0.21743388834475996</v>
       </c>
       <c r="Q33" s="3">
-        <f t="shared" si="36"/>
-        <v>0.64302600472813243</v>
+        <f t="shared" si="205"/>
+        <v>0.81448538754764921</v>
       </c>
       <c r="R33" s="3">
-        <f t="shared" si="36"/>
-        <v>0.76829268292682928</v>
-      </c>
-      <c r="Z33" s="3">
-        <f t="shared" si="37"/>
-        <v>1.3195439263265603</v>
+        <f t="shared" ref="R33:S36" si="206">+R6/N6-1</f>
+        <v>0.5647187329328236</v>
+      </c>
+      <c r="S33" s="3">
+        <f t="shared" si="206"/>
+        <v>0.18169642857142865</v>
       </c>
       <c r="AA33" s="3">
-        <f t="shared" si="37"/>
-        <v>-0.24968490042853542</v>
+        <f t="shared" ref="AA33:AB36" si="207">+AA6/Z6-1</f>
+        <v>-0.27242818167228378</v>
       </c>
       <c r="AB33" s="3">
-        <f t="shared" si="37"/>
-        <v>0.13530992776751227</v>
-      </c>
-      <c r="AC33" s="3">
-        <f t="shared" si="37"/>
-        <v>0.56767947662201035</v>
-      </c>
-      <c r="AQ33" s="3" t="s">
+        <f t="shared" si="207"/>
+        <v>0.15220028675416342</v>
+      </c>
+      <c r="AQ33" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="AR33" s="20">
-        <f>NPV(AR32,AC26:FF26)</f>
-        <v>2426834.9261062825</v>
+      <c r="AR33" s="27">
+        <f>NPV(AR32,AC26:ID26)</f>
+        <v>3404389.332483226</v>
       </c>
     </row>
     <row r="34" spans="2:44" s="3" customFormat="1">
       <c r="B34" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O34" s="3">
+        <f t="shared" si="205"/>
+        <v>-0.52572347266881025</v>
+      </c>
+      <c r="P34" s="3">
+        <f t="shared" si="205"/>
+        <v>-0.23588709677419351</v>
+      </c>
+      <c r="Q34" s="3">
+        <f t="shared" si="205"/>
+        <v>1.08</v>
+      </c>
+      <c r="R34" s="3">
+        <f t="shared" si="206"/>
+        <v>1.0486725663716814</v>
+      </c>
+      <c r="S34" s="3">
+        <f t="shared" si="206"/>
+        <v>0.44745762711864412</v>
+      </c>
+      <c r="AA34" s="3">
+        <f t="shared" si="207"/>
+        <v>-0.26859308384651825</v>
+      </c>
+      <c r="AB34" s="3">
+        <f t="shared" si="207"/>
+        <v>5.8290155440414715E-3</v>
+      </c>
+      <c r="AQ34" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR34" s="29">
+        <f>+S49</f>
+        <v>21728</v>
+      </c>
+    </row>
+    <row r="35" spans="2:44" s="3" customFormat="1">
+      <c r="B35" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O35" s="3">
+        <f t="shared" si="205"/>
+        <v>1.1449275362318843</v>
+      </c>
+      <c r="P35" s="3">
+        <f t="shared" si="205"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="Q35" s="3">
+        <f t="shared" si="205"/>
+        <v>3.9840637450199168E-2</v>
+      </c>
+      <c r="R35" s="3">
+        <f t="shared" si="206"/>
+        <v>-4.4217687074829981E-2</v>
+      </c>
+      <c r="S35" s="3">
+        <f t="shared" si="206"/>
+        <v>0.1114864864864864</v>
+      </c>
+      <c r="AA35" s="3">
+        <f t="shared" si="207"/>
+        <v>0.59540636042402828</v>
+      </c>
+      <c r="AB35" s="3">
+        <f t="shared" si="207"/>
+        <v>0.20819490586932443</v>
+      </c>
+      <c r="AQ35" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR35" s="30">
+        <f>SUM(AR33:AR34)</f>
+        <v>3426117.332483226</v>
+      </c>
+    </row>
+    <row r="36" spans="2:44" s="3" customFormat="1">
+      <c r="B36" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O36" s="3">
+        <f t="shared" si="205"/>
+        <v>-0.51265822784810133</v>
+      </c>
+      <c r="P36" s="3">
+        <f t="shared" si="205"/>
+        <v>-0.52857142857142858</v>
+      </c>
+      <c r="Q36" s="3">
+        <f t="shared" si="205"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="3">
+        <f t="shared" si="206"/>
+        <v>7.1428571428571397E-2</v>
+      </c>
+      <c r="S36" s="3">
+        <f t="shared" si="206"/>
+        <v>1.298701298701288E-2</v>
+      </c>
+      <c r="AA36" s="3">
+        <f t="shared" si="207"/>
+        <v>-0.60843373493975905</v>
+      </c>
+      <c r="AB36" s="3">
+        <f t="shared" si="207"/>
+        <v>-0.32747252747252742</v>
+      </c>
+      <c r="AQ36" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR36" s="12">
+        <f>+Main!K4</f>
+        <v>24600</v>
+      </c>
+    </row>
+    <row r="37" spans="2:44" s="3" customFormat="1">
+      <c r="B37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G37" s="3">
+        <f>+IFERROR(G13/C13-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="3">
+        <f>+IFERROR(H13/D13-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="3">
+        <f>+IFERROR(I13/E13-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="3">
+        <f>+IFERROR(J13/F13-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="3">
+        <f>+IFERROR(K13/G13-1,0)</f>
+        <v>6.4039408866995107E-2</v>
+      </c>
+      <c r="L37" s="3">
+        <f>+IFERROR(L13/H13-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="3">
+        <f>+IFERROR(M13/I13-1,0)</f>
+        <v>0.26735303885752248</v>
+      </c>
+      <c r="N37" s="3">
+        <f>+IFERROR(N13/J13-1,0)</f>
+        <v>4.4254062038404722</v>
+      </c>
+      <c r="O37" s="3">
+        <f>+IFERROR(O13/K13-1,0)</f>
+        <v>0.21459694989106759</v>
+      </c>
+      <c r="P37" s="3">
+        <f>+IFERROR(P13/L13-1,0)</f>
+        <v>1.6624008190427437</v>
+      </c>
+      <c r="Q37" s="3">
+        <f>+IFERROR(Q13/M13-1,0)</f>
+        <v>2.8377882599580713</v>
+      </c>
+      <c r="R37" s="3">
+        <f>+IFERROR(R13/N13-1,0)</f>
+        <v>3.8728559760413832</v>
+      </c>
+      <c r="S37" s="3">
+        <f>+IFERROR(S13/O13-1,0)</f>
+        <v>4.0840807174887894</v>
+      </c>
+      <c r="T37" s="3">
+        <f>+IFERROR(T13/P13-1,0)</f>
+        <v>1.3435854387016235</v>
+      </c>
+      <c r="U37" s="3">
+        <f>+IFERROR(U13/Q13-1,0)</f>
+        <v>0.83105314487618442</v>
+      </c>
+      <c r="V37" s="3">
+        <f>+IFERROR(V13/R13-1,0)</f>
+        <v>0.64808082676181122</v>
+      </c>
+      <c r="Z37" s="3">
+        <f>+Z13/Y13-1</f>
+        <v>0.12324588163514338</v>
+      </c>
+      <c r="AA37" s="3">
+        <f>+AA13/Z13-1</f>
+        <v>0.36411370631902962</v>
+      </c>
+      <c r="AB37" s="3">
+        <f>+AB13/AA13-1</f>
+        <v>2.1460711441465357</v>
+      </c>
+      <c r="AC37" s="3">
+        <f>+AC13/AB13-1</f>
+        <v>1.1804893930486005</v>
+      </c>
+      <c r="AQ37" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR37" s="31">
+        <f>+AR35/AR36</f>
+        <v>139.27306229606609</v>
+      </c>
+    </row>
+    <row r="38" spans="2:44" s="3" customFormat="1">
+      <c r="B38" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="3">
+        <f>+IFERROR(G14/C14-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="3">
+        <f>+IFERROR(H14/D14-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="3">
+        <f>+IFERROR(I14/E14-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="3">
+        <f>+IFERROR(J14/F14-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K38" s="3">
+        <f>+IFERROR(K14/G14-1,0)</f>
+        <v>1.08868778280543</v>
+      </c>
+      <c r="L38" s="3">
+        <f>+IFERROR(L14/H14-1,0)</f>
+        <v>7.5769230769230811E-2</v>
+      </c>
+      <c r="M38" s="3">
+        <f>+IFERROR(M14/I14-1,0)</f>
+        <v>-0.48313782991202348</v>
+      </c>
+      <c r="N38" s="3">
+        <f>+IFERROR(N14/J14-1,0)</f>
+        <v>-0.65862761986792995</v>
+      </c>
+      <c r="O38" s="3">
+        <f>+IFERROR(O14/K14-1,0)</f>
+        <v>-0.40814558058925476</v>
+      </c>
+      <c r="P38" s="3">
+        <f>+IFERROR(P14/L14-1,0)</f>
+        <v>0.11011798355380775</v>
+      </c>
+      <c r="Q38" s="3">
+        <f>+IFERROR(Q14/M14-1,0)</f>
+        <v>0.64302600472813243</v>
+      </c>
+      <c r="R38" s="3">
+        <f>+IFERROR(R14/N14-1,0)</f>
+        <v>0.76829268292682928</v>
+      </c>
+      <c r="S38" s="3">
+        <f>+IFERROR(S14/O14-1,0)</f>
+        <v>0.23316251830161061</v>
+      </c>
+      <c r="T38" s="3">
+        <f>+IFERROR(T14/P14-1,0)</f>
+        <v>0.16651345140924656</v>
+      </c>
+      <c r="U38" s="3">
+        <f>+IFERROR(U14/Q14-1,0)</f>
+        <v>0.14654005562252714</v>
+      </c>
+      <c r="V38" s="3">
+        <f>+IFERROR(V14/R14-1,0)</f>
+        <v>4.2247173036173757E-2</v>
+      </c>
+      <c r="Z38" s="3">
+        <f>+Z14/Y14-1</f>
+        <v>1.3195439263265603</v>
+      </c>
+      <c r="AA38" s="3">
+        <f>+AA14/Z14-1</f>
+        <v>-0.24968490042853542</v>
+      </c>
+      <c r="AB38" s="3">
+        <f>+AB14/AA14-1</f>
+        <v>0.13530992776751227</v>
+      </c>
+      <c r="AC38" s="3">
+        <f>+AC14/AB14-1</f>
+        <v>0.13619148646379386</v>
+      </c>
+      <c r="AQ38" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR38" s="12">
+        <f>+Main!K3</f>
+        <v>135.58000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="2:44" s="20" customFormat="1">
+      <c r="B39" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G34" s="3">
-        <f t="shared" ref="G34:P37" si="39">+IFERROR(G15/C15-1,0)</f>
+      <c r="G39" s="20">
+        <f>+IFERROR(G15/C15-1,0)</f>
         <v>0</v>
       </c>
-      <c r="H34" s="3">
-        <f t="shared" si="39"/>
+      <c r="H39" s="20">
+        <f>+IFERROR(H15/D15-1,0)</f>
         <v>0</v>
       </c>
-      <c r="I34" s="3">
-        <f t="shared" si="39"/>
+      <c r="I39" s="20">
+        <f>+IFERROR(I15/E15-1,0)</f>
         <v>0</v>
       </c>
-      <c r="J34" s="3">
-        <f t="shared" si="39"/>
+      <c r="J39" s="20">
+        <f>+IFERROR(J15/F15-1,0)</f>
         <v>0</v>
       </c>
-      <c r="K34" s="3">
-        <f t="shared" si="39"/>
+      <c r="K39" s="20">
+        <f>+IFERROR(K15/G15-1,0)</f>
         <v>0.46405228758169925</v>
       </c>
-      <c r="L34" s="3">
-        <f t="shared" si="39"/>
+      <c r="L39" s="20">
+        <f>+IFERROR(L15/H15-1,0)</f>
         <v>3.0275088366374714E-2</v>
       </c>
-      <c r="M34" s="3">
-        <f t="shared" si="39"/>
+      <c r="M39" s="20">
+        <f>+IFERROR(M15/I15-1,0)</f>
         <v>-0.16500070392791777</v>
       </c>
-      <c r="N34" s="3">
-        <f t="shared" si="39"/>
+      <c r="N39" s="20">
+        <f>+IFERROR(N15/J15-1,0)</f>
         <v>-0.20829517205285886</v>
       </c>
-      <c r="O34" s="3">
-        <f t="shared" si="39"/>
+      <c r="O39" s="20">
+        <f>+IFERROR(O15/K15-1,0)</f>
         <v>-0.13223938223938225</v>
       </c>
-      <c r="P34" s="3">
-        <f t="shared" si="39"/>
+      <c r="P39" s="20">
+        <f>+IFERROR(P15/L15-1,0)</f>
         <v>1.0147673031026252</v>
       </c>
-      <c r="Q34" s="3">
-        <f t="shared" si="36"/>
+      <c r="Q39" s="20">
+        <f>+IFERROR(Q15/M15-1,0)</f>
         <v>2.0551340414769852</v>
       </c>
-      <c r="R34" s="3">
-        <f t="shared" si="36"/>
+      <c r="R39" s="20">
+        <f>+IFERROR(R15/N15-1,0)</f>
         <v>2.6527846636919516</v>
       </c>
-      <c r="S34" s="3">
+      <c r="S39" s="20">
         <f>+IFERROR(S15/O15-1,0)</f>
-        <v>2.3370411568409342</v>
-      </c>
-      <c r="Y34" s="3">
+        <v>2.6212458286985538</v>
+      </c>
+      <c r="T39" s="20">
+        <f>+IFERROR(T15/P15-1,0)</f>
+        <v>1.072999185607463</v>
+      </c>
+      <c r="U39" s="20">
+        <f>+IFERROR(U15/Q15-1,0)</f>
+        <v>0.69977924944812386</v>
+      </c>
+      <c r="V39" s="20">
+        <f>+IFERROR(V15/R15-1,0)</f>
+        <v>0.5328235986065244</v>
+      </c>
+      <c r="Y39" s="20">
         <f>+Y15/X15-1</f>
         <v>0.52729437625938824</v>
       </c>
-      <c r="Z34" s="3">
-        <f t="shared" si="37"/>
+      <c r="Z39" s="20">
+        <f>+Z15/Y15-1</f>
         <v>0.61403298350824587</v>
       </c>
-      <c r="AA34" s="8">
-        <f t="shared" si="37"/>
-        <v>2.2293230289069932E-3</v>
-      </c>
-      <c r="AB34" s="3">
-        <f t="shared" si="37"/>
+      <c r="AA39" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="20">
+        <f>+AB15/AA15-1</f>
         <v>1.2585452658115224</v>
       </c>
-      <c r="AC34" s="3">
-        <f t="shared" si="37"/>
-        <v>0.82830504579626441</v>
-      </c>
-      <c r="AD34" s="3">
-        <f t="shared" ref="AD34:AL34" si="40">+AD15/AC15-1</f>
+      <c r="AC39" s="20">
+        <f>+AC15/AB15-1</f>
+        <v>0.9487869735071075</v>
+      </c>
+      <c r="AD39" s="20">
+        <f>+AD15/AC15-1</f>
         <v>0.39999999999999991</v>
       </c>
-      <c r="AE34" s="3">
-        <f t="shared" si="40"/>
+      <c r="AE39" s="20">
+        <f>+AE15/AD15-1</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AF34" s="3">
-        <f t="shared" si="40"/>
+      <c r="AF39" s="20">
+        <f>+AF15/AE15-1</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AG34" s="3">
-        <f t="shared" si="40"/>
+      <c r="AG39" s="20">
+        <f>+AG15/AF15-1</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AH34" s="3">
-        <f t="shared" si="40"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="AI34" s="3">
-        <f t="shared" si="40"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="AJ34" s="3">
-        <f t="shared" si="40"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="AK34" s="3">
-        <f t="shared" si="40"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="AL34" s="3">
-        <f t="shared" si="40"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="AQ34" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AR34" s="1">
-        <f>+R50</f>
-        <v>16275</v>
-      </c>
-    </row>
-    <row r="35" spans="2:44" s="3" customFormat="1">
-      <c r="B35" s="3" t="s">
+      <c r="AH39" s="20">
+        <f>+AH15/AG15-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AI39" s="20">
+        <f>+AI15/AH15-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AJ39" s="20">
+        <f>+AJ15/AI15-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AK39" s="20">
+        <f>+AK15/AJ15-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AL39" s="20">
+        <f>+AL15/AK15-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AQ39" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR39" s="33">
+        <f>+AR37/AR38-1</f>
+        <v>2.7238990235035176E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:44" s="3" customFormat="1">
+      <c r="B40" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G35" s="3">
-        <f t="shared" si="39"/>
+      <c r="G40" s="3">
+        <f>+IFERROR(G16/C16-1,0)</f>
         <v>0</v>
       </c>
-      <c r="H35" s="3">
-        <f t="shared" si="39"/>
+      <c r="H40" s="3">
+        <f>+IFERROR(H16/D16-1,0)</f>
         <v>0</v>
       </c>
-      <c r="I35" s="3">
-        <f t="shared" si="39"/>
+      <c r="I40" s="3">
+        <f>+IFERROR(I16/E16-1,0)</f>
         <v>0</v>
       </c>
-      <c r="J35" s="3">
-        <f t="shared" si="39"/>
+      <c r="J40" s="3">
+        <f>+IFERROR(J16/F16-1,0)</f>
         <v>0</v>
       </c>
-      <c r="K35" s="3">
-        <f t="shared" si="39"/>
+      <c r="K40" s="3">
+        <f>+IFERROR(K16/G16-1,0)</f>
         <v>0.40600393700787407</v>
       </c>
-      <c r="L35" s="3">
-        <f t="shared" si="39"/>
+      <c r="L40" s="3">
+        <f>+IFERROR(L16/H16-1,0)</f>
         <v>0.65314136125654443</v>
       </c>
-      <c r="M35" s="3">
-        <f t="shared" si="39"/>
+      <c r="M40" s="3">
+        <f>+IFERROR(M16/I16-1,0)</f>
         <v>0.11407766990291268</v>
       </c>
-      <c r="N35" s="3">
-        <f t="shared" si="39"/>
+      <c r="N40" s="3">
+        <f>+IFERROR(N16/J16-1,0)</f>
         <v>-0.16080211880438899</v>
       </c>
-      <c r="O35" s="3">
-        <f t="shared" si="39"/>
+      <c r="O40" s="3">
+        <f>+IFERROR(O16/K16-1,0)</f>
         <v>-0.10955547777388874</v>
       </c>
-      <c r="P35" s="3">
-        <f t="shared" si="39"/>
+      <c r="P40" s="3">
+        <f>+IFERROR(P16/L16-1,0)</f>
         <v>6.7564001055687495E-2</v>
       </c>
-      <c r="Q35" s="3">
-        <f t="shared" ref="Q35:R37" si="41">+IFERROR(Q16/M16-1,0)</f>
+      <c r="Q40" s="3">
+        <f>+IFERROR(Q16/M16-1,0)</f>
         <v>0.71387073347857655</v>
       </c>
-      <c r="R35" s="3">
-        <f t="shared" si="41"/>
+      <c r="R40" s="3">
+        <f>+IFERROR(R16/N16-1,0)</f>
         <v>1.394950405770965</v>
       </c>
-      <c r="Y35" s="3">
-        <f t="shared" ref="Y35:Z35" si="42">+Y16/X16-1</f>
+      <c r="S40" s="3">
+        <f>+IFERROR(S16/O16-1,0)</f>
+        <v>1.216194968553459</v>
+      </c>
+      <c r="T40" s="3">
+        <f>+IFERROR(T16/P16-1,0)</f>
+        <v>1.0729991856074625</v>
+      </c>
+      <c r="U40" s="3">
+        <f>+IFERROR(U16/Q16-1,0)</f>
+        <v>0.69977924944812386</v>
+      </c>
+      <c r="V40" s="3">
+        <f>+IFERROR(V16/R16-1,0)</f>
+        <v>0.5328235986065244</v>
+      </c>
+      <c r="Y40" s="3">
+        <f>+Y16/X16-1</f>
         <v>0.51301204819277113</v>
       </c>
-      <c r="Z35" s="3">
-        <f t="shared" si="42"/>
+      <c r="Z40" s="3">
+        <f>+Z16/Y16-1</f>
         <v>0.5032648510909381</v>
       </c>
-      <c r="AA35" s="3">
-        <f t="shared" ref="AA35:AB37" si="43">+AA16/Z16-1</f>
+      <c r="AA40" s="3">
+        <f>+AA16/Z16-1</f>
         <v>0.23085072571246945</v>
       </c>
-      <c r="AB35" s="3">
-        <f t="shared" si="43"/>
+      <c r="AB40" s="3">
+        <f>+AB16/AA16-1</f>
         <v>0.43062489240833179</v>
       </c>
-      <c r="AC35" s="3">
-        <f t="shared" ref="AC35:AD35" si="44">+AC16/AB16-1</f>
-        <v>0.90344384011843548</v>
-      </c>
-      <c r="AD35" s="3">
-        <f t="shared" si="44"/>
+      <c r="AC40" s="3">
+        <f>+AC16/AB16-1</f>
+        <v>0.81629256476597023</v>
+      </c>
+      <c r="AD40" s="3">
+        <f>+AD16/AC16-1</f>
         <v>0.39999999999999969</v>
       </c>
-      <c r="AE35" s="3">
-        <f t="shared" ref="AE35:AL35" si="45">+AE16/AD16-1</f>
+      <c r="AE40" s="3">
+        <f>+AE16/AD16-1</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AF35" s="3">
-        <f t="shared" si="45"/>
+      <c r="AF40" s="3">
+        <f>+AF16/AE16-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AG40" s="3">
+        <f>+AG16/AF16-1</f>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="AH40" s="3">
+        <f>+AH16/AG16-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AI40" s="3">
+        <f>+AI16/AH16-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AJ40" s="3">
+        <f>+AJ16/AI16-1</f>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="AK40" s="3">
+        <f>+AK16/AJ16-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AL40" s="3">
+        <f>+AL16/AK16-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="41" spans="2:44" s="3" customFormat="1">
+      <c r="B41" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" s="3">
+        <f>+IFERROR(G17/C17-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <f>+IFERROR(H17/D17-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <f>+IFERROR(I17/E17-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <f>+IFERROR(J17/F17-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <f>+IFERROR(K17/G17-1,0)</f>
+        <v>0.40329575021682573</v>
+      </c>
+      <c r="L41" s="3">
+        <f>+IFERROR(L17/H17-1,0)</f>
+        <v>0.46506024096385534</v>
+      </c>
+      <c r="M41" s="3">
+        <f>+IFERROR(M17/I17-1,0)</f>
+        <v>0.38631503920171073</v>
+      </c>
+      <c r="N41" s="3">
+        <f>+IFERROR(N17/J17-1,0)</f>
+        <v>0.3306066802999319</v>
+      </c>
+      <c r="O41" s="3">
+        <f>+IFERROR(O17/K17-1,0)</f>
+        <v>0.15883807169344877</v>
+      </c>
+      <c r="P41" s="3">
+        <f>+IFERROR(P17/L17-1,0)</f>
+        <v>0.11842105263157898</v>
+      </c>
+      <c r="Q41" s="3">
+        <f>+IFERROR(Q17/M17-1,0)</f>
+        <v>0.17943444730077118</v>
+      </c>
+      <c r="R41" s="3">
+        <f>+IFERROR(R17/N17-1,0)</f>
+        <v>0.26331967213114749</v>
+      </c>
+      <c r="S41" s="3">
+        <f>+IFERROR(S17/O17-1,0)</f>
+        <v>0.45066666666666677</v>
+      </c>
+      <c r="T41" s="3">
+        <f>+IFERROR(T17/P17-1,0)</f>
+        <v>0.47058823529411775</v>
+      </c>
+      <c r="U41" s="3">
+        <f>+IFERROR(U17/Q17-1,0)</f>
+        <v>0.69977924944812386</v>
+      </c>
+      <c r="V41" s="3">
+        <f>+IFERROR(V17/R17-1,0)</f>
+        <v>0.5328235986065244</v>
+      </c>
+      <c r="Y41" s="3">
+        <f>+Y17/X17-1</f>
+        <v>0.38706256627783664</v>
+      </c>
+      <c r="Z41" s="3">
+        <f>+Z17/Y17-1</f>
+        <v>0.34250764525993893</v>
+      </c>
+      <c r="AA41" s="3">
+        <f>+AA17/Z17-1</f>
+        <v>0.39312832194381175</v>
+      </c>
+      <c r="AB41" s="3">
+        <f>+AB17/AA17-1</f>
+        <v>0.18204115002043886</v>
+      </c>
+      <c r="AC41" s="3">
+        <f>+AC17/AB17-1</f>
+        <v>0.54458058701990586</v>
+      </c>
+      <c r="AD41" s="3">
+        <f>+AD17/AC17-1</f>
+        <v>0.39999999999999969</v>
+      </c>
+      <c r="AE41" s="3">
+        <f>+AE17/AD17-1</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AF41" s="3">
+        <f>+AF17/AE17-1</f>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="AG41" s="3">
+        <f>+AG17/AF17-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AH41" s="3">
+        <f>+AH17/AG17-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AI41" s="3">
+        <f>+AI17/AH17-1</f>
         <v>0.19999999999999973</v>
       </c>
-      <c r="AG35" s="3">
-        <f t="shared" si="45"/>
+      <c r="AJ41" s="3">
+        <f>+AJ17/AI17-1</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AH35" s="3">
-        <f t="shared" si="45"/>
-        <v>0.15000000000000013</v>
-      </c>
-      <c r="AI35" s="3">
-        <f t="shared" si="45"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="AJ35" s="3">
-        <f t="shared" si="45"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="AK35" s="3">
-        <f t="shared" si="45"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="AL35" s="3">
-        <f t="shared" si="45"/>
-        <v>9.9999999999999867E-2</v>
-      </c>
-      <c r="AQ35" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR35" s="23">
-        <f>SUM(AR33:AR34)</f>
-        <v>2443109.9261062825</v>
-      </c>
-    </row>
-    <row r="36" spans="2:44" s="3" customFormat="1">
-      <c r="B36" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" s="3">
-        <f t="shared" si="39"/>
+      <c r="AK41" s="3">
+        <f>+AK17/AJ17-1</f>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="AL41" s="3">
+        <f>+AL17/AK17-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="2:44" s="3" customFormat="1">
+      <c r="B42" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" s="3">
+        <f>+IFERROR(G18/C18-1,0)</f>
         <v>0</v>
       </c>
-      <c r="H36" s="3">
-        <f t="shared" si="39"/>
+      <c r="H42" s="3">
+        <f>+IFERROR(H18/D18-1,0)</f>
         <v>0</v>
       </c>
-      <c r="I36" s="3">
-        <f t="shared" si="39"/>
+      <c r="I42" s="3">
+        <f>+IFERROR(I18/E18-1,0)</f>
         <v>0</v>
       </c>
-      <c r="J36" s="3">
-        <f t="shared" si="39"/>
+      <c r="J42" s="3">
+        <f>+IFERROR(J18/F18-1,0)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="3">
-        <f t="shared" si="39"/>
-        <v>0.40329575021682573</v>
-      </c>
-      <c r="L36" s="3">
-        <f t="shared" si="39"/>
-        <v>0.46506024096385534</v>
-      </c>
-      <c r="M36" s="3">
-        <f t="shared" si="39"/>
-        <v>0.38631503920171073</v>
-      </c>
-      <c r="N36" s="3">
-        <f t="shared" si="39"/>
-        <v>0.3306066802999319</v>
-      </c>
-      <c r="O36" s="3">
-        <f t="shared" si="39"/>
-        <v>0.15883807169344877</v>
-      </c>
-      <c r="P36" s="3">
-        <f t="shared" si="39"/>
-        <v>0.11842105263157898</v>
-      </c>
-      <c r="Q36" s="3">
-        <f t="shared" si="41"/>
-        <v>0.17943444730077118</v>
-      </c>
-      <c r="R36" s="3">
-        <f t="shared" si="41"/>
-        <v>0.26331967213114749</v>
-      </c>
-      <c r="Y36" s="3">
-        <f t="shared" ref="Y36:Z36" si="46">+Y17/X17-1</f>
-        <v>0.38706256627783664</v>
-      </c>
-      <c r="Z36" s="3">
-        <f t="shared" si="46"/>
-        <v>0.34250764525993893</v>
-      </c>
-      <c r="AA36" s="3">
-        <f t="shared" si="43"/>
-        <v>0.39312832194381175</v>
-      </c>
-      <c r="AB36" s="3">
-        <f t="shared" si="43"/>
-        <v>0.18204115002043886</v>
-      </c>
-      <c r="AC36" s="3">
-        <f t="shared" ref="AC36:AD36" si="47">+AC17/AB17-1</f>
-        <v>1.0155205883636205</v>
-      </c>
-      <c r="AD36" s="3">
-        <f t="shared" si="47"/>
-        <v>0.78370947475542518</v>
-      </c>
-      <c r="AE36" s="3">
-        <f t="shared" ref="AE36:AL36" si="48">+AE17/AD17-1</f>
+      <c r="K42" s="3">
+        <f>+IFERROR(K18/G18-1,0)</f>
+        <v>0.13846153846153841</v>
+      </c>
+      <c r="L42" s="3">
+        <f>+IFERROR(L18/H18-1,0)</f>
+        <v>0.12547528517110274</v>
+      </c>
+      <c r="M42" s="3">
+        <f>+IFERROR(M18/I18-1,0)</f>
+        <v>0.1328545780969479</v>
+      </c>
+      <c r="N42" s="3">
+        <f>+IFERROR(N18/J18-1,0)</f>
+        <v>0.11012433392539966</v>
+      </c>
+      <c r="O42" s="3">
+        <f>+IFERROR(O18/K18-1,0)</f>
+        <v>6.9256756756756799E-2</v>
+      </c>
+      <c r="P42" s="3">
+        <f>+IFERROR(P18/L18-1,0)</f>
+        <v>5.0675675675675658E-2</v>
+      </c>
+      <c r="Q42" s="3">
+        <f>+IFERROR(Q18/M18-1,0)</f>
+        <v>9.191759112519815E-2</v>
+      </c>
+      <c r="R42" s="3">
+        <f>+IFERROR(R18/N18-1,0)</f>
+        <v>0.1359999999999999</v>
+      </c>
+      <c r="S42" s="3">
+        <f>+IFERROR(S18/O18-1,0)</f>
+        <v>0.22748815165876768</v>
+      </c>
+      <c r="T42" s="3">
+        <f>+IFERROR(T18/P18-1,0)</f>
+        <v>0.60771704180064301</v>
+      </c>
+      <c r="U42" s="3">
+        <f>+IFERROR(U18/Q18-1,0)</f>
+        <v>0.69977924944812409</v>
+      </c>
+      <c r="V42" s="3">
+        <f>+IFERROR(V18/R18-1,0)</f>
+        <v>0.5328235986065244</v>
+      </c>
+      <c r="Y42" s="3">
+        <f>+Y18/X18-1</f>
+        <v>0.77493138151875574</v>
+      </c>
+      <c r="Z42" s="3">
+        <f>+Z18/Y18-1</f>
+        <v>0.11649484536082477</v>
+      </c>
+      <c r="AA42" s="3">
+        <f>+AA18/Z18-1</f>
+        <v>0.12650046168051698</v>
+      </c>
+      <c r="AB42" s="3">
+        <f>+AB18/AA18-1</f>
+        <v>8.7704918032786905E-2</v>
+      </c>
+      <c r="AC42" s="3">
+        <f>+AC18/AB18-1</f>
+        <v>0.52089399317271656</v>
+      </c>
+      <c r="AD42" s="3">
+        <f>+AD18/AC18-1</f>
+        <v>0.39999999999999969</v>
+      </c>
+      <c r="AE42" s="3">
+        <f>+AE18/AD18-1</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AF36" s="3">
-        <f t="shared" si="48"/>
-        <v>0.19999999999999973</v>
-      </c>
-      <c r="AG36" s="3">
-        <f t="shared" si="48"/>
+      <c r="AF42" s="3">
+        <f>+AF18/AE18-1</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AH36" s="3">
-        <f t="shared" si="48"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="AI36" s="3">
-        <f t="shared" si="48"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="AJ36" s="3">
-        <f t="shared" si="48"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="AK36" s="3">
-        <f t="shared" si="48"/>
-        <v>0.10000000000000031</v>
-      </c>
-      <c r="AL36" s="3">
-        <f t="shared" si="48"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="AQ36" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AR36" s="1">
-        <f>+Main!K4</f>
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="37" spans="2:44" s="3" customFormat="1">
-      <c r="B37" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37" s="3">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="3">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="I37" s="3">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="3">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="K37" s="3">
-        <f t="shared" si="39"/>
-        <v>0.13846153846153841</v>
-      </c>
-      <c r="L37" s="3">
-        <f t="shared" si="39"/>
-        <v>0.12547528517110274</v>
-      </c>
-      <c r="M37" s="3">
-        <f t="shared" si="39"/>
-        <v>0.1328545780969479</v>
-      </c>
-      <c r="N37" s="3">
-        <f t="shared" si="39"/>
-        <v>0.11012433392539966</v>
-      </c>
-      <c r="O37" s="3">
-        <f t="shared" si="39"/>
-        <v>6.9256756756756799E-2</v>
-      </c>
-      <c r="P37" s="3">
-        <f t="shared" si="39"/>
-        <v>5.0675675675675658E-2</v>
-      </c>
-      <c r="Q37" s="3">
-        <f t="shared" si="41"/>
-        <v>9.191759112519815E-2</v>
-      </c>
-      <c r="R37" s="3">
-        <f t="shared" si="41"/>
-        <v>0.1359999999999999</v>
-      </c>
-      <c r="Y37" s="3">
-        <f t="shared" ref="Y37:Z37" si="49">+Y18/X18-1</f>
-        <v>0.77493138151875574</v>
-      </c>
-      <c r="Z37" s="3">
-        <f t="shared" si="49"/>
-        <v>0.11649484536082477</v>
-      </c>
-      <c r="AA37" s="3">
-        <f t="shared" si="43"/>
-        <v>0.12650046168051698</v>
-      </c>
-      <c r="AB37" s="3">
-        <f t="shared" si="43"/>
-        <v>8.7704918032786905E-2</v>
-      </c>
-      <c r="AC37" s="3">
-        <f t="shared" ref="AC37:AD37" si="50">+AC18/AB18-1</f>
-        <v>1.0566741933861832</v>
-      </c>
-      <c r="AD37" s="3">
-        <f t="shared" si="50"/>
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="AE37" s="3">
-        <f t="shared" ref="AE37:AL37" si="51">+AE18/AD18-1</f>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="AF37" s="3">
-        <f t="shared" si="51"/>
-        <v>0.19999999999999973</v>
-      </c>
-      <c r="AG37" s="3">
-        <f t="shared" si="51"/>
-        <v>0.20000000000000018</v>
-      </c>
-      <c r="AH37" s="3">
-        <f t="shared" si="51"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="AI37" s="3">
-        <f t="shared" si="51"/>
-        <v>0.10000000000000031</v>
-      </c>
-      <c r="AJ37" s="3">
-        <f t="shared" si="51"/>
-        <v>0.10000000000000031</v>
-      </c>
-      <c r="AK37" s="3">
-        <f t="shared" si="51"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="AL37" s="3">
-        <f t="shared" si="51"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="AQ37" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AR37" s="2">
-        <f>+AR35/AR36</f>
-        <v>977.24397044251305</v>
-      </c>
-    </row>
-    <row r="38" spans="2:44">
-      <c r="AQ38" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AR38" s="1">
-        <f>+Main!K3</f>
-        <v>953.86</v>
-      </c>
-    </row>
-    <row r="39" spans="2:44" s="3" customFormat="1">
-      <c r="Z39" s="3">
+      <c r="AG42" s="3">
+        <f>+AG18/AF18-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AH42" s="3">
+        <f>+AH18/AG18-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AI42" s="3">
+        <f>+AI18/AH18-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AJ42" s="3">
+        <f>+AJ18/AI18-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AK42" s="3">
+        <f>+AK18/AJ18-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AL42" s="3">
+        <f>+AL18/AK18-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="2:44">
+      <c r="AQ43" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR43" s="22">
+        <f>+Main!$K$8/Model!AC26</f>
+        <v>54.460141567687693</v>
+      </c>
+    </row>
+    <row r="44" spans="2:44" s="3" customFormat="1">
+      <c r="Z44" s="3">
         <f>+Z16/Z$15</f>
         <v>0.35070966783086871</v>
       </c>
-      <c r="AA39" s="3">
-        <f t="shared" ref="AA39:AL39" si="52">+AA16/AA$15</f>
+      <c r="AA44" s="3">
+        <f>+AA16/AA$15</f>
         <v>0.43071105509008673</v>
       </c>
-      <c r="AB39" s="3">
-        <f t="shared" si="52"/>
+      <c r="AB44" s="3">
+        <f>+AB16/AB$15</f>
         <v>0.27282426709563046</v>
       </c>
-      <c r="AC39" s="3">
-        <f t="shared" si="52"/>
-        <v>0.28403666654643855</v>
-      </c>
-      <c r="AD39" s="3">
-        <f t="shared" si="52"/>
-        <v>0.28403666654643855</v>
-      </c>
-      <c r="AE39" s="3">
-        <f t="shared" si="52"/>
-        <v>0.28403666654643855</v>
-      </c>
-      <c r="AF39" s="3">
-        <f t="shared" si="52"/>
-        <v>0.28403666654643855</v>
-      </c>
-      <c r="AG39" s="3">
-        <f t="shared" si="52"/>
-        <v>0.28403666654643855</v>
-      </c>
-      <c r="AH39" s="3">
-        <f t="shared" si="52"/>
-        <v>0.28403666654643855</v>
-      </c>
-      <c r="AI39" s="3">
-        <f t="shared" si="52"/>
-        <v>0.28403666654643855</v>
-      </c>
-      <c r="AJ39" s="3">
-        <f t="shared" si="52"/>
-        <v>0.28403666654643855</v>
-      </c>
-      <c r="AK39" s="3">
-        <f t="shared" si="52"/>
-        <v>0.28403666654643855</v>
-      </c>
-      <c r="AL39" s="3">
-        <f t="shared" si="52"/>
-        <v>0.28403666654643855</v>
-      </c>
-      <c r="AQ39" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="AR39" s="22">
-        <f>+AR37/AR38-1</f>
-        <v>2.4515097018968257E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="2:44" s="3" customFormat="1">
-      <c r="Z40" s="3">
-        <f t="shared" ref="Z40:AL41" si="53">+Z17/Z$15</f>
+      <c r="AC44" s="3">
+        <f>+AC16/AC$15</f>
+        <v>0.2542754516270947</v>
+      </c>
+      <c r="AD44" s="3">
+        <f>+AD16/AD$15</f>
+        <v>0.2542754516270947</v>
+      </c>
+      <c r="AE44" s="3">
+        <f>+AE16/AE$15</f>
+        <v>0.2542754516270947</v>
+      </c>
+      <c r="AF44" s="3">
+        <f>+AF16/AF$15</f>
+        <v>0.2542754516270947</v>
+      </c>
+      <c r="AG44" s="3">
+        <f>+AG16/AG$15</f>
+        <v>0.2542754516270947</v>
+      </c>
+      <c r="AH44" s="3">
+        <f>+AH16/AH$15</f>
+        <v>0.2542754516270947</v>
+      </c>
+      <c r="AI44" s="3">
+        <f>+AI16/AI$15</f>
+        <v>0.2542754516270947</v>
+      </c>
+      <c r="AJ44" s="3">
+        <f>+AJ16/AJ$15</f>
+        <v>0.2542754516270947</v>
+      </c>
+      <c r="AK44" s="3">
+        <f>+AK16/AK$15</f>
+        <v>0.2542754516270947</v>
+      </c>
+      <c r="AL44" s="3">
+        <f>+AL16/AL$15</f>
+        <v>0.2542754516270947</v>
+      </c>
+      <c r="AQ44" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AR44" s="22">
+        <f>+Main!$K$8/Model!AD26</f>
+        <v>39.654751676344397</v>
+      </c>
+    </row>
+    <row r="45" spans="2:44" s="3" customFormat="1">
+      <c r="Z45" s="3">
+        <f>+Z17/Z$15</f>
         <v>0.19573456193802483</v>
       </c>
-      <c r="AA40" s="3">
-        <f t="shared" si="53"/>
+      <c r="AA45" s="3">
+        <f>+AA17/AA$15</f>
         <v>0.27207681471046191</v>
       </c>
-      <c r="AB40" s="3">
-        <f t="shared" si="53"/>
+      <c r="AB45" s="3">
+        <f>+AB17/AB$15</f>
         <v>0.14239519385443683</v>
       </c>
-      <c r="AC40" s="3">
-        <f t="shared" si="53"/>
-        <v>0.15697623630013652</v>
-      </c>
-      <c r="AD40" s="3">
-        <f t="shared" si="53"/>
-        <v>0.2</v>
-      </c>
-      <c r="AE40" s="3">
-        <f t="shared" si="53"/>
-        <v>0.2</v>
-      </c>
-      <c r="AF40" s="3">
-        <f t="shared" si="53"/>
-        <v>0.2</v>
-      </c>
-      <c r="AG40" s="3">
-        <f t="shared" si="53"/>
-        <v>0.2</v>
-      </c>
-      <c r="AH40" s="3">
-        <f t="shared" si="53"/>
-        <v>0.2</v>
-      </c>
-      <c r="AI40" s="3">
-        <f t="shared" si="53"/>
-        <v>0.2</v>
-      </c>
-      <c r="AJ40" s="3">
-        <f t="shared" si="53"/>
-        <v>0.2</v>
-      </c>
-      <c r="AK40" s="3">
-        <f t="shared" si="53"/>
-        <v>0.2</v>
-      </c>
-      <c r="AL40" s="3">
-        <f t="shared" si="53"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="41" spans="2:44" s="3" customFormat="1">
-      <c r="Z41" s="3">
+      <c r="AC45" s="3">
+        <f>+AC17/AC$15</f>
+        <v>0.11286038705230352</v>
+      </c>
+      <c r="AD45" s="3">
+        <f>+AD17/AD$15</f>
+        <v>0.11286038705230352</v>
+      </c>
+      <c r="AE45" s="3">
+        <f>+AE17/AE$15</f>
+        <v>0.11286038705230352</v>
+      </c>
+      <c r="AF45" s="3">
+        <f>+AF17/AF$15</f>
+        <v>0.11286038705230352</v>
+      </c>
+      <c r="AG45" s="3">
+        <f>+AG17/AG$15</f>
+        <v>0.11286038705230353</v>
+      </c>
+      <c r="AH45" s="3">
+        <f>+AH17/AH$15</f>
+        <v>0.11286038705230352</v>
+      </c>
+      <c r="AI45" s="3">
+        <f>+AI17/AI$15</f>
+        <v>0.11286038705230352</v>
+      </c>
+      <c r="AJ45" s="3">
+        <f>+AJ17/AJ$15</f>
+        <v>0.11286038705230352</v>
+      </c>
+      <c r="AK45" s="3">
+        <f>+AK17/AK$15</f>
+        <v>0.11286038705230353</v>
+      </c>
+      <c r="AL45" s="3">
+        <f>+AL17/AL$15</f>
+        <v>0.11286038705230353</v>
+      </c>
+      <c r="AQ45" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AR45" s="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="2:44" s="3" customFormat="1">
+      <c r="Z46" s="3">
         <f>+Z18/Z$15</f>
         <v>8.0478561343538674E-2</v>
       </c>
-      <c r="AA41" s="3">
-        <f t="shared" si="53"/>
+      <c r="AA46" s="3">
+        <f>+AA18/AA$15</f>
         <v>9.0457477570994288E-2</v>
       </c>
-      <c r="AB41" s="3">
-        <f t="shared" si="53"/>
+      <c r="AB46" s="3">
+        <f>+AB18/AB$15</f>
         <v>4.3563901382095135E-2</v>
       </c>
-      <c r="AC41" s="3">
-        <f t="shared" si="53"/>
-        <v>4.9005362612645709E-2</v>
-      </c>
-      <c r="AD41" s="3">
-        <f t="shared" si="53"/>
-        <v>4.9005362612645709E-2</v>
-      </c>
-      <c r="AE41" s="3">
-        <f t="shared" si="53"/>
-        <v>4.9005362612645709E-2</v>
-      </c>
-      <c r="AF41" s="3">
-        <f t="shared" si="53"/>
-        <v>4.9005362612645709E-2</v>
-      </c>
-      <c r="AG41" s="3">
-        <f t="shared" si="53"/>
-        <v>4.9005362612645709E-2</v>
-      </c>
-      <c r="AH41" s="3">
-        <f t="shared" si="53"/>
-        <v>4.9005362612645716E-2</v>
-      </c>
-      <c r="AI41" s="3">
-        <f t="shared" si="53"/>
-        <v>4.9005362612645723E-2</v>
-      </c>
-      <c r="AJ41" s="3">
-        <f t="shared" si="53"/>
-        <v>4.900536261264573E-2</v>
-      </c>
-      <c r="AK41" s="3">
-        <f t="shared" si="53"/>
-        <v>4.900536261264573E-2</v>
-      </c>
-      <c r="AL41" s="3">
-        <f t="shared" si="53"/>
-        <v>4.900536261264573E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="2:38" s="4" customFormat="1">
-      <c r="B50" s="4" t="s">
+      <c r="AC46" s="3">
+        <f>+AC18/AC$15</f>
+        <v>3.3998624186182991E-2</v>
+      </c>
+      <c r="AD46" s="3">
+        <f>+AD18/AD$15</f>
+        <v>3.3998624186182991E-2</v>
+      </c>
+      <c r="AE46" s="3">
+        <f>+AE18/AE$15</f>
+        <v>3.3998624186182991E-2</v>
+      </c>
+      <c r="AF46" s="3">
+        <f>+AF18/AF$15</f>
+        <v>3.3998624186182991E-2</v>
+      </c>
+      <c r="AG46" s="3">
+        <f>+AG18/AG$15</f>
+        <v>3.3998624186182991E-2</v>
+      </c>
+      <c r="AH46" s="3">
+        <f>+AH18/AH$15</f>
+        <v>3.3998624186182991E-2</v>
+      </c>
+      <c r="AI46" s="3">
+        <f>+AI18/AI$15</f>
+        <v>3.3998624186182991E-2</v>
+      </c>
+      <c r="AJ46" s="3">
+        <f>+AJ18/AJ$15</f>
+        <v>3.3998624186182991E-2</v>
+      </c>
+      <c r="AK46" s="3">
+        <f>+AK18/AK$15</f>
+        <v>3.3998624186182991E-2</v>
+      </c>
+      <c r="AL46" s="3">
+        <f>+AL18/AL$15</f>
+        <v>3.3998624186182991E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:38" s="4" customFormat="1">
+      <c r="B49" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="R50" s="4">
-        <f>SUM(R51:R52)-SUM(R67,R69)</f>
+      <c r="F49" s="4">
+        <f t="shared" ref="F49:P49" si="208">SUM(F50:F51)-SUM(F66,F68)</f>
+        <v>0</v>
+      </c>
+      <c r="G49" s="4">
+        <f t="shared" si="208"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="4">
+        <f t="shared" si="208"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="4">
+        <f t="shared" si="208"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="4">
+        <f t="shared" si="208"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="4">
+        <f t="shared" si="208"/>
+        <v>0</v>
+      </c>
+      <c r="L49" s="4">
+        <f t="shared" si="208"/>
+        <v>6088</v>
+      </c>
+      <c r="M49" s="4">
+        <f t="shared" si="208"/>
+        <v>2193</v>
+      </c>
+      <c r="N49" s="4">
+        <f t="shared" si="208"/>
+        <v>2343</v>
+      </c>
+      <c r="O49" s="4">
+        <f t="shared" si="208"/>
+        <v>4366</v>
+      </c>
+      <c r="P49" s="4">
+        <f t="shared" si="208"/>
+        <v>6318</v>
+      </c>
+      <c r="Q49" s="4">
+        <f>SUM(Q50:Q51)-SUM(Q66,Q68)</f>
+        <v>8575</v>
+      </c>
+      <c r="R49" s="4">
+        <f>SUM(R50:R51)-SUM(R66,R68)</f>
         <v>16275</v>
       </c>
-      <c r="AB50" s="4">
-        <f>+R50</f>
-        <v>16275</v>
-      </c>
-      <c r="AC50" s="4">
-        <f>+AB50*1.02</f>
-        <v>16600.5</v>
-      </c>
-      <c r="AD50" s="4">
-        <f t="shared" ref="AD50:AL50" si="54">+AC50*1.02</f>
-        <v>16932.510000000002</v>
-      </c>
-      <c r="AE50" s="4">
-        <f t="shared" si="54"/>
-        <v>17271.160200000002</v>
-      </c>
-      <c r="AF50" s="4">
-        <f t="shared" si="54"/>
-        <v>17616.583404000001</v>
-      </c>
-      <c r="AG50" s="4">
-        <f t="shared" si="54"/>
-        <v>17968.915072080003</v>
-      </c>
-      <c r="AH50" s="4">
-        <f t="shared" si="54"/>
-        <v>18328.293373521603</v>
-      </c>
-      <c r="AI50" s="4">
-        <f t="shared" si="54"/>
-        <v>18694.859240992035</v>
-      </c>
-      <c r="AJ50" s="4">
-        <f t="shared" si="54"/>
-        <v>19068.756425811876</v>
-      </c>
-      <c r="AK50" s="4">
-        <f t="shared" si="54"/>
-        <v>19450.131554328113</v>
-      </c>
-      <c r="AL50" s="4">
-        <f t="shared" si="54"/>
-        <v>19839.134185414674</v>
+      <c r="S49" s="4">
+        <f>SUM(S50:S51)-SUM(S66,S68)</f>
+        <v>21728</v>
+      </c>
+      <c r="AB49" s="4">
+        <f>+S49</f>
+        <v>21728</v>
+      </c>
+      <c r="AC49" s="4">
+        <f>+AB49*1.02</f>
+        <v>22162.560000000001</v>
+      </c>
+      <c r="AD49" s="4">
+        <f t="shared" ref="AD49:AL49" si="209">+AC49*1.02</f>
+        <v>22605.8112</v>
+      </c>
+      <c r="AE49" s="4">
+        <f t="shared" si="209"/>
+        <v>23057.927424000001</v>
+      </c>
+      <c r="AF49" s="4">
+        <f t="shared" si="209"/>
+        <v>23519.085972480003</v>
+      </c>
+      <c r="AG49" s="4">
+        <f t="shared" si="209"/>
+        <v>23989.467691929603</v>
+      </c>
+      <c r="AH49" s="4">
+        <f t="shared" si="209"/>
+        <v>24469.257045768198</v>
+      </c>
+      <c r="AI49" s="4">
+        <f t="shared" si="209"/>
+        <v>24958.642186683563</v>
+      </c>
+      <c r="AJ49" s="4">
+        <f t="shared" si="209"/>
+        <v>25457.815030417234</v>
+      </c>
+      <c r="AK49" s="4">
+        <f t="shared" si="209"/>
+        <v>25966.971331025579</v>
+      </c>
+      <c r="AL49" s="4">
+        <f t="shared" si="209"/>
+        <v>26486.31075764609</v>
+      </c>
+    </row>
+    <row r="50" spans="2:38">
+      <c r="B50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L50" s="1">
+        <v>3013</v>
+      </c>
+      <c r="M50" s="1">
+        <v>2800</v>
+      </c>
+      <c r="N50" s="1">
+        <v>3389</v>
+      </c>
+      <c r="O50" s="1">
+        <v>5079</v>
+      </c>
+      <c r="P50" s="1">
+        <v>5783</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>5519</v>
+      </c>
+      <c r="R50" s="1">
+        <v>7280</v>
+      </c>
+      <c r="S50" s="1">
+        <v>7587</v>
       </c>
     </row>
     <row r="51" spans="2:38">
       <c r="B51" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="L51" s="1">
+        <v>14024</v>
+      </c>
+      <c r="M51" s="1">
+        <v>10343</v>
+      </c>
+      <c r="N51" s="1">
+        <v>9907</v>
+      </c>
+      <c r="O51" s="1">
+        <v>10241</v>
+      </c>
+      <c r="P51" s="1">
+        <v>10240</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>12762</v>
       </c>
       <c r="R51" s="1">
-        <v>7280</v>
+        <v>18704</v>
+      </c>
+      <c r="S51" s="1">
+        <v>23851</v>
       </c>
     </row>
     <row r="52" spans="2:38">
       <c r="B52" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="L52" s="1">
+        <v>5317</v>
+      </c>
+      <c r="M52" s="1">
+        <v>4908</v>
+      </c>
+      <c r="N52" s="1">
+        <v>3827</v>
+      </c>
+      <c r="O52" s="1">
+        <v>4080</v>
+      </c>
+      <c r="P52" s="1">
+        <v>7066</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>8309</v>
       </c>
       <c r="R52" s="1">
-        <v>18704</v>
+        <v>9999</v>
+      </c>
+      <c r="S52" s="1">
+        <v>12365</v>
       </c>
     </row>
     <row r="53" spans="2:38">
       <c r="B53" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="L53" s="1">
+        <v>3889</v>
+      </c>
+      <c r="M53" s="1">
+        <v>4454</v>
+      </c>
+      <c r="N53" s="1">
+        <v>5159</v>
+      </c>
+      <c r="O53" s="1">
+        <v>4611</v>
+      </c>
+      <c r="P53" s="1">
+        <v>4319</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>4779</v>
       </c>
       <c r="R53" s="1">
-        <v>9999</v>
+        <v>5282</v>
+      </c>
+      <c r="S53" s="1">
+        <v>5864</v>
       </c>
     </row>
     <row r="54" spans="2:38">
       <c r="B54" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="L54" s="1">
+        <v>1175</v>
+      </c>
+      <c r="M54" s="1">
+        <v>718</v>
+      </c>
+      <c r="N54" s="1">
+        <v>791</v>
+      </c>
+      <c r="O54" s="1">
+        <v>872</v>
+      </c>
+      <c r="P54" s="1">
+        <v>1389</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>1289</v>
       </c>
       <c r="R54" s="1">
-        <v>5282</v>
+        <v>3080</v>
+      </c>
+      <c r="S54" s="1">
+        <v>4062</v>
       </c>
     </row>
     <row r="55" spans="2:38">
       <c r="B55" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="L55" s="1">
+        <f>+SUM(L50:L54)</f>
+        <v>27418</v>
+      </c>
+      <c r="M55" s="1">
+        <f>+SUM(M50:M54)</f>
+        <v>23223</v>
+      </c>
+      <c r="N55" s="1">
+        <f>+SUM(N50:N54)</f>
+        <v>23073</v>
+      </c>
+      <c r="O55" s="1">
+        <f>+SUM(O50:O54)</f>
+        <v>24883</v>
+      </c>
+      <c r="P55" s="1">
+        <f>+SUM(P50:P54)</f>
+        <v>28797</v>
+      </c>
+      <c r="Q55" s="1">
+        <f>+SUM(Q50:Q54)</f>
+        <v>32658</v>
       </c>
       <c r="R55" s="1">
-        <v>3080</v>
+        <f>+SUM(R50:R54)</f>
+        <v>44345</v>
+      </c>
+      <c r="S55" s="1">
+        <f>+SUM(S50:S54)</f>
+        <v>53729</v>
       </c>
     </row>
     <row r="56" spans="2:38">
       <c r="B56" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="L56" s="1">
+        <v>3233</v>
+      </c>
+      <c r="M56" s="1">
+        <v>3774</v>
+      </c>
+      <c r="N56" s="1">
+        <v>3807</v>
+      </c>
+      <c r="O56" s="1">
+        <v>3740</v>
+      </c>
+      <c r="P56" s="1">
+        <v>3799</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>3844</v>
       </c>
       <c r="R56" s="1">
-        <f>+SUM(R51:R55)</f>
-        <v>44345</v>
+        <v>3914</v>
+      </c>
+      <c r="S56" s="1">
+        <v>4006</v>
       </c>
     </row>
     <row r="57" spans="2:38">
       <c r="B57" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="L57" s="1">
+        <v>852</v>
+      </c>
+      <c r="M57" s="1">
+        <v>927</v>
+      </c>
+      <c r="N57" s="1">
+        <v>1038</v>
+      </c>
+      <c r="O57" s="1">
+        <v>1094</v>
+      </c>
+      <c r="P57" s="1">
+        <v>1235</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>1316</v>
       </c>
       <c r="R57" s="1">
-        <v>3914</v>
+        <v>1346</v>
+      </c>
+      <c r="S57" s="1">
+        <v>1532</v>
       </c>
     </row>
     <row r="58" spans="2:38">
       <c r="B58" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="L58" s="1">
+        <v>4372</v>
+      </c>
+      <c r="M58" s="1">
+        <v>4372</v>
+      </c>
+      <c r="N58" s="1">
+        <v>4372</v>
+      </c>
+      <c r="O58" s="1">
+        <v>4430</v>
+      </c>
+      <c r="P58" s="1">
+        <v>4430</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>4430</v>
       </c>
       <c r="R58" s="1">
-        <v>1346</v>
+        <v>4430</v>
+      </c>
+      <c r="S58" s="1">
+        <v>4453</v>
       </c>
     </row>
     <row r="59" spans="2:38">
       <c r="B59" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="L59" s="1">
+        <v>2036</v>
+      </c>
+      <c r="M59" s="1">
+        <v>1850</v>
+      </c>
+      <c r="N59" s="1">
+        <v>1676</v>
+      </c>
+      <c r="O59" s="1">
+        <v>1541</v>
+      </c>
+      <c r="P59" s="1">
+        <v>1395</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>1251</v>
       </c>
       <c r="R59" s="1">
-        <v>4430</v>
+        <v>1112</v>
+      </c>
+      <c r="S59" s="1">
+        <v>986</v>
       </c>
     </row>
     <row r="60" spans="2:38">
       <c r="B60" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="L60" s="1">
+        <v>2225</v>
+      </c>
+      <c r="M60" s="1">
+        <v>2762</v>
+      </c>
+      <c r="N60" s="1">
+        <v>3396</v>
+      </c>
+      <c r="O60" s="1">
+        <v>4568</v>
+      </c>
+      <c r="P60" s="1">
+        <v>5398</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>5982</v>
       </c>
       <c r="R60" s="1">
-        <v>1112</v>
+        <v>6081</v>
+      </c>
+      <c r="S60" s="1">
+        <v>7798</v>
       </c>
     </row>
     <row r="61" spans="2:38">
       <c r="B61" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="L61" s="1">
+        <v>3340</v>
+      </c>
+      <c r="M61" s="1">
+        <v>3580</v>
+      </c>
+      <c r="N61" s="1">
+        <v>3820</v>
+      </c>
+      <c r="O61" s="1">
+        <v>4204</v>
+      </c>
+      <c r="P61" s="1">
+        <v>4501</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>4667</v>
       </c>
       <c r="R61" s="1">
-        <v>6081</v>
-      </c>
-    </row>
-    <row r="62" spans="2:38">
-      <c r="B62" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="R62" s="1">
         <v>4500</v>
       </c>
-    </row>
-    <row r="63" spans="2:38" s="4" customFormat="1">
-      <c r="B63" s="4" t="s">
+      <c r="S61" s="1">
+        <v>4568</v>
+      </c>
+    </row>
+    <row r="62" spans="2:38" s="4" customFormat="1">
+      <c r="B62" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="R63" s="4">
-        <f>+SUM(R56:R62)</f>
+      <c r="L62" s="4">
+        <f>+SUM(L55:L61)</f>
+        <v>43476</v>
+      </c>
+      <c r="M62" s="4">
+        <f>+SUM(M55:M61)</f>
+        <v>40488</v>
+      </c>
+      <c r="N62" s="4">
+        <f>+SUM(N55:N61)</f>
+        <v>41182</v>
+      </c>
+      <c r="O62" s="4">
+        <f>+SUM(O55:O61)</f>
+        <v>44460</v>
+      </c>
+      <c r="P62" s="4">
+        <f>+SUM(P55:P61)</f>
+        <v>49555</v>
+      </c>
+      <c r="Q62" s="4">
+        <f>+SUM(Q55:Q61)</f>
+        <v>54148</v>
+      </c>
+      <c r="R62" s="4">
+        <f>+SUM(R55:R61)</f>
         <v>65728</v>
       </c>
-    </row>
-    <row r="65" spans="2:18">
+      <c r="S62" s="4">
+        <f>+SUM(S55:S61)</f>
+        <v>77072</v>
+      </c>
+    </row>
+    <row r="64" spans="2:38">
+      <c r="B64" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L64" s="1">
+        <v>2421</v>
+      </c>
+      <c r="M64" s="1">
+        <v>1491</v>
+      </c>
+      <c r="N64" s="1">
+        <v>1193</v>
+      </c>
+      <c r="O64" s="1">
+        <v>1141</v>
+      </c>
+      <c r="P64" s="1">
+        <v>1929</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>2380</v>
+      </c>
+      <c r="R64" s="1">
+        <v>2699</v>
+      </c>
+      <c r="S64" s="1">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19">
       <c r="B65" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="L65" s="1">
+        <v>3903</v>
+      </c>
+      <c r="M65" s="1">
+        <v>4115</v>
+      </c>
+      <c r="N65" s="1">
+        <v>4120</v>
+      </c>
+      <c r="O65" s="1">
+        <v>4869</v>
+      </c>
+      <c r="P65" s="1">
+        <v>7156</v>
+      </c>
+      <c r="Q65" s="1">
+        <v>5472</v>
       </c>
       <c r="R65" s="1">
-        <v>2699</v>
-      </c>
-    </row>
-    <row r="66" spans="2:18">
+        <v>6682</v>
+      </c>
+      <c r="S65" s="1">
+        <v>11258</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19">
       <c r="B66" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="L66" s="1">
+        <v>1249</v>
+      </c>
+      <c r="M66" s="1">
+        <v>1249</v>
+      </c>
+      <c r="N66" s="1">
+        <v>1250</v>
+      </c>
+      <c r="O66" s="1">
+        <v>1250</v>
+      </c>
+      <c r="P66" s="1">
+        <v>1249</v>
+      </c>
+      <c r="Q66" s="1">
+        <v>1249</v>
       </c>
       <c r="R66" s="1">
-        <v>6682</v>
-      </c>
-    </row>
-    <row r="67" spans="2:18">
+        <v>1250</v>
+      </c>
+      <c r="S66" s="1">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19">
       <c r="B67" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="L67" s="1">
+        <f>+SUM(L64:L66)</f>
+        <v>7573</v>
+      </c>
+      <c r="M67" s="1">
+        <f>+SUM(M64:M66)</f>
+        <v>6855</v>
+      </c>
+      <c r="N67" s="1">
+        <f>+SUM(N64:N66)</f>
+        <v>6563</v>
+      </c>
+      <c r="O67" s="1">
+        <f>+SUM(O64:O66)</f>
+        <v>7260</v>
+      </c>
+      <c r="P67" s="1">
+        <f>+SUM(P64:P66)</f>
+        <v>10334</v>
+      </c>
+      <c r="Q67" s="1">
+        <f>+SUM(Q64:Q66)</f>
+        <v>9101</v>
       </c>
       <c r="R67" s="1">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="68" spans="2:18">
+        <f>+SUM(R64:R66)</f>
+        <v>10631</v>
+      </c>
+      <c r="S67" s="1">
+        <f>+SUM(S64:S66)</f>
+        <v>15223</v>
+      </c>
+    </row>
+    <row r="68" spans="2:19">
       <c r="B68" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="L68" s="1">
+        <v>9700</v>
+      </c>
+      <c r="M68" s="1">
+        <v>9701</v>
+      </c>
+      <c r="N68" s="1">
+        <v>9703</v>
+      </c>
+      <c r="O68" s="1">
+        <v>9704</v>
+      </c>
+      <c r="P68" s="1">
+        <v>8456</v>
+      </c>
+      <c r="Q68" s="1">
+        <v>8457</v>
       </c>
       <c r="R68" s="1">
-        <f>+SUM(R65:R67)</f>
-        <v>10631</v>
-      </c>
-    </row>
-    <row r="69" spans="2:18">
+        <v>8459</v>
+      </c>
+      <c r="S68" s="1">
+        <v>8460</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19">
       <c r="B69" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="L69" s="1">
+        <v>743</v>
+      </c>
+      <c r="M69" s="1">
+        <v>798</v>
+      </c>
+      <c r="N69" s="1">
+        <v>902</v>
+      </c>
+      <c r="O69" s="1">
+        <v>939</v>
+      </c>
+      <c r="P69" s="1">
+        <v>1041</v>
+      </c>
+      <c r="Q69" s="1">
+        <v>1091</v>
       </c>
       <c r="R69" s="1">
-        <v>8459</v>
-      </c>
-    </row>
-    <row r="70" spans="2:18">
+        <v>1119</v>
+      </c>
+      <c r="S69" s="1">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19">
       <c r="B70" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="L70" s="1">
+        <v>1609</v>
+      </c>
+      <c r="M70" s="1">
+        <v>1785</v>
+      </c>
+      <c r="N70" s="1">
+        <v>1913</v>
+      </c>
+      <c r="O70" s="1">
+        <v>2037</v>
+      </c>
+      <c r="P70" s="1">
+        <v>2223</v>
+      </c>
+      <c r="Q70" s="1">
+        <v>2234</v>
       </c>
       <c r="R70" s="1">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="71" spans="2:18">
-      <c r="B71" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="R71" s="1">
         <v>2541</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" s="4" customFormat="1">
-      <c r="B72" s="4" t="s">
+      <c r="S70" s="1">
+        <v>2966</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" s="4" customFormat="1">
+      <c r="B71" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="R72" s="4">
-        <f>+SUM(R68:R71)</f>
+      <c r="L71" s="4">
+        <f>+SUM(L67:L70)</f>
+        <v>19625</v>
+      </c>
+      <c r="M71" s="4">
+        <f>+SUM(M67:M70)</f>
+        <v>19139</v>
+      </c>
+      <c r="N71" s="4">
+        <f>+SUM(N67:N70)</f>
+        <v>19081</v>
+      </c>
+      <c r="O71" s="4">
+        <f>+SUM(O67:O70)</f>
+        <v>19940</v>
+      </c>
+      <c r="P71" s="4">
+        <f>+SUM(P67:P70)</f>
+        <v>22054</v>
+      </c>
+      <c r="Q71" s="4">
+        <f>+SUM(Q67:Q70)</f>
+        <v>20883</v>
+      </c>
+      <c r="R71" s="4">
+        <f>+SUM(R67:R70)</f>
         <v>22750</v>
       </c>
-    </row>
-    <row r="73" spans="2:18">
-      <c r="R73" s="1">
+      <c r="S71" s="4">
+        <f>+SUM(S67:S70)</f>
+        <v>27930</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19">
+      <c r="B72" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L72" s="1">
+        <v>23851</v>
+      </c>
+      <c r="M72" s="1">
+        <v>21349</v>
+      </c>
+      <c r="N72" s="1">
+        <v>22101</v>
+      </c>
+      <c r="O72" s="1">
+        <v>24520</v>
+      </c>
+      <c r="P72" s="1">
+        <v>27501</v>
+      </c>
+      <c r="Q72" s="1">
+        <v>33265</v>
+      </c>
+      <c r="R72" s="1">
         <v>42978</v>
       </c>
-    </row>
-    <row r="74" spans="2:18">
-      <c r="R74" s="1">
-        <f>+SUM(R72:R73)</f>
+      <c r="S72" s="1">
+        <v>49142</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" s="4" customFormat="1">
+      <c r="B73" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="L73" s="4">
+        <f>+SUM(L71:L72)</f>
+        <v>43476</v>
+      </c>
+      <c r="M73" s="4">
+        <f>+SUM(M71:M72)</f>
+        <v>40488</v>
+      </c>
+      <c r="N73" s="4">
+        <f>+SUM(N71:N72)</f>
+        <v>41182</v>
+      </c>
+      <c r="O73" s="4">
+        <f>+SUM(O71:O72)</f>
+        <v>44460</v>
+      </c>
+      <c r="P73" s="4">
+        <f>+SUM(P71:P72)</f>
+        <v>49555</v>
+      </c>
+      <c r="Q73" s="4">
+        <f>+SUM(Q71:Q72)</f>
+        <v>54148</v>
+      </c>
+      <c r="R73" s="4">
+        <f>+SUM(R71:R72)</f>
         <v>65728</v>
+      </c>
+      <c r="S73" s="4">
+        <f>+SUM(S71:S72)</f>
+        <v>77072</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19">
+      <c r="I74" s="4" t="str">
+        <f t="shared" ref="I74:R74" si="210">IF(I73=I62,"","DUQWDGWTDGWD")</f>
+        <v/>
+      </c>
+      <c r="J74" s="4" t="str">
+        <f t="shared" si="210"/>
+        <v/>
+      </c>
+      <c r="K74" s="4" t="str">
+        <f t="shared" si="210"/>
+        <v/>
+      </c>
+      <c r="L74" s="4" t="str">
+        <f t="shared" si="210"/>
+        <v/>
+      </c>
+      <c r="M74" s="4" t="str">
+        <f t="shared" si="210"/>
+        <v/>
+      </c>
+      <c r="N74" s="4" t="str">
+        <f t="shared" si="210"/>
+        <v/>
+      </c>
+      <c r="O74" s="4" t="str">
+        <f t="shared" si="210"/>
+        <v/>
+      </c>
+      <c r="P74" s="4" t="str">
+        <f t="shared" si="210"/>
+        <v/>
+      </c>
+      <c r="Q74" s="4" t="str">
+        <f t="shared" si="210"/>
+        <v/>
+      </c>
+      <c r="R74" s="4" t="str">
+        <f t="shared" si="210"/>
+        <v/>
+      </c>
+      <c r="S74" s="4" t="str">
+        <f>IF(S73=S62,"","DUQWDGWTDGWD")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="2:19">
+      <c r="B75" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L75" s="1">
+        <f>+SUM(L50:L51)</f>
+        <v>17037</v>
+      </c>
+      <c r="M75" s="1">
+        <f t="shared" ref="M75:S75" si="211">+SUM(M50:M51)</f>
+        <v>13143</v>
+      </c>
+      <c r="N75" s="1">
+        <f t="shared" si="211"/>
+        <v>13296</v>
+      </c>
+      <c r="O75" s="1">
+        <f t="shared" si="211"/>
+        <v>15320</v>
+      </c>
+      <c r="P75" s="1">
+        <f t="shared" si="211"/>
+        <v>16023</v>
+      </c>
+      <c r="Q75" s="1">
+        <f t="shared" si="211"/>
+        <v>18281</v>
+      </c>
+      <c r="R75" s="1">
+        <f t="shared" si="211"/>
+        <v>25984</v>
+      </c>
+      <c r="S75" s="1">
+        <f t="shared" si="211"/>
+        <v>31438</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19">
+      <c r="B76" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L76" s="1">
+        <f>+L66+L68</f>
+        <v>10949</v>
+      </c>
+      <c r="M76" s="1">
+        <f t="shared" ref="M76:S76" si="212">+M66+M68</f>
+        <v>10950</v>
+      </c>
+      <c r="N76" s="1">
+        <f t="shared" si="212"/>
+        <v>10953</v>
+      </c>
+      <c r="O76" s="1">
+        <f t="shared" si="212"/>
+        <v>10954</v>
+      </c>
+      <c r="P76" s="1">
+        <f t="shared" si="212"/>
+        <v>9705</v>
+      </c>
+      <c r="Q76" s="1">
+        <f t="shared" si="212"/>
+        <v>9706</v>
+      </c>
+      <c r="R76" s="1">
+        <f t="shared" si="212"/>
+        <v>9709</v>
+      </c>
+      <c r="S76" s="1">
+        <f t="shared" si="212"/>
+        <v>9710</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19">
+      <c r="B77" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L77" s="1">
+        <f>+L55-L67</f>
+        <v>19845</v>
+      </c>
+      <c r="M77" s="1">
+        <f t="shared" ref="M77:S77" si="213">+M55-M67</f>
+        <v>16368</v>
+      </c>
+      <c r="N77" s="1">
+        <f t="shared" si="213"/>
+        <v>16510</v>
+      </c>
+      <c r="O77" s="1">
+        <f t="shared" si="213"/>
+        <v>17623</v>
+      </c>
+      <c r="P77" s="1">
+        <f t="shared" si="213"/>
+        <v>18463</v>
+      </c>
+      <c r="Q77" s="1">
+        <f t="shared" si="213"/>
+        <v>23557</v>
+      </c>
+      <c r="R77" s="1">
+        <f t="shared" si="213"/>
+        <v>33714</v>
+      </c>
+      <c r="S77" s="1">
+        <f t="shared" si="213"/>
+        <v>38506</v>
+      </c>
+    </row>
+    <row r="78" spans="2:19" s="22" customFormat="1">
+      <c r="B78" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="L78" s="22">
+        <f>+L55/L67</f>
+        <v>3.6204938597649545</v>
+      </c>
+      <c r="M78" s="22">
+        <f t="shared" ref="M78:S78" si="214">+M55/M67</f>
+        <v>3.3877461706783372</v>
+      </c>
+      <c r="N78" s="22">
+        <f t="shared" si="214"/>
+        <v>3.5156178576870332</v>
+      </c>
+      <c r="O78" s="22">
+        <f t="shared" si="214"/>
+        <v>3.4274104683195592</v>
+      </c>
+      <c r="P78" s="22">
+        <f t="shared" si="214"/>
+        <v>2.7866266692471453</v>
+      </c>
+      <c r="Q78" s="22">
+        <f t="shared" si="214"/>
+        <v>3.588396879463795</v>
+      </c>
+      <c r="R78" s="22">
+        <f t="shared" si="214"/>
+        <v>4.1712915059730973</v>
+      </c>
+      <c r="S78" s="22">
+        <f t="shared" si="214"/>
+        <v>3.5294619982920579</v>
+      </c>
+    </row>
+    <row r="81" spans="2:21">
+      <c r="B81" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L81" s="1">
+        <v>1270</v>
+      </c>
+      <c r="M81" s="1">
+        <v>392</v>
+      </c>
+      <c r="N81" s="1">
+        <v>2249</v>
+      </c>
+      <c r="O81" s="1">
+        <v>2911</v>
+      </c>
+      <c r="P81" s="1">
+        <v>6348</v>
+      </c>
+      <c r="Q81" s="1">
+        <v>7333</v>
+      </c>
+      <c r="R81" s="1">
+        <v>11499</v>
+      </c>
+      <c r="S81" s="1">
+        <v>15345</v>
+      </c>
+    </row>
+    <row r="82" spans="2:21">
+      <c r="B82" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L82" s="1">
+        <v>-433</v>
+      </c>
+      <c r="M82" s="1">
+        <v>-530</v>
+      </c>
+      <c r="N82" s="1">
+        <v>509</v>
+      </c>
+      <c r="O82" s="1">
+        <v>-248</v>
+      </c>
+      <c r="P82" s="1">
+        <v>-289</v>
+      </c>
+      <c r="Q82" s="1">
+        <v>-278</v>
+      </c>
+      <c r="R82" s="1">
+        <v>-253</v>
+      </c>
+      <c r="S82" s="1">
+        <v>-369</v>
+      </c>
+    </row>
+    <row r="83" spans="2:21" s="4" customFormat="1">
+      <c r="B83" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="L83" s="4">
+        <f>+SUM(L81:L82)</f>
+        <v>837</v>
+      </c>
+      <c r="M83" s="4">
+        <f>+SUM(M81:M82)</f>
+        <v>-138</v>
+      </c>
+      <c r="N83" s="4">
+        <f>+SUM(N81:N82)</f>
+        <v>2758</v>
+      </c>
+      <c r="O83" s="4">
+        <f>+SUM(O81:O82)</f>
+        <v>2663</v>
+      </c>
+      <c r="P83" s="4">
+        <f>+SUM(P81:P82)</f>
+        <v>6059</v>
+      </c>
+      <c r="Q83" s="4">
+        <f>+SUM(Q81:Q82)</f>
+        <v>7055</v>
+      </c>
+      <c r="R83" s="4">
+        <f>+SUM(R81:R82)</f>
+        <v>11246</v>
+      </c>
+      <c r="S83" s="4">
+        <f>+SUM(S81:S82)</f>
+        <v>14976</v>
+      </c>
+      <c r="U83" s="20"/>
+    </row>
+    <row r="84" spans="2:21">
+      <c r="B84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L84" s="1">
+        <f>+L26</f>
+        <v>656</v>
+      </c>
+      <c r="M84" s="1">
+        <f>+M26</f>
+        <v>680</v>
+      </c>
+      <c r="N84" s="1">
+        <f>+N26</f>
+        <v>1414</v>
+      </c>
+      <c r="O84" s="1">
+        <f>+O26</f>
+        <v>2043</v>
+      </c>
+      <c r="P84" s="1">
+        <f>+P26</f>
+        <v>6188</v>
+      </c>
+      <c r="Q84" s="1">
+        <f>+Q26</f>
+        <v>9243</v>
+      </c>
+      <c r="R84" s="1">
+        <f>+R26</f>
+        <v>12286</v>
+      </c>
+      <c r="S84" s="1">
+        <f>+S26</f>
+        <v>14881</v>
+      </c>
+    </row>
+    <row r="86" spans="2:21">
+      <c r="B86" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="O86" s="1">
+        <f t="shared" ref="O86:R86" si="215">SUM(L83:O83)</f>
+        <v>6120</v>
+      </c>
+      <c r="P86" s="1">
+        <f t="shared" si="215"/>
+        <v>11342</v>
+      </c>
+      <c r="Q86" s="1">
+        <f t="shared" si="215"/>
+        <v>18535</v>
+      </c>
+      <c r="R86" s="1">
+        <f t="shared" si="215"/>
+        <v>27023</v>
+      </c>
+      <c r="S86" s="1">
+        <f>SUM(P83:S83)</f>
+        <v>39336</v>
+      </c>
+    </row>
+    <row r="87" spans="2:21">
+      <c r="B87" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O87" s="1">
+        <f t="shared" ref="O87:R87" si="216">SUM(L84:O84)</f>
+        <v>4793</v>
+      </c>
+      <c r="P87" s="1">
+        <f t="shared" si="216"/>
+        <v>10325</v>
+      </c>
+      <c r="Q87" s="1">
+        <f t="shared" si="216"/>
+        <v>18888</v>
+      </c>
+      <c r="R87" s="1">
+        <f t="shared" si="216"/>
+        <v>29760</v>
+      </c>
+      <c r="S87" s="1">
+        <f>SUM(P84:S84)</f>
+        <v>42598</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="Q15:R19 N15:N28 J15:J28 Q21:R25 Q20 Q26 AB17:AL28" formula="1"/>
-    <ignoredError sqref="Y15:Z15" formulaRange="1"/>
+    <ignoredError sqref="Q15:R19 N15:N28 J15:J28 Q21:R25 Q20 Q26 AB18:AL28 AB17 AD17:AL17" formula="1"/>
+    <ignoredError sqref="Y15:Z15 R49:S49 L48:Q48 L49 M49:Q49 L75:S75" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -5039,7 +7591,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>44</v>
       </c>
     </row>

--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameelbrannon/Library/CloudStorage/Dropbox/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B909E86B-DE91-9C49-8874-DBC356998655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288F70BA-9DF6-4D4E-B047-28D64E739AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19120" yWindow="500" windowWidth="48920" windowHeight="28280" activeTab="1" xr2:uid="{3991C303-FDF7-2343-B20E-E26B6CBB280D}"/>
+    <workbookView xWindow="57060" yWindow="500" windowWidth="48920" windowHeight="28280" xr2:uid="{3991C303-FDF7-2343-B20E-E26B6CBB280D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -513,7 +513,7 @@
   <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="m/d;@"/>
-    <numFmt numFmtId="167" formatCode="0\x"/>
+    <numFmt numFmtId="165" formatCode="0\x"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -691,7 +691,7 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1160,8 +1160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B61C9843-BDE5-5E44-98C3-1A0D7B368C6B}">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1201,7 +1201,7 @@
         <v>4</v>
       </c>
       <c r="K3" s="1">
-        <v>135.58000000000001</v>
+        <v>124.24</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1218,7 +1218,7 @@
         <v>24600</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M4" s="1">
         <f>+K4*10</f>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="K5" s="1">
         <f>+K3*K4</f>
-        <v>3335268.0000000005</v>
+        <v>3056304</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="L6" s="1" t="str">
         <f>+L4</f>
-        <v>Q125</v>
+        <v>Q225</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="L7" s="1" t="str">
         <f>+L6</f>
-        <v>Q125</v>
+        <v>Q225</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="K8" s="1">
         <f>+K5-K6+K7</f>
-        <v>3318993.0000000005</v>
+        <v>3040029</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1421,11 +1421,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38A046E-F266-6848-AB04-142D610E732A}">
   <dimension ref="B2:ID87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AF8" sqref="AF8"/>
+      <selection pane="bottomRight" activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1579,6 +1579,9 @@
       <c r="S3" s="7">
         <v>45410</v>
       </c>
+      <c r="T3" s="7">
+        <v>45350</v>
+      </c>
       <c r="Y3" s="7">
         <v>44227</v>
       </c>
@@ -5507,83 +5510,83 @@
         <v>35</v>
       </c>
       <c r="G37" s="3">
-        <f>+IFERROR(G13/C13-1,0)</f>
+        <f t="shared" ref="G37:V42" si="208">+IFERROR(G13/C13-1,0)</f>
         <v>0</v>
       </c>
       <c r="H37" s="3">
-        <f>+IFERROR(H13/D13-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0</v>
       </c>
       <c r="I37" s="3">
-        <f>+IFERROR(I13/E13-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0</v>
       </c>
       <c r="J37" s="3">
-        <f>+IFERROR(J13/F13-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0</v>
       </c>
       <c r="K37" s="3">
-        <f>+IFERROR(K13/G13-1,0)</f>
+        <f t="shared" si="208"/>
         <v>6.4039408866995107E-2</v>
       </c>
       <c r="L37" s="3">
-        <f>+IFERROR(L13/H13-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0</v>
       </c>
       <c r="M37" s="3">
-        <f>+IFERROR(M13/I13-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0.26735303885752248</v>
       </c>
       <c r="N37" s="3">
-        <f>+IFERROR(N13/J13-1,0)</f>
+        <f t="shared" si="208"/>
         <v>4.4254062038404722</v>
       </c>
       <c r="O37" s="3">
-        <f>+IFERROR(O13/K13-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0.21459694989106759</v>
       </c>
       <c r="P37" s="3">
-        <f>+IFERROR(P13/L13-1,0)</f>
+        <f t="shared" si="208"/>
         <v>1.6624008190427437</v>
       </c>
       <c r="Q37" s="3">
-        <f>+IFERROR(Q13/M13-1,0)</f>
+        <f t="shared" si="208"/>
         <v>2.8377882599580713</v>
       </c>
       <c r="R37" s="3">
-        <f>+IFERROR(R13/N13-1,0)</f>
+        <f t="shared" si="208"/>
         <v>3.8728559760413832</v>
       </c>
       <c r="S37" s="3">
-        <f>+IFERROR(S13/O13-1,0)</f>
+        <f t="shared" si="208"/>
         <v>4.0840807174887894</v>
       </c>
       <c r="T37" s="3">
-        <f>+IFERROR(T13/P13-1,0)</f>
+        <f t="shared" si="208"/>
         <v>1.3435854387016235</v>
       </c>
       <c r="U37" s="3">
-        <f>+IFERROR(U13/Q13-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0.83105314487618442</v>
       </c>
       <c r="V37" s="3">
-        <f>+IFERROR(V13/R13-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0.64808082676181122</v>
       </c>
       <c r="Z37" s="3">
-        <f>+Z13/Y13-1</f>
+        <f t="shared" ref="Z37:AC38" si="209">+Z13/Y13-1</f>
         <v>0.12324588163514338</v>
       </c>
       <c r="AA37" s="3">
-        <f>+AA13/Z13-1</f>
+        <f t="shared" si="209"/>
         <v>0.36411370631902962</v>
       </c>
       <c r="AB37" s="3">
-        <f>+AB13/AA13-1</f>
+        <f t="shared" si="209"/>
         <v>2.1460711441465357</v>
       </c>
       <c r="AC37" s="3">
-        <f>+AC13/AB13-1</f>
+        <f t="shared" si="209"/>
         <v>1.1804893930486005</v>
       </c>
       <c r="AQ37" s="26" t="s">
@@ -5599,83 +5602,83 @@
         <v>36</v>
       </c>
       <c r="G38" s="3">
-        <f>+IFERROR(G14/C14-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0</v>
       </c>
       <c r="H38" s="3">
-        <f>+IFERROR(H14/D14-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0</v>
       </c>
       <c r="I38" s="3">
-        <f>+IFERROR(I14/E14-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0</v>
       </c>
       <c r="J38" s="3">
-        <f>+IFERROR(J14/F14-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0</v>
       </c>
       <c r="K38" s="3">
-        <f>+IFERROR(K14/G14-1,0)</f>
+        <f t="shared" si="208"/>
         <v>1.08868778280543</v>
       </c>
       <c r="L38" s="3">
-        <f>+IFERROR(L14/H14-1,0)</f>
+        <f t="shared" si="208"/>
         <v>7.5769230769230811E-2</v>
       </c>
       <c r="M38" s="3">
-        <f>+IFERROR(M14/I14-1,0)</f>
+        <f t="shared" si="208"/>
         <v>-0.48313782991202348</v>
       </c>
       <c r="N38" s="3">
-        <f>+IFERROR(N14/J14-1,0)</f>
+        <f t="shared" si="208"/>
         <v>-0.65862761986792995</v>
       </c>
       <c r="O38" s="3">
-        <f>+IFERROR(O14/K14-1,0)</f>
+        <f t="shared" si="208"/>
         <v>-0.40814558058925476</v>
       </c>
       <c r="P38" s="3">
-        <f>+IFERROR(P14/L14-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0.11011798355380775</v>
       </c>
       <c r="Q38" s="3">
-        <f>+IFERROR(Q14/M14-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0.64302600472813243</v>
       </c>
       <c r="R38" s="3">
-        <f>+IFERROR(R14/N14-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0.76829268292682928</v>
       </c>
       <c r="S38" s="3">
-        <f>+IFERROR(S14/O14-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0.23316251830161061</v>
       </c>
       <c r="T38" s="3">
-        <f>+IFERROR(T14/P14-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0.16651345140924656</v>
       </c>
       <c r="U38" s="3">
-        <f>+IFERROR(U14/Q14-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0.14654005562252714</v>
       </c>
       <c r="V38" s="3">
-        <f>+IFERROR(V14/R14-1,0)</f>
+        <f t="shared" si="208"/>
         <v>4.2247173036173757E-2</v>
       </c>
       <c r="Z38" s="3">
-        <f>+Z14/Y14-1</f>
+        <f t="shared" si="209"/>
         <v>1.3195439263265603</v>
       </c>
       <c r="AA38" s="3">
-        <f>+AA14/Z14-1</f>
+        <f t="shared" si="209"/>
         <v>-0.24968490042853542</v>
       </c>
       <c r="AB38" s="3">
-        <f>+AB14/AA14-1</f>
+        <f t="shared" si="209"/>
         <v>0.13530992776751227</v>
       </c>
       <c r="AC38" s="3">
-        <f>+AC14/AB14-1</f>
+        <f t="shared" si="209"/>
         <v>0.13619148646379386</v>
       </c>
       <c r="AQ38" s="11" t="s">
@@ -5683,7 +5686,7 @@
       </c>
       <c r="AR38" s="12">
         <f>+Main!K3</f>
-        <v>135.58000000000001</v>
+        <v>124.24</v>
       </c>
     </row>
     <row r="39" spans="2:44" s="20" customFormat="1">
@@ -5691,122 +5694,122 @@
         <v>20</v>
       </c>
       <c r="G39" s="20">
-        <f>+IFERROR(G15/C15-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0</v>
       </c>
       <c r="H39" s="20">
-        <f>+IFERROR(H15/D15-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0</v>
       </c>
       <c r="I39" s="20">
-        <f>+IFERROR(I15/E15-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0</v>
       </c>
       <c r="J39" s="20">
-        <f>+IFERROR(J15/F15-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0</v>
       </c>
       <c r="K39" s="20">
-        <f>+IFERROR(K15/G15-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0.46405228758169925</v>
       </c>
       <c r="L39" s="20">
-        <f>+IFERROR(L15/H15-1,0)</f>
+        <f t="shared" si="208"/>
         <v>3.0275088366374714E-2</v>
       </c>
       <c r="M39" s="20">
-        <f>+IFERROR(M15/I15-1,0)</f>
+        <f t="shared" si="208"/>
         <v>-0.16500070392791777</v>
       </c>
       <c r="N39" s="20">
-        <f>+IFERROR(N15/J15-1,0)</f>
+        <f t="shared" si="208"/>
         <v>-0.20829517205285886</v>
       </c>
       <c r="O39" s="20">
-        <f>+IFERROR(O15/K15-1,0)</f>
+        <f t="shared" si="208"/>
         <v>-0.13223938223938225</v>
       </c>
       <c r="P39" s="20">
-        <f>+IFERROR(P15/L15-1,0)</f>
+        <f t="shared" si="208"/>
         <v>1.0147673031026252</v>
       </c>
       <c r="Q39" s="20">
-        <f>+IFERROR(Q15/M15-1,0)</f>
+        <f t="shared" si="208"/>
         <v>2.0551340414769852</v>
       </c>
       <c r="R39" s="20">
-        <f>+IFERROR(R15/N15-1,0)</f>
+        <f t="shared" si="208"/>
         <v>2.6527846636919516</v>
       </c>
       <c r="S39" s="20">
-        <f>+IFERROR(S15/O15-1,0)</f>
+        <f t="shared" si="208"/>
         <v>2.6212458286985538</v>
       </c>
       <c r="T39" s="20">
-        <f>+IFERROR(T15/P15-1,0)</f>
+        <f t="shared" si="208"/>
         <v>1.072999185607463</v>
       </c>
       <c r="U39" s="20">
-        <f>+IFERROR(U15/Q15-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0.69977924944812386</v>
       </c>
       <c r="V39" s="20">
-        <f>+IFERROR(V15/R15-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0.5328235986065244</v>
       </c>
       <c r="Y39" s="20">
-        <f>+Y15/X15-1</f>
+        <f t="shared" ref="Y39:Z42" si="210">+Y15/X15-1</f>
         <v>0.52729437625938824</v>
       </c>
       <c r="Z39" s="20">
-        <f>+Z15/Y15-1</f>
+        <f t="shared" si="210"/>
         <v>0.61403298350824587</v>
       </c>
       <c r="AA39" s="20">
         <v>0</v>
       </c>
       <c r="AB39" s="20">
-        <f>+AB15/AA15-1</f>
+        <f t="shared" ref="AB39:AL39" si="211">+AB15/AA15-1</f>
         <v>1.2585452658115224</v>
       </c>
       <c r="AC39" s="20">
-        <f>+AC15/AB15-1</f>
+        <f t="shared" si="211"/>
         <v>0.9487869735071075</v>
       </c>
       <c r="AD39" s="20">
-        <f>+AD15/AC15-1</f>
+        <f t="shared" si="211"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="AE39" s="20">
-        <f>+AE15/AD15-1</f>
+        <f t="shared" si="211"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AF39" s="20">
-        <f>+AF15/AE15-1</f>
+        <f t="shared" si="211"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AG39" s="20">
-        <f>+AG15/AF15-1</f>
+        <f t="shared" si="211"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AH39" s="20">
-        <f>+AH15/AG15-1</f>
+        <f t="shared" si="211"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AI39" s="20">
-        <f>+AI15/AH15-1</f>
+        <f t="shared" si="211"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AJ39" s="20">
-        <f>+AJ15/AI15-1</f>
+        <f t="shared" si="211"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AK39" s="20">
-        <f>+AK15/AJ15-1</f>
+        <f t="shared" si="211"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AL39" s="20">
-        <f>+AL15/AK15-1</f>
+        <f t="shared" si="211"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AQ39" s="32" t="s">
@@ -5814,7 +5817,7 @@
       </c>
       <c r="AR39" s="33">
         <f>+AR37/AR38-1</f>
-        <v>2.7238990235035176E-2</v>
+        <v>0.12100017945964336</v>
       </c>
     </row>
     <row r="40" spans="2:44" s="3" customFormat="1">
@@ -5822,75 +5825,75 @@
         <v>21</v>
       </c>
       <c r="G40" s="3">
-        <f>+IFERROR(G16/C16-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0</v>
       </c>
       <c r="H40" s="3">
-        <f>+IFERROR(H16/D16-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0</v>
       </c>
       <c r="I40" s="3">
-        <f>+IFERROR(I16/E16-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0</v>
       </c>
       <c r="J40" s="3">
-        <f>+IFERROR(J16/F16-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0</v>
       </c>
       <c r="K40" s="3">
-        <f>+IFERROR(K16/G16-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0.40600393700787407</v>
       </c>
       <c r="L40" s="3">
-        <f>+IFERROR(L16/H16-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0.65314136125654443</v>
       </c>
       <c r="M40" s="3">
-        <f>+IFERROR(M16/I16-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0.11407766990291268</v>
       </c>
       <c r="N40" s="3">
-        <f>+IFERROR(N16/J16-1,0)</f>
+        <f t="shared" si="208"/>
         <v>-0.16080211880438899</v>
       </c>
       <c r="O40" s="3">
-        <f>+IFERROR(O16/K16-1,0)</f>
+        <f t="shared" si="208"/>
         <v>-0.10955547777388874</v>
       </c>
       <c r="P40" s="3">
-        <f>+IFERROR(P16/L16-1,0)</f>
+        <f t="shared" si="208"/>
         <v>6.7564001055687495E-2</v>
       </c>
       <c r="Q40" s="3">
-        <f>+IFERROR(Q16/M16-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0.71387073347857655</v>
       </c>
       <c r="R40" s="3">
-        <f>+IFERROR(R16/N16-1,0)</f>
+        <f t="shared" si="208"/>
         <v>1.394950405770965</v>
       </c>
       <c r="S40" s="3">
-        <f>+IFERROR(S16/O16-1,0)</f>
+        <f t="shared" si="208"/>
         <v>1.216194968553459</v>
       </c>
       <c r="T40" s="3">
-        <f>+IFERROR(T16/P16-1,0)</f>
+        <f t="shared" si="208"/>
         <v>1.0729991856074625</v>
       </c>
       <c r="U40" s="3">
-        <f>+IFERROR(U16/Q16-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0.69977924944812386</v>
       </c>
       <c r="V40" s="3">
-        <f>+IFERROR(V16/R16-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0.5328235986065244</v>
       </c>
       <c r="Y40" s="3">
-        <f>+Y16/X16-1</f>
+        <f t="shared" si="210"/>
         <v>0.51301204819277113</v>
       </c>
       <c r="Z40" s="3">
-        <f>+Z16/Y16-1</f>
+        <f t="shared" si="210"/>
         <v>0.5032648510909381</v>
       </c>
       <c r="AA40" s="3">
@@ -5898,47 +5901,47 @@
         <v>0.23085072571246945</v>
       </c>
       <c r="AB40" s="3">
-        <f>+AB16/AA16-1</f>
+        <f t="shared" ref="AB40:AL40" si="212">+AB16/AA16-1</f>
         <v>0.43062489240833179</v>
       </c>
       <c r="AC40" s="3">
-        <f>+AC16/AB16-1</f>
+        <f t="shared" si="212"/>
         <v>0.81629256476597023</v>
       </c>
       <c r="AD40" s="3">
-        <f>+AD16/AC16-1</f>
+        <f t="shared" si="212"/>
         <v>0.39999999999999969</v>
       </c>
       <c r="AE40" s="3">
-        <f>+AE16/AD16-1</f>
+        <f t="shared" si="212"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AF40" s="3">
-        <f>+AF16/AE16-1</f>
+        <f t="shared" si="212"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AG40" s="3">
-        <f>+AG16/AF16-1</f>
+        <f t="shared" si="212"/>
         <v>0.20000000000000018</v>
       </c>
       <c r="AH40" s="3">
-        <f>+AH16/AG16-1</f>
+        <f t="shared" si="212"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AI40" s="3">
-        <f>+AI16/AH16-1</f>
+        <f t="shared" si="212"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AJ40" s="3">
-        <f>+AJ16/AI16-1</f>
+        <f t="shared" si="212"/>
         <v>0.20000000000000018</v>
       </c>
       <c r="AK40" s="3">
-        <f>+AK16/AJ16-1</f>
+        <f t="shared" si="212"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AL40" s="3">
-        <f>+AL16/AK16-1</f>
+        <f t="shared" si="212"/>
         <v>0.19999999999999996</v>
       </c>
     </row>
@@ -5947,75 +5950,75 @@
         <v>22</v>
       </c>
       <c r="G41" s="3">
-        <f>+IFERROR(G17/C17-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <f>+IFERROR(H17/D17-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <f>+IFERROR(I17/E17-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <f>+IFERROR(J17/F17-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <f>+IFERROR(K17/G17-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0.40329575021682573</v>
       </c>
       <c r="L41" s="3">
-        <f>+IFERROR(L17/H17-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0.46506024096385534</v>
       </c>
       <c r="M41" s="3">
-        <f>+IFERROR(M17/I17-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0.38631503920171073</v>
       </c>
       <c r="N41" s="3">
-        <f>+IFERROR(N17/J17-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0.3306066802999319</v>
       </c>
       <c r="O41" s="3">
-        <f>+IFERROR(O17/K17-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0.15883807169344877</v>
       </c>
       <c r="P41" s="3">
-        <f>+IFERROR(P17/L17-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0.11842105263157898</v>
       </c>
       <c r="Q41" s="3">
-        <f>+IFERROR(Q17/M17-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0.17943444730077118</v>
       </c>
       <c r="R41" s="3">
-        <f>+IFERROR(R17/N17-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0.26331967213114749</v>
       </c>
       <c r="S41" s="3">
-        <f>+IFERROR(S17/O17-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0.45066666666666677</v>
       </c>
       <c r="T41" s="3">
-        <f>+IFERROR(T17/P17-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0.47058823529411775</v>
       </c>
       <c r="U41" s="3">
-        <f>+IFERROR(U17/Q17-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0.69977924944812386</v>
       </c>
       <c r="V41" s="3">
-        <f>+IFERROR(V17/R17-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0.5328235986065244</v>
       </c>
       <c r="Y41" s="3">
-        <f>+Y17/X17-1</f>
+        <f t="shared" si="210"/>
         <v>0.38706256627783664</v>
       </c>
       <c r="Z41" s="3">
-        <f>+Z17/Y17-1</f>
+        <f t="shared" si="210"/>
         <v>0.34250764525993893</v>
       </c>
       <c r="AA41" s="3">
@@ -6023,47 +6026,47 @@
         <v>0.39312832194381175</v>
       </c>
       <c r="AB41" s="3">
-        <f>+AB17/AA17-1</f>
+        <f t="shared" ref="AB41:AL41" si="213">+AB17/AA17-1</f>
         <v>0.18204115002043886</v>
       </c>
       <c r="AC41" s="3">
-        <f>+AC17/AB17-1</f>
+        <f t="shared" si="213"/>
         <v>0.54458058701990586</v>
       </c>
       <c r="AD41" s="3">
-        <f>+AD17/AC17-1</f>
+        <f t="shared" si="213"/>
         <v>0.39999999999999969</v>
       </c>
       <c r="AE41" s="3">
-        <f>+AE17/AD17-1</f>
+        <f t="shared" si="213"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AF41" s="3">
-        <f>+AF17/AE17-1</f>
+        <f t="shared" si="213"/>
         <v>0.20000000000000018</v>
       </c>
       <c r="AG41" s="3">
-        <f>+AG17/AF17-1</f>
+        <f t="shared" si="213"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AH41" s="3">
-        <f>+AH17/AG17-1</f>
+        <f t="shared" si="213"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AI41" s="3">
-        <f>+AI17/AH17-1</f>
+        <f t="shared" si="213"/>
         <v>0.19999999999999973</v>
       </c>
       <c r="AJ41" s="3">
-        <f>+AJ17/AI17-1</f>
+        <f t="shared" si="213"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AK41" s="3">
-        <f>+AK17/AJ17-1</f>
+        <f t="shared" si="213"/>
         <v>0.20000000000000018</v>
       </c>
       <c r="AL41" s="3">
-        <f>+AL17/AK17-1</f>
+        <f t="shared" si="213"/>
         <v>0.19999999999999996</v>
       </c>
     </row>
@@ -6072,75 +6075,75 @@
         <v>23</v>
       </c>
       <c r="G42" s="3">
-        <f>+IFERROR(G18/C18-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0</v>
       </c>
       <c r="H42" s="3">
-        <f>+IFERROR(H18/D18-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0</v>
       </c>
       <c r="I42" s="3">
-        <f>+IFERROR(I18/E18-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0</v>
       </c>
       <c r="J42" s="3">
-        <f>+IFERROR(J18/F18-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0</v>
       </c>
       <c r="K42" s="3">
-        <f>+IFERROR(K18/G18-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0.13846153846153841</v>
       </c>
       <c r="L42" s="3">
-        <f>+IFERROR(L18/H18-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0.12547528517110274</v>
       </c>
       <c r="M42" s="3">
-        <f>+IFERROR(M18/I18-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0.1328545780969479</v>
       </c>
       <c r="N42" s="3">
-        <f>+IFERROR(N18/J18-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0.11012433392539966</v>
       </c>
       <c r="O42" s="3">
-        <f>+IFERROR(O18/K18-1,0)</f>
+        <f t="shared" si="208"/>
         <v>6.9256756756756799E-2</v>
       </c>
       <c r="P42" s="3">
-        <f>+IFERROR(P18/L18-1,0)</f>
+        <f t="shared" si="208"/>
         <v>5.0675675675675658E-2</v>
       </c>
       <c r="Q42" s="3">
-        <f>+IFERROR(Q18/M18-1,0)</f>
+        <f t="shared" si="208"/>
         <v>9.191759112519815E-2</v>
       </c>
       <c r="R42" s="3">
-        <f>+IFERROR(R18/N18-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0.1359999999999999</v>
       </c>
       <c r="S42" s="3">
-        <f>+IFERROR(S18/O18-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0.22748815165876768</v>
       </c>
       <c r="T42" s="3">
-        <f>+IFERROR(T18/P18-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0.60771704180064301</v>
       </c>
       <c r="U42" s="3">
-        <f>+IFERROR(U18/Q18-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0.69977924944812409</v>
       </c>
       <c r="V42" s="3">
-        <f>+IFERROR(V18/R18-1,0)</f>
+        <f t="shared" si="208"/>
         <v>0.5328235986065244</v>
       </c>
       <c r="Y42" s="3">
-        <f>+Y18/X18-1</f>
+        <f t="shared" si="210"/>
         <v>0.77493138151875574</v>
       </c>
       <c r="Z42" s="3">
-        <f>+Z18/Y18-1</f>
+        <f t="shared" si="210"/>
         <v>0.11649484536082477</v>
       </c>
       <c r="AA42" s="3">
@@ -6148,47 +6151,47 @@
         <v>0.12650046168051698</v>
       </c>
       <c r="AB42" s="3">
-        <f>+AB18/AA18-1</f>
+        <f t="shared" ref="AB42:AL42" si="214">+AB18/AA18-1</f>
         <v>8.7704918032786905E-2</v>
       </c>
       <c r="AC42" s="3">
-        <f>+AC18/AB18-1</f>
+        <f t="shared" si="214"/>
         <v>0.52089399317271656</v>
       </c>
       <c r="AD42" s="3">
-        <f>+AD18/AC18-1</f>
+        <f t="shared" si="214"/>
         <v>0.39999999999999969</v>
       </c>
       <c r="AE42" s="3">
-        <f>+AE18/AD18-1</f>
+        <f t="shared" si="214"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AF42" s="3">
-        <f>+AF18/AE18-1</f>
+        <f t="shared" si="214"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AG42" s="3">
-        <f>+AG18/AF18-1</f>
+        <f t="shared" si="214"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AH42" s="3">
-        <f>+AH18/AG18-1</f>
+        <f t="shared" si="214"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AI42" s="3">
-        <f>+AI18/AH18-1</f>
+        <f t="shared" si="214"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AJ42" s="3">
-        <f>+AJ18/AI18-1</f>
+        <f t="shared" si="214"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AK42" s="3">
-        <f>+AK18/AJ18-1</f>
+        <f t="shared" si="214"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AL42" s="3">
-        <f>+AL18/AK18-1</f>
+        <f t="shared" si="214"/>
         <v>0.19999999999999996</v>
       </c>
     </row>
@@ -6198,60 +6201,60 @@
       </c>
       <c r="AR43" s="22">
         <f>+Main!$K$8/Model!AC26</f>
-        <v>54.460141567687693</v>
+        <v>49.882723377203874</v>
       </c>
     </row>
     <row r="44" spans="2:44" s="3" customFormat="1">
       <c r="Z44" s="3">
-        <f>+Z16/Z$15</f>
+        <f t="shared" ref="Z44:AL44" si="215">+Z16/Z$15</f>
         <v>0.35070966783086871</v>
       </c>
       <c r="AA44" s="3">
-        <f>+AA16/AA$15</f>
+        <f t="shared" si="215"/>
         <v>0.43071105509008673</v>
       </c>
       <c r="AB44" s="3">
-        <f>+AB16/AB$15</f>
+        <f t="shared" si="215"/>
         <v>0.27282426709563046</v>
       </c>
       <c r="AC44" s="3">
-        <f>+AC16/AC$15</f>
+        <f t="shared" si="215"/>
         <v>0.2542754516270947</v>
       </c>
       <c r="AD44" s="3">
-        <f>+AD16/AD$15</f>
+        <f t="shared" si="215"/>
         <v>0.2542754516270947</v>
       </c>
       <c r="AE44" s="3">
-        <f>+AE16/AE$15</f>
+        <f t="shared" si="215"/>
         <v>0.2542754516270947</v>
       </c>
       <c r="AF44" s="3">
-        <f>+AF16/AF$15</f>
+        <f t="shared" si="215"/>
         <v>0.2542754516270947</v>
       </c>
       <c r="AG44" s="3">
-        <f>+AG16/AG$15</f>
+        <f t="shared" si="215"/>
         <v>0.2542754516270947</v>
       </c>
       <c r="AH44" s="3">
-        <f>+AH16/AH$15</f>
+        <f t="shared" si="215"/>
         <v>0.2542754516270947</v>
       </c>
       <c r="AI44" s="3">
-        <f>+AI16/AI$15</f>
+        <f t="shared" si="215"/>
         <v>0.2542754516270947</v>
       </c>
       <c r="AJ44" s="3">
-        <f>+AJ16/AJ$15</f>
+        <f t="shared" si="215"/>
         <v>0.2542754516270947</v>
       </c>
       <c r="AK44" s="3">
-        <f>+AK16/AK$15</f>
+        <f t="shared" si="215"/>
         <v>0.2542754516270947</v>
       </c>
       <c r="AL44" s="3">
-        <f>+AL16/AL$15</f>
+        <f t="shared" si="215"/>
         <v>0.2542754516270947</v>
       </c>
       <c r="AQ44" s="1" t="s">
@@ -6259,60 +6262,60 @@
       </c>
       <c r="AR44" s="22">
         <f>+Main!$K$8/Model!AD26</f>
-        <v>39.654751676344397</v>
+        <v>36.321738275400271</v>
       </c>
     </row>
     <row r="45" spans="2:44" s="3" customFormat="1">
       <c r="Z45" s="3">
-        <f>+Z17/Z$15</f>
+        <f t="shared" ref="Z45:AL45" si="216">+Z17/Z$15</f>
         <v>0.19573456193802483</v>
       </c>
       <c r="AA45" s="3">
-        <f>+AA17/AA$15</f>
+        <f t="shared" si="216"/>
         <v>0.27207681471046191</v>
       </c>
       <c r="AB45" s="3">
-        <f>+AB17/AB$15</f>
+        <f t="shared" si="216"/>
         <v>0.14239519385443683</v>
       </c>
       <c r="AC45" s="3">
-        <f>+AC17/AC$15</f>
+        <f t="shared" si="216"/>
         <v>0.11286038705230352</v>
       </c>
       <c r="AD45" s="3">
-        <f>+AD17/AD$15</f>
+        <f t="shared" si="216"/>
         <v>0.11286038705230352</v>
       </c>
       <c r="AE45" s="3">
-        <f>+AE17/AE$15</f>
+        <f t="shared" si="216"/>
         <v>0.11286038705230352</v>
       </c>
       <c r="AF45" s="3">
-        <f>+AF17/AF$15</f>
+        <f t="shared" si="216"/>
         <v>0.11286038705230352</v>
       </c>
       <c r="AG45" s="3">
-        <f>+AG17/AG$15</f>
+        <f t="shared" si="216"/>
         <v>0.11286038705230353</v>
       </c>
       <c r="AH45" s="3">
-        <f>+AH17/AH$15</f>
+        <f t="shared" si="216"/>
         <v>0.11286038705230352</v>
       </c>
       <c r="AI45" s="3">
-        <f>+AI17/AI$15</f>
+        <f t="shared" si="216"/>
         <v>0.11286038705230352</v>
       </c>
       <c r="AJ45" s="3">
-        <f>+AJ17/AJ$15</f>
+        <f t="shared" si="216"/>
         <v>0.11286038705230352</v>
       </c>
       <c r="AK45" s="3">
-        <f>+AK17/AK$15</f>
+        <f t="shared" si="216"/>
         <v>0.11286038705230353</v>
       </c>
       <c r="AL45" s="3">
-        <f>+AL17/AL$15</f>
+        <f t="shared" si="216"/>
         <v>0.11286038705230353</v>
       </c>
       <c r="AQ45" s="1" t="s">
@@ -6324,55 +6327,55 @@
     </row>
     <row r="46" spans="2:44" s="3" customFormat="1">
       <c r="Z46" s="3">
-        <f>+Z18/Z$15</f>
+        <f t="shared" ref="Z46:AL46" si="217">+Z18/Z$15</f>
         <v>8.0478561343538674E-2</v>
       </c>
       <c r="AA46" s="3">
-        <f>+AA18/AA$15</f>
+        <f t="shared" si="217"/>
         <v>9.0457477570994288E-2</v>
       </c>
       <c r="AB46" s="3">
-        <f>+AB18/AB$15</f>
+        <f t="shared" si="217"/>
         <v>4.3563901382095135E-2</v>
       </c>
       <c r="AC46" s="3">
-        <f>+AC18/AC$15</f>
+        <f t="shared" si="217"/>
         <v>3.3998624186182991E-2</v>
       </c>
       <c r="AD46" s="3">
-        <f>+AD18/AD$15</f>
+        <f t="shared" si="217"/>
         <v>3.3998624186182991E-2</v>
       </c>
       <c r="AE46" s="3">
-        <f>+AE18/AE$15</f>
+        <f t="shared" si="217"/>
         <v>3.3998624186182991E-2</v>
       </c>
       <c r="AF46" s="3">
-        <f>+AF18/AF$15</f>
+        <f t="shared" si="217"/>
         <v>3.3998624186182991E-2</v>
       </c>
       <c r="AG46" s="3">
-        <f>+AG18/AG$15</f>
+        <f t="shared" si="217"/>
         <v>3.3998624186182991E-2</v>
       </c>
       <c r="AH46" s="3">
-        <f>+AH18/AH$15</f>
+        <f t="shared" si="217"/>
         <v>3.3998624186182991E-2</v>
       </c>
       <c r="AI46" s="3">
-        <f>+AI18/AI$15</f>
+        <f t="shared" si="217"/>
         <v>3.3998624186182991E-2</v>
       </c>
       <c r="AJ46" s="3">
-        <f>+AJ18/AJ$15</f>
+        <f t="shared" si="217"/>
         <v>3.3998624186182991E-2</v>
       </c>
       <c r="AK46" s="3">
-        <f>+AK18/AK$15</f>
+        <f t="shared" si="217"/>
         <v>3.3998624186182991E-2</v>
       </c>
       <c r="AL46" s="3">
-        <f>+AL18/AL$15</f>
+        <f t="shared" si="217"/>
         <v>3.3998624186182991E-2</v>
       </c>
     </row>
@@ -6381,47 +6384,47 @@
         <v>84</v>
       </c>
       <c r="F49" s="4">
-        <f t="shared" ref="F49:P49" si="208">SUM(F50:F51)-SUM(F66,F68)</f>
+        <f t="shared" ref="F49:P49" si="218">SUM(F50:F51)-SUM(F66,F68)</f>
         <v>0</v>
       </c>
       <c r="G49" s="4">
-        <f t="shared" si="208"/>
+        <f t="shared" si="218"/>
         <v>0</v>
       </c>
       <c r="H49" s="4">
-        <f t="shared" si="208"/>
+        <f t="shared" si="218"/>
         <v>0</v>
       </c>
       <c r="I49" s="4">
-        <f t="shared" si="208"/>
+        <f t="shared" si="218"/>
         <v>0</v>
       </c>
       <c r="J49" s="4">
-        <f t="shared" si="208"/>
+        <f t="shared" si="218"/>
         <v>0</v>
       </c>
       <c r="K49" s="4">
-        <f t="shared" si="208"/>
+        <f t="shared" si="218"/>
         <v>0</v>
       </c>
       <c r="L49" s="4">
-        <f t="shared" si="208"/>
+        <f t="shared" si="218"/>
         <v>6088</v>
       </c>
       <c r="M49" s="4">
-        <f t="shared" si="208"/>
+        <f t="shared" si="218"/>
         <v>2193</v>
       </c>
       <c r="N49" s="4">
-        <f t="shared" si="208"/>
+        <f t="shared" si="218"/>
         <v>2343</v>
       </c>
       <c r="O49" s="4">
-        <f t="shared" si="208"/>
+        <f t="shared" si="218"/>
         <v>4366</v>
       </c>
       <c r="P49" s="4">
-        <f t="shared" si="208"/>
+        <f t="shared" si="218"/>
         <v>6318</v>
       </c>
       <c r="Q49" s="4">
@@ -6445,39 +6448,39 @@
         <v>22162.560000000001</v>
       </c>
       <c r="AD49" s="4">
-        <f t="shared" ref="AD49:AL49" si="209">+AC49*1.02</f>
+        <f t="shared" ref="AD49:AL49" si="219">+AC49*1.02</f>
         <v>22605.8112</v>
       </c>
       <c r="AE49" s="4">
-        <f t="shared" si="209"/>
+        <f t="shared" si="219"/>
         <v>23057.927424000001</v>
       </c>
       <c r="AF49" s="4">
-        <f t="shared" si="209"/>
+        <f t="shared" si="219"/>
         <v>23519.085972480003</v>
       </c>
       <c r="AG49" s="4">
-        <f t="shared" si="209"/>
+        <f t="shared" si="219"/>
         <v>23989.467691929603</v>
       </c>
       <c r="AH49" s="4">
-        <f t="shared" si="209"/>
+        <f t="shared" si="219"/>
         <v>24469.257045768198</v>
       </c>
       <c r="AI49" s="4">
-        <f t="shared" si="209"/>
+        <f t="shared" si="219"/>
         <v>24958.642186683563</v>
       </c>
       <c r="AJ49" s="4">
-        <f t="shared" si="209"/>
+        <f t="shared" si="219"/>
         <v>25457.815030417234</v>
       </c>
       <c r="AK49" s="4">
-        <f t="shared" si="209"/>
+        <f t="shared" si="219"/>
         <v>25966.971331025579</v>
       </c>
       <c r="AL49" s="4">
-        <f t="shared" si="209"/>
+        <f t="shared" si="219"/>
         <v>26486.31075764609</v>
       </c>
     </row>
@@ -6631,35 +6634,35 @@
         <v>68</v>
       </c>
       <c r="L55" s="1">
-        <f>+SUM(L50:L54)</f>
+        <f t="shared" ref="L55:S55" si="220">+SUM(L50:L54)</f>
         <v>27418</v>
       </c>
       <c r="M55" s="1">
-        <f>+SUM(M50:M54)</f>
+        <f t="shared" si="220"/>
         <v>23223</v>
       </c>
       <c r="N55" s="1">
-        <f>+SUM(N50:N54)</f>
+        <f t="shared" si="220"/>
         <v>23073</v>
       </c>
       <c r="O55" s="1">
-        <f>+SUM(O50:O54)</f>
+        <f t="shared" si="220"/>
         <v>24883</v>
       </c>
       <c r="P55" s="1">
-        <f>+SUM(P50:P54)</f>
+        <f t="shared" si="220"/>
         <v>28797</v>
       </c>
       <c r="Q55" s="1">
-        <f>+SUM(Q50:Q54)</f>
+        <f t="shared" si="220"/>
         <v>32658</v>
       </c>
       <c r="R55" s="1">
-        <f>+SUM(R50:R54)</f>
+        <f t="shared" si="220"/>
         <v>44345</v>
       </c>
       <c r="S55" s="1">
-        <f>+SUM(S50:S54)</f>
+        <f t="shared" si="220"/>
         <v>53729</v>
       </c>
     </row>
@@ -6842,35 +6845,35 @@
         <v>75</v>
       </c>
       <c r="L62" s="4">
-        <f>+SUM(L55:L61)</f>
+        <f t="shared" ref="L62:S62" si="221">+SUM(L55:L61)</f>
         <v>43476</v>
       </c>
       <c r="M62" s="4">
-        <f>+SUM(M55:M61)</f>
+        <f t="shared" si="221"/>
         <v>40488</v>
       </c>
       <c r="N62" s="4">
-        <f>+SUM(N55:N61)</f>
+        <f t="shared" si="221"/>
         <v>41182</v>
       </c>
       <c r="O62" s="4">
-        <f>+SUM(O55:O61)</f>
+        <f t="shared" si="221"/>
         <v>44460</v>
       </c>
       <c r="P62" s="4">
-        <f>+SUM(P55:P61)</f>
+        <f t="shared" si="221"/>
         <v>49555</v>
       </c>
       <c r="Q62" s="4">
-        <f>+SUM(Q55:Q61)</f>
+        <f t="shared" si="221"/>
         <v>54148</v>
       </c>
       <c r="R62" s="4">
-        <f>+SUM(R55:R61)</f>
+        <f t="shared" si="221"/>
         <v>65728</v>
       </c>
       <c r="S62" s="4">
-        <f>+SUM(S55:S61)</f>
+        <f t="shared" si="221"/>
         <v>77072</v>
       </c>
     </row>
@@ -6966,35 +6969,35 @@
         <v>80</v>
       </c>
       <c r="L67" s="1">
-        <f>+SUM(L64:L66)</f>
+        <f t="shared" ref="L67:S67" si="222">+SUM(L64:L66)</f>
         <v>7573</v>
       </c>
       <c r="M67" s="1">
-        <f>+SUM(M64:M66)</f>
+        <f t="shared" si="222"/>
         <v>6855</v>
       </c>
       <c r="N67" s="1">
-        <f>+SUM(N64:N66)</f>
+        <f t="shared" si="222"/>
         <v>6563</v>
       </c>
       <c r="O67" s="1">
-        <f>+SUM(O64:O66)</f>
+        <f t="shared" si="222"/>
         <v>7260</v>
       </c>
       <c r="P67" s="1">
-        <f>+SUM(P64:P66)</f>
+        <f t="shared" si="222"/>
         <v>10334</v>
       </c>
       <c r="Q67" s="1">
-        <f>+SUM(Q64:Q66)</f>
+        <f t="shared" si="222"/>
         <v>9101</v>
       </c>
       <c r="R67" s="1">
-        <f>+SUM(R64:R66)</f>
+        <f t="shared" si="222"/>
         <v>10631</v>
       </c>
       <c r="S67" s="1">
-        <f>+SUM(S64:S66)</f>
+        <f t="shared" si="222"/>
         <v>15223</v>
       </c>
     </row>
@@ -7090,35 +7093,35 @@
         <v>76</v>
       </c>
       <c r="L71" s="4">
-        <f>+SUM(L67:L70)</f>
+        <f t="shared" ref="L71:S71" si="223">+SUM(L67:L70)</f>
         <v>19625</v>
       </c>
       <c r="M71" s="4">
-        <f>+SUM(M67:M70)</f>
+        <f t="shared" si="223"/>
         <v>19139</v>
       </c>
       <c r="N71" s="4">
-        <f>+SUM(N67:N70)</f>
+        <f t="shared" si="223"/>
         <v>19081</v>
       </c>
       <c r="O71" s="4">
-        <f>+SUM(O67:O70)</f>
+        <f t="shared" si="223"/>
         <v>19940</v>
       </c>
       <c r="P71" s="4">
-        <f>+SUM(P67:P70)</f>
+        <f t="shared" si="223"/>
         <v>22054</v>
       </c>
       <c r="Q71" s="4">
-        <f>+SUM(Q67:Q70)</f>
+        <f t="shared" si="223"/>
         <v>20883</v>
       </c>
       <c r="R71" s="4">
-        <f>+SUM(R67:R70)</f>
+        <f t="shared" si="223"/>
         <v>22750</v>
       </c>
       <c r="S71" s="4">
-        <f>+SUM(S67:S70)</f>
+        <f t="shared" si="223"/>
         <v>27930</v>
       </c>
     </row>
@@ -7156,77 +7159,77 @@
         <v>104</v>
       </c>
       <c r="L73" s="4">
-        <f>+SUM(L71:L72)</f>
+        <f t="shared" ref="L73:S73" si="224">+SUM(L71:L72)</f>
         <v>43476</v>
       </c>
       <c r="M73" s="4">
-        <f>+SUM(M71:M72)</f>
+        <f t="shared" si="224"/>
         <v>40488</v>
       </c>
       <c r="N73" s="4">
-        <f>+SUM(N71:N72)</f>
+        <f t="shared" si="224"/>
         <v>41182</v>
       </c>
       <c r="O73" s="4">
-        <f>+SUM(O71:O72)</f>
+        <f t="shared" si="224"/>
         <v>44460</v>
       </c>
       <c r="P73" s="4">
-        <f>+SUM(P71:P72)</f>
+        <f t="shared" si="224"/>
         <v>49555</v>
       </c>
       <c r="Q73" s="4">
-        <f>+SUM(Q71:Q72)</f>
+        <f t="shared" si="224"/>
         <v>54148</v>
       </c>
       <c r="R73" s="4">
-        <f>+SUM(R71:R72)</f>
+        <f t="shared" si="224"/>
         <v>65728</v>
       </c>
       <c r="S73" s="4">
-        <f>+SUM(S71:S72)</f>
+        <f t="shared" si="224"/>
         <v>77072</v>
       </c>
     </row>
     <row r="74" spans="2:19">
       <c r="I74" s="4" t="str">
-        <f t="shared" ref="I74:R74" si="210">IF(I73=I62,"","DUQWDGWTDGWD")</f>
+        <f t="shared" ref="I74:R74" si="225">IF(I73=I62,"","DUQWDGWTDGWD")</f>
         <v/>
       </c>
       <c r="J74" s="4" t="str">
-        <f t="shared" si="210"/>
+        <f t="shared" si="225"/>
         <v/>
       </c>
       <c r="K74" s="4" t="str">
-        <f t="shared" si="210"/>
+        <f t="shared" si="225"/>
         <v/>
       </c>
       <c r="L74" s="4" t="str">
-        <f t="shared" si="210"/>
+        <f t="shared" si="225"/>
         <v/>
       </c>
       <c r="M74" s="4" t="str">
-        <f t="shared" si="210"/>
+        <f t="shared" si="225"/>
         <v/>
       </c>
       <c r="N74" s="4" t="str">
-        <f t="shared" si="210"/>
+        <f t="shared" si="225"/>
         <v/>
       </c>
       <c r="O74" s="4" t="str">
-        <f t="shared" si="210"/>
+        <f t="shared" si="225"/>
         <v/>
       </c>
       <c r="P74" s="4" t="str">
-        <f t="shared" si="210"/>
+        <f t="shared" si="225"/>
         <v/>
       </c>
       <c r="Q74" s="4" t="str">
-        <f t="shared" si="210"/>
+        <f t="shared" si="225"/>
         <v/>
       </c>
       <c r="R74" s="4" t="str">
-        <f t="shared" si="210"/>
+        <f t="shared" si="225"/>
         <v/>
       </c>
       <c r="S74" s="4" t="str">
@@ -7243,31 +7246,31 @@
         <v>17037</v>
       </c>
       <c r="M75" s="1">
-        <f t="shared" ref="M75:S75" si="211">+SUM(M50:M51)</f>
+        <f t="shared" ref="M75:S75" si="226">+SUM(M50:M51)</f>
         <v>13143</v>
       </c>
       <c r="N75" s="1">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>13296</v>
       </c>
       <c r="O75" s="1">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>15320</v>
       </c>
       <c r="P75" s="1">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>16023</v>
       </c>
       <c r="Q75" s="1">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>18281</v>
       </c>
       <c r="R75" s="1">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>25984</v>
       </c>
       <c r="S75" s="1">
-        <f t="shared" si="211"/>
+        <f t="shared" si="226"/>
         <v>31438</v>
       </c>
     </row>
@@ -7280,31 +7283,31 @@
         <v>10949</v>
       </c>
       <c r="M76" s="1">
-        <f t="shared" ref="M76:S76" si="212">+M66+M68</f>
+        <f t="shared" ref="M76:S76" si="227">+M66+M68</f>
         <v>10950</v>
       </c>
       <c r="N76" s="1">
-        <f t="shared" si="212"/>
+        <f t="shared" si="227"/>
         <v>10953</v>
       </c>
       <c r="O76" s="1">
-        <f t="shared" si="212"/>
+        <f t="shared" si="227"/>
         <v>10954</v>
       </c>
       <c r="P76" s="1">
-        <f t="shared" si="212"/>
+        <f t="shared" si="227"/>
         <v>9705</v>
       </c>
       <c r="Q76" s="1">
-        <f t="shared" si="212"/>
+        <f t="shared" si="227"/>
         <v>9706</v>
       </c>
       <c r="R76" s="1">
-        <f t="shared" si="212"/>
+        <f t="shared" si="227"/>
         <v>9709</v>
       </c>
       <c r="S76" s="1">
-        <f t="shared" si="212"/>
+        <f t="shared" si="227"/>
         <v>9710</v>
       </c>
     </row>
@@ -7317,31 +7320,31 @@
         <v>19845</v>
       </c>
       <c r="M77" s="1">
-        <f t="shared" ref="M77:S77" si="213">+M55-M67</f>
+        <f t="shared" ref="M77:S77" si="228">+M55-M67</f>
         <v>16368</v>
       </c>
       <c r="N77" s="1">
-        <f t="shared" si="213"/>
+        <f t="shared" si="228"/>
         <v>16510</v>
       </c>
       <c r="O77" s="1">
-        <f t="shared" si="213"/>
+        <f t="shared" si="228"/>
         <v>17623</v>
       </c>
       <c r="P77" s="1">
-        <f t="shared" si="213"/>
+        <f t="shared" si="228"/>
         <v>18463</v>
       </c>
       <c r="Q77" s="1">
-        <f t="shared" si="213"/>
+        <f t="shared" si="228"/>
         <v>23557</v>
       </c>
       <c r="R77" s="1">
-        <f t="shared" si="213"/>
+        <f t="shared" si="228"/>
         <v>33714</v>
       </c>
       <c r="S77" s="1">
-        <f t="shared" si="213"/>
+        <f t="shared" si="228"/>
         <v>38506</v>
       </c>
     </row>
@@ -7354,31 +7357,31 @@
         <v>3.6204938597649545</v>
       </c>
       <c r="M78" s="22">
-        <f t="shared" ref="M78:S78" si="214">+M55/M67</f>
+        <f t="shared" ref="M78:S78" si="229">+M55/M67</f>
         <v>3.3877461706783372</v>
       </c>
       <c r="N78" s="22">
-        <f t="shared" si="214"/>
+        <f t="shared" si="229"/>
         <v>3.5156178576870332</v>
       </c>
       <c r="O78" s="22">
-        <f t="shared" si="214"/>
+        <f t="shared" si="229"/>
         <v>3.4274104683195592</v>
       </c>
       <c r="P78" s="22">
-        <f t="shared" si="214"/>
+        <f t="shared" si="229"/>
         <v>2.7866266692471453</v>
       </c>
       <c r="Q78" s="22">
-        <f t="shared" si="214"/>
+        <f t="shared" si="229"/>
         <v>3.588396879463795</v>
       </c>
       <c r="R78" s="22">
-        <f t="shared" si="214"/>
+        <f t="shared" si="229"/>
         <v>4.1712915059730973</v>
       </c>
       <c r="S78" s="22">
-        <f t="shared" si="214"/>
+        <f t="shared" si="229"/>
         <v>3.5294619982920579</v>
       </c>
     </row>
@@ -7445,35 +7448,35 @@
         <v>113</v>
       </c>
       <c r="L83" s="4">
-        <f>+SUM(L81:L82)</f>
+        <f t="shared" ref="L83:S83" si="230">+SUM(L81:L82)</f>
         <v>837</v>
       </c>
       <c r="M83" s="4">
-        <f>+SUM(M81:M82)</f>
+        <f t="shared" si="230"/>
         <v>-138</v>
       </c>
       <c r="N83" s="4">
-        <f>+SUM(N81:N82)</f>
+        <f t="shared" si="230"/>
         <v>2758</v>
       </c>
       <c r="O83" s="4">
-        <f>+SUM(O81:O82)</f>
+        <f t="shared" si="230"/>
         <v>2663</v>
       </c>
       <c r="P83" s="4">
-        <f>+SUM(P81:P82)</f>
+        <f t="shared" si="230"/>
         <v>6059</v>
       </c>
       <c r="Q83" s="4">
-        <f>+SUM(Q81:Q82)</f>
+        <f t="shared" si="230"/>
         <v>7055</v>
       </c>
       <c r="R83" s="4">
-        <f>+SUM(R81:R82)</f>
+        <f t="shared" si="230"/>
         <v>11246</v>
       </c>
       <c r="S83" s="4">
-        <f>+SUM(S81:S82)</f>
+        <f t="shared" si="230"/>
         <v>14976</v>
       </c>
       <c r="U83" s="20"/>
@@ -7483,35 +7486,35 @@
         <v>31</v>
       </c>
       <c r="L84" s="1">
-        <f>+L26</f>
+        <f t="shared" ref="L84:S84" si="231">+L26</f>
         <v>656</v>
       </c>
       <c r="M84" s="1">
-        <f>+M26</f>
+        <f t="shared" si="231"/>
         <v>680</v>
       </c>
       <c r="N84" s="1">
-        <f>+N26</f>
+        <f t="shared" si="231"/>
         <v>1414</v>
       </c>
       <c r="O84" s="1">
-        <f>+O26</f>
+        <f t="shared" si="231"/>
         <v>2043</v>
       </c>
       <c r="P84" s="1">
-        <f>+P26</f>
+        <f t="shared" si="231"/>
         <v>6188</v>
       </c>
       <c r="Q84" s="1">
-        <f>+Q26</f>
+        <f t="shared" si="231"/>
         <v>9243</v>
       </c>
       <c r="R84" s="1">
-        <f>+R26</f>
+        <f t="shared" si="231"/>
         <v>12286</v>
       </c>
       <c r="S84" s="1">
-        <f>+S26</f>
+        <f t="shared" si="231"/>
         <v>14881</v>
       </c>
     </row>
@@ -7520,19 +7523,19 @@
         <v>114</v>
       </c>
       <c r="O86" s="1">
-        <f t="shared" ref="O86:R86" si="215">SUM(L83:O83)</f>
+        <f t="shared" ref="O86:R86" si="232">SUM(L83:O83)</f>
         <v>6120</v>
       </c>
       <c r="P86" s="1">
-        <f t="shared" si="215"/>
+        <f t="shared" si="232"/>
         <v>11342</v>
       </c>
       <c r="Q86" s="1">
-        <f t="shared" si="215"/>
+        <f t="shared" si="232"/>
         <v>18535</v>
       </c>
       <c r="R86" s="1">
-        <f t="shared" si="215"/>
+        <f t="shared" si="232"/>
         <v>27023</v>
       </c>
       <c r="S86" s="1">
@@ -7545,19 +7548,19 @@
         <v>115</v>
       </c>
       <c r="O87" s="1">
-        <f t="shared" ref="O87:R87" si="216">SUM(L84:O84)</f>
+        <f t="shared" ref="O87:R87" si="233">SUM(L84:O84)</f>
         <v>4793</v>
       </c>
       <c r="P87" s="1">
-        <f t="shared" si="216"/>
+        <f t="shared" si="233"/>
         <v>10325</v>
       </c>
       <c r="Q87" s="1">
-        <f t="shared" si="216"/>
+        <f t="shared" si="233"/>
         <v>18888</v>
       </c>
       <c r="R87" s="1">
-        <f t="shared" si="216"/>
+        <f t="shared" si="233"/>
         <v>29760</v>
       </c>
       <c r="S87" s="1">

--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameelbrannon/Library/CloudStorage/Dropbox/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288F70BA-9DF6-4D4E-B047-28D64E739AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5632DC73-7E22-A94B-9DBE-14E25CBC268B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57060" yWindow="500" windowWidth="48920" windowHeight="28280" xr2:uid="{3991C303-FDF7-2343-B20E-E26B6CBB280D}"/>
+    <workbookView xWindow="14760" yWindow="920" windowWidth="24840" windowHeight="28300" xr2:uid="{3991C303-FDF7-2343-B20E-E26B6CBB280D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
-    <sheet name="Processors" sheetId="3" r:id="rId3"/>
+    <sheet name="Vocabulary " sheetId="4" r:id="rId3"/>
+    <sheet name="Processors" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -142,12 +143,237 @@
     Higher shipments of Hopper GPU computing platform for training and inference of LLMs, reach engines, and gen AI apps.  Networking up 133% on shipments of InfiniBand</t>
       </text>
     </comment>
+    <comment ref="P32" authorId="0" shapeId="0" xr:uid="{903B7A45-B73E-1142-9669-6019F1AA62C5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jameel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>demand for nvidia HGX platform base don hopper and AMpere gpu architectures drvien b AI</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q32" authorId="0" shapeId="0" xr:uid="{9A66112A-AAA6-394A-9C1E-ECE37332964F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jameel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>hopper gpu</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R32" authorId="0" shapeId="0" xr:uid="{12C44F16-29E7-FF47-B636-1487D5E73FBC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jameel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>drvien by hopper gpu</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S32" authorId="0" shapeId="0" xr:uid="{8260E76B-C5B9-684A-A8CD-B0B4301786A0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jameel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>drvien by hopper gpu</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T32" authorId="0" shapeId="0" xr:uid="{3FDE445C-8FC0-1844-A4D8-A48C034691AA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jameel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">growth driven by demand for Hopper GPU computing platofrm for training and inferencing LLMs, recc engines, and Gen AI apps.  Sequential growth was driven by consumer internet and enterprise companies
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Cloud service providers = 45% of Data center rev and 50% form consumer internet and enterprise companies.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">customers accelrating Hopper architecture awaiitng blakwell. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">company shipped customers samplkes of blackwell architecture .  </t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="125">
   <si>
     <t>MC</t>
   </si>
@@ -504,6 +730,24 @@
   </si>
   <si>
     <t>Wstreet Avg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vocab </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hopper GPU </t>
+  </si>
+  <si>
+    <t>Hopper architecture</t>
+  </si>
+  <si>
+    <t>blueprint or design for the gpu.  Gpu is deisgned in a way to work faster and smarter</t>
+  </si>
+  <si>
+    <t>computer chip made by Nvidia.  Name after Grace Hopper (inventor of computer programming).  GPU traditioanlly designed foe showing graphics are not the backbone of industries like AI, ML, and high performance compute</t>
+  </si>
+  <si>
+    <t>News</t>
   </si>
 </sst>
 </file>
@@ -563,12 +807,18 @@
       <name val="ArialMT"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -664,7 +914,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -704,6 +954,8 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -726,14 +978,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>5522</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>39388</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>15488</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>49354</xdr:colOff>
       <xdr:row>101</xdr:row>
       <xdr:rowOff>39864</xdr:rowOff>
     </xdr:to>
@@ -750,8 +1002,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9406620" y="0"/>
-          <a:ext cx="9966" cy="16464681"/>
+          <a:off x="10241721" y="0"/>
+          <a:ext cx="9966" cy="17142531"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1161,7 +1413,7 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1201,7 +1453,7 @@
         <v>4</v>
       </c>
       <c r="K3" s="1">
-        <v>124.24</v>
+        <v>147.27000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1215,14 +1467,14 @@
         <v>7</v>
       </c>
       <c r="K4" s="1">
-        <v>24600</v>
+        <v>24530</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>56</v>
       </c>
       <c r="M4" s="1">
         <f>+K4*10</f>
-        <v>246000</v>
+        <v>245300</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1237,7 +1489,7 @@
       </c>
       <c r="K5" s="1">
         <f>+K3*K4</f>
-        <v>3056304</v>
+        <v>3612533.1</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1245,8 +1497,8 @@
         <v>1</v>
       </c>
       <c r="K6" s="1">
-        <f>7280+18704</f>
-        <v>25984</v>
+        <f>8563+26237</f>
+        <v>34800</v>
       </c>
       <c r="L6" s="1" t="str">
         <f>+L4</f>
@@ -1258,8 +1510,8 @@
         <v>2</v>
       </c>
       <c r="K7" s="1">
-        <f>1250+8459</f>
-        <v>9709</v>
+        <f>0+8461</f>
+        <v>8461</v>
       </c>
       <c r="L7" s="1" t="str">
         <f>+L6</f>
@@ -1272,7 +1524,7 @@
       </c>
       <c r="K8" s="1">
         <f>+K5-K6+K7</f>
-        <v>3040029</v>
+        <v>3586194.1</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1398,14 +1650,17 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:9">
       <c r="B34" s="21" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:9">
       <c r="B35" s="1" t="s">
         <v>100</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1421,11 +1676,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38A046E-F266-6848-AB04-142D610E732A}">
   <dimension ref="B2:ID87"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="150" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T4" sqref="T4"/>
+      <selection pane="bottomRight" activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -2551,6 +2806,9 @@
       <c r="S5" s="1">
         <v>22563</v>
       </c>
+      <c r="T5" s="1">
+        <v>26272</v>
+      </c>
       <c r="Z5" s="1">
         <v>10613</v>
       </c>
@@ -2598,6 +2856,9 @@
       <c r="S6" s="1">
         <v>2647</v>
       </c>
+      <c r="T6" s="1">
+        <v>2880</v>
+      </c>
       <c r="Z6" s="1">
         <v>12462</v>
       </c>
@@ -2645,6 +2906,9 @@
       <c r="S7" s="1">
         <v>427</v>
       </c>
+      <c r="T7" s="1">
+        <v>454</v>
+      </c>
       <c r="Z7" s="1">
         <v>2111</v>
       </c>
@@ -2692,6 +2956,9 @@
       <c r="S8" s="1">
         <v>329</v>
       </c>
+      <c r="T8" s="1">
+        <v>346</v>
+      </c>
       <c r="Z8" s="1">
         <v>566</v>
       </c>
@@ -2739,6 +3006,9 @@
       <c r="S9" s="1">
         <v>78</v>
       </c>
+      <c r="T9" s="1">
+        <v>88</v>
+      </c>
       <c r="Z9" s="1">
         <v>1162</v>
       </c>
@@ -2799,16 +3069,15 @@
         <v>22675</v>
       </c>
       <c r="T13" s="1">
-        <f>+T$15*(S13/S$15)</f>
-        <v>24377.975733374289</v>
+        <v>26446</v>
       </c>
       <c r="U13" s="1">
         <f t="shared" ref="U13:V13" si="11">+U$15*(T13/T$15)</f>
-        <v>26815.773306711722</v>
+        <v>29090.6</v>
       </c>
       <c r="V13" s="1">
         <f t="shared" si="11"/>
-        <v>29497.350637382897</v>
+        <v>31999.66</v>
       </c>
       <c r="Y13" s="1">
         <v>9834</v>
@@ -2824,7 +3093,7 @@
       </c>
       <c r="AC13" s="1">
         <f>SUM(S13:V13)</f>
-        <v>103366.09967746891</v>
+        <v>110211.26000000001</v>
       </c>
     </row>
     <row r="14" spans="2:238">
@@ -2874,16 +3143,15 @@
         <v>3369</v>
       </c>
       <c r="T14" s="1">
-        <f>+T$15*(S14/S$15)</f>
-        <v>3622.0242666257104</v>
+        <v>3594</v>
       </c>
       <c r="U14" s="1">
         <f t="shared" ref="U14:V14" si="12">+U$15*(T14/T$15)</f>
-        <v>3984.2266932882821</v>
+        <v>3953.4</v>
       </c>
       <c r="V14" s="1">
         <f t="shared" si="12"/>
-        <v>4382.6493626171105</v>
+        <v>4348.7400000000007</v>
       </c>
       <c r="Y14" s="1">
         <v>6841</v>
@@ -2899,7 +3167,7 @@
       </c>
       <c r="AC14" s="1">
         <f t="shared" ref="AC14:AC28" si="13">SUM(S14:V14)</f>
-        <v>15357.900322531103</v>
+        <v>15265.14</v>
       </c>
     </row>
     <row r="15" spans="2:238" s="4" customFormat="1">
@@ -2907,7 +3175,7 @@
         <v>20</v>
       </c>
       <c r="G15" s="4">
-        <f t="shared" ref="G15:S15" si="14">+SUM(G13:G14)</f>
+        <f t="shared" ref="G15:T15" si="14">+SUM(G13:G14)</f>
         <v>5661</v>
       </c>
       <c r="H15" s="4">
@@ -2959,16 +3227,16 @@
         <v>26044</v>
       </c>
       <c r="T15" s="4">
-        <f>AVERAGE(28000*1.02,28000*0.98)</f>
-        <v>28000</v>
+        <f t="shared" si="14"/>
+        <v>30040</v>
       </c>
       <c r="U15" s="4">
         <f t="shared" ref="U15:V15" si="15">+T15*1.1</f>
-        <v>30800.000000000004</v>
+        <v>33044</v>
       </c>
       <c r="V15" s="4">
         <f t="shared" si="15"/>
-        <v>33880.000000000007</v>
+        <v>36348.400000000001</v>
       </c>
       <c r="X15" s="4">
         <v>10918</v>
@@ -2991,43 +3259,43 @@
       </c>
       <c r="AC15" s="4">
         <f t="shared" si="13"/>
-        <v>118724</v>
+        <v>125476.4</v>
       </c>
       <c r="AD15" s="4">
         <f>+AC15*1.4</f>
-        <v>166213.59999999998</v>
+        <v>175666.96</v>
       </c>
       <c r="AE15" s="4">
         <f>+AD15*1.3</f>
-        <v>216077.67999999996</v>
+        <v>228367.04800000001</v>
       </c>
       <c r="AF15" s="4">
         <f>+AE15*1.2</f>
-        <v>259293.21599999996</v>
+        <v>274040.45760000002</v>
       </c>
       <c r="AG15" s="4">
         <f t="shared" ref="AG15:AL15" si="16">+AF15*1.2</f>
-        <v>311151.85919999995</v>
+        <v>328848.54912000004</v>
       </c>
       <c r="AH15" s="4">
         <f t="shared" si="16"/>
-        <v>373382.23103999993</v>
+        <v>394618.25894400006</v>
       </c>
       <c r="AI15" s="4">
         <f t="shared" si="16"/>
-        <v>448058.67724799988</v>
+        <v>473541.91073280002</v>
       </c>
       <c r="AJ15" s="4">
         <f t="shared" si="16"/>
-        <v>537670.41269759985</v>
+        <v>568250.29287936003</v>
       </c>
       <c r="AK15" s="4">
         <f t="shared" si="16"/>
-        <v>645204.49523711985</v>
+        <v>681900.35145523201</v>
       </c>
       <c r="AL15" s="4">
         <f t="shared" si="16"/>
-        <v>774245.39428454381</v>
+        <v>818280.42174627841</v>
       </c>
     </row>
     <row r="16" spans="2:238">
@@ -3077,16 +3345,15 @@
         <v>5638</v>
       </c>
       <c r="T16" s="1">
-        <f t="shared" ref="T16:V16" si="17">+T$15*(P16/P$15)</f>
-        <v>8385.2817057821867</v>
+        <v>7466</v>
       </c>
       <c r="U16" s="1">
-        <f t="shared" si="17"/>
-        <v>8022.9580573951444</v>
+        <f t="shared" ref="U16:V16" si="17">+U$15*(Q16/Q$15)</f>
+        <v>8607.4878587196472</v>
       </c>
       <c r="V16" s="1">
         <f t="shared" si="17"/>
-        <v>8142.3589557978576</v>
+        <v>8735.5879654345572</v>
       </c>
       <c r="X16" s="1">
         <v>4150</v>
@@ -3105,43 +3372,43 @@
       </c>
       <c r="AC16" s="1">
         <f t="shared" si="13"/>
-        <v>30188.59871897519</v>
+        <v>30447.075824154206</v>
       </c>
       <c r="AD16" s="1">
         <f>+AD$15*(AC16/AC$15)</f>
-        <v>42264.038206565259</v>
+        <v>42625.906153815886</v>
       </c>
       <c r="AE16" s="1">
         <f t="shared" ref="AE16:AL16" si="18">+AE$15*(AD16/AD$15)</f>
-        <v>54943.249668534838</v>
+        <v>55413.677999960652</v>
       </c>
       <c r="AF16" s="1">
         <f t="shared" si="18"/>
-        <v>65931.8996022418</v>
+        <v>66496.413599952793</v>
       </c>
       <c r="AG16" s="1">
         <f t="shared" si="18"/>
-        <v>79118.279522690165</v>
+        <v>79795.696319943352</v>
       </c>
       <c r="AH16" s="1">
         <f t="shared" si="18"/>
-        <v>94941.935427228193</v>
+        <v>95754.835583932014</v>
       </c>
       <c r="AI16" s="1">
         <f t="shared" si="18"/>
-        <v>113930.32251267383</v>
+        <v>114905.8027007184</v>
       </c>
       <c r="AJ16" s="1">
         <f t="shared" si="18"/>
-        <v>136716.3870152086</v>
+        <v>137886.96324086207</v>
       </c>
       <c r="AK16" s="1">
         <f t="shared" si="18"/>
-        <v>164059.66441825032</v>
+        <v>165464.35588903446</v>
       </c>
       <c r="AL16" s="1">
         <f t="shared" si="18"/>
-        <v>196871.59730190039</v>
+        <v>198557.22706684135</v>
       </c>
     </row>
     <row r="17" spans="2:238">
@@ -3191,15 +3458,15 @@
         <v>2720</v>
       </c>
       <c r="T17" s="1">
-        <v>3000</v>
+        <v>3090</v>
       </c>
       <c r="U17" s="1">
         <f t="shared" ref="U17:U18" si="19">+U$15*(Q17/Q$15)</f>
-        <v>3899.2935982339959</v>
+        <v>4183.3849889624726</v>
       </c>
       <c r="V17" s="1">
         <f t="shared" ref="V17:V18" si="20">+V$15*(R17/R$15)</f>
-        <v>3779.942994163689</v>
+        <v>4055.3388408813285</v>
       </c>
       <c r="X17" s="1">
         <v>2829</v>
@@ -3218,43 +3485,43 @@
       </c>
       <c r="AC17" s="1">
         <f>SUM(S17:V17)</f>
-        <v>13399.236592397683</v>
+        <v>14048.723829843801</v>
       </c>
       <c r="AD17" s="1">
         <f>++AD15*(AC17/AC15)</f>
-        <v>18758.931229356753</v>
+        <v>19668.21336178132</v>
       </c>
       <c r="AE17" s="1">
         <f t="shared" ref="AE17:AL17" si="21">++AE15*(AD17/AD15)</f>
-        <v>24386.610598163777</v>
+        <v>25568.67737031572</v>
       </c>
       <c r="AF17" s="1">
         <f t="shared" si="21"/>
-        <v>29263.932717796535</v>
+        <v>30682.412844378865</v>
       </c>
       <c r="AG17" s="1">
         <f t="shared" si="21"/>
-        <v>35116.719261355844</v>
+        <v>36818.895413254635</v>
       </c>
       <c r="AH17" s="1">
         <f t="shared" si="21"/>
-        <v>42140.063113627009</v>
+        <v>44182.674495905565</v>
       </c>
       <c r="AI17" s="1">
         <f t="shared" si="21"/>
-        <v>50568.075736352403</v>
+        <v>53019.209395086677</v>
       </c>
       <c r="AJ17" s="1">
         <f t="shared" si="21"/>
-        <v>60681.690883622883</v>
+        <v>63623.051274104007</v>
       </c>
       <c r="AK17" s="1">
         <f t="shared" si="21"/>
-        <v>72818.029060347471</v>
+        <v>76347.661528924815</v>
       </c>
       <c r="AL17" s="1">
         <f t="shared" si="21"/>
-        <v>87381.634872416966</v>
+        <v>91617.193834709775</v>
       </c>
     </row>
     <row r="18" spans="2:238">
@@ -3304,15 +3571,15 @@
         <v>777</v>
       </c>
       <c r="T18" s="1">
-        <v>1000</v>
+        <v>842</v>
       </c>
       <c r="U18" s="1">
         <f t="shared" si="19"/>
-        <v>1171.1479028697574</v>
+        <v>1256.4743929359825</v>
       </c>
       <c r="V18" s="1">
         <f t="shared" si="20"/>
-        <v>1088.3047550106323</v>
+        <v>1167.5955300185494</v>
       </c>
       <c r="X18" s="1">
         <v>1093</v>
@@ -3331,43 +3598,43 @@
       </c>
       <c r="AC18" s="1">
         <f t="shared" si="13"/>
-        <v>4036.4526578803898</v>
+        <v>4043.0699229545316</v>
       </c>
       <c r="AD18" s="1">
         <f t="shared" ref="AD18" si="22">+AD$15*(AC18/AC$15)</f>
-        <v>5651.0337210325442</v>
+        <v>5660.2978921363447</v>
       </c>
       <c r="AE18" s="1">
         <f t="shared" ref="AE18:AL18" si="23">+AE$15*(AD18/AD$15)</f>
-        <v>7346.3438373423078</v>
+        <v>7358.3872597772488</v>
       </c>
       <c r="AF18" s="1">
         <f t="shared" si="23"/>
-        <v>8815.612604810769</v>
+        <v>8830.0647117326989</v>
       </c>
       <c r="AG18" s="1">
         <f t="shared" si="23"/>
-        <v>10578.735125772922</v>
+        <v>10596.077654079239</v>
       </c>
       <c r="AH18" s="1">
         <f t="shared" si="23"/>
-        <v>12694.482150927506</v>
+        <v>12715.293184895088</v>
       </c>
       <c r="AI18" s="1">
         <f t="shared" si="23"/>
-        <v>15233.378581113007</v>
+        <v>15258.351821874105</v>
       </c>
       <c r="AJ18" s="1">
         <f t="shared" si="23"/>
-        <v>18280.05429733561</v>
+        <v>18310.022186248923</v>
       </c>
       <c r="AK18" s="1">
         <f t="shared" si="23"/>
-        <v>21936.065156802732</v>
+        <v>21972.02662349871</v>
       </c>
       <c r="AL18" s="1">
         <f t="shared" si="23"/>
-        <v>26323.278188163276</v>
+        <v>26366.431948198449</v>
       </c>
     </row>
     <row r="19" spans="2:238">
@@ -3494,15 +3761,15 @@
       </c>
       <c r="T20" s="1">
         <f t="shared" ref="T20:V20" si="26">+T15-SUM(T16:T19)</f>
-        <v>15614.718294217813</v>
+        <v>18642</v>
       </c>
       <c r="U20" s="1">
         <f t="shared" si="26"/>
-        <v>17706.600441501105</v>
+        <v>18996.652759381897</v>
       </c>
       <c r="V20" s="1">
         <f t="shared" si="26"/>
-        <v>20869.393295027825</v>
+        <v>22389.877663665568</v>
       </c>
       <c r="X20" s="1">
         <f>+X15-SUM(X16:X19)</f>
@@ -3526,43 +3793,43 @@
       </c>
       <c r="AC20" s="1">
         <f t="shared" si="13"/>
-        <v>71099.712030746741</v>
+        <v>76937.530423047458</v>
       </c>
       <c r="AD20" s="1">
         <f>+AD15-SUM(AD16:AD19)</f>
-        <v>99539.596843045423</v>
+        <v>107712.54259226644</v>
       </c>
       <c r="AE20" s="1">
         <f t="shared" ref="AE20:AL20" si="27">+AE15-SUM(AE16:AE19)</f>
-        <v>129401.47589595904</v>
+        <v>140026.30536994641</v>
       </c>
       <c r="AF20" s="1">
         <f t="shared" si="27"/>
-        <v>155281.77107515087</v>
+        <v>168031.56644393568</v>
       </c>
       <c r="AG20" s="1">
         <f t="shared" si="27"/>
-        <v>186338.12529018102</v>
+        <v>201637.87973272282</v>
       </c>
       <c r="AH20" s="1">
         <f t="shared" si="27"/>
-        <v>223605.75034821723</v>
+        <v>241965.45567926738</v>
       </c>
       <c r="AI20" s="1">
         <f t="shared" si="27"/>
-        <v>268326.90041786066</v>
+        <v>290358.54681512085</v>
       </c>
       <c r="AJ20" s="1">
         <f t="shared" si="27"/>
-        <v>321992.28050143272</v>
+        <v>348430.25617814506</v>
       </c>
       <c r="AK20" s="1">
         <f t="shared" si="27"/>
-        <v>386390.73660171928</v>
+        <v>418116.30741377402</v>
       </c>
       <c r="AL20" s="1">
         <f t="shared" si="27"/>
-        <v>463668.88392206316</v>
+        <v>501739.5688965288</v>
       </c>
     </row>
     <row r="21" spans="2:238">
@@ -3612,16 +3879,15 @@
         <v>359</v>
       </c>
       <c r="T21" s="1">
-        <f t="shared" ref="T21:T23" si="28">+T$15*(P21/P$15)</f>
-        <v>387.65084770859556</v>
+        <v>444</v>
       </c>
       <c r="U21" s="1">
-        <f t="shared" ref="U21:U23" si="29">+U$15*(Q21/Q$15)</f>
-        <v>397.74834437086093</v>
+        <f t="shared" ref="U21:U23" si="28">+U$15*(Q21/Q$15)</f>
+        <v>426.72715231788078</v>
       </c>
       <c r="V21" s="1">
-        <f t="shared" ref="V21:V23" si="30">+V$15*(R21/R$15)</f>
-        <v>452.18296158892468</v>
+        <f t="shared" ref="V21:V23" si="29">+V$15*(R21/R$15)</f>
+        <v>485.12772021897484</v>
       </c>
       <c r="X21" s="1">
         <v>178</v>
@@ -3655,27 +3921,27 @@
         <v>678.17433599999993</v>
       </c>
       <c r="AG21" s="1">
-        <f t="shared" ref="AG21:AL21" si="31">+AF21</f>
+        <f t="shared" ref="AG21:AL21" si="30">+AF21</f>
         <v>678.17433599999993</v>
       </c>
       <c r="AH21" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>678.17433599999993</v>
       </c>
       <c r="AI21" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>678.17433599999993</v>
       </c>
       <c r="AJ21" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>678.17433599999993</v>
       </c>
       <c r="AK21" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>678.17433599999993</v>
       </c>
       <c r="AL21" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>678.17433599999993</v>
       </c>
     </row>
@@ -3726,16 +3992,15 @@
         <v>-64</v>
       </c>
       <c r="T22" s="1">
+        <v>-61</v>
+      </c>
+      <c r="U22" s="1">
         <f t="shared" si="28"/>
-        <v>-134.74494706448507</v>
-      </c>
-      <c r="U22" s="1">
+        <v>-114.88807947019868</v>
+      </c>
+      <c r="V22" s="1">
         <f t="shared" si="29"/>
-        <v>-107.0860927152318</v>
-      </c>
-      <c r="V22" s="1">
-        <f t="shared" si="30"/>
-        <v>-96.567886712211035</v>
+        <v>-103.60354702981496</v>
       </c>
       <c r="X22" s="1">
         <v>-52</v>
@@ -3757,39 +4022,39 @@
         <v>-257</v>
       </c>
       <c r="AD22" s="1">
-        <f t="shared" ref="AD22:AL22" si="32">+AC22</f>
+        <f t="shared" ref="AD22:AL22" si="31">+AC22</f>
         <v>-257</v>
       </c>
       <c r="AE22" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>-257</v>
       </c>
       <c r="AF22" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>-257</v>
       </c>
       <c r="AG22" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>-257</v>
       </c>
       <c r="AH22" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>-257</v>
       </c>
       <c r="AI22" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>-257</v>
       </c>
       <c r="AJ22" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>-257</v>
       </c>
       <c r="AK22" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>-257</v>
       </c>
       <c r="AL22" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>-257</v>
       </c>
     </row>
@@ -3840,16 +4105,15 @@
         <v>75</v>
       </c>
       <c r="T23" s="1">
+        <v>189</v>
+      </c>
+      <c r="U23" s="1">
         <f t="shared" si="28"/>
-        <v>122.3069519508403</v>
-      </c>
-      <c r="U23" s="1">
+        <v>-120.35894039735101</v>
+      </c>
+      <c r="V23" s="1">
         <f t="shared" si="29"/>
-        <v>-112.18543046357618</v>
-      </c>
-      <c r="V23" s="1">
-        <f t="shared" si="30"/>
-        <v>397.00131203908978</v>
+        <v>425.92569334479481</v>
       </c>
       <c r="X23" s="1">
         <v>-2</v>
@@ -3875,68 +4139,68 @@
         <v>29</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" ref="G24:R24" si="33">+SUM(G20:G23)</f>
+        <f t="shared" ref="G24:R24" si="32">+SUM(G20:G23)</f>
         <v>2044</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>2394</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>2638</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>2865</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>1805</v>
       </c>
       <c r="L24" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>475</v>
       </c>
       <c r="M24" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>613</v>
       </c>
       <c r="N24" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>1288</v>
       </c>
       <c r="O24" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>2209</v>
       </c>
       <c r="P24" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>6981</v>
       </c>
       <c r="Q24" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>10522</v>
       </c>
       <c r="R24" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>14106</v>
       </c>
       <c r="S24" s="1">
-        <f t="shared" ref="S24" si="34">+SUM(S20:S23)</f>
+        <f t="shared" ref="S24" si="33">+SUM(S20:S23)</f>
         <v>17279</v>
       </c>
       <c r="T24" s="1">
-        <f t="shared" ref="T24:V24" si="35">+SUM(T20:T23)</f>
-        <v>15989.931146812765</v>
+        <f t="shared" ref="T24:V24" si="34">+SUM(T20:T23)</f>
+        <v>19214</v>
       </c>
       <c r="U24" s="1">
-        <f t="shared" si="35"/>
-        <v>17885.077262693161</v>
+        <f t="shared" si="34"/>
+        <v>19188.132891832232</v>
       </c>
       <c r="V24" s="1">
-        <f t="shared" si="35"/>
-        <v>21622.009681943629</v>
+        <f t="shared" si="34"/>
+        <v>23197.32753019952</v>
       </c>
       <c r="X24" s="1">
         <f>+SUM(X20:X23)</f>
@@ -3960,43 +4224,43 @@
       </c>
       <c r="AC24" s="1">
         <f t="shared" si="13"/>
-        <v>72776.018091449558</v>
+        <v>78878.460422031756</v>
       </c>
       <c r="AD24" s="1">
         <f>+SUM(AD20:AD23)</f>
-        <v>99947.473643045421</v>
+        <v>108120.41939226644</v>
       </c>
       <c r="AE24" s="1">
-        <f t="shared" ref="AE24:AL24" si="36">+SUM(AE20:AE23)</f>
-        <v>129822.65023195904</v>
+        <f t="shared" ref="AE24:AL24" si="35">+SUM(AE20:AE23)</f>
+        <v>140447.4797059464</v>
       </c>
       <c r="AF24" s="1">
-        <f t="shared" si="36"/>
-        <v>155702.94541115087</v>
+        <f t="shared" si="35"/>
+        <v>168452.74077993567</v>
       </c>
       <c r="AG24" s="1">
-        <f t="shared" si="36"/>
-        <v>186759.29962618102</v>
+        <f t="shared" si="35"/>
+        <v>202059.05406872282</v>
       </c>
       <c r="AH24" s="1">
-        <f t="shared" si="36"/>
-        <v>224026.92468421723</v>
+        <f t="shared" si="35"/>
+        <v>242386.63001526738</v>
       </c>
       <c r="AI24" s="1">
-        <f t="shared" si="36"/>
-        <v>268748.07475386065</v>
+        <f t="shared" si="35"/>
+        <v>290779.72115112084</v>
       </c>
       <c r="AJ24" s="1">
-        <f t="shared" si="36"/>
-        <v>322413.45483743271</v>
+        <f t="shared" si="35"/>
+        <v>348851.43051414506</v>
       </c>
       <c r="AK24" s="1">
-        <f t="shared" si="36"/>
-        <v>386811.91093771928</v>
+        <f t="shared" si="35"/>
+        <v>418537.48174977402</v>
       </c>
       <c r="AL24" s="1">
-        <f t="shared" si="36"/>
-        <v>464090.05825806316</v>
+        <f t="shared" si="35"/>
+        <v>502160.7432325288</v>
       </c>
     </row>
     <row r="25" spans="2:238">
@@ -4046,16 +4310,15 @@
         <v>2398</v>
       </c>
       <c r="T25" s="1">
-        <f>+T24*0.17</f>
-        <v>2718.2882949581704</v>
+        <v>2615</v>
       </c>
       <c r="U25" s="1">
         <f>+U24*0.17</f>
-        <v>3040.4631346578376</v>
+        <v>3261.9825916114796</v>
       </c>
       <c r="V25" s="1">
         <f>+V24*0.17</f>
-        <v>3675.7416459304172</v>
+        <v>3943.5456801339187</v>
       </c>
       <c r="X25" s="1">
         <v>174</v>
@@ -4074,43 +4337,43 @@
       </c>
       <c r="AC25" s="1">
         <f t="shared" si="13"/>
-        <v>11832.493075546425</v>
+        <v>12218.528271745397</v>
       </c>
       <c r="AD25" s="1">
         <f>+AD24*(AC25/AC24)</f>
-        <v>16250.2404063055</v>
+        <v>16748.202158473981</v>
       </c>
       <c r="AE25" s="1">
-        <f t="shared" ref="AE25:AL25" si="37">+AE24*(AD25/AD24)</f>
-        <v>21107.579807244496</v>
+        <f t="shared" ref="AE25:AL25" si="36">+AE24*(AD25/AD24)</f>
+        <v>21755.768207199646</v>
       </c>
       <c r="AF25" s="1">
-        <f t="shared" si="37"/>
-        <v>25315.400206487575</v>
+        <f t="shared" si="36"/>
+        <v>26093.873595658428</v>
       </c>
       <c r="AG25" s="1">
-        <f t="shared" si="37"/>
-        <v>30364.784685579263</v>
+        <f t="shared" si="36"/>
+        <v>31299.600061808971</v>
       </c>
       <c r="AH25" s="1">
-        <f t="shared" si="37"/>
-        <v>36424.046060489294</v>
+        <f t="shared" si="36"/>
+        <v>37546.471821189618</v>
       </c>
       <c r="AI25" s="1">
-        <f t="shared" si="37"/>
-        <v>43695.159710381326</v>
+        <f t="shared" si="36"/>
+        <v>45042.717932446394</v>
       </c>
       <c r="AJ25" s="1">
-        <f t="shared" si="37"/>
-        <v>52420.496090251756</v>
+        <f t="shared" si="36"/>
+        <v>54038.213265954539</v>
       </c>
       <c r="AK25" s="1">
-        <f t="shared" si="37"/>
-        <v>62890.899746096286</v>
+        <f t="shared" si="36"/>
+        <v>64832.807666164292</v>
       </c>
       <c r="AL25" s="1">
-        <f t="shared" si="37"/>
-        <v>75455.384133109721</v>
+        <f t="shared" si="36"/>
+        <v>77786.320946416003</v>
       </c>
     </row>
     <row r="26" spans="2:238" s="4" customFormat="1">
@@ -4118,68 +4381,68 @@
         <v>31</v>
       </c>
       <c r="G26" s="4">
-        <f t="shared" ref="G26:R26" si="38">+G24-G25</f>
+        <f t="shared" ref="G26:R26" si="37">+G24-G25</f>
         <v>1912</v>
       </c>
       <c r="H26" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>2374</v>
       </c>
       <c r="I26" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>2464</v>
       </c>
       <c r="J26" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>3002</v>
       </c>
       <c r="K26" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>1618</v>
       </c>
       <c r="L26" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>656</v>
       </c>
       <c r="M26" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>680</v>
       </c>
       <c r="N26" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>1414</v>
       </c>
       <c r="O26" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>2043</v>
       </c>
       <c r="P26" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>6188</v>
       </c>
       <c r="Q26" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>9243</v>
       </c>
       <c r="R26" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>12286</v>
       </c>
       <c r="S26" s="4">
-        <f t="shared" ref="S26" si="39">+S24-S25</f>
+        <f t="shared" ref="S26" si="38">+S24-S25</f>
         <v>14881</v>
       </c>
       <c r="T26" s="4">
-        <f t="shared" ref="T26:V26" si="40">+T24-T25</f>
-        <v>13271.642851854594</v>
+        <f t="shared" ref="T26:V26" si="39">+T24-T25</f>
+        <v>16599</v>
       </c>
       <c r="U26" s="4">
-        <f t="shared" si="40"/>
-        <v>14844.614128035324</v>
+        <f t="shared" si="39"/>
+        <v>15926.150300220754</v>
       </c>
       <c r="V26" s="4">
-        <f t="shared" si="40"/>
-        <v>17946.268036013211</v>
+        <f t="shared" si="39"/>
+        <v>19253.781850065599</v>
       </c>
       <c r="X26" s="4">
         <f>+X24-X25</f>
@@ -4203,843 +4466,843 @@
       </c>
       <c r="AC26" s="4">
         <f t="shared" si="13"/>
-        <v>60943.525015903127</v>
+        <v>66659.93215028636</v>
       </c>
       <c r="AD26" s="4">
         <f>+AD24-AD25</f>
-        <v>83697.233236739921</v>
+        <v>91372.217233792457</v>
       </c>
       <c r="AE26" s="4">
-        <f t="shared" ref="AE26:AL26" si="41">+AE24-AE25</f>
-        <v>108715.07042471453</v>
+        <f t="shared" ref="AE26:AL26" si="40">+AE24-AE25</f>
+        <v>118691.71149874676</v>
       </c>
       <c r="AF26" s="4">
-        <f t="shared" si="41"/>
-        <v>130387.5452046633</v>
+        <f t="shared" si="40"/>
+        <v>142358.86718427725</v>
       </c>
       <c r="AG26" s="4">
-        <f t="shared" si="41"/>
-        <v>156394.51494060174</v>
+        <f t="shared" si="40"/>
+        <v>170759.45400691385</v>
       </c>
       <c r="AH26" s="4">
-        <f t="shared" si="41"/>
-        <v>187602.87862372794</v>
+        <f t="shared" si="40"/>
+        <v>204840.15819407775</v>
       </c>
       <c r="AI26" s="4">
-        <f t="shared" si="41"/>
-        <v>225052.91504347933</v>
+        <f t="shared" si="40"/>
+        <v>245737.00321867445</v>
       </c>
       <c r="AJ26" s="4">
-        <f t="shared" si="41"/>
-        <v>269992.95874718094</v>
+        <f t="shared" si="40"/>
+        <v>294813.21724819054</v>
       </c>
       <c r="AK26" s="4">
-        <f t="shared" si="41"/>
-        <v>323921.01119162299</v>
+        <f t="shared" si="40"/>
+        <v>353704.67408360972</v>
       </c>
       <c r="AL26" s="4">
-        <f t="shared" si="41"/>
-        <v>388634.67412495345</v>
+        <f t="shared" si="40"/>
+        <v>424374.42228611279</v>
       </c>
       <c r="AM26" s="4">
         <f>+AL26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <v>424374.42228611279</v>
       </c>
       <c r="AN26" s="4">
-        <f t="shared" ref="AN26:AT26" si="42">+AM26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="AN26:AT26" si="41">+AM26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="AO26" s="4">
-        <f t="shared" si="42"/>
-        <v>388634.67412495345</v>
+        <f t="shared" si="41"/>
+        <v>424374.42228611279</v>
       </c>
       <c r="AP26" s="4">
-        <f t="shared" si="42"/>
-        <v>388634.67412495345</v>
+        <f t="shared" si="41"/>
+        <v>424374.42228611279</v>
       </c>
       <c r="AQ26" s="4">
-        <f t="shared" si="42"/>
-        <v>388634.67412495345</v>
+        <f t="shared" si="41"/>
+        <v>424374.42228611279</v>
       </c>
       <c r="AR26" s="4">
-        <f t="shared" si="42"/>
-        <v>388634.67412495345</v>
+        <f t="shared" si="41"/>
+        <v>424374.42228611279</v>
       </c>
       <c r="AS26" s="4">
-        <f t="shared" si="42"/>
-        <v>388634.67412495345</v>
+        <f t="shared" si="41"/>
+        <v>424374.42228611279</v>
       </c>
       <c r="AT26" s="4">
-        <f t="shared" si="42"/>
-        <v>388634.67412495345</v>
+        <f t="shared" si="41"/>
+        <v>424374.42228611279</v>
       </c>
       <c r="AU26" s="4">
-        <f t="shared" ref="AU26" si="43">+AT26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="AU26" si="42">+AT26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="AV26" s="4">
-        <f t="shared" ref="AV26" si="44">+AU26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="AV26" si="43">+AU26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="AW26" s="4">
-        <f t="shared" ref="AW26" si="45">+AV26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="AW26" si="44">+AV26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="AX26" s="4">
-        <f t="shared" ref="AX26" si="46">+AW26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="AX26" si="45">+AW26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="AY26" s="4">
-        <f t="shared" ref="AY26" si="47">+AX26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="AY26" si="46">+AX26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="AZ26" s="4">
-        <f t="shared" ref="AZ26" si="48">+AY26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="AZ26" si="47">+AY26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="BA26" s="4">
-        <f t="shared" ref="BA26" si="49">+AZ26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="BA26" si="48">+AZ26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="BB26" s="4">
-        <f t="shared" ref="BB26" si="50">+BA26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="BB26" si="49">+BA26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="BC26" s="4">
-        <f t="shared" ref="BC26" si="51">+BB26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="BC26" si="50">+BB26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="BD26" s="4">
-        <f t="shared" ref="BD26" si="52">+BC26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="BD26" si="51">+BC26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="BE26" s="4">
-        <f t="shared" ref="BE26" si="53">+BD26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="BE26" si="52">+BD26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="BF26" s="4">
-        <f t="shared" ref="BF26" si="54">+BE26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="BF26" si="53">+BE26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="BG26" s="4">
-        <f t="shared" ref="BG26" si="55">+BF26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="BG26" si="54">+BF26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="BH26" s="4">
-        <f t="shared" ref="BH26" si="56">+BG26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="BH26" si="55">+BG26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="BI26" s="4">
-        <f t="shared" ref="BI26" si="57">+BH26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="BI26" si="56">+BH26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="BJ26" s="4">
-        <f t="shared" ref="BJ26" si="58">+BI26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="BJ26" si="57">+BI26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="BK26" s="4">
-        <f t="shared" ref="BK26" si="59">+BJ26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="BK26" si="58">+BJ26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="BL26" s="4">
-        <f t="shared" ref="BL26" si="60">+BK26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="BL26" si="59">+BK26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="BM26" s="4">
-        <f t="shared" ref="BM26" si="61">+BL26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="BM26" si="60">+BL26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="BN26" s="4">
-        <f t="shared" ref="BN26" si="62">+BM26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="BN26" si="61">+BM26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="BO26" s="4">
-        <f t="shared" ref="BO26" si="63">+BN26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="BO26" si="62">+BN26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="BP26" s="4">
-        <f t="shared" ref="BP26" si="64">+BO26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="BP26" si="63">+BO26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="BQ26" s="4">
-        <f t="shared" ref="BQ26" si="65">+BP26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="BQ26" si="64">+BP26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="BR26" s="4">
-        <f t="shared" ref="BR26" si="66">+BQ26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="BR26" si="65">+BQ26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="BS26" s="4">
-        <f t="shared" ref="BS26" si="67">+BR26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="BS26" si="66">+BR26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="BT26" s="4">
-        <f t="shared" ref="BT26" si="68">+BS26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="BT26" si="67">+BS26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="BU26" s="4">
-        <f t="shared" ref="BU26" si="69">+BT26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="BU26" si="68">+BT26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="BV26" s="4">
-        <f t="shared" ref="BV26" si="70">+BU26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="BV26" si="69">+BU26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="BW26" s="4">
-        <f t="shared" ref="BW26" si="71">+BV26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="BW26" si="70">+BV26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="BX26" s="4">
-        <f t="shared" ref="BX26" si="72">+BW26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="BX26" si="71">+BW26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="BY26" s="4">
-        <f t="shared" ref="BY26" si="73">+BX26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="BY26" si="72">+BX26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="BZ26" s="4">
-        <f t="shared" ref="BZ26" si="74">+BY26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="BZ26" si="73">+BY26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="CA26" s="4">
-        <f t="shared" ref="CA26" si="75">+BZ26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="CA26" si="74">+BZ26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="CB26" s="4">
-        <f t="shared" ref="CB26" si="76">+CA26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="CB26" si="75">+CA26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="CC26" s="4">
-        <f t="shared" ref="CC26" si="77">+CB26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="CC26" si="76">+CB26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="CD26" s="4">
-        <f t="shared" ref="CD26" si="78">+CC26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="CD26" si="77">+CC26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="CE26" s="4">
-        <f t="shared" ref="CE26" si="79">+CD26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="CE26" si="78">+CD26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="CF26" s="4">
-        <f t="shared" ref="CF26" si="80">+CE26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="CF26" si="79">+CE26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="CG26" s="4">
-        <f t="shared" ref="CG26" si="81">+CF26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="CG26" si="80">+CF26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="CH26" s="4">
-        <f t="shared" ref="CH26" si="82">+CG26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="CH26" si="81">+CG26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="CI26" s="4">
-        <f t="shared" ref="CI26" si="83">+CH26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="CI26" si="82">+CH26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="CJ26" s="4">
-        <f t="shared" ref="CJ26" si="84">+CI26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="CJ26" si="83">+CI26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="CK26" s="4">
-        <f t="shared" ref="CK26" si="85">+CJ26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="CK26" si="84">+CJ26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="CL26" s="4">
-        <f t="shared" ref="CL26" si="86">+CK26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="CL26" si="85">+CK26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="CM26" s="4">
-        <f t="shared" ref="CM26" si="87">+CL26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="CM26" si="86">+CL26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="CN26" s="4">
-        <f t="shared" ref="CN26" si="88">+CM26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="CN26" si="87">+CM26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="CO26" s="4">
-        <f t="shared" ref="CO26" si="89">+CN26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="CO26" si="88">+CN26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="CP26" s="4">
-        <f t="shared" ref="CP26" si="90">+CO26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="CP26" si="89">+CO26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="CQ26" s="4">
-        <f t="shared" ref="CQ26" si="91">+CP26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="CQ26" si="90">+CP26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="CR26" s="4">
-        <f t="shared" ref="CR26" si="92">+CQ26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="CR26" si="91">+CQ26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="CS26" s="4">
-        <f t="shared" ref="CS26" si="93">+CR26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="CS26" si="92">+CR26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="CT26" s="4">
-        <f t="shared" ref="CT26" si="94">+CS26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="CT26" si="93">+CS26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="CU26" s="4">
-        <f t="shared" ref="CU26" si="95">+CT26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="CU26" si="94">+CT26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="CV26" s="4">
-        <f t="shared" ref="CV26" si="96">+CU26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="CV26" si="95">+CU26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="CW26" s="4">
-        <f t="shared" ref="CW26" si="97">+CV26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="CW26" si="96">+CV26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="CX26" s="4">
-        <f t="shared" ref="CX26" si="98">+CW26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="CX26" si="97">+CW26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="CY26" s="4">
-        <f t="shared" ref="CY26" si="99">+CX26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="CY26" si="98">+CX26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="CZ26" s="4">
-        <f t="shared" ref="CZ26" si="100">+CY26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="CZ26" si="99">+CY26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="DA26" s="4">
-        <f t="shared" ref="DA26" si="101">+CZ26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="DA26" si="100">+CZ26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="DB26" s="4">
-        <f t="shared" ref="DB26" si="102">+DA26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="DB26" si="101">+DA26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="DC26" s="4">
-        <f t="shared" ref="DC26" si="103">+DB26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="DC26" si="102">+DB26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="DD26" s="4">
-        <f t="shared" ref="DD26" si="104">+DC26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="DD26" si="103">+DC26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="DE26" s="4">
-        <f t="shared" ref="DE26" si="105">+DD26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="DE26" si="104">+DD26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="DF26" s="4">
-        <f t="shared" ref="DF26" si="106">+DE26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="DF26" si="105">+DE26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="DG26" s="4">
-        <f t="shared" ref="DG26" si="107">+DF26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="DG26" si="106">+DF26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="DH26" s="4">
-        <f t="shared" ref="DH26" si="108">+DG26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="DH26" si="107">+DG26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="DI26" s="4">
-        <f t="shared" ref="DI26" si="109">+DH26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="DI26" si="108">+DH26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="DJ26" s="4">
-        <f t="shared" ref="DJ26" si="110">+DI26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="DJ26" si="109">+DI26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="DK26" s="4">
-        <f t="shared" ref="DK26" si="111">+DJ26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="DK26" si="110">+DJ26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="DL26" s="4">
-        <f t="shared" ref="DL26" si="112">+DK26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="DL26" si="111">+DK26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="DM26" s="4">
-        <f t="shared" ref="DM26" si="113">+DL26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="DM26" si="112">+DL26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="DN26" s="4">
-        <f t="shared" ref="DN26" si="114">+DM26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="DN26" si="113">+DM26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="DO26" s="4">
-        <f t="shared" ref="DO26" si="115">+DN26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="DO26" si="114">+DN26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="DP26" s="4">
-        <f t="shared" ref="DP26" si="116">+DO26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="DP26" si="115">+DO26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="DQ26" s="4">
-        <f t="shared" ref="DQ26" si="117">+DP26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="DQ26" si="116">+DP26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="DR26" s="4">
-        <f t="shared" ref="DR26" si="118">+DQ26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="DR26" si="117">+DQ26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="DS26" s="4">
-        <f t="shared" ref="DS26" si="119">+DR26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="DS26" si="118">+DR26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="DT26" s="4">
-        <f t="shared" ref="DT26" si="120">+DS26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="DT26" si="119">+DS26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="DU26" s="4">
-        <f t="shared" ref="DU26" si="121">+DT26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="DU26" si="120">+DT26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="DV26" s="4">
-        <f t="shared" ref="DV26" si="122">+DU26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="DV26" si="121">+DU26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="DW26" s="4">
-        <f t="shared" ref="DW26" si="123">+DV26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="DW26" si="122">+DV26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="DX26" s="4">
-        <f t="shared" ref="DX26" si="124">+DW26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="DX26" si="123">+DW26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="DY26" s="4">
-        <f t="shared" ref="DY26:FF26" si="125">+DX26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="DY26:FF26" si="124">+DX26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="DZ26" s="4">
-        <f t="shared" si="125"/>
-        <v>388634.67412495345</v>
+        <f t="shared" si="124"/>
+        <v>424374.42228611279</v>
       </c>
       <c r="EA26" s="4">
-        <f t="shared" si="125"/>
-        <v>388634.67412495345</v>
+        <f t="shared" si="124"/>
+        <v>424374.42228611279</v>
       </c>
       <c r="EB26" s="4">
-        <f t="shared" si="125"/>
-        <v>388634.67412495345</v>
+        <f t="shared" si="124"/>
+        <v>424374.42228611279</v>
       </c>
       <c r="EC26" s="4">
-        <f t="shared" si="125"/>
-        <v>388634.67412495345</v>
+        <f t="shared" si="124"/>
+        <v>424374.42228611279</v>
       </c>
       <c r="ED26" s="4">
-        <f t="shared" si="125"/>
-        <v>388634.67412495345</v>
+        <f t="shared" si="124"/>
+        <v>424374.42228611279</v>
       </c>
       <c r="EE26" s="4">
-        <f t="shared" si="125"/>
-        <v>388634.67412495345</v>
+        <f t="shared" si="124"/>
+        <v>424374.42228611279</v>
       </c>
       <c r="EF26" s="4">
-        <f t="shared" si="125"/>
-        <v>388634.67412495345</v>
+        <f t="shared" si="124"/>
+        <v>424374.42228611279</v>
       </c>
       <c r="EG26" s="4">
-        <f t="shared" si="125"/>
-        <v>388634.67412495345</v>
+        <f t="shared" si="124"/>
+        <v>424374.42228611279</v>
       </c>
       <c r="EH26" s="4">
-        <f t="shared" si="125"/>
-        <v>388634.67412495345</v>
+        <f t="shared" si="124"/>
+        <v>424374.42228611279</v>
       </c>
       <c r="EI26" s="4">
-        <f t="shared" si="125"/>
-        <v>388634.67412495345</v>
+        <f t="shared" si="124"/>
+        <v>424374.42228611279</v>
       </c>
       <c r="EJ26" s="4">
-        <f t="shared" si="125"/>
-        <v>388634.67412495345</v>
+        <f t="shared" si="124"/>
+        <v>424374.42228611279</v>
       </c>
       <c r="EK26" s="4">
-        <f t="shared" si="125"/>
-        <v>388634.67412495345</v>
+        <f t="shared" si="124"/>
+        <v>424374.42228611279</v>
       </c>
       <c r="EL26" s="4">
-        <f t="shared" si="125"/>
-        <v>388634.67412495345</v>
+        <f t="shared" si="124"/>
+        <v>424374.42228611279</v>
       </c>
       <c r="EM26" s="4">
-        <f t="shared" si="125"/>
-        <v>388634.67412495345</v>
+        <f t="shared" si="124"/>
+        <v>424374.42228611279</v>
       </c>
       <c r="EN26" s="4">
-        <f t="shared" si="125"/>
-        <v>388634.67412495345</v>
+        <f t="shared" si="124"/>
+        <v>424374.42228611279</v>
       </c>
       <c r="EO26" s="4">
-        <f t="shared" si="125"/>
-        <v>388634.67412495345</v>
+        <f t="shared" si="124"/>
+        <v>424374.42228611279</v>
       </c>
       <c r="EP26" s="4">
-        <f t="shared" si="125"/>
-        <v>388634.67412495345</v>
+        <f t="shared" si="124"/>
+        <v>424374.42228611279</v>
       </c>
       <c r="EQ26" s="4">
-        <f t="shared" si="125"/>
-        <v>388634.67412495345</v>
+        <f t="shared" si="124"/>
+        <v>424374.42228611279</v>
       </c>
       <c r="ER26" s="4">
-        <f t="shared" si="125"/>
-        <v>388634.67412495345</v>
+        <f t="shared" si="124"/>
+        <v>424374.42228611279</v>
       </c>
       <c r="ES26" s="4">
-        <f t="shared" si="125"/>
-        <v>388634.67412495345</v>
+        <f t="shared" si="124"/>
+        <v>424374.42228611279</v>
       </c>
       <c r="ET26" s="4">
-        <f t="shared" si="125"/>
-        <v>388634.67412495345</v>
+        <f t="shared" si="124"/>
+        <v>424374.42228611279</v>
       </c>
       <c r="EU26" s="4">
-        <f t="shared" si="125"/>
-        <v>388634.67412495345</v>
+        <f t="shared" si="124"/>
+        <v>424374.42228611279</v>
       </c>
       <c r="EV26" s="4">
-        <f t="shared" si="125"/>
-        <v>388634.67412495345</v>
+        <f t="shared" si="124"/>
+        <v>424374.42228611279</v>
       </c>
       <c r="EW26" s="4">
-        <f t="shared" si="125"/>
-        <v>388634.67412495345</v>
+        <f t="shared" si="124"/>
+        <v>424374.42228611279</v>
       </c>
       <c r="EX26" s="4">
-        <f t="shared" si="125"/>
-        <v>388634.67412495345</v>
+        <f t="shared" si="124"/>
+        <v>424374.42228611279</v>
       </c>
       <c r="EY26" s="4">
-        <f t="shared" si="125"/>
-        <v>388634.67412495345</v>
+        <f t="shared" si="124"/>
+        <v>424374.42228611279</v>
       </c>
       <c r="EZ26" s="4">
-        <f t="shared" si="125"/>
-        <v>388634.67412495345</v>
+        <f t="shared" si="124"/>
+        <v>424374.42228611279</v>
       </c>
       <c r="FA26" s="4">
-        <f t="shared" si="125"/>
-        <v>388634.67412495345</v>
+        <f t="shared" si="124"/>
+        <v>424374.42228611279</v>
       </c>
       <c r="FB26" s="4">
-        <f t="shared" si="125"/>
-        <v>388634.67412495345</v>
+        <f t="shared" si="124"/>
+        <v>424374.42228611279</v>
       </c>
       <c r="FC26" s="4">
-        <f t="shared" si="125"/>
-        <v>388634.67412495345</v>
+        <f t="shared" si="124"/>
+        <v>424374.42228611279</v>
       </c>
       <c r="FD26" s="4">
-        <f t="shared" si="125"/>
-        <v>388634.67412495345</v>
+        <f t="shared" si="124"/>
+        <v>424374.42228611279</v>
       </c>
       <c r="FE26" s="4">
-        <f t="shared" si="125"/>
-        <v>388634.67412495345</v>
+        <f t="shared" si="124"/>
+        <v>424374.42228611279</v>
       </c>
       <c r="FF26" s="4">
-        <f t="shared" si="125"/>
-        <v>388634.67412495345</v>
+        <f t="shared" si="124"/>
+        <v>424374.42228611279</v>
       </c>
       <c r="FG26" s="4">
-        <f t="shared" ref="FG26" si="126">+FF26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="FG26" si="125">+FF26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="FH26" s="4">
-        <f t="shared" ref="FH26" si="127">+FG26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="FH26" si="126">+FG26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="FI26" s="4">
-        <f t="shared" ref="FI26" si="128">+FH26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="FI26" si="127">+FH26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="FJ26" s="4">
-        <f t="shared" ref="FJ26" si="129">+FI26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="FJ26" si="128">+FI26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="FK26" s="4">
-        <f t="shared" ref="FK26" si="130">+FJ26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="FK26" si="129">+FJ26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="FL26" s="4">
-        <f t="shared" ref="FL26" si="131">+FK26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="FL26" si="130">+FK26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="FM26" s="4">
-        <f t="shared" ref="FM26" si="132">+FL26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="FM26" si="131">+FL26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="FN26" s="4">
-        <f t="shared" ref="FN26" si="133">+FM26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="FN26" si="132">+FM26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="FO26" s="4">
-        <f t="shared" ref="FO26" si="134">+FN26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="FO26" si="133">+FN26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="FP26" s="4">
-        <f t="shared" ref="FP26" si="135">+FO26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="FP26" si="134">+FO26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="FQ26" s="4">
-        <f t="shared" ref="FQ26" si="136">+FP26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="FQ26" si="135">+FP26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="FR26" s="4">
-        <f t="shared" ref="FR26" si="137">+FQ26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="FR26" si="136">+FQ26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="FS26" s="4">
-        <f t="shared" ref="FS26" si="138">+FR26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="FS26" si="137">+FR26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="FT26" s="4">
-        <f t="shared" ref="FT26" si="139">+FS26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="FT26" si="138">+FS26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="FU26" s="4">
-        <f t="shared" ref="FU26" si="140">+FT26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="FU26" si="139">+FT26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="FV26" s="4">
-        <f t="shared" ref="FV26" si="141">+FU26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="FV26" si="140">+FU26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="FW26" s="4">
-        <f t="shared" ref="FW26" si="142">+FV26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="FW26" si="141">+FV26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="FX26" s="4">
-        <f t="shared" ref="FX26" si="143">+FW26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="FX26" si="142">+FW26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="FY26" s="4">
-        <f t="shared" ref="FY26" si="144">+FX26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="FY26" si="143">+FX26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="FZ26" s="4">
-        <f t="shared" ref="FZ26" si="145">+FY26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="FZ26" si="144">+FY26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="GA26" s="4">
-        <f t="shared" ref="GA26" si="146">+FZ26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="GA26" si="145">+FZ26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="GB26" s="4">
-        <f t="shared" ref="GB26" si="147">+GA26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="GB26" si="146">+GA26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="GC26" s="4">
-        <f t="shared" ref="GC26" si="148">+GB26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="GC26" si="147">+GB26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="GD26" s="4">
-        <f t="shared" ref="GD26" si="149">+GC26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="GD26" si="148">+GC26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="GE26" s="4">
-        <f t="shared" ref="GE26" si="150">+GD26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="GE26" si="149">+GD26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="GF26" s="4">
-        <f t="shared" ref="GF26" si="151">+GE26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="GF26" si="150">+GE26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="GG26" s="4">
-        <f t="shared" ref="GG26" si="152">+GF26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="GG26" si="151">+GF26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="GH26" s="4">
-        <f t="shared" ref="GH26" si="153">+GG26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="GH26" si="152">+GG26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="GI26" s="4">
-        <f t="shared" ref="GI26" si="154">+GH26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="GI26" si="153">+GH26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="GJ26" s="4">
-        <f t="shared" ref="GJ26" si="155">+GI26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="GJ26" si="154">+GI26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="GK26" s="4">
-        <f t="shared" ref="GK26" si="156">+GJ26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="GK26" si="155">+GJ26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="GL26" s="4">
-        <f t="shared" ref="GL26" si="157">+GK26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="GL26" si="156">+GK26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="GM26" s="4">
-        <f t="shared" ref="GM26" si="158">+GL26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="GM26" si="157">+GL26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="GN26" s="4">
-        <f t="shared" ref="GN26" si="159">+GM26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="GN26" si="158">+GM26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="GO26" s="4">
-        <f t="shared" ref="GO26" si="160">+GN26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="GO26" si="159">+GN26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="GP26" s="4">
-        <f t="shared" ref="GP26" si="161">+GO26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="GP26" si="160">+GO26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="GQ26" s="4">
-        <f t="shared" ref="GQ26" si="162">+GP26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="GQ26" si="161">+GP26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="GR26" s="4">
-        <f t="shared" ref="GR26" si="163">+GQ26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="GR26" si="162">+GQ26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="GS26" s="4">
-        <f t="shared" ref="GS26" si="164">+GR26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="GS26" si="163">+GR26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="GT26" s="4">
-        <f t="shared" ref="GT26" si="165">+GS26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="GT26" si="164">+GS26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="GU26" s="4">
-        <f t="shared" ref="GU26" si="166">+GT26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="GU26" si="165">+GT26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="GV26" s="4">
-        <f t="shared" ref="GV26" si="167">+GU26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="GV26" si="166">+GU26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="GW26" s="4">
-        <f t="shared" ref="GW26" si="168">+GV26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="GW26" si="167">+GV26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="GX26" s="4">
-        <f t="shared" ref="GX26" si="169">+GW26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="GX26" si="168">+GW26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="GY26" s="4">
-        <f t="shared" ref="GY26" si="170">+GX26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="GY26" si="169">+GX26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="GZ26" s="4">
-        <f t="shared" ref="GZ26" si="171">+GY26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="GZ26" si="170">+GY26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="HA26" s="4">
-        <f t="shared" ref="HA26" si="172">+GZ26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="HA26" si="171">+GZ26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="HB26" s="4">
-        <f t="shared" ref="HB26" si="173">+HA26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="HB26" si="172">+HA26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="HC26" s="4">
-        <f t="shared" ref="HC26" si="174">+HB26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="HC26" si="173">+HB26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="HD26" s="4">
-        <f t="shared" ref="HD26" si="175">+HC26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="HD26" si="174">+HC26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="HE26" s="4">
-        <f t="shared" ref="HE26" si="176">+HD26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="HE26" si="175">+HD26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="HF26" s="4">
-        <f t="shared" ref="HF26" si="177">+HE26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="HF26" si="176">+HE26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="HG26" s="4">
-        <f t="shared" ref="HG26" si="178">+HF26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="HG26" si="177">+HF26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="HH26" s="4">
-        <f t="shared" ref="HH26" si="179">+HG26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="HH26" si="178">+HG26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="HI26" s="4">
-        <f t="shared" ref="HI26" si="180">+HH26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="HI26" si="179">+HH26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="HJ26" s="4">
-        <f t="shared" ref="HJ26" si="181">+HI26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="HJ26" si="180">+HI26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="HK26" s="4">
-        <f t="shared" ref="HK26" si="182">+HJ26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="HK26" si="181">+HJ26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="HL26" s="4">
-        <f t="shared" ref="HL26" si="183">+HK26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="HL26" si="182">+HK26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="HM26" s="4">
-        <f t="shared" ref="HM26" si="184">+HL26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="HM26" si="183">+HL26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="HN26" s="4">
-        <f t="shared" ref="HN26" si="185">+HM26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="HN26" si="184">+HM26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="HO26" s="4">
-        <f t="shared" ref="HO26" si="186">+HN26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="HO26" si="185">+HN26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="HP26" s="4">
-        <f t="shared" ref="HP26" si="187">+HO26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="HP26" si="186">+HO26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="HQ26" s="4">
-        <f t="shared" ref="HQ26" si="188">+HP26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="HQ26" si="187">+HP26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="HR26" s="4">
-        <f t="shared" ref="HR26" si="189">+HQ26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="HR26" si="188">+HQ26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="HS26" s="4">
-        <f t="shared" ref="HS26" si="190">+HR26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="HS26" si="189">+HR26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="HT26" s="4">
-        <f t="shared" ref="HT26" si="191">+HS26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="HT26" si="190">+HS26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="HU26" s="4">
-        <f t="shared" ref="HU26" si="192">+HT26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="HU26" si="191">+HT26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="HV26" s="4">
-        <f t="shared" ref="HV26" si="193">+HU26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="HV26" si="192">+HU26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="HW26" s="4">
-        <f t="shared" ref="HW26" si="194">+HV26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="HW26" si="193">+HV26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="HX26" s="4">
-        <f t="shared" ref="HX26" si="195">+HW26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="HX26" si="194">+HW26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="HY26" s="4">
-        <f t="shared" ref="HY26" si="196">+HX26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="HY26" si="195">+HX26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="HZ26" s="4">
-        <f t="shared" ref="HZ26" si="197">+HY26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="HZ26" si="196">+HY26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="IA26" s="4">
-        <f t="shared" ref="IA26" si="198">+HZ26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="IA26" si="197">+HZ26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="IB26" s="4">
-        <f t="shared" ref="IB26" si="199">+IA26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="IB26" si="198">+IA26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="IC26" s="4">
-        <f t="shared" ref="IC26:ID26" si="200">+IB26*(1+$AR$31)</f>
-        <v>388634.67412495345</v>
+        <f t="shared" ref="IC26:ID26" si="199">+IB26*(1+$AR$31)</f>
+        <v>424374.42228611279</v>
       </c>
       <c r="ID26" s="4">
-        <f t="shared" si="200"/>
-        <v>388634.67412495345</v>
+        <f t="shared" si="199"/>
+        <v>424374.42228611279</v>
       </c>
     </row>
     <row r="27" spans="2:238">
@@ -5089,16 +5352,15 @@
         <v>2489</v>
       </c>
       <c r="T27" s="1">
-        <f>+S27*10</f>
-        <v>24890</v>
+        <v>24848</v>
       </c>
       <c r="U27" s="1">
-        <f t="shared" ref="U27:V27" si="201">+T27</f>
-        <v>24890</v>
+        <f t="shared" ref="U27:V27" si="200">+T27</f>
+        <v>24848</v>
       </c>
       <c r="V27" s="1">
-        <f t="shared" si="201"/>
-        <v>24890</v>
+        <f t="shared" si="200"/>
+        <v>24848</v>
       </c>
       <c r="X27" s="1">
         <v>2472</v>
@@ -5117,43 +5379,43 @@
       </c>
       <c r="AC27" s="1">
         <f>+AC26/AC28</f>
-        <v>7783.982567691568</v>
+        <v>8267.8644524046049</v>
       </c>
       <c r="AD27" s="1">
         <f>+AC27</f>
-        <v>7783.982567691568</v>
+        <v>8267.8644524046049</v>
       </c>
       <c r="AE27" s="1">
-        <f t="shared" ref="AE27:AL27" si="202">+AD27</f>
-        <v>7783.982567691568</v>
+        <f t="shared" ref="AE27:AL27" si="201">+AD27</f>
+        <v>8267.8644524046049</v>
       </c>
       <c r="AF27" s="1">
-        <f t="shared" si="202"/>
-        <v>7783.982567691568</v>
+        <f t="shared" si="201"/>
+        <v>8267.8644524046049</v>
       </c>
       <c r="AG27" s="1">
-        <f t="shared" si="202"/>
-        <v>7783.982567691568</v>
+        <f t="shared" si="201"/>
+        <v>8267.8644524046049</v>
       </c>
       <c r="AH27" s="1">
-        <f t="shared" si="202"/>
-        <v>7783.982567691568</v>
+        <f t="shared" si="201"/>
+        <v>8267.8644524046049</v>
       </c>
       <c r="AI27" s="1">
-        <f t="shared" si="202"/>
-        <v>7783.982567691568</v>
+        <f t="shared" si="201"/>
+        <v>8267.8644524046049</v>
       </c>
       <c r="AJ27" s="1">
-        <f t="shared" si="202"/>
-        <v>7783.982567691568</v>
+        <f t="shared" si="201"/>
+        <v>8267.8644524046049</v>
       </c>
       <c r="AK27" s="1">
-        <f t="shared" si="202"/>
-        <v>7783.982567691568</v>
+        <f t="shared" si="201"/>
+        <v>8267.8644524046049</v>
       </c>
       <c r="AL27" s="1">
-        <f t="shared" si="202"/>
-        <v>7783.982567691568</v>
+        <f t="shared" si="201"/>
+        <v>8267.8644524046049</v>
       </c>
     </row>
     <row r="28" spans="2:238" s="5" customFormat="1">
@@ -5213,16 +5475,16 @@
         <v>5.978706307754118</v>
       </c>
       <c r="T28" s="5">
-        <f t="shared" ref="T28:V28" si="203">+T26/T27</f>
-        <v>0.53321184619745254</v>
+        <f t="shared" ref="T28:V28" si="202">+T26/T27</f>
+        <v>0.66802157115260785</v>
       </c>
       <c r="U28" s="5">
-        <f t="shared" si="203"/>
-        <v>0.59640876368161211</v>
+        <f t="shared" si="202"/>
+        <v>0.64094294511513017</v>
       </c>
       <c r="V28" s="5">
-        <f t="shared" si="203"/>
-        <v>0.72102322362447613</v>
+        <f t="shared" si="202"/>
+        <v>0.77486243762337415</v>
       </c>
       <c r="X28" s="5">
         <f>+X26/X27</f>
@@ -5246,43 +5508,43 @@
       </c>
       <c r="AC28" s="1">
         <f t="shared" si="13"/>
-        <v>7.8293501412576587</v>
+        <v>8.0625332616452301</v>
       </c>
       <c r="AD28" s="5">
         <f>+AD26/AD27</f>
-        <v>10.752494948297569</v>
+        <v>11.051489506122465</v>
       </c>
       <c r="AE28" s="5">
-        <f t="shared" ref="AE28:AL28" si="204">+AE26/AE27</f>
-        <v>13.966510006837705</v>
+        <f t="shared" ref="AE28:AL28" si="203">+AE26/AE27</f>
+        <v>14.355788266972224</v>
       </c>
       <c r="AF28" s="5">
-        <f t="shared" si="204"/>
-        <v>16.750749898368703</v>
+        <f t="shared" si="203"/>
+        <v>17.218335883926343</v>
       </c>
       <c r="AG28" s="5">
-        <f t="shared" si="204"/>
-        <v>20.091837768205895</v>
+        <f t="shared" si="203"/>
+        <v>20.653393024271292</v>
       </c>
       <c r="AH28" s="5">
-        <f t="shared" si="204"/>
-        <v>24.10114321201053</v>
+        <f t="shared" si="203"/>
+        <v>24.775461592685225</v>
       </c>
       <c r="AI28" s="5">
-        <f t="shared" si="204"/>
-        <v>28.912309744576088</v>
+        <f t="shared" si="203"/>
+        <v>29.72194387478195</v>
       </c>
       <c r="AJ28" s="5">
-        <f t="shared" si="204"/>
-        <v>34.685709583654749</v>
+        <f t="shared" si="203"/>
+        <v>35.65772261329802</v>
       </c>
       <c r="AK28" s="5">
-        <f t="shared" si="204"/>
-        <v>41.613789390549165</v>
+        <f t="shared" si="203"/>
+        <v>42.780657099517292</v>
       </c>
       <c r="AL28" s="5">
-        <f t="shared" si="204"/>
-        <v>49.927485158822456</v>
+        <f t="shared" si="203"/>
+        <v>51.328178482980427</v>
       </c>
     </row>
     <row r="30" spans="2:238">
@@ -5311,24 +5573,28 @@
         <v>43</v>
       </c>
       <c r="O32" s="3">
-        <f t="shared" ref="O32:Q36" si="205">+O5/K5-1</f>
+        <f t="shared" ref="O32:Q36" si="204">+O5/K5-1</f>
         <v>0.14240000000000008</v>
       </c>
-      <c r="P32" s="3">
-        <f t="shared" si="205"/>
+      <c r="P32" s="35">
+        <f t="shared" si="204"/>
         <v>1.712296374146085</v>
       </c>
-      <c r="Q32" s="3">
-        <f t="shared" si="205"/>
+      <c r="Q32" s="35">
+        <f t="shared" si="204"/>
         <v>2.7865901382728935</v>
       </c>
-      <c r="R32" s="3">
+      <c r="R32" s="35">
         <f>+R5/N5-1</f>
         <v>4.0896017699115044</v>
       </c>
-      <c r="S32" s="3">
+      <c r="S32" s="35">
         <f>+S5/O5-1</f>
         <v>4.2668067226890756</v>
+      </c>
+      <c r="T32" s="35">
+        <f>+T5/P5-1</f>
+        <v>1.5449966095127388</v>
       </c>
       <c r="AA32" s="3">
         <f>+AA5/Z5-1</f>
@@ -5350,31 +5616,35 @@
         <v>48</v>
       </c>
       <c r="O33" s="3">
+        <f t="shared" si="204"/>
+        <v>-0.38121546961325969</v>
+      </c>
+      <c r="P33" s="3">
+        <f t="shared" si="204"/>
+        <v>0.21743388834475996</v>
+      </c>
+      <c r="Q33" s="3">
+        <f t="shared" si="204"/>
+        <v>0.81448538754764921</v>
+      </c>
+      <c r="R33" s="3">
+        <f t="shared" ref="R33:T36" si="205">+R6/N6-1</f>
+        <v>0.5647187329328236</v>
+      </c>
+      <c r="S33" s="3">
         <f t="shared" si="205"/>
-        <v>-0.38121546961325969</v>
-      </c>
-      <c r="P33" s="3">
+        <v>0.18169642857142865</v>
+      </c>
+      <c r="T33" s="3">
         <f t="shared" si="205"/>
-        <v>0.21743388834475996</v>
-      </c>
-      <c r="Q33" s="3">
-        <f t="shared" si="205"/>
-        <v>0.81448538754764921</v>
-      </c>
-      <c r="R33" s="3">
-        <f t="shared" ref="R33:S36" si="206">+R6/N6-1</f>
-        <v>0.5647187329328236</v>
-      </c>
-      <c r="S33" s="3">
+        <v>0.15848753016894612</v>
+      </c>
+      <c r="AA33" s="3">
+        <f t="shared" ref="AA33:AB36" si="206">+AA6/Z6-1</f>
+        <v>-0.27242818167228378</v>
+      </c>
+      <c r="AB33" s="3">
         <f t="shared" si="206"/>
-        <v>0.18169642857142865</v>
-      </c>
-      <c r="AA33" s="3">
-        <f t="shared" ref="AA33:AB36" si="207">+AA6/Z6-1</f>
-        <v>-0.27242818167228378</v>
-      </c>
-      <c r="AB33" s="3">
-        <f t="shared" si="207"/>
         <v>0.15220028675416342</v>
       </c>
       <c r="AQ33" s="26" t="s">
@@ -5382,7 +5652,7 @@
       </c>
       <c r="AR33" s="27">
         <f>NPV(AR32,AC26:ID26)</f>
-        <v>3404389.332483226</v>
+        <v>3717482.8036258528</v>
       </c>
     </row>
     <row r="34" spans="2:44" s="3" customFormat="1">
@@ -5390,31 +5660,35 @@
         <v>49</v>
       </c>
       <c r="O34" s="3">
+        <f t="shared" si="204"/>
+        <v>-0.52572347266881025</v>
+      </c>
+      <c r="P34" s="3">
+        <f t="shared" si="204"/>
+        <v>-0.23588709677419351</v>
+      </c>
+      <c r="Q34" s="36">
+        <f t="shared" si="204"/>
+        <v>1.08</v>
+      </c>
+      <c r="R34" s="35">
         <f t="shared" si="205"/>
-        <v>-0.52572347266881025</v>
-      </c>
-      <c r="P34" s="3">
+        <v>1.0486725663716814</v>
+      </c>
+      <c r="S34" s="3">
         <f t="shared" si="205"/>
-        <v>-0.23588709677419351</v>
-      </c>
-      <c r="Q34" s="3">
+        <v>0.44745762711864412</v>
+      </c>
+      <c r="T34" s="3">
         <f t="shared" si="205"/>
-        <v>1.08</v>
-      </c>
-      <c r="R34" s="3">
+        <v>0.19788918205804751</v>
+      </c>
+      <c r="AA34" s="3">
         <f t="shared" si="206"/>
-        <v>1.0486725663716814</v>
-      </c>
-      <c r="S34" s="3">
+        <v>-0.26859308384651825</v>
+      </c>
+      <c r="AB34" s="3">
         <f t="shared" si="206"/>
-        <v>0.44745762711864412</v>
-      </c>
-      <c r="AA34" s="3">
-        <f t="shared" si="207"/>
-        <v>-0.26859308384651825</v>
-      </c>
-      <c r="AB34" s="3">
-        <f t="shared" si="207"/>
         <v>5.8290155440414715E-3</v>
       </c>
       <c r="AQ34" s="28" t="s">
@@ -5430,31 +5704,35 @@
         <v>50</v>
       </c>
       <c r="O35" s="3">
+        <f t="shared" si="204"/>
+        <v>1.1449275362318843</v>
+      </c>
+      <c r="P35" s="3">
+        <f t="shared" si="204"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="Q35" s="3">
+        <f t="shared" si="204"/>
+        <v>3.9840637450199168E-2</v>
+      </c>
+      <c r="R35" s="3">
         <f t="shared" si="205"/>
-        <v>1.1449275362318843</v>
-      </c>
-      <c r="P35" s="3">
+        <v>-4.4217687074829981E-2</v>
+      </c>
+      <c r="S35" s="3">
         <f t="shared" si="205"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="Q35" s="3">
+        <v>0.1114864864864864</v>
+      </c>
+      <c r="T35" s="3">
         <f t="shared" si="205"/>
-        <v>3.9840637450199168E-2</v>
-      </c>
-      <c r="R35" s="3">
+        <v>0.36758893280632421</v>
+      </c>
+      <c r="AA35" s="3">
         <f t="shared" si="206"/>
-        <v>-4.4217687074829981E-2</v>
-      </c>
-      <c r="S35" s="3">
+        <v>0.59540636042402828</v>
+      </c>
+      <c r="AB35" s="3">
         <f t="shared" si="206"/>
-        <v>0.1114864864864864</v>
-      </c>
-      <c r="AA35" s="3">
-        <f t="shared" si="207"/>
-        <v>0.59540636042402828</v>
-      </c>
-      <c r="AB35" s="3">
-        <f t="shared" si="207"/>
         <v>0.20819490586932443</v>
       </c>
       <c r="AQ35" s="28" t="s">
@@ -5462,7 +5740,7 @@
       </c>
       <c r="AR35" s="30">
         <f>SUM(AR33:AR34)</f>
-        <v>3426117.332483226</v>
+        <v>3739210.8036258528</v>
       </c>
     </row>
     <row r="36" spans="2:44" s="3" customFormat="1">
@@ -5470,31 +5748,35 @@
         <v>54</v>
       </c>
       <c r="O36" s="3">
+        <f t="shared" si="204"/>
+        <v>-0.51265822784810133</v>
+      </c>
+      <c r="P36" s="3">
+        <f t="shared" si="204"/>
+        <v>-0.52857142857142858</v>
+      </c>
+      <c r="Q36" s="3">
+        <f t="shared" si="204"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="3">
         <f t="shared" si="205"/>
-        <v>-0.51265822784810133</v>
-      </c>
-      <c r="P36" s="3">
+        <v>7.1428571428571397E-2</v>
+      </c>
+      <c r="S36" s="3">
         <f t="shared" si="205"/>
-        <v>-0.52857142857142858</v>
-      </c>
-      <c r="Q36" s="3">
+        <v>1.298701298701288E-2</v>
+      </c>
+      <c r="T36" s="3">
         <f t="shared" si="205"/>
-        <v>0</v>
-      </c>
-      <c r="R36" s="3">
+        <v>0.33333333333333326</v>
+      </c>
+      <c r="AA36" s="3">
         <f t="shared" si="206"/>
-        <v>7.1428571428571397E-2</v>
-      </c>
-      <c r="S36" s="3">
+        <v>-0.60843373493975905</v>
+      </c>
+      <c r="AB36" s="3">
         <f t="shared" si="206"/>
-        <v>1.298701298701288E-2</v>
-      </c>
-      <c r="AA36" s="3">
-        <f t="shared" si="207"/>
-        <v>-0.60843373493975905</v>
-      </c>
-      <c r="AB36" s="3">
-        <f t="shared" si="207"/>
         <v>-0.32747252747252742</v>
       </c>
       <c r="AQ36" s="26" t="s">
@@ -5502,7 +5784,7 @@
       </c>
       <c r="AR36" s="12">
         <f>+Main!K4</f>
-        <v>24600</v>
+        <v>24530</v>
       </c>
     </row>
     <row r="37" spans="2:44" s="3" customFormat="1">
@@ -5510,91 +5792,91 @@
         <v>35</v>
       </c>
       <c r="G37" s="3">
-        <f t="shared" ref="G37:V42" si="208">+IFERROR(G13/C13-1,0)</f>
+        <f t="shared" ref="G37:V42" si="207">+IFERROR(G13/C13-1,0)</f>
         <v>0</v>
       </c>
       <c r="H37" s="3">
+        <f t="shared" si="207"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="3">
+        <f t="shared" si="207"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="3">
+        <f t="shared" si="207"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="3">
+        <f t="shared" si="207"/>
+        <v>6.4039408866995107E-2</v>
+      </c>
+      <c r="L37" s="3">
+        <f t="shared" si="207"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="3">
+        <f t="shared" si="207"/>
+        <v>0.26735303885752248</v>
+      </c>
+      <c r="N37" s="3">
+        <f t="shared" si="207"/>
+        <v>4.4254062038404722</v>
+      </c>
+      <c r="O37" s="3">
+        <f t="shared" si="207"/>
+        <v>0.21459694989106759</v>
+      </c>
+      <c r="P37" s="3">
+        <f t="shared" si="207"/>
+        <v>1.6624008190427437</v>
+      </c>
+      <c r="Q37" s="3">
+        <f t="shared" si="207"/>
+        <v>2.8377882599580713</v>
+      </c>
+      <c r="R37" s="3">
+        <f t="shared" si="207"/>
+        <v>3.8728559760413832</v>
+      </c>
+      <c r="S37" s="3">
+        <f t="shared" si="207"/>
+        <v>4.0840807174887894</v>
+      </c>
+      <c r="T37" s="3">
+        <f t="shared" si="207"/>
+        <v>1.5423956931359353</v>
+      </c>
+      <c r="U37" s="3">
+        <f t="shared" si="207"/>
+        <v>0.98638443154660282</v>
+      </c>
+      <c r="V37" s="3">
+        <f t="shared" si="207"/>
+        <v>0.78789026706894627</v>
+      </c>
+      <c r="Z37" s="3">
+        <f t="shared" ref="Z37:AC38" si="208">+Z13/Y13-1</f>
+        <v>0.12324588163514338</v>
+      </c>
+      <c r="AA37" s="3">
         <f t="shared" si="208"/>
-        <v>0</v>
-      </c>
-      <c r="I37" s="3">
+        <v>0.36411370631902962</v>
+      </c>
+      <c r="AB37" s="3">
         <f t="shared" si="208"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="3">
+        <v>2.1460711441465357</v>
+      </c>
+      <c r="AC37" s="3">
         <f t="shared" si="208"/>
-        <v>0</v>
-      </c>
-      <c r="K37" s="3">
-        <f t="shared" si="208"/>
-        <v>6.4039408866995107E-2</v>
-      </c>
-      <c r="L37" s="3">
-        <f t="shared" si="208"/>
-        <v>0</v>
-      </c>
-      <c r="M37" s="3">
-        <f t="shared" si="208"/>
-        <v>0.26735303885752248</v>
-      </c>
-      <c r="N37" s="3">
-        <f t="shared" si="208"/>
-        <v>4.4254062038404722</v>
-      </c>
-      <c r="O37" s="3">
-        <f t="shared" si="208"/>
-        <v>0.21459694989106759</v>
-      </c>
-      <c r="P37" s="3">
-        <f t="shared" si="208"/>
-        <v>1.6624008190427437</v>
-      </c>
-      <c r="Q37" s="3">
-        <f t="shared" si="208"/>
-        <v>2.8377882599580713</v>
-      </c>
-      <c r="R37" s="3">
-        <f t="shared" si="208"/>
-        <v>3.8728559760413832</v>
-      </c>
-      <c r="S37" s="3">
-        <f t="shared" si="208"/>
-        <v>4.0840807174887894</v>
-      </c>
-      <c r="T37" s="3">
-        <f t="shared" si="208"/>
-        <v>1.3435854387016235</v>
-      </c>
-      <c r="U37" s="3">
-        <f t="shared" si="208"/>
-        <v>0.83105314487618442</v>
-      </c>
-      <c r="V37" s="3">
-        <f t="shared" si="208"/>
-        <v>0.64808082676181122</v>
-      </c>
-      <c r="Z37" s="3">
-        <f t="shared" ref="Z37:AC38" si="209">+Z13/Y13-1</f>
-        <v>0.12324588163514338</v>
-      </c>
-      <c r="AA37" s="3">
-        <f t="shared" si="209"/>
-        <v>0.36411370631902962</v>
-      </c>
-      <c r="AB37" s="3">
-        <f t="shared" si="209"/>
-        <v>2.1460711441465357</v>
-      </c>
-      <c r="AC37" s="3">
-        <f t="shared" si="209"/>
-        <v>1.1804893930486005</v>
+        <v>1.3248868262841476</v>
       </c>
       <c r="AQ37" s="26" t="s">
         <v>101</v>
       </c>
       <c r="AR37" s="31">
         <f>+AR35/AR36</f>
-        <v>139.27306229606609</v>
+        <v>152.43419501124552</v>
       </c>
     </row>
     <row r="38" spans="2:44" s="3" customFormat="1">
@@ -5602,91 +5884,91 @@
         <v>36</v>
       </c>
       <c r="G38" s="3">
+        <f t="shared" si="207"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="3">
+        <f t="shared" si="207"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="3">
+        <f t="shared" si="207"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="3">
+        <f t="shared" si="207"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="3">
+        <f t="shared" si="207"/>
+        <v>1.08868778280543</v>
+      </c>
+      <c r="L38" s="3">
+        <f t="shared" si="207"/>
+        <v>7.5769230769230811E-2</v>
+      </c>
+      <c r="M38" s="3">
+        <f t="shared" si="207"/>
+        <v>-0.48313782991202348</v>
+      </c>
+      <c r="N38" s="3">
+        <f t="shared" si="207"/>
+        <v>-0.65862761986792995</v>
+      </c>
+      <c r="O38" s="3">
+        <f t="shared" si="207"/>
+        <v>-0.40814558058925476</v>
+      </c>
+      <c r="P38" s="3">
+        <f t="shared" si="207"/>
+        <v>0.11011798355380775</v>
+      </c>
+      <c r="Q38" s="3">
+        <f t="shared" si="207"/>
+        <v>0.64302600472813243</v>
+      </c>
+      <c r="R38" s="3">
+        <f t="shared" si="207"/>
+        <v>0.76829268292682928</v>
+      </c>
+      <c r="S38" s="3">
+        <f t="shared" si="207"/>
+        <v>0.23316251830161061</v>
+      </c>
+      <c r="T38" s="3">
+        <f t="shared" si="207"/>
+        <v>0.15748792270531409</v>
+      </c>
+      <c r="U38" s="3">
+        <f t="shared" si="207"/>
+        <v>0.13766906474820151</v>
+      </c>
+      <c r="V38" s="3">
+        <f t="shared" si="207"/>
+        <v>3.4183115338882519E-2</v>
+      </c>
+      <c r="Z38" s="3">
         <f t="shared" si="208"/>
-        <v>0</v>
-      </c>
-      <c r="H38" s="3">
+        <v>1.3195439263265603</v>
+      </c>
+      <c r="AA38" s="3">
         <f t="shared" si="208"/>
-        <v>0</v>
-      </c>
-      <c r="I38" s="3">
+        <v>-0.24968490042853542</v>
+      </c>
+      <c r="AB38" s="3">
         <f t="shared" si="208"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="3">
+        <v>0.13530992776751227</v>
+      </c>
+      <c r="AC38" s="3">
         <f t="shared" si="208"/>
-        <v>0</v>
-      </c>
-      <c r="K38" s="3">
-        <f t="shared" si="208"/>
-        <v>1.08868778280543</v>
-      </c>
-      <c r="L38" s="3">
-        <f t="shared" si="208"/>
-        <v>7.5769230769230811E-2</v>
-      </c>
-      <c r="M38" s="3">
-        <f t="shared" si="208"/>
-        <v>-0.48313782991202348</v>
-      </c>
-      <c r="N38" s="3">
-        <f t="shared" si="208"/>
-        <v>-0.65862761986792995</v>
-      </c>
-      <c r="O38" s="3">
-        <f t="shared" si="208"/>
-        <v>-0.40814558058925476</v>
-      </c>
-      <c r="P38" s="3">
-        <f t="shared" si="208"/>
-        <v>0.11011798355380775</v>
-      </c>
-      <c r="Q38" s="3">
-        <f t="shared" si="208"/>
-        <v>0.64302600472813243</v>
-      </c>
-      <c r="R38" s="3">
-        <f t="shared" si="208"/>
-        <v>0.76829268292682928</v>
-      </c>
-      <c r="S38" s="3">
-        <f t="shared" si="208"/>
-        <v>0.23316251830161061</v>
-      </c>
-      <c r="T38" s="3">
-        <f t="shared" si="208"/>
-        <v>0.16651345140924656</v>
-      </c>
-      <c r="U38" s="3">
-        <f t="shared" si="208"/>
-        <v>0.14654005562252714</v>
-      </c>
-      <c r="V38" s="3">
-        <f t="shared" si="208"/>
-        <v>4.2247173036173757E-2</v>
-      </c>
-      <c r="Z38" s="3">
-        <f t="shared" si="209"/>
-        <v>1.3195439263265603</v>
-      </c>
-      <c r="AA38" s="3">
-        <f t="shared" si="209"/>
-        <v>-0.24968490042853542</v>
-      </c>
-      <c r="AB38" s="3">
-        <f t="shared" si="209"/>
-        <v>0.13530992776751227</v>
-      </c>
-      <c r="AC38" s="3">
-        <f t="shared" si="209"/>
-        <v>0.13619148646379386</v>
+        <v>0.12932899311977497</v>
       </c>
       <c r="AQ38" s="11" t="s">
         <v>93</v>
       </c>
       <c r="AR38" s="12">
         <f>+Main!K3</f>
-        <v>124.24</v>
+        <v>147.27000000000001</v>
       </c>
     </row>
     <row r="39" spans="2:44" s="20" customFormat="1">
@@ -5694,122 +5976,122 @@
         <v>20</v>
       </c>
       <c r="G39" s="20">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>0</v>
       </c>
       <c r="H39" s="20">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>0</v>
       </c>
       <c r="I39" s="20">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>0</v>
       </c>
       <c r="J39" s="20">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>0</v>
       </c>
       <c r="K39" s="20">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>0.46405228758169925</v>
       </c>
       <c r="L39" s="20">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>3.0275088366374714E-2</v>
       </c>
       <c r="M39" s="20">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>-0.16500070392791777</v>
       </c>
       <c r="N39" s="20">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>-0.20829517205285886</v>
       </c>
       <c r="O39" s="20">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>-0.13223938223938225</v>
       </c>
       <c r="P39" s="20">
-        <f t="shared" si="208"/>
+        <f>+IFERROR(P15/L15-1,0)</f>
         <v>1.0147673031026252</v>
       </c>
       <c r="Q39" s="20">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>2.0551340414769852</v>
       </c>
       <c r="R39" s="20">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>2.6527846636919516</v>
       </c>
       <c r="S39" s="20">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>2.6212458286985538</v>
       </c>
       <c r="T39" s="20">
-        <f t="shared" si="208"/>
-        <v>1.072999185607463</v>
+        <f t="shared" si="207"/>
+        <v>1.2240319834160065</v>
       </c>
       <c r="U39" s="20">
-        <f t="shared" si="208"/>
-        <v>0.69977924944812386</v>
+        <f t="shared" si="207"/>
+        <v>0.82362030905077255</v>
       </c>
       <c r="V39" s="20">
-        <f t="shared" si="208"/>
-        <v>0.5328235986065244</v>
+        <f t="shared" si="207"/>
+        <v>0.64450074650499944</v>
       </c>
       <c r="Y39" s="20">
-        <f t="shared" ref="Y39:Z42" si="210">+Y15/X15-1</f>
+        <f t="shared" ref="Y39:Z42" si="209">+Y15/X15-1</f>
         <v>0.52729437625938824</v>
       </c>
       <c r="Z39" s="20">
-        <f t="shared" si="210"/>
+        <f t="shared" si="209"/>
         <v>0.61403298350824587</v>
       </c>
       <c r="AA39" s="20">
         <v>0</v>
       </c>
       <c r="AB39" s="20">
-        <f t="shared" ref="AB39:AL39" si="211">+AB15/AA15-1</f>
+        <f t="shared" ref="AB39:AL39" si="210">+AB15/AA15-1</f>
         <v>1.2585452658115224</v>
       </c>
       <c r="AC39" s="20">
-        <f t="shared" si="211"/>
-        <v>0.9487869735071075</v>
+        <f t="shared" si="210"/>
+        <v>1.0596237812284559</v>
       </c>
       <c r="AD39" s="20">
-        <f t="shared" si="211"/>
+        <f t="shared" si="210"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="AE39" s="20">
-        <f t="shared" si="211"/>
+        <f t="shared" si="210"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AF39" s="20">
-        <f t="shared" si="211"/>
+        <f t="shared" si="210"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AG39" s="20">
-        <f t="shared" si="211"/>
+        <f t="shared" si="210"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AH39" s="20">
-        <f t="shared" si="211"/>
+        <f t="shared" si="210"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AI39" s="20">
-        <f t="shared" si="211"/>
+        <f t="shared" si="210"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AJ39" s="20">
-        <f t="shared" si="211"/>
+        <f t="shared" si="210"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AK39" s="20">
-        <f t="shared" si="211"/>
+        <f t="shared" si="210"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AL39" s="20">
-        <f t="shared" si="211"/>
+        <f t="shared" si="210"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AQ39" s="32" t="s">
@@ -5817,7 +6099,7 @@
       </c>
       <c r="AR39" s="33">
         <f>+AR37/AR38-1</f>
-        <v>0.12100017945964336</v>
+        <v>3.5066171054834783E-2</v>
       </c>
     </row>
     <row r="40" spans="2:44" s="3" customFormat="1">
@@ -5825,75 +6107,75 @@
         <v>21</v>
       </c>
       <c r="G40" s="3">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>0</v>
       </c>
       <c r="H40" s="3">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>0</v>
       </c>
       <c r="I40" s="3">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>0</v>
       </c>
       <c r="J40" s="3">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>0</v>
       </c>
       <c r="K40" s="3">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>0.40600393700787407</v>
       </c>
       <c r="L40" s="3">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>0.65314136125654443</v>
       </c>
       <c r="M40" s="3">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>0.11407766990291268</v>
       </c>
       <c r="N40" s="3">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>-0.16080211880438899</v>
       </c>
       <c r="O40" s="3">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>-0.10955547777388874</v>
       </c>
       <c r="P40" s="3">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>6.7564001055687495E-2</v>
       </c>
       <c r="Q40" s="3">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>0.71387073347857655</v>
       </c>
       <c r="R40" s="3">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>1.394950405770965</v>
       </c>
       <c r="S40" s="3">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>1.216194968553459</v>
       </c>
       <c r="T40" s="3">
-        <f t="shared" si="208"/>
-        <v>1.0729991856074625</v>
+        <f t="shared" si="207"/>
+        <v>0.84573547589616815</v>
       </c>
       <c r="U40" s="3">
-        <f t="shared" si="208"/>
-        <v>0.69977924944812386</v>
+        <f t="shared" si="207"/>
+        <v>0.82362030905077277</v>
       </c>
       <c r="V40" s="3">
-        <f t="shared" si="208"/>
-        <v>0.5328235986065244</v>
+        <f t="shared" si="207"/>
+        <v>0.64450074650499944</v>
       </c>
       <c r="Y40" s="3">
-        <f t="shared" si="210"/>
+        <f t="shared" si="209"/>
         <v>0.51301204819277113</v>
       </c>
       <c r="Z40" s="3">
-        <f t="shared" si="210"/>
+        <f t="shared" si="209"/>
         <v>0.5032648510909381</v>
       </c>
       <c r="AA40" s="3">
@@ -5901,47 +6183,47 @@
         <v>0.23085072571246945</v>
       </c>
       <c r="AB40" s="3">
-        <f t="shared" ref="AB40:AL40" si="212">+AB16/AA16-1</f>
+        <f t="shared" ref="AB40:AL40" si="211">+AB16/AA16-1</f>
         <v>0.43062489240833179</v>
       </c>
       <c r="AC40" s="3">
-        <f t="shared" si="212"/>
-        <v>0.81629256476597023</v>
+        <f t="shared" si="211"/>
+        <v>0.83184380146526715</v>
       </c>
       <c r="AD40" s="3">
-        <f t="shared" si="212"/>
-        <v>0.39999999999999969</v>
+        <f t="shared" si="211"/>
+        <v>0.39999999999999991</v>
       </c>
       <c r="AE40" s="3">
-        <f t="shared" si="212"/>
+        <f t="shared" si="211"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AF40" s="3">
-        <f t="shared" si="212"/>
+        <f t="shared" si="211"/>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="AG40" s="3">
+        <f t="shared" si="211"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AG40" s="3">
-        <f t="shared" si="212"/>
-        <v>0.20000000000000018</v>
-      </c>
       <c r="AH40" s="3">
-        <f t="shared" si="212"/>
+        <f t="shared" si="211"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AI40" s="3">
-        <f t="shared" si="212"/>
+        <f t="shared" si="211"/>
+        <v>0.19999999999999973</v>
+      </c>
+      <c r="AJ40" s="3">
+        <f t="shared" si="211"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AJ40" s="3">
-        <f t="shared" si="212"/>
-        <v>0.20000000000000018</v>
-      </c>
       <c r="AK40" s="3">
-        <f t="shared" si="212"/>
-        <v>0.19999999999999996</v>
+        <f t="shared" si="211"/>
+        <v>0.19999999999999973</v>
       </c>
       <c r="AL40" s="3">
-        <f t="shared" si="212"/>
+        <f t="shared" si="211"/>
         <v>0.19999999999999996</v>
       </c>
     </row>
@@ -5950,75 +6232,75 @@
         <v>22</v>
       </c>
       <c r="G41" s="3">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>0.40329575021682573</v>
       </c>
       <c r="L41" s="3">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>0.46506024096385534</v>
       </c>
       <c r="M41" s="3">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>0.38631503920171073</v>
       </c>
       <c r="N41" s="3">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>0.3306066802999319</v>
       </c>
       <c r="O41" s="3">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>0.15883807169344877</v>
       </c>
       <c r="P41" s="3">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>0.11842105263157898</v>
       </c>
       <c r="Q41" s="3">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>0.17943444730077118</v>
       </c>
       <c r="R41" s="3">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>0.26331967213114749</v>
       </c>
       <c r="S41" s="3">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>0.45066666666666677</v>
       </c>
       <c r="T41" s="3">
-        <f t="shared" si="208"/>
-        <v>0.47058823529411775</v>
+        <f t="shared" si="207"/>
+        <v>0.51470588235294112</v>
       </c>
       <c r="U41" s="3">
-        <f t="shared" si="208"/>
-        <v>0.69977924944812386</v>
+        <f t="shared" si="207"/>
+        <v>0.82362030905077277</v>
       </c>
       <c r="V41" s="3">
-        <f t="shared" si="208"/>
-        <v>0.5328235986065244</v>
+        <f t="shared" si="207"/>
+        <v>0.64450074650499944</v>
       </c>
       <c r="Y41" s="3">
-        <f t="shared" si="210"/>
+        <f t="shared" si="209"/>
         <v>0.38706256627783664</v>
       </c>
       <c r="Z41" s="3">
-        <f t="shared" si="210"/>
+        <f t="shared" si="209"/>
         <v>0.34250764525993893</v>
       </c>
       <c r="AA41" s="3">
@@ -6026,47 +6308,47 @@
         <v>0.39312832194381175</v>
       </c>
       <c r="AB41" s="3">
-        <f t="shared" ref="AB41:AL41" si="213">+AB17/AA17-1</f>
+        <f t="shared" ref="AB41:AL41" si="212">+AB17/AA17-1</f>
         <v>0.18204115002043886</v>
       </c>
       <c r="AC41" s="3">
-        <f t="shared" si="213"/>
-        <v>0.54458058701990586</v>
+        <f t="shared" si="212"/>
+        <v>0.61944943283502019</v>
       </c>
       <c r="AD41" s="3">
-        <f t="shared" si="213"/>
-        <v>0.39999999999999969</v>
+        <f t="shared" si="212"/>
+        <v>0.39999999999999991</v>
       </c>
       <c r="AE41" s="3">
-        <f t="shared" si="213"/>
-        <v>0.30000000000000004</v>
+        <f t="shared" si="212"/>
+        <v>0.30000000000000027</v>
       </c>
       <c r="AF41" s="3">
-        <f t="shared" si="213"/>
+        <f t="shared" si="212"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AG41" s="3">
+        <f t="shared" si="212"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AH41" s="3">
+        <f t="shared" si="212"/>
         <v>0.20000000000000018</v>
       </c>
-      <c r="AG41" s="3">
-        <f t="shared" si="213"/>
+      <c r="AI41" s="3">
+        <f t="shared" si="212"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AH41" s="3">
-        <f t="shared" si="213"/>
+      <c r="AJ41" s="3">
+        <f t="shared" si="212"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AI41" s="3">
-        <f t="shared" si="213"/>
-        <v>0.19999999999999973</v>
-      </c>
-      <c r="AJ41" s="3">
-        <f t="shared" si="213"/>
-        <v>0.19999999999999996</v>
-      </c>
       <c r="AK41" s="3">
-        <f t="shared" si="213"/>
+        <f t="shared" si="212"/>
         <v>0.20000000000000018</v>
       </c>
       <c r="AL41" s="3">
-        <f t="shared" si="213"/>
+        <f t="shared" si="212"/>
         <v>0.19999999999999996</v>
       </c>
     </row>
@@ -6075,75 +6357,75 @@
         <v>23</v>
       </c>
       <c r="G42" s="3">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>0</v>
       </c>
       <c r="H42" s="3">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>0</v>
       </c>
       <c r="I42" s="3">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>0</v>
       </c>
       <c r="J42" s="3">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>0</v>
       </c>
       <c r="K42" s="3">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>0.13846153846153841</v>
       </c>
       <c r="L42" s="3">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>0.12547528517110274</v>
       </c>
       <c r="M42" s="3">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>0.1328545780969479</v>
       </c>
       <c r="N42" s="3">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>0.11012433392539966</v>
       </c>
       <c r="O42" s="3">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>6.9256756756756799E-2</v>
       </c>
       <c r="P42" s="3">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>5.0675675675675658E-2</v>
       </c>
       <c r="Q42" s="3">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>9.191759112519815E-2</v>
       </c>
       <c r="R42" s="3">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>0.1359999999999999</v>
       </c>
       <c r="S42" s="3">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>0.22748815165876768</v>
       </c>
       <c r="T42" s="3">
-        <f t="shared" si="208"/>
-        <v>0.60771704180064301</v>
+        <f t="shared" si="207"/>
+        <v>0.3536977491961415</v>
       </c>
       <c r="U42" s="3">
-        <f t="shared" si="208"/>
-        <v>0.69977924944812409</v>
+        <f t="shared" si="207"/>
+        <v>0.82362030905077277</v>
       </c>
       <c r="V42" s="3">
-        <f t="shared" si="208"/>
-        <v>0.5328235986065244</v>
+        <f t="shared" si="207"/>
+        <v>0.64450074650499922</v>
       </c>
       <c r="Y42" s="3">
-        <f t="shared" si="210"/>
+        <f t="shared" si="209"/>
         <v>0.77493138151875574</v>
       </c>
       <c r="Z42" s="3">
-        <f t="shared" si="210"/>
+        <f t="shared" si="209"/>
         <v>0.11649484536082477</v>
       </c>
       <c r="AA42" s="3">
@@ -6151,47 +6433,47 @@
         <v>0.12650046168051698</v>
       </c>
       <c r="AB42" s="3">
-        <f t="shared" ref="AB42:AL42" si="214">+AB18/AA18-1</f>
+        <f t="shared" ref="AB42:AL42" si="213">+AB18/AA18-1</f>
         <v>8.7704918032786905E-2</v>
       </c>
       <c r="AC42" s="3">
-        <f t="shared" si="214"/>
-        <v>0.52089399317271656</v>
+        <f t="shared" si="213"/>
+        <v>0.52338731083441292</v>
       </c>
       <c r="AD42" s="3">
-        <f t="shared" si="214"/>
-        <v>0.39999999999999969</v>
+        <f t="shared" si="213"/>
+        <v>0.40000000000000013</v>
       </c>
       <c r="AE42" s="3">
-        <f t="shared" si="214"/>
+        <f t="shared" si="213"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AF42" s="3">
-        <f t="shared" si="214"/>
+        <f t="shared" si="213"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AG42" s="3">
-        <f t="shared" si="214"/>
+        <f t="shared" si="213"/>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="AH42" s="3">
+        <f t="shared" si="213"/>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="AI42" s="3">
+        <f t="shared" si="213"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AH42" s="3">
-        <f t="shared" si="214"/>
+      <c r="AJ42" s="3">
+        <f t="shared" si="213"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AI42" s="3">
-        <f t="shared" si="214"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="AJ42" s="3">
-        <f t="shared" si="214"/>
-        <v>0.19999999999999996</v>
-      </c>
       <c r="AK42" s="3">
-        <f t="shared" si="214"/>
-        <v>0.19999999999999996</v>
+        <f t="shared" si="213"/>
+        <v>0.20000000000000018</v>
       </c>
       <c r="AL42" s="3">
-        <f t="shared" si="214"/>
+        <f t="shared" si="213"/>
         <v>0.19999999999999996</v>
       </c>
     </row>
@@ -6201,122 +6483,122 @@
       </c>
       <c r="AR43" s="22">
         <f>+Main!$K$8/Model!AC26</f>
-        <v>49.882723377203874</v>
+        <v>53.798346087644411</v>
       </c>
     </row>
     <row r="44" spans="2:44" s="3" customFormat="1">
       <c r="Z44" s="3">
-        <f t="shared" ref="Z44:AL44" si="215">+Z16/Z$15</f>
+        <f t="shared" ref="Z44:AL44" si="214">+Z16/Z$15</f>
         <v>0.35070966783086871</v>
       </c>
       <c r="AA44" s="3">
-        <f t="shared" si="215"/>
+        <f t="shared" si="214"/>
         <v>0.43071105509008673</v>
       </c>
       <c r="AB44" s="3">
-        <f t="shared" si="215"/>
+        <f t="shared" si="214"/>
         <v>0.27282426709563046</v>
       </c>
       <c r="AC44" s="3">
-        <f t="shared" si="215"/>
-        <v>0.2542754516270947</v>
+        <f t="shared" si="214"/>
+        <v>0.2426518120073114</v>
       </c>
       <c r="AD44" s="3">
-        <f t="shared" si="215"/>
-        <v>0.2542754516270947</v>
+        <f t="shared" si="214"/>
+        <v>0.24265181200731137</v>
       </c>
       <c r="AE44" s="3">
-        <f t="shared" si="215"/>
-        <v>0.2542754516270947</v>
+        <f t="shared" si="214"/>
+        <v>0.24265181200731137</v>
       </c>
       <c r="AF44" s="3">
-        <f t="shared" si="215"/>
-        <v>0.2542754516270947</v>
+        <f t="shared" si="214"/>
+        <v>0.2426518120073114</v>
       </c>
       <c r="AG44" s="3">
-        <f t="shared" si="215"/>
-        <v>0.2542754516270947</v>
+        <f t="shared" si="214"/>
+        <v>0.24265181200731137</v>
       </c>
       <c r="AH44" s="3">
-        <f t="shared" si="215"/>
-        <v>0.2542754516270947</v>
+        <f t="shared" si="214"/>
+        <v>0.24265181200731134</v>
       </c>
       <c r="AI44" s="3">
-        <f t="shared" si="215"/>
-        <v>0.2542754516270947</v>
+        <f t="shared" si="214"/>
+        <v>0.24265181200731134</v>
       </c>
       <c r="AJ44" s="3">
-        <f t="shared" si="215"/>
-        <v>0.2542754516270947</v>
+        <f t="shared" si="214"/>
+        <v>0.24265181200731131</v>
       </c>
       <c r="AK44" s="3">
-        <f t="shared" si="215"/>
-        <v>0.2542754516270947</v>
+        <f t="shared" si="214"/>
+        <v>0.24265181200731128</v>
       </c>
       <c r="AL44" s="3">
-        <f t="shared" si="215"/>
-        <v>0.2542754516270947</v>
+        <f t="shared" si="214"/>
+        <v>0.24265181200731131</v>
       </c>
       <c r="AQ44" s="1" t="s">
         <v>117</v>
       </c>
       <c r="AR44" s="22">
         <f>+Main!$K$8/Model!AD26</f>
-        <v>36.321738275400271</v>
+        <v>39.248189532536671</v>
       </c>
     </row>
     <row r="45" spans="2:44" s="3" customFormat="1">
       <c r="Z45" s="3">
-        <f t="shared" ref="Z45:AL45" si="216">+Z17/Z$15</f>
+        <f t="shared" ref="Z45:AL45" si="215">+Z17/Z$15</f>
         <v>0.19573456193802483</v>
       </c>
       <c r="AA45" s="3">
-        <f t="shared" si="216"/>
+        <f t="shared" si="215"/>
         <v>0.27207681471046191</v>
       </c>
       <c r="AB45" s="3">
-        <f t="shared" si="216"/>
+        <f t="shared" si="215"/>
         <v>0.14239519385443683</v>
       </c>
       <c r="AC45" s="3">
-        <f t="shared" si="216"/>
-        <v>0.11286038705230352</v>
+        <f t="shared" si="215"/>
+        <v>0.11196307695984106</v>
       </c>
       <c r="AD45" s="3">
-        <f t="shared" si="216"/>
-        <v>0.11286038705230352</v>
+        <f t="shared" si="215"/>
+        <v>0.11196307695984106</v>
       </c>
       <c r="AE45" s="3">
-        <f t="shared" si="216"/>
-        <v>0.11286038705230352</v>
+        <f t="shared" si="215"/>
+        <v>0.11196307695984106</v>
       </c>
       <c r="AF45" s="3">
-        <f t="shared" si="216"/>
-        <v>0.11286038705230352</v>
+        <f t="shared" si="215"/>
+        <v>0.11196307695984106</v>
       </c>
       <c r="AG45" s="3">
-        <f t="shared" si="216"/>
-        <v>0.11286038705230353</v>
+        <f t="shared" si="215"/>
+        <v>0.11196307695984105</v>
       </c>
       <c r="AH45" s="3">
-        <f t="shared" si="216"/>
-        <v>0.11286038705230352</v>
+        <f t="shared" si="215"/>
+        <v>0.11196307695984106</v>
       </c>
       <c r="AI45" s="3">
-        <f t="shared" si="216"/>
-        <v>0.11286038705230352</v>
+        <f t="shared" si="215"/>
+        <v>0.11196307695984106</v>
       </c>
       <c r="AJ45" s="3">
-        <f t="shared" si="216"/>
-        <v>0.11286038705230352</v>
+        <f t="shared" si="215"/>
+        <v>0.11196307695984106</v>
       </c>
       <c r="AK45" s="3">
-        <f t="shared" si="216"/>
-        <v>0.11286038705230353</v>
+        <f t="shared" si="215"/>
+        <v>0.11196307695984106</v>
       </c>
       <c r="AL45" s="3">
-        <f t="shared" si="216"/>
-        <v>0.11286038705230353</v>
+        <f t="shared" si="215"/>
+        <v>0.11196307695984106</v>
       </c>
       <c r="AQ45" s="1" t="s">
         <v>118</v>
@@ -6327,56 +6609,56 @@
     </row>
     <row r="46" spans="2:44" s="3" customFormat="1">
       <c r="Z46" s="3">
-        <f t="shared" ref="Z46:AL46" si="217">+Z18/Z$15</f>
+        <f t="shared" ref="Z46:AL46" si="216">+Z18/Z$15</f>
         <v>8.0478561343538674E-2</v>
       </c>
       <c r="AA46" s="3">
-        <f t="shared" si="217"/>
+        <f t="shared" si="216"/>
         <v>9.0457477570994288E-2</v>
       </c>
       <c r="AB46" s="3">
-        <f t="shared" si="217"/>
+        <f t="shared" si="216"/>
         <v>4.3563901382095135E-2</v>
       </c>
       <c r="AC46" s="3">
-        <f t="shared" si="217"/>
-        <v>3.3998624186182991E-2</v>
+        <f t="shared" si="216"/>
+        <v>3.2221755827825251E-2</v>
       </c>
       <c r="AD46" s="3">
-        <f t="shared" si="217"/>
-        <v>3.3998624186182991E-2</v>
+        <f t="shared" si="216"/>
+        <v>3.2221755827825251E-2</v>
       </c>
       <c r="AE46" s="3">
-        <f t="shared" si="217"/>
-        <v>3.3998624186182991E-2</v>
+        <f t="shared" si="216"/>
+        <v>3.2221755827825251E-2</v>
       </c>
       <c r="AF46" s="3">
-        <f t="shared" si="217"/>
-        <v>3.3998624186182991E-2</v>
+        <f t="shared" si="216"/>
+        <v>3.2221755827825251E-2</v>
       </c>
       <c r="AG46" s="3">
-        <f t="shared" si="217"/>
-        <v>3.3998624186182991E-2</v>
+        <f t="shared" si="216"/>
+        <v>3.2221755827825251E-2</v>
       </c>
       <c r="AH46" s="3">
-        <f t="shared" si="217"/>
-        <v>3.3998624186182991E-2</v>
+        <f t="shared" si="216"/>
+        <v>3.2221755827825251E-2</v>
       </c>
       <c r="AI46" s="3">
-        <f t="shared" si="217"/>
-        <v>3.3998624186182991E-2</v>
+        <f t="shared" si="216"/>
+        <v>3.2221755827825251E-2</v>
       </c>
       <c r="AJ46" s="3">
-        <f t="shared" si="217"/>
-        <v>3.3998624186182991E-2</v>
+        <f t="shared" si="216"/>
+        <v>3.2221755827825251E-2</v>
       </c>
       <c r="AK46" s="3">
-        <f t="shared" si="217"/>
-        <v>3.3998624186182991E-2</v>
+        <f t="shared" si="216"/>
+        <v>3.2221755827825251E-2</v>
       </c>
       <c r="AL46" s="3">
-        <f t="shared" si="217"/>
-        <v>3.3998624186182991E-2</v>
+        <f t="shared" si="216"/>
+        <v>3.2221755827825251E-2</v>
       </c>
     </row>
     <row r="49" spans="2:38" s="4" customFormat="1">
@@ -6384,47 +6666,47 @@
         <v>84</v>
       </c>
       <c r="F49" s="4">
-        <f t="shared" ref="F49:P49" si="218">SUM(F50:F51)-SUM(F66,F68)</f>
+        <f t="shared" ref="F49:P49" si="217">SUM(F50:F51)-SUM(F66,F68)</f>
         <v>0</v>
       </c>
       <c r="G49" s="4">
-        <f t="shared" si="218"/>
+        <f t="shared" si="217"/>
         <v>0</v>
       </c>
       <c r="H49" s="4">
-        <f t="shared" si="218"/>
+        <f t="shared" si="217"/>
         <v>0</v>
       </c>
       <c r="I49" s="4">
-        <f t="shared" si="218"/>
+        <f t="shared" si="217"/>
         <v>0</v>
       </c>
       <c r="J49" s="4">
-        <f t="shared" si="218"/>
+        <f t="shared" si="217"/>
         <v>0</v>
       </c>
       <c r="K49" s="4">
-        <f t="shared" si="218"/>
+        <f t="shared" si="217"/>
         <v>0</v>
       </c>
       <c r="L49" s="4">
-        <f t="shared" si="218"/>
+        <f t="shared" si="217"/>
         <v>6088</v>
       </c>
       <c r="M49" s="4">
-        <f t="shared" si="218"/>
+        <f t="shared" si="217"/>
         <v>2193</v>
       </c>
       <c r="N49" s="4">
-        <f t="shared" si="218"/>
+        <f t="shared" si="217"/>
         <v>2343</v>
       </c>
       <c r="O49" s="4">
-        <f t="shared" si="218"/>
+        <f t="shared" si="217"/>
         <v>4366</v>
       </c>
       <c r="P49" s="4">
-        <f t="shared" si="218"/>
+        <f t="shared" si="217"/>
         <v>6318</v>
       </c>
       <c r="Q49" s="4">
@@ -6439,6 +6721,10 @@
         <f>SUM(S50:S51)-SUM(S66,S68)</f>
         <v>21728</v>
       </c>
+      <c r="T49" s="4">
+        <f>SUM(T50:T51)-SUM(T66,T68)</f>
+        <v>26339</v>
+      </c>
       <c r="AB49" s="4">
         <f>+S49</f>
         <v>21728</v>
@@ -6448,39 +6734,39 @@
         <v>22162.560000000001</v>
       </c>
       <c r="AD49" s="4">
-        <f t="shared" ref="AD49:AL49" si="219">+AC49*1.02</f>
+        <f t="shared" ref="AD49:AL49" si="218">+AC49*1.02</f>
         <v>22605.8112</v>
       </c>
       <c r="AE49" s="4">
-        <f t="shared" si="219"/>
+        <f t="shared" si="218"/>
         <v>23057.927424000001</v>
       </c>
       <c r="AF49" s="4">
-        <f t="shared" si="219"/>
+        <f t="shared" si="218"/>
         <v>23519.085972480003</v>
       </c>
       <c r="AG49" s="4">
-        <f t="shared" si="219"/>
+        <f t="shared" si="218"/>
         <v>23989.467691929603</v>
       </c>
       <c r="AH49" s="4">
-        <f t="shared" si="219"/>
+        <f t="shared" si="218"/>
         <v>24469.257045768198</v>
       </c>
       <c r="AI49" s="4">
-        <f t="shared" si="219"/>
+        <f t="shared" si="218"/>
         <v>24958.642186683563</v>
       </c>
       <c r="AJ49" s="4">
-        <f t="shared" si="219"/>
+        <f t="shared" si="218"/>
         <v>25457.815030417234</v>
       </c>
       <c r="AK49" s="4">
-        <f t="shared" si="219"/>
+        <f t="shared" si="218"/>
         <v>25966.971331025579</v>
       </c>
       <c r="AL49" s="4">
-        <f t="shared" si="219"/>
+        <f t="shared" si="218"/>
         <v>26486.31075764609</v>
       </c>
     </row>
@@ -6512,6 +6798,9 @@
       <c r="S50" s="1">
         <v>7587</v>
       </c>
+      <c r="T50" s="1">
+        <v>8563</v>
+      </c>
     </row>
     <row r="51" spans="2:38">
       <c r="B51" s="1" t="s">
@@ -6541,6 +6830,9 @@
       <c r="S51" s="1">
         <v>23851</v>
       </c>
+      <c r="T51" s="1">
+        <v>26237</v>
+      </c>
     </row>
     <row r="52" spans="2:38">
       <c r="B52" s="1" t="s">
@@ -6570,6 +6862,9 @@
       <c r="S52" s="1">
         <v>12365</v>
       </c>
+      <c r="T52" s="1">
+        <v>14132</v>
+      </c>
     </row>
     <row r="53" spans="2:38">
       <c r="B53" s="1" t="s">
@@ -6599,6 +6894,9 @@
       <c r="S53" s="1">
         <v>5864</v>
       </c>
+      <c r="T53" s="1">
+        <v>6675</v>
+      </c>
     </row>
     <row r="54" spans="2:38">
       <c r="B54" s="1" t="s">
@@ -6628,42 +6926,49 @@
       <c r="S54" s="1">
         <v>4062</v>
       </c>
+      <c r="T54" s="1">
+        <v>4026</v>
+      </c>
     </row>
     <row r="55" spans="2:38">
       <c r="B55" s="1" t="s">
         <v>68</v>
       </c>
       <c r="L55" s="1">
-        <f t="shared" ref="L55:S55" si="220">+SUM(L50:L54)</f>
+        <f t="shared" ref="L55:S55" si="219">+SUM(L50:L54)</f>
         <v>27418</v>
       </c>
       <c r="M55" s="1">
-        <f t="shared" si="220"/>
+        <f t="shared" si="219"/>
         <v>23223</v>
       </c>
       <c r="N55" s="1">
-        <f t="shared" si="220"/>
+        <f t="shared" si="219"/>
         <v>23073</v>
       </c>
       <c r="O55" s="1">
-        <f t="shared" si="220"/>
+        <f t="shared" si="219"/>
         <v>24883</v>
       </c>
       <c r="P55" s="1">
-        <f t="shared" si="220"/>
+        <f t="shared" si="219"/>
         <v>28797</v>
       </c>
       <c r="Q55" s="1">
-        <f t="shared" si="220"/>
+        <f t="shared" si="219"/>
         <v>32658</v>
       </c>
       <c r="R55" s="1">
-        <f t="shared" si="220"/>
+        <f t="shared" si="219"/>
         <v>44345</v>
       </c>
       <c r="S55" s="1">
-        <f t="shared" si="220"/>
+        <f t="shared" si="219"/>
         <v>53729</v>
+      </c>
+      <c r="T55" s="1">
+        <f t="shared" ref="T55" si="220">+SUM(T50:T54)</f>
+        <v>59633</v>
       </c>
     </row>
     <row r="56" spans="2:38">
@@ -6694,6 +6999,9 @@
       <c r="S56" s="1">
         <v>4006</v>
       </c>
+      <c r="T56" s="1">
+        <v>4885</v>
+      </c>
     </row>
     <row r="57" spans="2:38">
       <c r="B57" s="1" t="s">
@@ -6723,6 +7031,9 @@
       <c r="S57" s="1">
         <v>1532</v>
       </c>
+      <c r="T57" s="1">
+        <v>1556</v>
+      </c>
     </row>
     <row r="58" spans="2:38">
       <c r="B58" s="1" t="s">
@@ -6752,6 +7063,9 @@
       <c r="S58" s="1">
         <v>4453</v>
       </c>
+      <c r="T58" s="1">
+        <v>4622</v>
+      </c>
     </row>
     <row r="59" spans="2:38">
       <c r="B59" s="1" t="s">
@@ -6781,6 +7095,9 @@
       <c r="S59" s="1">
         <v>986</v>
       </c>
+      <c r="T59" s="1">
+        <v>952</v>
+      </c>
     </row>
     <row r="60" spans="2:38">
       <c r="B60" s="1" t="s">
@@ -6810,6 +7127,9 @@
       <c r="S60" s="1">
         <v>7798</v>
       </c>
+      <c r="T60" s="1">
+        <v>9578</v>
+      </c>
     </row>
     <row r="61" spans="2:38">
       <c r="B61" s="1" t="s">
@@ -6839,6 +7159,9 @@
       <c r="S61" s="1">
         <v>4568</v>
       </c>
+      <c r="T61" s="1">
+        <v>4001</v>
+      </c>
     </row>
     <row r="62" spans="2:38" s="4" customFormat="1">
       <c r="B62" s="4" t="s">
@@ -6876,6 +7199,10 @@
         <f t="shared" si="221"/>
         <v>77072</v>
       </c>
+      <c r="T62" s="4">
+        <f t="shared" ref="T62" si="222">+SUM(T55:T61)</f>
+        <v>85227</v>
+      </c>
     </row>
     <row r="64" spans="2:38">
       <c r="B64" s="1" t="s">
@@ -6905,8 +7232,11 @@
       <c r="S64" s="1">
         <v>2715</v>
       </c>
-    </row>
-    <row r="65" spans="2:19">
+      <c r="T64" s="1">
+        <v>3680</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20">
       <c r="B65" s="1" t="s">
         <v>78</v>
       </c>
@@ -6934,8 +7264,11 @@
       <c r="S65" s="1">
         <v>11258</v>
       </c>
-    </row>
-    <row r="66" spans="2:19">
+      <c r="T65" s="1">
+        <v>10289</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20">
       <c r="B66" s="1" t="s">
         <v>79</v>
       </c>
@@ -6963,45 +7296,52 @@
       <c r="S66" s="1">
         <v>1250</v>
       </c>
-    </row>
-    <row r="67" spans="2:19">
+      <c r="T66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20">
       <c r="B67" s="1" t="s">
         <v>80</v>
       </c>
       <c r="L67" s="1">
-        <f t="shared" ref="L67:S67" si="222">+SUM(L64:L66)</f>
+        <f t="shared" ref="L67:S67" si="223">+SUM(L64:L66)</f>
         <v>7573</v>
       </c>
       <c r="M67" s="1">
-        <f t="shared" si="222"/>
+        <f t="shared" si="223"/>
         <v>6855</v>
       </c>
       <c r="N67" s="1">
-        <f t="shared" si="222"/>
+        <f t="shared" si="223"/>
         <v>6563</v>
       </c>
       <c r="O67" s="1">
-        <f t="shared" si="222"/>
+        <f t="shared" si="223"/>
         <v>7260</v>
       </c>
       <c r="P67" s="1">
-        <f t="shared" si="222"/>
+        <f t="shared" si="223"/>
         <v>10334</v>
       </c>
       <c r="Q67" s="1">
-        <f t="shared" si="222"/>
+        <f t="shared" si="223"/>
         <v>9101</v>
       </c>
       <c r="R67" s="1">
-        <f t="shared" si="222"/>
+        <f t="shared" si="223"/>
         <v>10631</v>
       </c>
       <c r="S67" s="1">
-        <f t="shared" si="222"/>
+        <f t="shared" si="223"/>
         <v>15223</v>
       </c>
-    </row>
-    <row r="68" spans="2:19">
+      <c r="T67" s="1">
+        <f t="shared" ref="T67" si="224">+SUM(T64:T66)</f>
+        <v>13969</v>
+      </c>
+    </row>
+    <row r="68" spans="2:20">
       <c r="B68" s="1" t="s">
         <v>81</v>
       </c>
@@ -7029,8 +7369,11 @@
       <c r="S68" s="1">
         <v>8460</v>
       </c>
-    </row>
-    <row r="69" spans="2:19">
+      <c r="T68" s="1">
+        <v>8461</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20">
       <c r="B69" s="1" t="s">
         <v>82</v>
       </c>
@@ -7058,8 +7401,11 @@
       <c r="S69" s="1">
         <v>1281</v>
       </c>
-    </row>
-    <row r="70" spans="2:19">
+      <c r="T69" s="1">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20">
       <c r="B70" s="1" t="s">
         <v>83</v>
       </c>
@@ -7087,45 +7433,52 @@
       <c r="S70" s="1">
         <v>2966</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" s="4" customFormat="1">
+      <c r="T70" s="1">
+        <v>3336</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" s="4" customFormat="1">
       <c r="B71" s="4" t="s">
         <v>76</v>
       </c>
       <c r="L71" s="4">
-        <f t="shared" ref="L71:S71" si="223">+SUM(L67:L70)</f>
+        <f t="shared" ref="L71:S71" si="225">+SUM(L67:L70)</f>
         <v>19625</v>
       </c>
       <c r="M71" s="4">
-        <f t="shared" si="223"/>
+        <f t="shared" si="225"/>
         <v>19139</v>
       </c>
       <c r="N71" s="4">
-        <f t="shared" si="223"/>
+        <f t="shared" si="225"/>
         <v>19081</v>
       </c>
       <c r="O71" s="4">
-        <f t="shared" si="223"/>
+        <f t="shared" si="225"/>
         <v>19940</v>
       </c>
       <c r="P71" s="4">
-        <f t="shared" si="223"/>
+        <f t="shared" si="225"/>
         <v>22054</v>
       </c>
       <c r="Q71" s="4">
-        <f t="shared" si="223"/>
+        <f t="shared" si="225"/>
         <v>20883</v>
       </c>
       <c r="R71" s="4">
-        <f t="shared" si="223"/>
+        <f t="shared" si="225"/>
         <v>22750</v>
       </c>
       <c r="S71" s="4">
-        <f t="shared" si="223"/>
+        <f t="shared" si="225"/>
         <v>27930</v>
       </c>
-    </row>
-    <row r="72" spans="2:19">
+      <c r="T71" s="4">
+        <f t="shared" ref="T71" si="226">+SUM(T67:T70)</f>
+        <v>27070</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20">
       <c r="B72" s="1" t="s">
         <v>103</v>
       </c>
@@ -7153,91 +7506,102 @@
       <c r="S72" s="1">
         <v>49142</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" s="4" customFormat="1">
+      <c r="T72" s="1">
+        <v>58157</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" s="4" customFormat="1">
       <c r="B73" s="4" t="s">
         <v>104</v>
       </c>
       <c r="L73" s="4">
-        <f t="shared" ref="L73:S73" si="224">+SUM(L71:L72)</f>
+        <f t="shared" ref="L73:S73" si="227">+SUM(L71:L72)</f>
         <v>43476</v>
       </c>
       <c r="M73" s="4">
-        <f t="shared" si="224"/>
+        <f t="shared" si="227"/>
         <v>40488</v>
       </c>
       <c r="N73" s="4">
-        <f t="shared" si="224"/>
+        <f t="shared" si="227"/>
         <v>41182</v>
       </c>
       <c r="O73" s="4">
-        <f t="shared" si="224"/>
+        <f t="shared" si="227"/>
         <v>44460</v>
       </c>
       <c r="P73" s="4">
-        <f t="shared" si="224"/>
+        <f t="shared" si="227"/>
         <v>49555</v>
       </c>
       <c r="Q73" s="4">
-        <f t="shared" si="224"/>
+        <f t="shared" si="227"/>
         <v>54148</v>
       </c>
       <c r="R73" s="4">
-        <f t="shared" si="224"/>
+        <f t="shared" si="227"/>
         <v>65728</v>
       </c>
       <c r="S73" s="4">
-        <f t="shared" si="224"/>
+        <f t="shared" si="227"/>
         <v>77072</v>
       </c>
-    </row>
-    <row r="74" spans="2:19">
+      <c r="T73" s="4">
+        <f t="shared" ref="T73" si="228">+SUM(T71:T72)</f>
+        <v>85227</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20">
       <c r="I74" s="4" t="str">
-        <f t="shared" ref="I74:R74" si="225">IF(I73=I62,"","DUQWDGWTDGWD")</f>
+        <f t="shared" ref="I74:R74" si="229">IF(I73=I62,"","DUQWDGWTDGWD")</f>
         <v/>
       </c>
       <c r="J74" s="4" t="str">
-        <f t="shared" si="225"/>
+        <f t="shared" si="229"/>
         <v/>
       </c>
       <c r="K74" s="4" t="str">
-        <f t="shared" si="225"/>
+        <f t="shared" si="229"/>
         <v/>
       </c>
       <c r="L74" s="4" t="str">
-        <f t="shared" si="225"/>
+        <f t="shared" si="229"/>
         <v/>
       </c>
       <c r="M74" s="4" t="str">
-        <f t="shared" si="225"/>
+        <f t="shared" si="229"/>
         <v/>
       </c>
       <c r="N74" s="4" t="str">
-        <f t="shared" si="225"/>
+        <f t="shared" si="229"/>
         <v/>
       </c>
       <c r="O74" s="4" t="str">
-        <f t="shared" si="225"/>
+        <f t="shared" si="229"/>
         <v/>
       </c>
       <c r="P74" s="4" t="str">
-        <f t="shared" si="225"/>
+        <f t="shared" si="229"/>
         <v/>
       </c>
       <c r="Q74" s="4" t="str">
-        <f t="shared" si="225"/>
+        <f t="shared" si="229"/>
         <v/>
       </c>
       <c r="R74" s="4" t="str">
-        <f t="shared" si="225"/>
+        <f t="shared" si="229"/>
         <v/>
       </c>
       <c r="S74" s="4" t="str">
         <f>IF(S73=S62,"","DUQWDGWTDGWD")</f>
         <v/>
       </c>
-    </row>
-    <row r="75" spans="2:19">
+      <c r="T74" s="4" t="str">
+        <f>IF(T73=T62,"","DUQWDGWTDGWD")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="2:20">
       <c r="B75" s="1" t="s">
         <v>105</v>
       </c>
@@ -7246,35 +7610,39 @@
         <v>17037</v>
       </c>
       <c r="M75" s="1">
-        <f t="shared" ref="M75:S75" si="226">+SUM(M50:M51)</f>
+        <f t="shared" ref="M75:S75" si="230">+SUM(M50:M51)</f>
         <v>13143</v>
       </c>
       <c r="N75" s="1">
-        <f t="shared" si="226"/>
+        <f t="shared" si="230"/>
         <v>13296</v>
       </c>
       <c r="O75" s="1">
-        <f t="shared" si="226"/>
+        <f t="shared" si="230"/>
         <v>15320</v>
       </c>
       <c r="P75" s="1">
-        <f t="shared" si="226"/>
+        <f t="shared" si="230"/>
         <v>16023</v>
       </c>
       <c r="Q75" s="1">
-        <f t="shared" si="226"/>
+        <f t="shared" si="230"/>
         <v>18281</v>
       </c>
       <c r="R75" s="1">
-        <f t="shared" si="226"/>
+        <f t="shared" si="230"/>
         <v>25984</v>
       </c>
       <c r="S75" s="1">
-        <f t="shared" si="226"/>
+        <f t="shared" si="230"/>
         <v>31438</v>
       </c>
-    </row>
-    <row r="76" spans="2:19">
+      <c r="T75" s="1">
+        <f t="shared" ref="T75" si="231">+SUM(T50:T51)</f>
+        <v>34800</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20">
       <c r="B76" s="1" t="s">
         <v>108</v>
       </c>
@@ -7283,35 +7651,39 @@
         <v>10949</v>
       </c>
       <c r="M76" s="1">
-        <f t="shared" ref="M76:S76" si="227">+M66+M68</f>
+        <f t="shared" ref="M76:S76" si="232">+M66+M68</f>
         <v>10950</v>
       </c>
       <c r="N76" s="1">
-        <f t="shared" si="227"/>
+        <f t="shared" si="232"/>
         <v>10953</v>
       </c>
       <c r="O76" s="1">
-        <f t="shared" si="227"/>
+        <f t="shared" si="232"/>
         <v>10954</v>
       </c>
       <c r="P76" s="1">
-        <f t="shared" si="227"/>
+        <f t="shared" si="232"/>
         <v>9705</v>
       </c>
       <c r="Q76" s="1">
-        <f t="shared" si="227"/>
+        <f t="shared" si="232"/>
         <v>9706</v>
       </c>
       <c r="R76" s="1">
-        <f t="shared" si="227"/>
+        <f t="shared" si="232"/>
         <v>9709</v>
       </c>
       <c r="S76" s="1">
-        <f t="shared" si="227"/>
+        <f t="shared" si="232"/>
         <v>9710</v>
       </c>
-    </row>
-    <row r="77" spans="2:19">
+      <c r="T76" s="1">
+        <f t="shared" ref="T76" si="233">+T66+T68</f>
+        <v>8461</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20">
       <c r="B77" s="1" t="s">
         <v>106</v>
       </c>
@@ -7320,35 +7692,39 @@
         <v>19845</v>
       </c>
       <c r="M77" s="1">
-        <f t="shared" ref="M77:S77" si="228">+M55-M67</f>
+        <f t="shared" ref="M77:S77" si="234">+M55-M67</f>
         <v>16368</v>
       </c>
       <c r="N77" s="1">
-        <f t="shared" si="228"/>
+        <f t="shared" si="234"/>
         <v>16510</v>
       </c>
       <c r="O77" s="1">
-        <f t="shared" si="228"/>
+        <f t="shared" si="234"/>
         <v>17623</v>
       </c>
       <c r="P77" s="1">
-        <f t="shared" si="228"/>
+        <f t="shared" si="234"/>
         <v>18463</v>
       </c>
       <c r="Q77" s="1">
-        <f t="shared" si="228"/>
+        <f t="shared" si="234"/>
         <v>23557</v>
       </c>
       <c r="R77" s="1">
-        <f t="shared" si="228"/>
+        <f t="shared" si="234"/>
         <v>33714</v>
       </c>
       <c r="S77" s="1">
-        <f t="shared" si="228"/>
+        <f t="shared" si="234"/>
         <v>38506</v>
       </c>
-    </row>
-    <row r="78" spans="2:19" s="22" customFormat="1">
+      <c r="T77" s="1">
+        <f t="shared" ref="T77" si="235">+T55-T67</f>
+        <v>45664</v>
+      </c>
+    </row>
+    <row r="78" spans="2:20" s="22" customFormat="1">
       <c r="B78" s="22" t="s">
         <v>107</v>
       </c>
@@ -7357,32 +7733,36 @@
         <v>3.6204938597649545</v>
       </c>
       <c r="M78" s="22">
-        <f t="shared" ref="M78:S78" si="229">+M55/M67</f>
+        <f t="shared" ref="M78:S78" si="236">+M55/M67</f>
         <v>3.3877461706783372</v>
       </c>
       <c r="N78" s="22">
-        <f t="shared" si="229"/>
+        <f t="shared" si="236"/>
         <v>3.5156178576870332</v>
       </c>
       <c r="O78" s="22">
-        <f t="shared" si="229"/>
+        <f t="shared" si="236"/>
         <v>3.4274104683195592</v>
       </c>
       <c r="P78" s="22">
-        <f t="shared" si="229"/>
+        <f t="shared" si="236"/>
         <v>2.7866266692471453</v>
       </c>
       <c r="Q78" s="22">
-        <f t="shared" si="229"/>
+        <f t="shared" si="236"/>
         <v>3.588396879463795</v>
       </c>
       <c r="R78" s="22">
-        <f t="shared" si="229"/>
+        <f t="shared" si="236"/>
         <v>4.1712915059730973</v>
       </c>
       <c r="S78" s="22">
-        <f t="shared" si="229"/>
+        <f t="shared" si="236"/>
         <v>3.5294619982920579</v>
+      </c>
+      <c r="T78" s="22">
+        <f t="shared" ref="T78" si="237">+T55/T67</f>
+        <v>4.2689526809363594</v>
       </c>
     </row>
     <row r="81" spans="2:21">
@@ -7413,6 +7793,10 @@
       <c r="S81" s="1">
         <v>15345</v>
       </c>
+      <c r="T81" s="1">
+        <f>29833-S81</f>
+        <v>14488</v>
+      </c>
     </row>
     <row r="82" spans="2:21">
       <c r="B82" s="1" t="s">
@@ -7442,42 +7826,50 @@
       <c r="S82" s="1">
         <v>-369</v>
       </c>
+      <c r="T82" s="1">
+        <f>+-1346-S82</f>
+        <v>-977</v>
+      </c>
     </row>
     <row r="83" spans="2:21" s="4" customFormat="1">
       <c r="B83" s="4" t="s">
         <v>113</v>
       </c>
       <c r="L83" s="4">
-        <f t="shared" ref="L83:S83" si="230">+SUM(L81:L82)</f>
+        <f t="shared" ref="L83:T83" si="238">+SUM(L81:L82)</f>
         <v>837</v>
       </c>
       <c r="M83" s="4">
-        <f t="shared" si="230"/>
+        <f t="shared" si="238"/>
         <v>-138</v>
       </c>
       <c r="N83" s="4">
-        <f t="shared" si="230"/>
+        <f t="shared" si="238"/>
         <v>2758</v>
       </c>
       <c r="O83" s="4">
-        <f t="shared" si="230"/>
+        <f t="shared" si="238"/>
         <v>2663</v>
       </c>
       <c r="P83" s="4">
-        <f t="shared" si="230"/>
+        <f t="shared" si="238"/>
         <v>6059</v>
       </c>
       <c r="Q83" s="4">
-        <f t="shared" si="230"/>
+        <f t="shared" si="238"/>
         <v>7055</v>
       </c>
       <c r="R83" s="4">
-        <f t="shared" si="230"/>
+        <f t="shared" si="238"/>
         <v>11246</v>
       </c>
       <c r="S83" s="4">
-        <f t="shared" si="230"/>
+        <f t="shared" si="238"/>
         <v>14976</v>
+      </c>
+      <c r="T83" s="4">
+        <f t="shared" si="238"/>
+        <v>13511</v>
       </c>
       <c r="U83" s="20"/>
     </row>
@@ -7486,36 +7878,40 @@
         <v>31</v>
       </c>
       <c r="L84" s="1">
-        <f t="shared" ref="L84:S84" si="231">+L26</f>
+        <f t="shared" ref="L84:T84" si="239">+L26</f>
         <v>656</v>
       </c>
       <c r="M84" s="1">
-        <f t="shared" si="231"/>
+        <f t="shared" si="239"/>
         <v>680</v>
       </c>
       <c r="N84" s="1">
-        <f t="shared" si="231"/>
+        <f t="shared" si="239"/>
         <v>1414</v>
       </c>
       <c r="O84" s="1">
-        <f t="shared" si="231"/>
+        <f t="shared" si="239"/>
         <v>2043</v>
       </c>
       <c r="P84" s="1">
-        <f t="shared" si="231"/>
+        <f t="shared" si="239"/>
         <v>6188</v>
       </c>
       <c r="Q84" s="1">
-        <f t="shared" si="231"/>
+        <f t="shared" si="239"/>
         <v>9243</v>
       </c>
       <c r="R84" s="1">
-        <f t="shared" si="231"/>
+        <f t="shared" si="239"/>
         <v>12286</v>
       </c>
       <c r="S84" s="1">
-        <f t="shared" si="231"/>
+        <f t="shared" si="239"/>
         <v>14881</v>
+      </c>
+      <c r="T84" s="1">
+        <f t="shared" si="239"/>
+        <v>16599</v>
       </c>
     </row>
     <row r="86" spans="2:21">
@@ -7523,55 +7919,63 @@
         <v>114</v>
       </c>
       <c r="O86" s="1">
-        <f t="shared" ref="O86:R86" si="232">SUM(L83:O83)</f>
+        <f t="shared" ref="O86:R86" si="240">SUM(L83:O83)</f>
         <v>6120</v>
       </c>
       <c r="P86" s="1">
-        <f t="shared" si="232"/>
+        <f t="shared" si="240"/>
         <v>11342</v>
       </c>
       <c r="Q86" s="1">
-        <f t="shared" si="232"/>
+        <f t="shared" si="240"/>
         <v>18535</v>
       </c>
       <c r="R86" s="1">
-        <f t="shared" si="232"/>
+        <f t="shared" si="240"/>
         <v>27023</v>
       </c>
       <c r="S86" s="1">
         <f>SUM(P83:S83)</f>
         <v>39336</v>
       </c>
+      <c r="T86" s="1">
+        <f>SUM(Q83:T83)</f>
+        <v>46788</v>
+      </c>
     </row>
     <row r="87" spans="2:21">
       <c r="B87" s="1" t="s">
         <v>115</v>
       </c>
       <c r="O87" s="1">
-        <f t="shared" ref="O87:R87" si="233">SUM(L84:O84)</f>
+        <f t="shared" ref="O87:R87" si="241">SUM(L84:O84)</f>
         <v>4793</v>
       </c>
       <c r="P87" s="1">
-        <f t="shared" si="233"/>
+        <f t="shared" si="241"/>
         <v>10325</v>
       </c>
       <c r="Q87" s="1">
-        <f t="shared" si="233"/>
+        <f t="shared" si="241"/>
         <v>18888</v>
       </c>
       <c r="R87" s="1">
-        <f t="shared" si="233"/>
+        <f t="shared" si="241"/>
         <v>29760</v>
       </c>
       <c r="S87" s="1">
         <f>SUM(P84:S84)</f>
         <v>42598</v>
       </c>
+      <c r="T87" s="1">
+        <f>SUM(Q84:T84)</f>
+        <v>53009</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="Q15:R19 N15:N28 J15:J28 Q21:R25 Q20 Q26 AB18:AL28 AB17 AD17:AL17" formula="1"/>
+    <ignoredError sqref="Q15:R19 N15:N28 J15:J28 Q21:Q25 Q20 Q26 AB18:AL28 AB17 AD17:AL17 R21:R25 R20 R26:R28" formula="1"/>
     <ignoredError sqref="Y15:Z15 R49:S49 L48:Q48 L49 M49:Q49 L75:S75" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
@@ -7580,6 +7984,42 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642DFFD4-A11B-9D4D-B655-6621FCD84A38}">
+  <dimension ref="B3:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="3" spans="2:3">
+      <c r="B3" s="17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A604EB49-CC5E-C04A-BF2A-896D1F75034D}">
   <dimension ref="B2:B6"/>
   <sheetViews>
